--- a/FOF/data/基金公司-板块-beta.xlsx
+++ b/FOF/data/基金公司-板块-beta.xlsx
@@ -16,157 +16,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>安信公司</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
     <t>银华</t>
   </si>
   <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>建信公司</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>长信公司</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
     <t>交银施罗德</t>
   </si>
   <si>
-    <t>民生加银</t>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>天弘</t>
   </si>
   <si>
     <t>富国</t>
   </si>
   <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>建信公司</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>安信公司</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>东方公司</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
   </si>
   <si>
     <t>华商</t>
   </si>
   <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>长信公司</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>东方公司</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
     <t>中小板综</t>
   </si>
   <si>
+    <t>创业板综</t>
+  </si>
+  <si>
     <t>中证1000</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>创业板综</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>上证50</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>1.492102836099492</v>
+        <v>1.126756289578591</v>
       </c>
       <c r="C2">
-        <v>1.203390633059295</v>
+        <v>1.039533518216526</v>
       </c>
       <c r="D2">
-        <v>1.052767222132733</v>
+        <v>0.9148786933989984</v>
       </c>
       <c r="E2">
-        <v>1.166011468636424</v>
+        <v>0.9346355151862041</v>
       </c>
       <c r="F2">
-        <v>1.450257789630139</v>
+        <v>0.794992689819403</v>
       </c>
       <c r="G2">
-        <v>1.336008701877578</v>
+        <v>0.9181840096376422</v>
       </c>
       <c r="H2">
-        <v>1.409901354044986</v>
+        <v>0.8766871681729845</v>
       </c>
       <c r="I2">
-        <v>1.25097085432958</v>
+        <v>1.012939497623653</v>
       </c>
       <c r="J2">
-        <v>1.367532235893332</v>
+        <v>0.9653662047949028</v>
       </c>
       <c r="K2">
-        <v>1.330845204834299</v>
+        <v>0.9118968011622358</v>
       </c>
       <c r="L2">
-        <v>1.451413211738669</v>
+        <v>0.8080858957466309</v>
       </c>
       <c r="M2">
-        <v>1.426238793092898</v>
+        <v>0.9472576593465444</v>
       </c>
       <c r="N2">
-        <v>1.304857425346415</v>
+        <v>0.8548320628858939</v>
       </c>
       <c r="O2">
-        <v>1.440219471320126</v>
+        <v>0.8538197788523757</v>
       </c>
       <c r="P2">
-        <v>0.9795618965423182</v>
+        <v>0.812895924286309</v>
       </c>
       <c r="Q2">
-        <v>1.577884457590433</v>
+        <v>0.7544642539828856</v>
       </c>
       <c r="R2">
-        <v>1.372429393740155</v>
+        <v>0.9336222228773026</v>
       </c>
       <c r="S2">
-        <v>1.359586635570425</v>
+        <v>0.9213847043551467</v>
       </c>
       <c r="T2">
-        <v>1.221212753409125</v>
+        <v>0.7406110408089891</v>
       </c>
       <c r="U2">
-        <v>1.024909785764546</v>
+        <v>0.9335498449171891</v>
       </c>
       <c r="V2">
-        <v>1.003547267153896</v>
+        <v>0.9221203842618357</v>
       </c>
       <c r="W2">
-        <v>1.542258553279934</v>
+        <v>0.8647117384996019</v>
       </c>
       <c r="X2">
-        <v>1.315072489018317</v>
+        <v>0.6973748721723481</v>
       </c>
       <c r="Y2">
-        <v>1.216510986523299</v>
+        <v>0.8423876494599559</v>
       </c>
       <c r="Z2">
-        <v>1.390784210577138</v>
+        <v>0.8869368935874624</v>
       </c>
       <c r="AA2">
-        <v>1.050169148632992</v>
+        <v>1.055735769004452</v>
       </c>
       <c r="AB2">
-        <v>1.157032372412016</v>
+        <v>0.7136360100286505</v>
       </c>
       <c r="AC2">
-        <v>1.097061222240739</v>
+        <v>0.7943741306042973</v>
       </c>
       <c r="AD2">
-        <v>1.126857250018394</v>
+        <v>0.9896812609284015</v>
       </c>
       <c r="AE2">
-        <v>1.404688658634038</v>
+        <v>0.6555143894616143</v>
       </c>
       <c r="AF2">
-        <v>1.22998358912022</v>
+        <v>0.6743518713041721</v>
       </c>
       <c r="AG2">
-        <v>1.464691939817872</v>
+        <v>0.8356045958692208</v>
       </c>
       <c r="AH2">
-        <v>1.262880656277603</v>
+        <v>0.8456439205042994</v>
       </c>
       <c r="AI2">
-        <v>0.8811454173521757</v>
+        <v>0.9787121890317632</v>
       </c>
       <c r="AJ2">
-        <v>1.219391326186201</v>
+        <v>0.990147681924164</v>
       </c>
       <c r="AK2">
-        <v>1.244450106697892</v>
+        <v>0.7317595142596786</v>
       </c>
       <c r="AL2">
-        <v>1.253014248561241</v>
+        <v>0.54042555471802</v>
       </c>
       <c r="AM2">
-        <v>1.161363516594357</v>
+        <v>0.6150594470603151</v>
       </c>
       <c r="AN2">
-        <v>1.179655898361459</v>
+        <v>0.7697846690833768</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>1.643330463342085</v>
+        <v>0.8947249965521894</v>
       </c>
       <c r="C3">
-        <v>1.315851246309268</v>
+        <v>0.8585362804018277</v>
       </c>
       <c r="D3">
-        <v>1.137525412456074</v>
+        <v>0.7210954368799366</v>
       </c>
       <c r="E3">
-        <v>1.273053947084878</v>
+        <v>0.8425455680780746</v>
       </c>
       <c r="F3">
-        <v>1.52325660708926</v>
+        <v>0.6640901942822276</v>
       </c>
       <c r="G3">
-        <v>1.444805378785885</v>
+        <v>0.7407028594091077</v>
       </c>
       <c r="H3">
-        <v>1.557477110115749</v>
+        <v>0.712294082886468</v>
       </c>
       <c r="I3">
-        <v>1.363506322707012</v>
+        <v>0.9001899280388008</v>
       </c>
       <c r="J3">
-        <v>1.421594528512908</v>
+        <v>0.7855746203217402</v>
       </c>
       <c r="K3">
-        <v>1.456841781271748</v>
+        <v>0.7301372579270859</v>
       </c>
       <c r="L3">
-        <v>1.594541262533997</v>
+        <v>0.7350619339441319</v>
       </c>
       <c r="M3">
-        <v>1.53945811470803</v>
+        <v>0.8010449074587029</v>
       </c>
       <c r="N3">
-        <v>1.395821092361991</v>
+        <v>0.7413285169792605</v>
       </c>
       <c r="O3">
-        <v>1.597659828463547</v>
+        <v>0.6509506868964724</v>
       </c>
       <c r="P3">
-        <v>1.120919905169413</v>
+        <v>0.7284352692616473</v>
       </c>
       <c r="Q3">
-        <v>1.781295951084042</v>
+        <v>0.6461926742013585</v>
       </c>
       <c r="R3">
-        <v>1.49874033660902</v>
+        <v>0.7486534069330308</v>
       </c>
       <c r="S3">
-        <v>1.515105466158326</v>
+        <v>0.7973763621273753</v>
       </c>
       <c r="T3">
-        <v>1.385515372435676</v>
+        <v>0.6083367212828977</v>
       </c>
       <c r="U3">
-        <v>1.103490257117067</v>
+        <v>0.7796384846640078</v>
       </c>
       <c r="V3">
-        <v>1.139036753172829</v>
+        <v>0.7136276258475062</v>
       </c>
       <c r="W3">
-        <v>1.661250732553483</v>
+        <v>0.6657521899479536</v>
       </c>
       <c r="X3">
-        <v>1.44820749729845</v>
+        <v>0.430592454637441</v>
       </c>
       <c r="Y3">
-        <v>1.339501836920929</v>
+        <v>0.6859127793136532</v>
       </c>
       <c r="Z3">
-        <v>1.517662590877788</v>
+        <v>0.776336319487319</v>
       </c>
       <c r="AA3">
-        <v>1.202690082580787</v>
+        <v>1.003049225587469</v>
       </c>
       <c r="AB3">
-        <v>1.298280535311653</v>
+        <v>0.4869439302739346</v>
       </c>
       <c r="AC3">
-        <v>1.207990223242807</v>
+        <v>0.6143417038295294</v>
       </c>
       <c r="AD3">
-        <v>1.25210259803071</v>
+        <v>0.797945044233823</v>
       </c>
       <c r="AE3">
-        <v>1.531515737036601</v>
+        <v>0.5084608464721745</v>
       </c>
       <c r="AF3">
-        <v>1.359725651668947</v>
+        <v>0.5455885110459358</v>
       </c>
       <c r="AG3">
-        <v>1.599312732364814</v>
+        <v>0.688711938290226</v>
       </c>
       <c r="AH3">
-        <v>1.380204982491756</v>
+        <v>0.7415074867460721</v>
       </c>
       <c r="AI3">
-        <v>0.9820759934020499</v>
+        <v>0.7899361795382096</v>
       </c>
       <c r="AJ3">
-        <v>1.348238971413081</v>
+        <v>0.8467481400551449</v>
       </c>
       <c r="AK3">
-        <v>1.386114197883773</v>
+        <v>0.5963414075531752</v>
       </c>
       <c r="AL3">
-        <v>1.296905039089873</v>
+        <v>0.4430442564817351</v>
       </c>
       <c r="AM3">
-        <v>1.28328436709086</v>
+        <v>0.4662443020048832</v>
       </c>
       <c r="AN3">
-        <v>1.181898373881975</v>
+        <v>0.6119357823271696</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>1.433391716618222</v>
+        <v>1.223984795251735</v>
       </c>
       <c r="C4">
-        <v>1.152878298999469</v>
+        <v>1.119986172346302</v>
       </c>
       <c r="D4">
-        <v>1.01179546662876</v>
+        <v>1.020439744650533</v>
       </c>
       <c r="E4">
-        <v>1.126869089477023</v>
+        <v>0.9674594843502131</v>
       </c>
       <c r="F4">
-        <v>1.387517002229769</v>
+        <v>0.8693352992937443</v>
       </c>
       <c r="G4">
-        <v>1.287101186928447</v>
+        <v>0.9941008450578799</v>
       </c>
       <c r="H4">
-        <v>1.364814520604571</v>
+        <v>0.9401666916522723</v>
       </c>
       <c r="I4">
-        <v>1.210507550013531</v>
+        <v>1.065989857499856</v>
       </c>
       <c r="J4">
-        <v>1.300641974856305</v>
+        <v>1.02722374309394</v>
       </c>
       <c r="K4">
-        <v>1.304284034547888</v>
+        <v>1.014296719538223</v>
       </c>
       <c r="L4">
-        <v>1.404575168205782</v>
+        <v>0.7901794793084111</v>
       </c>
       <c r="M4">
-        <v>1.373305067330501</v>
+        <v>0.9738762166195694</v>
       </c>
       <c r="N4">
-        <v>1.244003069547516</v>
+        <v>0.8636739708682419</v>
       </c>
       <c r="O4">
-        <v>1.399695969202691</v>
+        <v>0.9464380880166399</v>
       </c>
       <c r="P4">
-        <v>0.9507530385899986</v>
+        <v>0.8361600179651442</v>
       </c>
       <c r="Q4">
-        <v>1.515208861783197</v>
+        <v>0.7801207059308735</v>
       </c>
       <c r="R4">
-        <v>1.335057221943733</v>
+        <v>1.039937910162456</v>
       </c>
       <c r="S4">
-        <v>1.343701817318925</v>
+        <v>0.9923674368436127</v>
       </c>
       <c r="T4">
-        <v>1.200433959199984</v>
+        <v>0.8054667493657378</v>
       </c>
       <c r="U4">
-        <v>0.9748953849883346</v>
+        <v>1.01754120887148</v>
       </c>
       <c r="V4">
-        <v>0.9705549616507456</v>
+        <v>1.013660701680958</v>
       </c>
       <c r="W4">
-        <v>1.475265190936474</v>
+        <v>0.961362975172026</v>
       </c>
       <c r="X4">
-        <v>1.263470521898788</v>
+        <v>0.8494503447460112</v>
       </c>
       <c r="Y4">
-        <v>1.18764687359348</v>
+        <v>0.9492507747079015</v>
       </c>
       <c r="Z4">
-        <v>1.341504985263116</v>
+        <v>0.9617508696201756</v>
       </c>
       <c r="AA4">
-        <v>1.01883443372863</v>
+        <v>1.074765318727617</v>
       </c>
       <c r="AB4">
-        <v>1.122092813990747</v>
+        <v>0.8059205548217477</v>
       </c>
       <c r="AC4">
-        <v>1.07058012482814</v>
+        <v>0.9076550408728505</v>
       </c>
       <c r="AD4">
-        <v>1.085662369512624</v>
+        <v>1.092840081896604</v>
       </c>
       <c r="AE4">
-        <v>1.342013668627778</v>
+        <v>0.7373688238088933</v>
       </c>
       <c r="AF4">
-        <v>1.189092786917517</v>
+        <v>0.7443250560848346</v>
       </c>
       <c r="AG4">
-        <v>1.408678809668352</v>
+        <v>0.8920239816350382</v>
       </c>
       <c r="AH4">
-        <v>1.219738564962559</v>
+        <v>0.8996839265797295</v>
       </c>
       <c r="AI4">
-        <v>0.8402926405661796</v>
+        <v>1.088967081620915</v>
       </c>
       <c r="AJ4">
-        <v>1.181281621919123</v>
+        <v>1.057082511391076</v>
       </c>
       <c r="AK4">
-        <v>1.20849804097234</v>
+        <v>0.8277391293504992</v>
       </c>
       <c r="AL4">
-        <v>1.200940208892287</v>
+        <v>0.6019231350403788</v>
       </c>
       <c r="AM4">
-        <v>1.106119732595885</v>
+        <v>0.6885049742498035</v>
       </c>
       <c r="AN4">
-        <v>1.079937350320959</v>
+        <v>0.8538077490668012</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>1.331732617706926</v>
+        <v>1.268014862734744</v>
       </c>
       <c r="C5">
-        <v>1.071436906216295</v>
+        <v>1.168583757275519</v>
       </c>
       <c r="D5">
-        <v>0.933542131941827</v>
+        <v>1.087584781504402</v>
       </c>
       <c r="E5">
-        <v>1.035668187782515</v>
+        <v>0.9728201173688741</v>
       </c>
       <c r="F5">
-        <v>1.27910938523552</v>
+        <v>0.9268899955650636</v>
       </c>
       <c r="G5">
-        <v>1.185779408234849</v>
+        <v>1.020204444419114</v>
       </c>
       <c r="H5">
-        <v>1.260782160763487</v>
+        <v>0.9571680650478387</v>
       </c>
       <c r="I5">
-        <v>1.115862741013431</v>
+        <v>1.093932204985743</v>
       </c>
       <c r="J5">
-        <v>1.200391607375325</v>
+        <v>1.034717525788209</v>
       </c>
       <c r="K5">
-        <v>1.187924171891668</v>
+        <v>1.075562862943983</v>
       </c>
       <c r="L5">
-        <v>1.292521416246659</v>
+        <v>0.726250701186942</v>
       </c>
       <c r="M5">
-        <v>1.265818512419696</v>
+        <v>0.9474545544869296</v>
       </c>
       <c r="N5">
-        <v>1.155845015182859</v>
+        <v>0.825052314581937</v>
       </c>
       <c r="O5">
-        <v>1.288896536770373</v>
+        <v>1.001189523175269</v>
       </c>
       <c r="P5">
-        <v>0.8825114364632097</v>
+        <v>0.8300791046161378</v>
       </c>
       <c r="Q5">
-        <v>1.41139376735253</v>
+        <v>0.7847763672052103</v>
       </c>
       <c r="R5">
-        <v>1.223366268870468</v>
+        <v>1.113702486470631</v>
       </c>
       <c r="S5">
-        <v>1.223201816817065</v>
+        <v>1.031676929755189</v>
       </c>
       <c r="T5">
-        <v>1.099430588830216</v>
+        <v>0.8427358391015514</v>
       </c>
       <c r="U5">
-        <v>0.9077282770798536</v>
+        <v>1.06836224575676</v>
       </c>
       <c r="V5">
-        <v>0.8995465758375416</v>
+        <v>1.050755308946842</v>
       </c>
       <c r="W5">
-        <v>1.367631188916999</v>
+        <v>1.01638231372876</v>
       </c>
       <c r="X5">
-        <v>1.171905308724016</v>
+        <v>0.9579879762769857</v>
       </c>
       <c r="Y5">
-        <v>1.085472480306417</v>
+        <v>1.029771253043206</v>
       </c>
       <c r="Z5">
-        <v>1.238201252319069</v>
+        <v>1.017118697334394</v>
       </c>
       <c r="AA5">
-        <v>0.9460587600697574</v>
+        <v>1.075841963983443</v>
       </c>
       <c r="AB5">
-        <v>1.038014012881653</v>
+        <v>0.8369234857355655</v>
       </c>
       <c r="AC5">
-        <v>0.9789637347578934</v>
+        <v>0.9881966225692592</v>
       </c>
       <c r="AD5">
-        <v>1.007172507808461</v>
+        <v>1.157379989565655</v>
       </c>
       <c r="AE5">
-        <v>1.249936824022743</v>
+        <v>0.7848339841144291</v>
       </c>
       <c r="AF5">
-        <v>1.099963260814383</v>
+        <v>0.7958736385531433</v>
       </c>
       <c r="AG5">
-        <v>1.303040697909454</v>
+        <v>0.9062537493898561</v>
       </c>
       <c r="AH5">
-        <v>1.125001169340081</v>
+        <v>0.9260783149402664</v>
       </c>
       <c r="AI5">
-        <v>0.786015242595145</v>
+        <v>1.167607186422814</v>
       </c>
       <c r="AJ5">
-        <v>1.09111166912574</v>
+        <v>1.082203636006617</v>
       </c>
       <c r="AK5">
-        <v>1.113571024718002</v>
+        <v>0.8979502808865473</v>
       </c>
       <c r="AL5">
-        <v>1.100896003996605</v>
+        <v>0.6418305491538772</v>
       </c>
       <c r="AM5">
-        <v>1.037838552226269</v>
+        <v>0.70540324474687</v>
       </c>
       <c r="AN5">
-        <v>1.021172761050046</v>
+        <v>0.8968008385360451</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>1.412692970007392</v>
+        <v>1.628934650628462</v>
       </c>
       <c r="C6">
-        <v>1.132605112359388</v>
+        <v>1.519070261991612</v>
       </c>
       <c r="D6">
-        <v>0.9696414010517984</v>
+        <v>1.451482604736617</v>
       </c>
       <c r="E6">
-        <v>1.076363618501612</v>
+        <v>1.376639587364663</v>
       </c>
       <c r="F6">
-        <v>1.303694751875115</v>
+        <v>1.245809197627021</v>
       </c>
       <c r="G6">
-        <v>1.229037763276788</v>
+        <v>1.366255326834955</v>
       </c>
       <c r="H6">
-        <v>1.327596566216573</v>
+        <v>1.265272581593458</v>
       </c>
       <c r="I6">
-        <v>1.161460759714489</v>
+        <v>1.538812059074923</v>
       </c>
       <c r="J6">
-        <v>1.219322594278888</v>
+        <v>1.357571198289061</v>
       </c>
       <c r="K6">
-        <v>1.216810301333459</v>
+        <v>1.478144920890927</v>
       </c>
       <c r="L6">
-        <v>1.350293047172403</v>
+        <v>0.9937616935732611</v>
       </c>
       <c r="M6">
-        <v>1.311255882570485</v>
+        <v>1.233353502862115</v>
       </c>
       <c r="N6">
-        <v>1.205539040446108</v>
+        <v>1.086175354513056</v>
       </c>
       <c r="O6">
-        <v>1.354178329428034</v>
+        <v>1.245503119124487</v>
       </c>
       <c r="P6">
-        <v>0.9562814771500843</v>
+        <v>1.164394285965834</v>
       </c>
       <c r="Q6">
-        <v>1.527670949532468</v>
+        <v>0.9815260568907577</v>
       </c>
       <c r="R6">
-        <v>1.263745013946453</v>
+        <v>1.500620940034818</v>
       </c>
       <c r="S6">
-        <v>1.263554527789777</v>
+        <v>1.484094816923524</v>
       </c>
       <c r="T6">
-        <v>1.160936775244869</v>
+        <v>1.129076859675719</v>
       </c>
       <c r="U6">
-        <v>0.9541568805299989</v>
+        <v>1.478374186010029</v>
       </c>
       <c r="V6">
-        <v>0.9692563828662041</v>
+        <v>1.368173329741674</v>
       </c>
       <c r="W6">
-        <v>1.427742649203476</v>
+        <v>1.310718828040081</v>
       </c>
       <c r="X6">
-        <v>1.240805190920732</v>
+        <v>1.151396552596536</v>
       </c>
       <c r="Y6">
-        <v>1.122881497697065</v>
+        <v>1.449301546167961</v>
       </c>
       <c r="Z6">
-        <v>1.293496849286706</v>
+        <v>1.469583528941159</v>
       </c>
       <c r="AA6">
-        <v>1.026319004305986</v>
+        <v>1.594595353991318</v>
       </c>
       <c r="AB6">
-        <v>1.105864315265327</v>
+        <v>1.005954613083486</v>
       </c>
       <c r="AC6">
-        <v>1.013462565019345</v>
+        <v>1.347261314648786</v>
       </c>
       <c r="AD6">
-        <v>1.071987886122187</v>
+        <v>1.559609443051663</v>
       </c>
       <c r="AE6">
-        <v>1.323294981184914</v>
+        <v>1.066653439598431</v>
       </c>
       <c r="AF6">
-        <v>1.161234749342439</v>
+        <v>1.046323112259064</v>
       </c>
       <c r="AG6">
-        <v>1.366822262043396</v>
+        <v>1.210686466086965</v>
       </c>
       <c r="AH6">
-        <v>1.174902826432236</v>
+        <v>1.325751539316948</v>
       </c>
       <c r="AI6">
-        <v>0.849441443397435</v>
+        <v>1.577484514272714</v>
       </c>
       <c r="AJ6">
-        <v>1.149133951393771</v>
+        <v>1.522919502346137</v>
       </c>
       <c r="AK6">
-        <v>1.174595074735155</v>
+        <v>1.287589309061802</v>
       </c>
       <c r="AL6">
-        <v>1.102447384856476</v>
+        <v>0.910442949445576</v>
       </c>
       <c r="AM6">
-        <v>1.1190207272062</v>
+        <v>1.006921840746263</v>
       </c>
       <c r="AN6">
-        <v>1.056017697675395</v>
+        <v>1.234286409008928</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>1.318599994667065</v>
+        <v>1.288347681546828</v>
       </c>
       <c r="C7">
-        <v>1.058459757487323</v>
+        <v>1.199525907917142</v>
       </c>
       <c r="D7">
-        <v>0.9153483155969416</v>
+        <v>1.139097565137784</v>
       </c>
       <c r="E7">
-        <v>1.012863336287825</v>
+        <v>0.9797180996475743</v>
       </c>
       <c r="F7">
-        <v>1.253365484845459</v>
+        <v>0.9747866951595829</v>
       </c>
       <c r="G7">
-        <v>1.163833959708412</v>
+        <v>1.033429441966433</v>
       </c>
       <c r="H7">
-        <v>1.248817493841774</v>
+        <v>0.9609265163391386</v>
       </c>
       <c r="I7">
-        <v>1.104312586146711</v>
+        <v>1.121392101416861</v>
       </c>
       <c r="J7">
-        <v>1.169046923162882</v>
+        <v>1.027065856843022</v>
       </c>
       <c r="K7">
-        <v>1.168595872952374</v>
+        <v>1.126297711984295</v>
       </c>
       <c r="L7">
-        <v>1.268932960579604</v>
+        <v>0.6617839538684338</v>
       </c>
       <c r="M7">
-        <v>1.2435989462077</v>
+        <v>0.9086917319959485</v>
       </c>
       <c r="N7">
-        <v>1.139173366720269</v>
+        <v>0.7783852801296161</v>
       </c>
       <c r="O7">
-        <v>1.274681360522408</v>
+        <v>1.031277401683312</v>
       </c>
       <c r="P7">
-        <v>0.8772620575614206</v>
+        <v>0.8241532664844368</v>
       </c>
       <c r="Q7">
-        <v>1.390952062581724</v>
+        <v>0.7758479381860219</v>
       </c>
       <c r="R7">
-        <v>1.204441857025873</v>
+        <v>1.173774786052231</v>
       </c>
       <c r="S7">
-        <v>1.215259433396478</v>
+        <v>1.071759902654347</v>
       </c>
       <c r="T7">
-        <v>1.08844386148057</v>
+        <v>0.8701858375416605</v>
       </c>
       <c r="U7">
-        <v>0.8927193072627686</v>
+        <v>1.11215400727586</v>
       </c>
       <c r="V7">
-        <v>0.8865703241039611</v>
+        <v>1.068546457405219</v>
       </c>
       <c r="W7">
-        <v>1.345849876161731</v>
+        <v>1.051262879300488</v>
       </c>
       <c r="X7">
-        <v>1.155401175034559</v>
+        <v>1.03160778515287</v>
       </c>
       <c r="Y7">
-        <v>1.06596967394847</v>
+        <v>1.104250991539115</v>
       </c>
       <c r="Z7">
-        <v>1.220173890276444</v>
+        <v>1.074372736701589</v>
       </c>
       <c r="AA7">
-        <v>0.9401094996359112</v>
+        <v>1.089551773303566</v>
       </c>
       <c r="AB7">
-        <v>1.029343733985084</v>
+        <v>0.8396730570113451</v>
       </c>
       <c r="AC7">
-        <v>0.9617640657194335</v>
+        <v>1.056319000236789</v>
       </c>
       <c r="AD7">
-        <v>0.9959168772109315</v>
+        <v>1.20806935864248</v>
       </c>
       <c r="AE7">
-        <v>1.23596948205316</v>
+        <v>0.8222279504959865</v>
       </c>
       <c r="AF7">
-        <v>1.090031117458858</v>
+        <v>0.8355349285449263</v>
       </c>
       <c r="AG7">
-        <v>1.282876325963367</v>
+        <v>0.9099065841040728</v>
       </c>
       <c r="AH7">
-        <v>1.109018770332442</v>
+        <v>0.9534069782037106</v>
       </c>
       <c r="AI7">
-        <v>0.7757011184251084</v>
+        <v>1.232679463159003</v>
       </c>
       <c r="AJ7">
-        <v>1.081824199931783</v>
+        <v>1.104313544943933</v>
       </c>
       <c r="AK7">
-        <v>1.099388494801473</v>
+        <v>0.9651909441975345</v>
       </c>
       <c r="AL7">
-        <v>1.072973093964871</v>
+        <v>0.6789231856044959</v>
       </c>
       <c r="AM7">
-        <v>1.033728616726438</v>
+        <v>0.7170307627250664</v>
       </c>
       <c r="AN7">
-        <v>0.9889875912110242</v>
+        <v>0.9308732264541254</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>1.151458675071881</v>
+        <v>1.020406912652642</v>
       </c>
       <c r="C8">
-        <v>0.9274075644805808</v>
+        <v>0.9603140036225037</v>
       </c>
       <c r="D8">
-        <v>0.8045458226609014</v>
+        <v>0.9496900706049484</v>
       </c>
       <c r="E8">
-        <v>0.8857228080319319</v>
+        <v>0.7118332742007266</v>
       </c>
       <c r="F8">
-        <v>1.113266717398948</v>
+        <v>0.8098252669843955</v>
       </c>
       <c r="G8">
-        <v>1.021759713824826</v>
+        <v>0.7981440767507809</v>
       </c>
       <c r="H8">
-        <v>1.086596028358029</v>
+        <v>0.7297580274272024</v>
       </c>
       <c r="I8">
-        <v>0.9651488149843555</v>
+        <v>0.8555512719485985</v>
       </c>
       <c r="J8">
-        <v>1.044340256277331</v>
+        <v>0.7614189352094902</v>
       </c>
       <c r="K8">
-        <v>1.015735899785738</v>
+        <v>0.9266917097633472</v>
       </c>
       <c r="L8">
-        <v>1.106674403627069</v>
+        <v>0.3602791993634605</v>
       </c>
       <c r="M8">
-        <v>1.092578807546896</v>
+        <v>0.6131519478375509</v>
       </c>
       <c r="N8">
-        <v>1.006896102415242</v>
+        <v>0.4946512731410589</v>
       </c>
       <c r="O8">
-        <v>1.106171732754835</v>
+        <v>0.8556796667466859</v>
       </c>
       <c r="P8">
-        <v>0.7537907216566189</v>
+        <v>0.5805548598092491</v>
       </c>
       <c r="Q8">
-        <v>1.205362716553924</v>
+        <v>0.5738868427259122</v>
       </c>
       <c r="R8">
-        <v>1.050396931567039</v>
+        <v>0.9850748898913707</v>
       </c>
       <c r="S8">
-        <v>1.046715335424762</v>
+        <v>0.8401101492281331</v>
       </c>
       <c r="T8">
-        <v>0.9339046204444187</v>
+        <v>0.6985859137797086</v>
       </c>
       <c r="U8">
-        <v>0.7881824606160684</v>
+        <v>0.895013738678714</v>
       </c>
       <c r="V8">
-        <v>0.7650305581033945</v>
+        <v>0.8475706880377812</v>
       </c>
       <c r="W8">
-        <v>1.185750073202718</v>
+        <v>0.8677486229014292</v>
       </c>
       <c r="X8">
-        <v>1.009176857032788</v>
+        <v>0.9604124278192147</v>
       </c>
       <c r="Y8">
-        <v>0.92611915571675</v>
+        <v>0.94238430774072</v>
       </c>
       <c r="Z8">
-        <v>1.067447350702063</v>
+        <v>0.8699316338531804</v>
       </c>
       <c r="AA8">
-        <v>0.8077077075269687</v>
+        <v>0.7752524237124208</v>
       </c>
       <c r="AB8">
-        <v>0.8905081869478491</v>
+        <v>0.6785325508689599</v>
       </c>
       <c r="AC8">
-        <v>0.8356889978496919</v>
+        <v>0.9124259688757451</v>
       </c>
       <c r="AD8">
-        <v>0.8664029180798997</v>
+        <v>0.9932429651875156</v>
       </c>
       <c r="AE8">
-        <v>1.084898396592764</v>
+        <v>0.6831913102142795</v>
       </c>
       <c r="AF8">
-        <v>0.9486176433119042</v>
+        <v>0.7006395385571844</v>
       </c>
       <c r="AG8">
-        <v>1.123267835415238</v>
+        <v>0.6862860106751331</v>
       </c>
       <c r="AH8">
-        <v>0.9692698443465633</v>
+        <v>0.731583375688731</v>
       </c>
       <c r="AI8">
-        <v>0.6765900624060771</v>
+        <v>1.036015990382024</v>
       </c>
       <c r="AJ8">
-        <v>0.940734762931111</v>
+        <v>0.8405027890865331</v>
       </c>
       <c r="AK8">
-        <v>0.9531282179905418</v>
+        <v>0.8220383043736738</v>
       </c>
       <c r="AL8">
-        <v>0.9571739663906866</v>
+        <v>0.5616165892420439</v>
       </c>
       <c r="AM8">
-        <v>0.9040819088122607</v>
+        <v>0.5501489650354076</v>
       </c>
       <c r="AN8">
-        <v>0.9056264824116663</v>
+        <v>0.7524492748972605</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>1.066151323387148</v>
+        <v>1.090224331764841</v>
       </c>
       <c r="C9">
-        <v>0.8590043152569303</v>
+        <v>1.024841230001614</v>
       </c>
       <c r="D9">
-        <v>0.7430338391044874</v>
+        <v>0.973018966550986</v>
       </c>
       <c r="E9">
-        <v>0.8155649563169808</v>
+        <v>0.7738954562296085</v>
       </c>
       <c r="F9">
-        <v>1.030528764969988</v>
+        <v>0.8387506195790608</v>
       </c>
       <c r="G9">
-        <v>0.9432418462784951</v>
+        <v>0.8457292623115752</v>
       </c>
       <c r="H9">
-        <v>1.003819378236308</v>
+        <v>0.7858443866865712</v>
       </c>
       <c r="I9">
-        <v>0.8919689950099873</v>
+        <v>0.9098259859663045</v>
       </c>
       <c r="J9">
-        <v>0.966910293265254</v>
+        <v>0.8322711175276305</v>
       </c>
       <c r="K9">
-        <v>0.9330444443486231</v>
+        <v>0.9427715816725312</v>
       </c>
       <c r="L9">
-        <v>1.019647195326425</v>
+        <v>0.4636722141823165</v>
       </c>
       <c r="M9">
-        <v>1.009184211647756</v>
+        <v>0.7109971000853584</v>
       </c>
       <c r="N9">
-        <v>0.9340903769904237</v>
+        <v>0.5916470974150821</v>
       </c>
       <c r="O9">
-        <v>1.01997366399323</v>
+        <v>0.90328705623604</v>
       </c>
       <c r="P9">
-        <v>0.6955965725042206</v>
+        <v>0.6422329175435584</v>
       </c>
       <c r="Q9">
-        <v>1.113266309113055</v>
+        <v>0.6541959397053368</v>
       </c>
       <c r="R9">
-        <v>0.9674519325009361</v>
+        <v>1.00554791354357</v>
       </c>
       <c r="S9">
-        <v>0.9615602778337486</v>
+        <v>0.8651394115633122</v>
       </c>
       <c r="T9">
-        <v>0.8576097929911165</v>
+        <v>0.7318723799780666</v>
       </c>
       <c r="U9">
-        <v>0.7309751682278447</v>
+        <v>0.9241109763268832</v>
       </c>
       <c r="V9">
-        <v>0.7049169652912836</v>
+        <v>0.8931888514966819</v>
       </c>
       <c r="W9">
-        <v>1.098077842544123</v>
+        <v>0.9036784034077325</v>
       </c>
       <c r="X9">
-        <v>0.933060706589635</v>
+        <v>0.9542882713212308</v>
       </c>
       <c r="Y9">
-        <v>0.8510053594187617</v>
+        <v>0.9375238393160613</v>
       </c>
       <c r="Z9">
-        <v>0.9859999830504687</v>
+        <v>0.8850427350954195</v>
       </c>
       <c r="AA9">
-        <v>0.7453355026836028</v>
+        <v>0.8409382577719809</v>
       </c>
       <c r="AB9">
-        <v>0.8219853063730248</v>
+        <v>0.719939353601929</v>
       </c>
       <c r="AC9">
-        <v>0.7681154381444639</v>
+        <v>0.909218357477333</v>
       </c>
       <c r="AD9">
-        <v>0.8008729905159895</v>
+        <v>1.023098588273329</v>
       </c>
       <c r="AE9">
-        <v>1.006124901400169</v>
+        <v>0.6918125077872536</v>
       </c>
       <c r="AF9">
-        <v>0.8768025836613469</v>
+        <v>0.7258899015975503</v>
       </c>
       <c r="AG9">
-        <v>1.038114684680956</v>
+        <v>0.7396089089431575</v>
       </c>
       <c r="AH9">
-        <v>0.8950102094841845</v>
+        <v>0.7649270299368255</v>
       </c>
       <c r="AI9">
-        <v>0.6268155819351432</v>
+        <v>1.057002732336979</v>
       </c>
       <c r="AJ9">
-        <v>0.8691306369682571</v>
+        <v>0.8844311885434905</v>
       </c>
       <c r="AK9">
-        <v>0.8783898593413694</v>
+        <v>0.810311923048218</v>
       </c>
       <c r="AL9">
-        <v>0.8845598481117197</v>
+        <v>0.5634566794277681</v>
       </c>
       <c r="AM9">
-        <v>0.8407131055978188</v>
+        <v>0.5540460524009548</v>
       </c>
       <c r="AN9">
-        <v>0.8474646917492211</v>
+        <v>0.7686626317727435</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>1.424477458996374</v>
+        <v>1.049177368203989</v>
       </c>
       <c r="C10">
-        <v>1.137890565444617</v>
+        <v>0.9949353535052171</v>
       </c>
       <c r="D10">
-        <v>0.9745450343875943</v>
+        <v>0.9251993827592632</v>
       </c>
       <c r="E10">
-        <v>1.079079245163474</v>
+        <v>0.7145042641247272</v>
       </c>
       <c r="F10">
-        <v>1.325113245648362</v>
+        <v>0.8081408898289696</v>
       </c>
       <c r="G10">
-        <v>1.241945336445597</v>
+        <v>0.7898961031159418</v>
       </c>
       <c r="H10">
-        <v>1.354235437524854</v>
+        <v>0.739230622784885</v>
       </c>
       <c r="I10">
-        <v>1.193677841699255</v>
+        <v>0.8496322179268164</v>
       </c>
       <c r="J10">
-        <v>1.221635962278286</v>
+        <v>0.7822542584253406</v>
       </c>
       <c r="K10">
-        <v>1.261194282813339</v>
+        <v>0.8797040691577629</v>
       </c>
       <c r="L10">
-        <v>1.360245558294145</v>
+        <v>0.4124327099717016</v>
       </c>
       <c r="M10">
-        <v>1.327965187466013</v>
+        <v>0.667129897224564</v>
       </c>
       <c r="N10">
-        <v>1.214766054833029</v>
+        <v>0.549287871838846</v>
       </c>
       <c r="O10">
-        <v>1.382721766701017</v>
+        <v>0.8861416066606119</v>
       </c>
       <c r="P10">
-        <v>0.9614337137565176</v>
+        <v>0.5904795089570126</v>
       </c>
       <c r="Q10">
-        <v>1.49986183164848</v>
+        <v>0.64787346660187</v>
       </c>
       <c r="R10">
-        <v>1.296905236477732</v>
+        <v>0.9573524829020529</v>
       </c>
       <c r="S10">
-        <v>1.334676669652271</v>
+        <v>0.7909472590091</v>
       </c>
       <c r="T10">
-        <v>1.191358204056471</v>
+        <v>0.695878221440934</v>
       </c>
       <c r="U10">
-        <v>0.9495895646792886</v>
+        <v>0.8649603490782127</v>
       </c>
       <c r="V10">
-        <v>0.9594554516663122</v>
+        <v>0.844967710973253</v>
       </c>
       <c r="W10">
-        <v>1.435897736577897</v>
+        <v>0.8691124273461402</v>
       </c>
       <c r="X10">
-        <v>1.241857864437367</v>
+        <v>0.9421400441163013</v>
       </c>
       <c r="Y10">
-        <v>1.147391055260302</v>
+        <v>0.8759742919898255</v>
       </c>
       <c r="Z10">
-        <v>1.310850461535563</v>
+        <v>0.8186655096925549</v>
       </c>
       <c r="AA10">
-        <v>1.029864709735797</v>
+        <v>0.7627936504971367</v>
       </c>
       <c r="AB10">
-        <v>1.12120442079834</v>
+        <v>0.6933571664534398</v>
       </c>
       <c r="AC10">
-        <v>1.035558823569137</v>
+        <v>0.8576798388285805</v>
       </c>
       <c r="AD10">
-        <v>1.076847307524473</v>
+        <v>0.9696357198645341</v>
       </c>
       <c r="AE10">
-        <v>1.328235380988762</v>
+        <v>0.6458866909345228</v>
       </c>
       <c r="AF10">
-        <v>1.182239321162425</v>
+        <v>0.7036336271466909</v>
       </c>
       <c r="AG10">
-        <v>1.375256823748326</v>
+        <v>0.693022652603744</v>
       </c>
       <c r="AH10">
-        <v>1.192834522689893</v>
+        <v>0.7013978332742872</v>
       </c>
       <c r="AI10">
-        <v>0.833921542518088</v>
+        <v>1.007117480334316</v>
       </c>
       <c r="AJ10">
-        <v>1.175004092049894</v>
+        <v>0.811047287959104</v>
       </c>
       <c r="AK10">
-        <v>1.190539743726171</v>
+        <v>0.7468671350206941</v>
       </c>
       <c r="AL10">
-        <v>1.125059098879517</v>
+        <v>0.5191211659389217</v>
       </c>
       <c r="AM10">
-        <v>1.121558588632618</v>
+        <v>0.4779544068220967</v>
       </c>
       <c r="AN10">
-        <v>1.004224445390336</v>
+        <v>0.7104148661593447</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0.9825215216439163</v>
+        <v>1.007794334010639</v>
       </c>
       <c r="C11">
-        <v>0.7903756782656546</v>
+        <v>0.9409711442722832</v>
       </c>
       <c r="D11">
-        <v>0.6834162210670671</v>
+        <v>0.9056586068722564</v>
       </c>
       <c r="E11">
-        <v>0.7510828026176236</v>
+        <v>0.7643733565813147</v>
       </c>
       <c r="F11">
-        <v>0.9468281997727408</v>
+        <v>0.7741399015130369</v>
       </c>
       <c r="G11">
-        <v>0.8687005480480249</v>
+        <v>0.8100243195393212</v>
       </c>
       <c r="H11">
-        <v>0.9281531583221893</v>
+        <v>0.7490513013288508</v>
       </c>
       <c r="I11">
-        <v>0.824804768201202</v>
+        <v>0.8818598787676082</v>
       </c>
       <c r="J11">
-        <v>0.8848497176035434</v>
+        <v>0.7960981355826976</v>
       </c>
       <c r="K11">
-        <v>0.8660368900088806</v>
+        <v>0.8972663857075238</v>
       </c>
       <c r="L11">
-        <v>0.9404233853474153</v>
+        <v>0.4905804384698584</v>
       </c>
       <c r="M11">
-        <v>0.929550466130285</v>
+        <v>0.691167003945812</v>
       </c>
       <c r="N11">
-        <v>0.8577911739083396</v>
+        <v>0.5869995126895788</v>
       </c>
       <c r="O11">
-        <v>0.9441578470433691</v>
+        <v>0.810566461069946</v>
       </c>
       <c r="P11">
-        <v>0.6437109870344828</v>
+        <v>0.6387693884738989</v>
       </c>
       <c r="Q11">
-        <v>1.023339704571829</v>
+        <v>0.595054098372752</v>
       </c>
       <c r="R11">
-        <v>0.8952812270681586</v>
+        <v>0.9354490321900337</v>
       </c>
       <c r="S11">
-        <v>0.8977771982034848</v>
+        <v>0.8510772306975315</v>
       </c>
       <c r="T11">
-        <v>0.7974595495443992</v>
+        <v>0.6865860179402204</v>
       </c>
       <c r="U11">
-        <v>0.670018266035423</v>
+        <v>0.8823277883933699</v>
       </c>
       <c r="V11">
-        <v>0.6498734593800499</v>
+        <v>0.8386137168025682</v>
       </c>
       <c r="W11">
-        <v>1.009111052271024</v>
+        <v>0.8300516429999989</v>
       </c>
       <c r="X11">
-        <v>0.8588320052312928</v>
+        <v>0.8293276004009724</v>
       </c>
       <c r="Y11">
-        <v>0.7879611183685274</v>
+        <v>0.8889063036361377</v>
       </c>
       <c r="Z11">
-        <v>0.9093183330681055</v>
+        <v>0.8584804705487045</v>
       </c>
       <c r="AA11">
-        <v>0.6895152880379989</v>
+        <v>0.8526937766675174</v>
       </c>
       <c r="AB11">
-        <v>0.7604391669341565</v>
+        <v>0.6547735550235905</v>
       </c>
       <c r="AC11">
-        <v>0.7111601494487296</v>
+        <v>0.8489469906255654</v>
       </c>
       <c r="AD11">
-        <v>0.7384406557636877</v>
+        <v>0.9589028396405048</v>
       </c>
       <c r="AE11">
-        <v>0.9250060796280875</v>
+        <v>0.6555663731477319</v>
       </c>
       <c r="AF11">
-        <v>0.8103339668750584</v>
+        <v>0.6629286583131089</v>
       </c>
       <c r="AG11">
-        <v>0.9558773748424557</v>
+        <v>0.7093998292360087</v>
       </c>
       <c r="AH11">
-        <v>0.8259185929559605</v>
+        <v>0.7532607153954891</v>
       </c>
       <c r="AI11">
-        <v>0.5749877048289325</v>
+        <v>0.9829293930670775</v>
       </c>
       <c r="AJ11">
-        <v>0.8040825019426535</v>
+        <v>0.8693069582985412</v>
       </c>
       <c r="AK11">
-        <v>0.8122870051232521</v>
+        <v>0.7790909112839546</v>
       </c>
       <c r="AL11">
-        <v>0.8125162083559309</v>
+        <v>0.5439709977780982</v>
       </c>
       <c r="AM11">
-        <v>0.773183966885762</v>
+        <v>0.568814032547442</v>
       </c>
       <c r="AN11">
-        <v>0.7630344312214123</v>
+        <v>0.7394980519042464</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>1.098648226483254</v>
+        <v>1.087400196044132</v>
       </c>
       <c r="C12">
-        <v>0.8787524379781089</v>
+        <v>1.027502424344151</v>
       </c>
       <c r="D12">
-        <v>0.7467813937788615</v>
+        <v>1.034200538650895</v>
       </c>
       <c r="E12">
-        <v>0.8201508953266021</v>
+        <v>0.8124227280616261</v>
       </c>
       <c r="F12">
-        <v>1.021734276653867</v>
+        <v>0.8823578828336428</v>
       </c>
       <c r="G12">
-        <v>0.950300928124082</v>
+        <v>0.8768773577815604</v>
       </c>
       <c r="H12">
-        <v>1.037463875214817</v>
+        <v>0.7950724402013473</v>
       </c>
       <c r="I12">
-        <v>0.9152100716995399</v>
+        <v>0.9666529519740591</v>
       </c>
       <c r="J12">
-        <v>0.943413586845093</v>
+        <v>0.8267226712723424</v>
       </c>
       <c r="K12">
-        <v>0.9508130278098713</v>
+        <v>1.029142341808437</v>
       </c>
       <c r="L12">
-        <v>1.035322653799125</v>
+        <v>0.4154740925342398</v>
       </c>
       <c r="M12">
-        <v>1.017586543879587</v>
+        <v>0.6642722341366984</v>
       </c>
       <c r="N12">
-        <v>0.9423837416488025</v>
+        <v>0.5424727845284275</v>
       </c>
       <c r="O12">
-        <v>1.053842942801644</v>
+        <v>0.8926534506689808</v>
       </c>
       <c r="P12">
-        <v>0.7346548249186325</v>
+        <v>0.6614872209333846</v>
       </c>
       <c r="Q12">
-        <v>1.150323283448372</v>
+        <v>0.5975087601245614</v>
       </c>
       <c r="R12">
-        <v>0.9852921361071603</v>
+        <v>1.077255329241973</v>
       </c>
       <c r="S12">
-        <v>1.005548438147137</v>
+        <v>0.9631846712885562</v>
       </c>
       <c r="T12">
-        <v>0.8978605823647769</v>
+        <v>0.7632968286181808</v>
       </c>
       <c r="U12">
-        <v>0.736510108720919</v>
+        <v>0.998091203362754</v>
       </c>
       <c r="V12">
-        <v>0.7308912236124422</v>
+        <v>0.9135648017067896</v>
       </c>
       <c r="W12">
-        <v>1.108558473700916</v>
+        <v>0.9264668610351348</v>
       </c>
       <c r="X12">
-        <v>0.9544858285907815</v>
+        <v>0.9879682892684432</v>
       </c>
       <c r="Y12">
-        <v>0.8663574287154794</v>
+        <v>1.056125222073941</v>
       </c>
       <c r="Z12">
-        <v>1.004377437791833</v>
+        <v>0.9941068395939349</v>
       </c>
       <c r="AA12">
-        <v>0.7869740321029605</v>
+        <v>0.9151412419289162</v>
       </c>
       <c r="AB12">
-        <v>0.8571587986601067</v>
+        <v>0.6979573761155541</v>
       </c>
       <c r="AC12">
-        <v>0.7824881664436946</v>
+        <v>1.004342880404725</v>
       </c>
       <c r="AD12">
-        <v>0.8268790863339782</v>
+        <v>1.088292744747859</v>
       </c>
       <c r="AE12">
-        <v>1.029294784118594</v>
+        <v>0.7540068418778085</v>
       </c>
       <c r="AF12">
-        <v>0.9070285843100153</v>
+        <v>0.7537163884435989</v>
       </c>
       <c r="AG12">
-        <v>1.055649984476184</v>
+        <v>0.7531006366437623</v>
       </c>
       <c r="AH12">
-        <v>0.913009261585968</v>
+        <v>0.8376791760783681</v>
       </c>
       <c r="AI12">
-        <v>0.6449891794287178</v>
+        <v>1.13419398154975</v>
       </c>
       <c r="AJ12">
-        <v>0.9002004572731903</v>
+        <v>0.9539666828670799</v>
       </c>
       <c r="AK12">
-        <v>0.9063896805809968</v>
+        <v>0.9324043397870776</v>
       </c>
       <c r="AL12">
-        <v>0.8634530028910026</v>
+        <v>0.6352314612317378</v>
       </c>
       <c r="AM12">
-        <v>0.8752214746607329</v>
+        <v>0.636847491139493</v>
       </c>
       <c r="AN12">
-        <v>0.8032276586366364</v>
+        <v>0.8389032787940869</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块-beta.xlsx
+++ b/FOF/data/基金公司-板块-beta.xlsx
@@ -16,123 +16,123 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>东方公司</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>长信公司</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>安信公司</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>建信公司</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
     <t>兴全</t>
   </si>
   <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>安信公司</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>建信公司</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>汇添富</t>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
   </si>
   <si>
     <t>海富通</t>
   </si>
   <si>
-    <t>长信公司</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>中金</t>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>华商</t>
   </si>
   <si>
     <t>上投摩根</t>
   </si>
   <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>东方公司</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
@@ -154,19 +154,19 @@
     <t>万得全A</t>
   </si>
   <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
     <t>中证500</t>
   </si>
   <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中小板综</t>
+    <t>中证1000</t>
   </si>
   <si>
     <t>创业板综</t>
-  </si>
-  <si>
-    <t>中证1000</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>1.126756289578591</v>
+        <v>0.8682109372104376</v>
       </c>
       <c r="C2">
-        <v>1.039533518216526</v>
+        <v>0.4848208778767393</v>
       </c>
       <c r="D2">
-        <v>0.9148786933989984</v>
+        <v>0.9971375162389466</v>
       </c>
       <c r="E2">
-        <v>0.9346355151862041</v>
+        <v>0.420413822635818</v>
       </c>
       <c r="F2">
-        <v>0.794992689819403</v>
+        <v>0.7903035435480107</v>
       </c>
       <c r="G2">
-        <v>0.9181840096376422</v>
+        <v>0.5224605184489485</v>
       </c>
       <c r="H2">
-        <v>0.8766871681729845</v>
+        <v>0.3872422999019541</v>
       </c>
       <c r="I2">
-        <v>1.012939497623653</v>
+        <v>0.5094005862318067</v>
       </c>
       <c r="J2">
-        <v>0.9653662047949028</v>
+        <v>0.3223842945402721</v>
       </c>
       <c r="K2">
-        <v>0.9118968011622358</v>
+        <v>0.3807863997977588</v>
       </c>
       <c r="L2">
-        <v>0.8080858957466309</v>
+        <v>0.30713740974722</v>
       </c>
       <c r="M2">
-        <v>0.9472576593465444</v>
+        <v>0.4523766858123457</v>
       </c>
       <c r="N2">
-        <v>0.8548320628858939</v>
+        <v>0.1565683684834327</v>
       </c>
       <c r="O2">
-        <v>0.8538197788523757</v>
+        <v>0.1478835637997489</v>
       </c>
       <c r="P2">
-        <v>0.812895924286309</v>
+        <v>0.08717946252417422</v>
       </c>
       <c r="Q2">
-        <v>0.7544642539828856</v>
+        <v>0.4334680106217875</v>
       </c>
       <c r="R2">
-        <v>0.9336222228773026</v>
+        <v>0.2520085840563931</v>
       </c>
       <c r="S2">
-        <v>0.9213847043551467</v>
+        <v>0.07498994814345934</v>
       </c>
       <c r="T2">
-        <v>0.7406110408089891</v>
+        <v>0.3605471168887818</v>
       </c>
       <c r="U2">
-        <v>0.9335498449171891</v>
+        <v>0.2228472546131702</v>
       </c>
       <c r="V2">
-        <v>0.9221203842618357</v>
+        <v>0.1668696457810976</v>
       </c>
       <c r="W2">
-        <v>0.8647117384996019</v>
+        <v>0.4134254205919054</v>
       </c>
       <c r="X2">
-        <v>0.6973748721723481</v>
+        <v>0.08541369275486553</v>
       </c>
       <c r="Y2">
-        <v>0.8423876494599559</v>
+        <v>-0.01971473340509991</v>
       </c>
       <c r="Z2">
-        <v>0.8869368935874624</v>
+        <v>-0.2553119341850661</v>
       </c>
       <c r="AA2">
-        <v>1.055735769004452</v>
+        <v>0.1545059850328485</v>
       </c>
       <c r="AB2">
-        <v>0.7136360100286505</v>
+        <v>0.1229615570432125</v>
       </c>
       <c r="AC2">
-        <v>0.7943741306042973</v>
+        <v>0.1676072863305038</v>
       </c>
       <c r="AD2">
-        <v>0.9896812609284015</v>
+        <v>-0.04536322968508042</v>
       </c>
       <c r="AE2">
-        <v>0.6555143894616143</v>
+        <v>0.3149453875568519</v>
       </c>
       <c r="AF2">
-        <v>0.6743518713041721</v>
+        <v>-0.01076163944933971</v>
       </c>
       <c r="AG2">
-        <v>0.8356045958692208</v>
+        <v>0.6627237264191621</v>
       </c>
       <c r="AH2">
-        <v>0.8456439205042994</v>
+        <v>-0.02052683085048188</v>
       </c>
       <c r="AI2">
-        <v>0.9787121890317632</v>
+        <v>-0.5677583529095378</v>
       </c>
       <c r="AJ2">
-        <v>0.990147681924164</v>
+        <v>0.2071291578600826</v>
       </c>
       <c r="AK2">
-        <v>0.7317595142596786</v>
+        <v>-0.2352146278069887</v>
       </c>
       <c r="AL2">
-        <v>0.54042555471802</v>
+        <v>-0.08479211051612368</v>
       </c>
       <c r="AM2">
-        <v>0.6150594470603151</v>
+        <v>-0.4109278992200457</v>
       </c>
       <c r="AN2">
-        <v>0.7697846690833768</v>
+        <v>-0.4475658564078189</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0.8947249965521894</v>
+        <v>0.8531016234155482</v>
       </c>
       <c r="C3">
-        <v>0.8585362804018277</v>
+        <v>0.6182356439017289</v>
       </c>
       <c r="D3">
-        <v>0.7210954368799366</v>
+        <v>1.259098101185609</v>
       </c>
       <c r="E3">
-        <v>0.8425455680780746</v>
+        <v>0.4093604962532135</v>
       </c>
       <c r="F3">
-        <v>0.6640901942822276</v>
+        <v>0.8767755308582628</v>
       </c>
       <c r="G3">
-        <v>0.7407028594091077</v>
+        <v>0.5826148245658465</v>
       </c>
       <c r="H3">
-        <v>0.712294082886468</v>
+        <v>0.3204076091903936</v>
       </c>
       <c r="I3">
-        <v>0.9001899280388008</v>
+        <v>0.6468348908082951</v>
       </c>
       <c r="J3">
-        <v>0.7855746203217402</v>
+        <v>0.4088059299302845</v>
       </c>
       <c r="K3">
-        <v>0.7301372579270859</v>
+        <v>0.4310594105146456</v>
       </c>
       <c r="L3">
-        <v>0.7350619339441319</v>
+        <v>0.2832307584930979</v>
       </c>
       <c r="M3">
-        <v>0.8010449074587029</v>
+        <v>0.5239598836422538</v>
       </c>
       <c r="N3">
-        <v>0.7413285169792605</v>
+        <v>0.03619498205496708</v>
       </c>
       <c r="O3">
-        <v>0.6509506868964724</v>
+        <v>-0.05902973081270906</v>
       </c>
       <c r="P3">
-        <v>0.7284352692616473</v>
+        <v>-0.03804395271049753</v>
       </c>
       <c r="Q3">
-        <v>0.6461926742013585</v>
+        <v>0.39231361812428</v>
       </c>
       <c r="R3">
-        <v>0.7486534069330308</v>
+        <v>0.05484270677626323</v>
       </c>
       <c r="S3">
-        <v>0.7973763621273753</v>
+        <v>0.006475597404812898</v>
       </c>
       <c r="T3">
-        <v>0.6083367212828977</v>
+        <v>0.4143445604438987</v>
       </c>
       <c r="U3">
-        <v>0.7796384846640078</v>
+        <v>0.1872521723620153</v>
       </c>
       <c r="V3">
-        <v>0.7136276258475062</v>
+        <v>0.1208151879711363</v>
       </c>
       <c r="W3">
-        <v>0.6657521899479536</v>
+        <v>0.4105168842663147</v>
       </c>
       <c r="X3">
-        <v>0.430592454637441</v>
+        <v>0.0404841763543921</v>
       </c>
       <c r="Y3">
-        <v>0.6859127793136532</v>
+        <v>-0.1451994536645458</v>
       </c>
       <c r="Z3">
-        <v>0.776336319487319</v>
+        <v>-0.542023736893936</v>
       </c>
       <c r="AA3">
-        <v>1.003049225587469</v>
+        <v>0.08931539948084501</v>
       </c>
       <c r="AB3">
-        <v>0.4869439302739346</v>
+        <v>0.1290335278463114</v>
       </c>
       <c r="AC3">
-        <v>0.6143417038295294</v>
+        <v>0.1270565249912775</v>
       </c>
       <c r="AD3">
-        <v>0.797945044233823</v>
+        <v>-0.2495888693730656</v>
       </c>
       <c r="AE3">
-        <v>0.5084608464721745</v>
+        <v>0.310038148487565</v>
       </c>
       <c r="AF3">
-        <v>0.5455885110459358</v>
+        <v>-0.1341259572766414</v>
       </c>
       <c r="AG3">
-        <v>0.688711938290226</v>
+        <v>0.6957339454690321</v>
       </c>
       <c r="AH3">
-        <v>0.7415074867460721</v>
+        <v>-0.1231396363481106</v>
       </c>
       <c r="AI3">
-        <v>0.7899361795382096</v>
+        <v>-0.8416164900104768</v>
       </c>
       <c r="AJ3">
-        <v>0.8467481400551449</v>
+        <v>0.2537460200806829</v>
       </c>
       <c r="AK3">
-        <v>0.5963414075531752</v>
+        <v>-0.4717101857619138</v>
       </c>
       <c r="AL3">
-        <v>0.4430442564817351</v>
+        <v>-0.2809534363857883</v>
       </c>
       <c r="AM3">
-        <v>0.4662443020048832</v>
+        <v>-0.7986211926541231</v>
       </c>
       <c r="AN3">
-        <v>0.6119357823271696</v>
+        <v>-1.102470277648616</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>1.223984795251735</v>
+        <v>1.843963274617492</v>
       </c>
       <c r="C4">
-        <v>1.119986172346302</v>
+        <v>0.9084123476208529</v>
       </c>
       <c r="D4">
-        <v>1.020439744650533</v>
+        <v>1.646933923381698</v>
       </c>
       <c r="E4">
-        <v>0.9674594843502131</v>
+        <v>0.9380732832035709</v>
       </c>
       <c r="F4">
-        <v>0.8693352992937443</v>
+        <v>1.540834870536893</v>
       </c>
       <c r="G4">
-        <v>0.9941008450578799</v>
+        <v>0.9681916046845387</v>
       </c>
       <c r="H4">
-        <v>0.9401666916522723</v>
+        <v>1.075210115925131</v>
       </c>
       <c r="I4">
-        <v>1.065989857499856</v>
+        <v>1.536097655740077</v>
       </c>
       <c r="J4">
-        <v>1.02722374309394</v>
+        <v>0.7653472355214268</v>
       </c>
       <c r="K4">
-        <v>1.014296719538223</v>
+        <v>0.976948065566813</v>
       </c>
       <c r="L4">
-        <v>0.7901794793084111</v>
+        <v>1.093224425958622</v>
       </c>
       <c r="M4">
-        <v>0.9738762166195694</v>
+        <v>0.9318938876164752</v>
       </c>
       <c r="N4">
-        <v>0.8636739708682419</v>
+        <v>0.5838513696022027</v>
       </c>
       <c r="O4">
-        <v>0.9464380880166399</v>
+        <v>0.6751266896409027</v>
       </c>
       <c r="P4">
-        <v>0.8361600179651442</v>
+        <v>0.2736332429218543</v>
       </c>
       <c r="Q4">
-        <v>0.7801207059308735</v>
+        <v>0.8974029393588223</v>
       </c>
       <c r="R4">
-        <v>1.039937910162456</v>
+        <v>0.8740208198654001</v>
       </c>
       <c r="S4">
-        <v>0.9923674368436127</v>
+        <v>0.4436895262125262</v>
       </c>
       <c r="T4">
-        <v>0.8054667493657378</v>
+        <v>0.7759166325771617</v>
       </c>
       <c r="U4">
-        <v>1.01754120887148</v>
+        <v>0.8523798151918556</v>
       </c>
       <c r="V4">
-        <v>1.013660701680958</v>
+        <v>0.6060591702424571</v>
       </c>
       <c r="W4">
-        <v>0.961362975172026</v>
+        <v>1.187343842913533</v>
       </c>
       <c r="X4">
-        <v>0.8494503447460112</v>
+        <v>0.3906988201200275</v>
       </c>
       <c r="Y4">
-        <v>0.9492507747079015</v>
+        <v>0.1217286961788694</v>
       </c>
       <c r="Z4">
-        <v>0.9617508696201756</v>
+        <v>-0.1592164489614318</v>
       </c>
       <c r="AA4">
-        <v>1.074765318727617</v>
+        <v>0.6833826430322073</v>
       </c>
       <c r="AB4">
-        <v>0.8059205548217477</v>
+        <v>0.3402312251366698</v>
       </c>
       <c r="AC4">
-        <v>0.9076550408728505</v>
+        <v>0.5134424339392887</v>
       </c>
       <c r="AD4">
-        <v>1.092840081896604</v>
+        <v>0.2136153285349165</v>
       </c>
       <c r="AE4">
-        <v>0.7373688238088933</v>
+        <v>0.7824218355325644</v>
       </c>
       <c r="AF4">
-        <v>0.7443250560848346</v>
+        <v>0.213084438620944</v>
       </c>
       <c r="AG4">
-        <v>0.8920239816350382</v>
+        <v>1.257298748618573</v>
       </c>
       <c r="AH4">
-        <v>0.8996839265797295</v>
+        <v>0.1854075121411748</v>
       </c>
       <c r="AI4">
-        <v>1.088967081620915</v>
+        <v>-0.6556337522080895</v>
       </c>
       <c r="AJ4">
-        <v>1.057082511391076</v>
+        <v>0.4685042555121256</v>
       </c>
       <c r="AK4">
-        <v>0.8277391293504992</v>
+        <v>0.06569466130109833</v>
       </c>
       <c r="AL4">
-        <v>0.6019231350403788</v>
+        <v>0.1933063565172124</v>
       </c>
       <c r="AM4">
-        <v>0.6885049742498035</v>
+        <v>-0.2877170299350666</v>
       </c>
       <c r="AN4">
-        <v>0.8538077490668012</v>
+        <v>0.03825017957448874</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>1.268014862734744</v>
+        <v>2.392021215160439</v>
       </c>
       <c r="C5">
-        <v>1.168583757275519</v>
+        <v>1.018392380279733</v>
       </c>
       <c r="D5">
-        <v>1.087584781504402</v>
+        <v>1.489729544044201</v>
       </c>
       <c r="E5">
-        <v>0.9728201173688741</v>
+        <v>1.283610632063481</v>
       </c>
       <c r="F5">
-        <v>0.9268899955650636</v>
+        <v>1.813774782718036</v>
       </c>
       <c r="G5">
-        <v>1.020204444419114</v>
+        <v>1.062731343889506</v>
       </c>
       <c r="H5">
-        <v>0.9571680650478387</v>
+        <v>1.755624174183863</v>
       </c>
       <c r="I5">
-        <v>1.093932204985743</v>
+        <v>2.665637886237052</v>
       </c>
       <c r="J5">
-        <v>1.034717525788209</v>
+        <v>1.118984109313873</v>
       </c>
       <c r="K5">
-        <v>1.075562862943983</v>
+        <v>1.516010818734546</v>
       </c>
       <c r="L5">
-        <v>0.726250701186942</v>
+        <v>2.045217662914942</v>
       </c>
       <c r="M5">
-        <v>0.9474545544869296</v>
+        <v>1.175445078331099</v>
       </c>
       <c r="N5">
-        <v>0.825052314581937</v>
+        <v>1.108593095431956</v>
       </c>
       <c r="O5">
-        <v>1.001189523175269</v>
+        <v>1.372495320008272</v>
       </c>
       <c r="P5">
-        <v>0.8300791046161378</v>
+        <v>0.4746255287734604</v>
       </c>
       <c r="Q5">
-        <v>0.7847763672052103</v>
+        <v>1.127788485175836</v>
       </c>
       <c r="R5">
-        <v>1.113702486470631</v>
+        <v>1.604146779586542</v>
       </c>
       <c r="S5">
-        <v>1.031676929755189</v>
+        <v>0.9783684440996403</v>
       </c>
       <c r="T5">
-        <v>0.8427358391015514</v>
+        <v>1.029835667789922</v>
       </c>
       <c r="U5">
-        <v>1.06836224575676</v>
+        <v>1.650732380041526</v>
       </c>
       <c r="V5">
-        <v>1.050755308946842</v>
+        <v>1.1463264624578</v>
       </c>
       <c r="W5">
-        <v>1.01638231372876</v>
+        <v>1.991658009682372</v>
       </c>
       <c r="X5">
-        <v>0.9579879762769857</v>
+        <v>0.8064425683829121</v>
       </c>
       <c r="Y5">
-        <v>1.029771253043206</v>
+        <v>0.3781499014626027</v>
       </c>
       <c r="Z5">
-        <v>1.017118697334394</v>
+        <v>0.3168843384814468</v>
       </c>
       <c r="AA5">
-        <v>1.075841963983443</v>
+        <v>1.39223219989487</v>
       </c>
       <c r="AB5">
-        <v>0.8369234857355655</v>
+        <v>0.556317680354033</v>
       </c>
       <c r="AC5">
-        <v>0.9881966225692592</v>
+        <v>0.8901313879744988</v>
       </c>
       <c r="AD5">
-        <v>1.157379989565655</v>
+        <v>0.7037749144960399</v>
       </c>
       <c r="AE5">
-        <v>0.7848339841144291</v>
+        <v>1.178486661641236</v>
       </c>
       <c r="AF5">
-        <v>0.7958736385531433</v>
+        <v>0.5995848550667757</v>
       </c>
       <c r="AG5">
-        <v>0.9062537493898561</v>
+        <v>1.416490916265578</v>
       </c>
       <c r="AH5">
-        <v>0.9260783149402664</v>
+        <v>0.5614152258497099</v>
       </c>
       <c r="AI5">
-        <v>1.167607186422814</v>
+        <v>-0.09056550987373156</v>
       </c>
       <c r="AJ5">
-        <v>1.082203636006617</v>
+        <v>0.6533239695699674</v>
       </c>
       <c r="AK5">
-        <v>0.8979502808865473</v>
+        <v>0.8708308731533819</v>
       </c>
       <c r="AL5">
-        <v>0.6418305491538772</v>
+        <v>0.768010526043421</v>
       </c>
       <c r="AM5">
-        <v>0.70540324474687</v>
+        <v>0.4198219933854812</v>
       </c>
       <c r="AN5">
-        <v>0.8968008385360451</v>
+        <v>1.401605204140956</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>1.628934650628462</v>
+        <v>-1.173056504695929</v>
       </c>
       <c r="C6">
-        <v>1.519070261991612</v>
+        <v>0.1000565335689215</v>
       </c>
       <c r="D6">
-        <v>1.451482604736617</v>
+        <v>-0.9298459163752294</v>
       </c>
       <c r="E6">
-        <v>1.376639587364663</v>
+        <v>-0.2990820836965538</v>
       </c>
       <c r="F6">
-        <v>1.245809197627021</v>
+        <v>-0.6863213476270694</v>
       </c>
       <c r="G6">
-        <v>1.366255326834955</v>
+        <v>-0.6246657083487334</v>
       </c>
       <c r="H6">
-        <v>1.265272581593458</v>
+        <v>0.2837605484152773</v>
       </c>
       <c r="I6">
-        <v>1.538812059074923</v>
+        <v>3.143853381118114</v>
       </c>
       <c r="J6">
-        <v>1.357571198289061</v>
+        <v>0.8745068315191846</v>
       </c>
       <c r="K6">
-        <v>1.478144920890927</v>
+        <v>0.8998853324398577</v>
       </c>
       <c r="L6">
-        <v>0.9937616935732611</v>
+        <v>1.395534578158689</v>
       </c>
       <c r="M6">
-        <v>1.233353502862115</v>
+        <v>0.007241268582372873</v>
       </c>
       <c r="N6">
-        <v>1.086175354513056</v>
+        <v>-0.02664019361264849</v>
       </c>
       <c r="O6">
-        <v>1.245503119124487</v>
+        <v>-0.4323453655757155</v>
       </c>
       <c r="P6">
-        <v>1.164394285965834</v>
+        <v>-0.6732328937215302</v>
       </c>
       <c r="Q6">
-        <v>0.9815260568907577</v>
+        <v>-1.00375365768337</v>
       </c>
       <c r="R6">
-        <v>1.500620940034818</v>
+        <v>-0.403477764510061</v>
       </c>
       <c r="S6">
-        <v>1.484094816923524</v>
+        <v>0.6866222969460062</v>
       </c>
       <c r="T6">
-        <v>1.129076859675719</v>
+        <v>0.2350202285224788</v>
       </c>
       <c r="U6">
-        <v>1.478374186010029</v>
+        <v>1.387669934696545</v>
       </c>
       <c r="V6">
-        <v>1.368173329741674</v>
+        <v>0.7064143044586793</v>
       </c>
       <c r="W6">
-        <v>1.310718828040081</v>
+        <v>1.24711911154707</v>
       </c>
       <c r="X6">
-        <v>1.151396552596536</v>
+        <v>0.6204252802609945</v>
       </c>
       <c r="Y6">
-        <v>1.449301546167961</v>
+        <v>-0.4515018463809707</v>
       </c>
       <c r="Z6">
-        <v>1.469583528941159</v>
+        <v>-0.4604705059793431</v>
       </c>
       <c r="AA6">
-        <v>1.594595353991318</v>
+        <v>0.997865867795753</v>
       </c>
       <c r="AB6">
-        <v>1.005954613083486</v>
+        <v>0.3190274450869826</v>
       </c>
       <c r="AC6">
-        <v>1.347261314648786</v>
+        <v>0.2480250859074597</v>
       </c>
       <c r="AD6">
-        <v>1.559609443051663</v>
+        <v>-0.2984082945862706</v>
       </c>
       <c r="AE6">
-        <v>1.066653439598431</v>
+        <v>0.1493075991759518</v>
       </c>
       <c r="AF6">
-        <v>1.046323112259064</v>
+        <v>-0.1345561207825403</v>
       </c>
       <c r="AG6">
-        <v>1.210686466086965</v>
+        <v>-1.325358967614405</v>
       </c>
       <c r="AH6">
-        <v>1.325751539316948</v>
+        <v>0.2536176316329358</v>
       </c>
       <c r="AI6">
-        <v>1.577484514272714</v>
+        <v>0.6833478348443547</v>
       </c>
       <c r="AJ6">
-        <v>1.522919502346137</v>
+        <v>0.3171161870801619</v>
       </c>
       <c r="AK6">
-        <v>1.287589309061802</v>
+        <v>0.7075783520844789</v>
       </c>
       <c r="AL6">
-        <v>0.910442949445576</v>
+        <v>0.08655533114013197</v>
       </c>
       <c r="AM6">
-        <v>1.006921840746263</v>
+        <v>-0.633004007470034</v>
       </c>
       <c r="AN6">
-        <v>1.234286409008928</v>
+        <v>-0.9385731594430393</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>1.288347681546828</v>
+        <v>1.297817235996709</v>
       </c>
       <c r="C7">
-        <v>1.199525907917142</v>
+        <v>0.2354604799823327</v>
       </c>
       <c r="D7">
-        <v>1.139097565137784</v>
+        <v>-0.1581296894266158</v>
       </c>
       <c r="E7">
-        <v>0.9797180996475743</v>
+        <v>0.719184626512607</v>
       </c>
       <c r="F7">
-        <v>0.9747866951595829</v>
+        <v>0.6398898530725213</v>
       </c>
       <c r="G7">
-        <v>1.033429441966433</v>
+        <v>0.2549558836501233</v>
       </c>
       <c r="H7">
-        <v>0.9609265163391386</v>
+        <v>1.284772267903976</v>
       </c>
       <c r="I7">
-        <v>1.121392101416861</v>
+        <v>1.782251162191891</v>
       </c>
       <c r="J7">
-        <v>1.027065856843022</v>
+        <v>0.5935369095154516</v>
       </c>
       <c r="K7">
-        <v>1.126297711984295</v>
+        <v>0.959242759912259</v>
       </c>
       <c r="L7">
-        <v>0.6617839538684338</v>
+        <v>1.802379449918894</v>
       </c>
       <c r="M7">
-        <v>0.9086917319959485</v>
+        <v>0.5099451739414357</v>
       </c>
       <c r="N7">
-        <v>0.7783852801296161</v>
+        <v>1.028672180688665</v>
       </c>
       <c r="O7">
-        <v>1.031277401683312</v>
+        <v>1.477872430758566</v>
       </c>
       <c r="P7">
-        <v>0.8241532664844368</v>
+        <v>0.4175584234952392</v>
       </c>
       <c r="Q7">
-        <v>0.7758479381860219</v>
+        <v>0.610271083956445</v>
       </c>
       <c r="R7">
-        <v>1.173774786052231</v>
+        <v>1.477328610573706</v>
       </c>
       <c r="S7">
-        <v>1.071759902654347</v>
+        <v>0.9659803246416041</v>
       </c>
       <c r="T7">
-        <v>0.8701858375416605</v>
+        <v>0.456005689279083</v>
       </c>
       <c r="U7">
-        <v>1.11215400727586</v>
+        <v>1.368135886007018</v>
       </c>
       <c r="V7">
-        <v>1.068546457405219</v>
+        <v>0.9494563981524762</v>
       </c>
       <c r="W7">
-        <v>1.051262879300488</v>
+        <v>1.362793100201851</v>
       </c>
       <c r="X7">
-        <v>1.03160778515287</v>
+        <v>0.7019521787813542</v>
       </c>
       <c r="Y7">
-        <v>1.104250991539115</v>
+        <v>0.6021178147493752</v>
       </c>
       <c r="Z7">
-        <v>1.074372736701589</v>
+        <v>0.9574819558821853</v>
       </c>
       <c r="AA7">
-        <v>1.089551773303566</v>
+        <v>1.266071469201115</v>
       </c>
       <c r="AB7">
-        <v>0.8396730570113451</v>
+        <v>0.3881769362129806</v>
       </c>
       <c r="AC7">
-        <v>1.056319000236789</v>
+        <v>0.7032892536686993</v>
       </c>
       <c r="AD7">
-        <v>1.20806935864248</v>
+        <v>0.9834016357744145</v>
       </c>
       <c r="AE7">
-        <v>0.8222279504959865</v>
+        <v>0.7831189781261187</v>
       </c>
       <c r="AF7">
-        <v>0.8355349285449263</v>
+        <v>0.8393465042186947</v>
       </c>
       <c r="AG7">
-        <v>0.9099065841040728</v>
+        <v>0.5783928010991681</v>
       </c>
       <c r="AH7">
-        <v>0.9534069782037106</v>
+        <v>0.6806730377920415</v>
       </c>
       <c r="AI7">
-        <v>1.232679463159003</v>
+        <v>1.034125961904264</v>
       </c>
       <c r="AJ7">
-        <v>1.104313544943933</v>
+        <v>0.3476638920985792</v>
       </c>
       <c r="AK7">
-        <v>0.9651909441975345</v>
+        <v>1.533645681463776</v>
       </c>
       <c r="AL7">
-        <v>0.6789231856044959</v>
+        <v>1.119006948673277</v>
       </c>
       <c r="AM7">
-        <v>0.7170307627250664</v>
+        <v>1.588056572526447</v>
       </c>
       <c r="AN7">
-        <v>0.9308732264541254</v>
+        <v>2.845042863095864</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>1.020406912652642</v>
+        <v>0.6384715556717427</v>
       </c>
       <c r="C8">
-        <v>0.9603140036225037</v>
+        <v>-0.09514420716717634</v>
       </c>
       <c r="D8">
-        <v>0.9496900706049484</v>
+        <v>-0.3494600245969424</v>
       </c>
       <c r="E8">
-        <v>0.7118332742007266</v>
+        <v>0.2814502288944896</v>
       </c>
       <c r="F8">
-        <v>0.8098252669843955</v>
+        <v>0.1503202489958543</v>
       </c>
       <c r="G8">
-        <v>0.7981440767507809</v>
+        <v>0.02350713952440782</v>
       </c>
       <c r="H8">
-        <v>0.7297580274272024</v>
+        <v>0.4884986717018481</v>
       </c>
       <c r="I8">
-        <v>0.8555512719485985</v>
+        <v>0.09156700698748686</v>
       </c>
       <c r="J8">
-        <v>0.7614189352094902</v>
+        <v>0.00967576463744497</v>
       </c>
       <c r="K8">
-        <v>0.9266917097633472</v>
+        <v>0.1919517262134352</v>
       </c>
       <c r="L8">
-        <v>0.3602791993634605</v>
+        <v>0.6779539863102557</v>
       </c>
       <c r="M8">
-        <v>0.6131519478375509</v>
+        <v>0.100034877497843</v>
       </c>
       <c r="N8">
-        <v>0.4946512731410589</v>
+        <v>0.5242697227943708</v>
       </c>
       <c r="O8">
-        <v>0.8556796667466859</v>
+        <v>0.9174700606832278</v>
       </c>
       <c r="P8">
-        <v>0.5805548598092491</v>
+        <v>0.3006592375156554</v>
       </c>
       <c r="Q8">
-        <v>0.5738868427259122</v>
+        <v>0.3822416605112847</v>
       </c>
       <c r="R8">
-        <v>0.9850748898913707</v>
+        <v>0.8178579026051935</v>
       </c>
       <c r="S8">
-        <v>0.8401101492281331</v>
+        <v>0.3803058109862136</v>
       </c>
       <c r="T8">
-        <v>0.6985859137797086</v>
+        <v>0.03219668782406406</v>
       </c>
       <c r="U8">
-        <v>0.895013738678714</v>
+        <v>0.3740286448369015</v>
       </c>
       <c r="V8">
-        <v>0.8475706880377812</v>
+        <v>0.3047173355619354</v>
       </c>
       <c r="W8">
-        <v>0.8677486229014292</v>
+        <v>0.2848206706034538</v>
       </c>
       <c r="X8">
-        <v>0.9604124278192147</v>
+        <v>0.208761796164195</v>
       </c>
       <c r="Y8">
-        <v>0.94238430774072</v>
+        <v>0.4848548679866552</v>
       </c>
       <c r="Z8">
-        <v>0.8699316338531804</v>
+        <v>0.7522000679820054</v>
       </c>
       <c r="AA8">
-        <v>0.7752524237124208</v>
+        <v>0.4480595997892313</v>
       </c>
       <c r="AB8">
-        <v>0.6785325508689599</v>
+        <v>0.1011158381301221</v>
       </c>
       <c r="AC8">
-        <v>0.9124259688757451</v>
+        <v>0.2713423087229687</v>
       </c>
       <c r="AD8">
-        <v>0.9932429651875156</v>
+        <v>0.6448968699836859</v>
       </c>
       <c r="AE8">
-        <v>0.6831913102142795</v>
+        <v>0.2885578095117985</v>
       </c>
       <c r="AF8">
-        <v>0.7006395385571844</v>
+        <v>0.5660002362484509</v>
       </c>
       <c r="AG8">
-        <v>0.6862860106751331</v>
+        <v>0.3695034131912359</v>
       </c>
       <c r="AH8">
-        <v>0.731583375688731</v>
+        <v>0.333010695829072</v>
       </c>
       <c r="AI8">
-        <v>1.036015990382024</v>
+        <v>0.7353300805181388</v>
       </c>
       <c r="AJ8">
-        <v>0.8405027890865331</v>
+        <v>0.05203929533258564</v>
       </c>
       <c r="AK8">
-        <v>0.8220383043736738</v>
+        <v>0.8822928499413452</v>
       </c>
       <c r="AL8">
-        <v>0.5616165892420439</v>
+        <v>0.6732133098713734</v>
       </c>
       <c r="AM8">
-        <v>0.5501489650354076</v>
+        <v>1.338659952524853</v>
       </c>
       <c r="AN8">
-        <v>0.7524492748972605</v>
+        <v>2.102785242019964</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>1.090224331764841</v>
+        <v>0.01178120560545869</v>
       </c>
       <c r="C9">
-        <v>1.024841230001614</v>
+        <v>-0.2520285990172739</v>
       </c>
       <c r="D9">
-        <v>0.973018966550986</v>
+        <v>-0.6120869147353364</v>
       </c>
       <c r="E9">
-        <v>0.7738954562296085</v>
+        <v>-0.01258642821019117</v>
       </c>
       <c r="F9">
-        <v>0.8387506195790608</v>
+        <v>-0.2404054622792342</v>
       </c>
       <c r="G9">
-        <v>0.8457292623115752</v>
+        <v>-0.2047658323421072</v>
       </c>
       <c r="H9">
-        <v>0.7858443866865712</v>
+        <v>0.119645312717413</v>
       </c>
       <c r="I9">
-        <v>0.9098259859663045</v>
+        <v>-0.1548114729005816</v>
       </c>
       <c r="J9">
-        <v>0.8322711175276305</v>
+        <v>-0.1250226570079118</v>
       </c>
       <c r="K9">
-        <v>0.9427715816725312</v>
+        <v>-0.04399423169840454</v>
       </c>
       <c r="L9">
-        <v>0.4636722141823165</v>
+        <v>0.2752323170935932</v>
       </c>
       <c r="M9">
-        <v>0.7109971000853584</v>
+        <v>-0.1266639073725048</v>
       </c>
       <c r="N9">
-        <v>0.5916470974150821</v>
+        <v>0.2358559006958895</v>
       </c>
       <c r="O9">
-        <v>0.90328705623604</v>
+        <v>0.4697393853150379</v>
       </c>
       <c r="P9">
-        <v>0.6422329175435584</v>
+        <v>0.1295812692610613</v>
       </c>
       <c r="Q9">
-        <v>0.6541959397053368</v>
+        <v>0.04093854133384085</v>
       </c>
       <c r="R9">
-        <v>1.00554791354357</v>
+        <v>0.3640022688592484</v>
       </c>
       <c r="S9">
-        <v>0.8651394115633122</v>
+        <v>0.1891469893587698</v>
       </c>
       <c r="T9">
-        <v>0.7318723799780666</v>
+        <v>-0.1312717349549364</v>
       </c>
       <c r="U9">
-        <v>0.9241109763268832</v>
+        <v>0.1234582899350352</v>
       </c>
       <c r="V9">
-        <v>0.8931888514966819</v>
+        <v>0.1055217343360302</v>
       </c>
       <c r="W9">
-        <v>0.9036784034077325</v>
+        <v>-0.0100348106646923</v>
       </c>
       <c r="X9">
-        <v>0.9542882713212308</v>
+        <v>0.08266019665070715</v>
       </c>
       <c r="Y9">
-        <v>0.9375238393160613</v>
+        <v>0.2894185658593473</v>
       </c>
       <c r="Z9">
-        <v>0.8850427350954195</v>
+        <v>0.5334216066605357</v>
       </c>
       <c r="AA9">
-        <v>0.8409382577719809</v>
+        <v>0.1956114899048672</v>
       </c>
       <c r="AB9">
-        <v>0.719939353601929</v>
+        <v>0.008286565243150631</v>
       </c>
       <c r="AC9">
-        <v>0.909218357477333</v>
+        <v>0.08661078731641079</v>
       </c>
       <c r="AD9">
-        <v>1.023098588273329</v>
+        <v>0.3870097656570624</v>
       </c>
       <c r="AE9">
-        <v>0.6918125077872536</v>
+        <v>0.0380011057505734</v>
       </c>
       <c r="AF9">
-        <v>0.7258899015975503</v>
+        <v>0.3349733775738182</v>
       </c>
       <c r="AG9">
-        <v>0.7396089089431575</v>
+        <v>-0.05580259177984482</v>
       </c>
       <c r="AH9">
-        <v>0.7649270299368255</v>
+        <v>0.1979886067700722</v>
       </c>
       <c r="AI9">
-        <v>1.057002732336979</v>
+        <v>0.659586714510861</v>
       </c>
       <c r="AJ9">
-        <v>0.8844311885434905</v>
+        <v>-0.05284970804436327</v>
       </c>
       <c r="AK9">
-        <v>0.810311923048218</v>
+        <v>0.6093395444975004</v>
       </c>
       <c r="AL9">
-        <v>0.5634566794277681</v>
+        <v>0.42204918612437</v>
       </c>
       <c r="AM9">
-        <v>0.5540460524009548</v>
+        <v>0.9481736655276967</v>
       </c>
       <c r="AN9">
-        <v>0.7686626317727435</v>
+        <v>1.395292475010078</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>1.049177368203989</v>
+        <v>-0.03971175527495334</v>
       </c>
       <c r="C10">
-        <v>0.9949353535052171</v>
+        <v>-0.1494023243568873</v>
       </c>
       <c r="D10">
-        <v>0.9251993827592632</v>
+        <v>-0.5567711664407144</v>
       </c>
       <c r="E10">
-        <v>0.7145042641247272</v>
+        <v>0.03233085684752736</v>
       </c>
       <c r="F10">
-        <v>0.8081408898289696</v>
+        <v>-0.1834481063591473</v>
       </c>
       <c r="G10">
-        <v>0.7898961031159418</v>
+        <v>-0.1773643609474337</v>
       </c>
       <c r="H10">
-        <v>0.739230622784885</v>
+        <v>0.2645961187216399</v>
       </c>
       <c r="I10">
-        <v>0.8496322179268164</v>
+        <v>0.5004352058831356</v>
       </c>
       <c r="J10">
-        <v>0.7822542584253406</v>
+        <v>0.08263798557380567</v>
       </c>
       <c r="K10">
-        <v>0.8797040691577629</v>
+        <v>0.1763835079856612</v>
       </c>
       <c r="L10">
-        <v>0.4124327099717016</v>
+        <v>0.4794810372818168</v>
       </c>
       <c r="M10">
-        <v>0.667129897224564</v>
+        <v>-0.04792935794460162</v>
       </c>
       <c r="N10">
-        <v>0.549287871838846</v>
+        <v>0.2689642314656508</v>
       </c>
       <c r="O10">
-        <v>0.8861416066606119</v>
+        <v>0.3857717040333327</v>
       </c>
       <c r="P10">
-        <v>0.5904795089570126</v>
+        <v>0.0895690834760992</v>
       </c>
       <c r="Q10">
-        <v>0.64787346660187</v>
+        <v>-0.0480450564292533</v>
       </c>
       <c r="R10">
-        <v>0.9573524829020529</v>
+        <v>0.358577690146856</v>
       </c>
       <c r="S10">
-        <v>0.7909472590091</v>
+        <v>0.312892066519951</v>
       </c>
       <c r="T10">
-        <v>0.695878221440934</v>
+        <v>5.727666318158168e-05</v>
       </c>
       <c r="U10">
-        <v>0.8649603490782127</v>
+        <v>0.4162195871466353</v>
       </c>
       <c r="V10">
-        <v>0.844967710973253</v>
+        <v>0.2742068037461452</v>
       </c>
       <c r="W10">
-        <v>0.8691124273461402</v>
+        <v>0.3325521503094097</v>
       </c>
       <c r="X10">
-        <v>0.9421400441163013</v>
+        <v>0.230354346526688</v>
       </c>
       <c r="Y10">
-        <v>0.8759742919898255</v>
+        <v>0.1759426444153755</v>
       </c>
       <c r="Z10">
-        <v>0.8186655096925549</v>
+        <v>0.4248450813534982</v>
       </c>
       <c r="AA10">
-        <v>0.7627936504971367</v>
+        <v>0.3896354915871892</v>
       </c>
       <c r="AB10">
-        <v>0.6933571664534398</v>
+        <v>0.08421812975234717</v>
       </c>
       <c r="AC10">
-        <v>0.8576798388285805</v>
+        <v>0.1679036443544768</v>
       </c>
       <c r="AD10">
-        <v>0.9696357198645341</v>
+        <v>0.3384605743677562</v>
       </c>
       <c r="AE10">
-        <v>0.6458866909345228</v>
+        <v>0.1136593274459</v>
       </c>
       <c r="AF10">
-        <v>0.7036336271466909</v>
+        <v>0.2566535522223735</v>
       </c>
       <c r="AG10">
-        <v>0.693022652603744</v>
+        <v>-0.1979088617181185</v>
       </c>
       <c r="AH10">
-        <v>0.7013978332742872</v>
+        <v>0.2530150554322954</v>
       </c>
       <c r="AI10">
-        <v>1.007117480334316</v>
+        <v>0.6260884537295275</v>
       </c>
       <c r="AJ10">
-        <v>0.811047287959104</v>
+        <v>0.02582837685168596</v>
       </c>
       <c r="AK10">
-        <v>0.7468671350206941</v>
+        <v>0.6305724910217437</v>
       </c>
       <c r="AL10">
-        <v>0.5191211659389217</v>
+        <v>0.4116628585786461</v>
       </c>
       <c r="AM10">
-        <v>0.4779544068220967</v>
+        <v>0.6483685276261449</v>
       </c>
       <c r="AN10">
-        <v>0.7104148661593447</v>
+        <v>1.089539227396577</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>1.007794334010639</v>
+        <v>-0.3489010533935801</v>
       </c>
       <c r="C11">
-        <v>0.9409711442722832</v>
+        <v>-0.2949695222380402</v>
       </c>
       <c r="D11">
-        <v>0.9056586068722564</v>
+        <v>-0.750233213753851</v>
       </c>
       <c r="E11">
-        <v>0.7643733565813147</v>
+        <v>-0.1815052620875051</v>
       </c>
       <c r="F11">
-        <v>0.7741399015130369</v>
+        <v>-0.461679537498363</v>
       </c>
       <c r="G11">
-        <v>0.8100243195393212</v>
+        <v>-0.3539158711615863</v>
       </c>
       <c r="H11">
-        <v>0.7490513013288508</v>
+        <v>-0.07007269414097098</v>
       </c>
       <c r="I11">
-        <v>0.8818598787676082</v>
+        <v>-0.09957583842559596</v>
       </c>
       <c r="J11">
-        <v>0.7960981355826976</v>
+        <v>-0.1283945234819124</v>
       </c>
       <c r="K11">
-        <v>0.8972663857075238</v>
+        <v>-0.101031365022401</v>
       </c>
       <c r="L11">
-        <v>0.4905804384698584</v>
+        <v>0.1909565489784426</v>
       </c>
       <c r="M11">
-        <v>0.691167003945812</v>
+        <v>-0.2192294227673768</v>
       </c>
       <c r="N11">
-        <v>0.5869995126895788</v>
+        <v>0.06688826103609596</v>
       </c>
       <c r="O11">
-        <v>0.810566461069946</v>
+        <v>0.2087576789216708</v>
       </c>
       <c r="P11">
-        <v>0.6387693884738989</v>
+        <v>-0.04098093561246222</v>
       </c>
       <c r="Q11">
-        <v>0.595054098372752</v>
+        <v>-0.1847221880273943</v>
       </c>
       <c r="R11">
-        <v>0.9354490321900337</v>
+        <v>0.07665836865703195</v>
       </c>
       <c r="S11">
-        <v>0.8510772306975315</v>
+        <v>0.1216237244242654</v>
       </c>
       <c r="T11">
-        <v>0.6865860179402204</v>
+        <v>-0.2001708361582024</v>
       </c>
       <c r="U11">
-        <v>0.8823277883933699</v>
+        <v>0.05837145370239481</v>
       </c>
       <c r="V11">
-        <v>0.8386137168025682</v>
+        <v>0.027392361176634</v>
       </c>
       <c r="W11">
-        <v>0.8300516429999989</v>
+        <v>-0.1163600189107844</v>
       </c>
       <c r="X11">
-        <v>0.8293276004009724</v>
+        <v>0.03151179737161295</v>
       </c>
       <c r="Y11">
-        <v>0.8889063036361377</v>
+        <v>0.163340266531205</v>
       </c>
       <c r="Z11">
-        <v>0.8584804705487045</v>
+        <v>0.3395098401069681</v>
       </c>
       <c r="AA11">
-        <v>0.8526937766675174</v>
+        <v>0.1136445268583916</v>
       </c>
       <c r="AB11">
-        <v>0.6547735550235905</v>
+        <v>-0.01869239652512188</v>
       </c>
       <c r="AC11">
-        <v>0.8489469906255654</v>
+        <v>-0.00217752401062487</v>
       </c>
       <c r="AD11">
-        <v>0.9589028396405048</v>
+        <v>0.2016457531464189</v>
       </c>
       <c r="AE11">
-        <v>0.6555663731477319</v>
+        <v>-0.07288365359649152</v>
       </c>
       <c r="AF11">
-        <v>0.6629286583131089</v>
+        <v>0.2183142660003048</v>
       </c>
       <c r="AG11">
-        <v>0.7093998292360087</v>
+        <v>-0.3040925771132619</v>
       </c>
       <c r="AH11">
-        <v>0.7532607153954891</v>
+        <v>0.1177581712364605</v>
       </c>
       <c r="AI11">
-        <v>0.9829293930670775</v>
+        <v>0.6264340154128847</v>
       </c>
       <c r="AJ11">
-        <v>0.8693069582985412</v>
+        <v>-0.07171627702347484</v>
       </c>
       <c r="AK11">
-        <v>0.7790909112839546</v>
+        <v>0.4944455950914281</v>
       </c>
       <c r="AL11">
-        <v>0.5439709977780982</v>
+        <v>0.2710721268441021</v>
       </c>
       <c r="AM11">
-        <v>0.568814032547442</v>
+        <v>0.7080066330522411</v>
       </c>
       <c r="AN11">
-        <v>0.7394980519042464</v>
+        <v>0.9076660162088784</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>1.087400196044132</v>
+        <v>-0.2001768396367765</v>
       </c>
       <c r="C12">
-        <v>1.027502424344151</v>
+        <v>-0.2214043779626054</v>
       </c>
       <c r="D12">
-        <v>1.034200538650895</v>
+        <v>-0.481682700872838</v>
       </c>
       <c r="E12">
-        <v>0.8124227280616261</v>
+        <v>-0.1452156054244734</v>
       </c>
       <c r="F12">
-        <v>0.8823578828336428</v>
+        <v>-0.3206093913298833</v>
       </c>
       <c r="G12">
-        <v>0.8768773577815604</v>
+        <v>-0.2421229353890656</v>
       </c>
       <c r="H12">
-        <v>0.7950724402013473</v>
+        <v>-0.1318380099781295</v>
       </c>
       <c r="I12">
-        <v>0.9666529519740591</v>
+        <v>-0.3727096875893285</v>
       </c>
       <c r="J12">
-        <v>0.8267226712723424</v>
+        <v>-0.1726879583431025</v>
       </c>
       <c r="K12">
-        <v>1.029142341808437</v>
+        <v>-0.1659268211656853</v>
       </c>
       <c r="L12">
-        <v>0.4154740925342398</v>
+        <v>0.03932317353621386</v>
       </c>
       <c r="M12">
-        <v>0.6642722341366984</v>
+        <v>-0.1690713613167156</v>
       </c>
       <c r="N12">
-        <v>0.5424727845284275</v>
+        <v>0.007735243215329209</v>
       </c>
       <c r="O12">
-        <v>0.8926534506689808</v>
+        <v>0.1548266502280738</v>
       </c>
       <c r="P12">
-        <v>0.6614872209333846</v>
+        <v>-0.037684739566475</v>
       </c>
       <c r="Q12">
-        <v>0.5975087601245614</v>
+        <v>-0.08220140075048454</v>
       </c>
       <c r="R12">
-        <v>1.077255329241973</v>
+        <v>0.02018656064700315</v>
       </c>
       <c r="S12">
-        <v>0.9631846712885562</v>
+        <v>0.009503453900111168</v>
       </c>
       <c r="T12">
-        <v>0.7632968286181808</v>
+        <v>-0.1918782175940943</v>
       </c>
       <c r="U12">
-        <v>0.998091203362754</v>
+        <v>-0.1147423223679543</v>
       </c>
       <c r="V12">
-        <v>0.9135648017067896</v>
+        <v>-0.07575158571181627</v>
       </c>
       <c r="W12">
-        <v>0.9264668610351348</v>
+        <v>-0.2560993381553397</v>
       </c>
       <c r="X12">
-        <v>0.9879682892684432</v>
+        <v>-0.06448422469585005</v>
       </c>
       <c r="Y12">
-        <v>1.056125222073941</v>
+        <v>0.150673608362155</v>
       </c>
       <c r="Z12">
-        <v>0.9941068395939349</v>
+        <v>0.2281928212865668</v>
       </c>
       <c r="AA12">
-        <v>0.9151412419289162</v>
+        <v>-0.03033382016235718</v>
       </c>
       <c r="AB12">
-        <v>0.6979573761155541</v>
+        <v>-0.04835557946365954</v>
       </c>
       <c r="AC12">
-        <v>1.004342880404725</v>
+        <v>-0.04903842448496661</v>
       </c>
       <c r="AD12">
-        <v>1.088292744747859</v>
+        <v>0.1226637724639426</v>
       </c>
       <c r="AE12">
-        <v>0.7540068418778085</v>
+        <v>-0.08341746469438865</v>
       </c>
       <c r="AF12">
-        <v>0.7537163884435989</v>
+        <v>0.1737390533663828</v>
       </c>
       <c r="AG12">
-        <v>0.7531006366437623</v>
+        <v>-0.1137936468480045</v>
       </c>
       <c r="AH12">
-        <v>0.8376791760783681</v>
+        <v>0.03095845359821393</v>
       </c>
       <c r="AI12">
-        <v>1.13419398154975</v>
+        <v>0.3924248061110974</v>
       </c>
       <c r="AJ12">
-        <v>0.9539666828670799</v>
+        <v>-0.07547478841242945</v>
       </c>
       <c r="AK12">
-        <v>0.9324043397870776</v>
+        <v>0.2877604629672043</v>
       </c>
       <c r="AL12">
-        <v>0.6352314612317378</v>
+        <v>0.1543900482040596</v>
       </c>
       <c r="AM12">
-        <v>0.636847491139493</v>
+        <v>0.5753437120241265</v>
       </c>
       <c r="AN12">
-        <v>0.8389032787940869</v>
+        <v>0.6574673138593979</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块-beta.xlsx
+++ b/FOF/data/基金公司-板块-beta.xlsx
@@ -16,157 +16,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
     <t>诺德</t>
   </si>
   <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
     <t>华夏</t>
   </si>
   <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>易方达</t>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>招商</t>
   </si>
   <si>
     <t>中银</t>
   </si>
   <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>东方公司</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>长信公司</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>安信公司</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>建信公司</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
     <t>中证100</t>
   </si>
   <si>
     <t>上证50</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中证1000</t>
-  </si>
-  <si>
-    <t>创业板综</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0.8682109372104376</v>
+        <v>0.8963011014905613</v>
       </c>
       <c r="C2">
-        <v>0.4848208778767393</v>
+        <v>0.6152572755217093</v>
       </c>
       <c r="D2">
-        <v>0.9971375162389466</v>
+        <v>0.7012898822299646</v>
       </c>
       <c r="E2">
-        <v>0.420413822635818</v>
+        <v>0.7725849890224334</v>
       </c>
       <c r="F2">
-        <v>0.7903035435480107</v>
+        <v>1.081430091671449</v>
       </c>
       <c r="G2">
-        <v>0.5224605184489485</v>
+        <v>0.7089635229650869</v>
       </c>
       <c r="H2">
-        <v>0.3872422999019541</v>
+        <v>0.696669771079413</v>
       </c>
       <c r="I2">
-        <v>0.5094005862318067</v>
+        <v>0.8336245674015622</v>
       </c>
       <c r="J2">
-        <v>0.3223842945402721</v>
+        <v>0.691355154284782</v>
       </c>
       <c r="K2">
-        <v>0.3807863997977588</v>
+        <v>0.6441101289766793</v>
       </c>
       <c r="L2">
-        <v>0.30713740974722</v>
+        <v>0.6289593292517173</v>
       </c>
       <c r="M2">
-        <v>0.4523766858123457</v>
+        <v>0.5524527617335661</v>
       </c>
       <c r="N2">
-        <v>0.1565683684834327</v>
+        <v>0.6549768634415224</v>
       </c>
       <c r="O2">
-        <v>0.1478835637997489</v>
+        <v>0.6628566177384269</v>
       </c>
       <c r="P2">
-        <v>0.08717946252417422</v>
+        <v>0.6546087336969996</v>
       </c>
       <c r="Q2">
-        <v>0.4334680106217875</v>
+        <v>0.5454262474761266</v>
       </c>
       <c r="R2">
-        <v>0.2520085840563931</v>
+        <v>0.6929926376038363</v>
       </c>
       <c r="S2">
-        <v>0.07498994814345934</v>
+        <v>0.686652475253091</v>
       </c>
       <c r="T2">
-        <v>0.3605471168887818</v>
+        <v>0.6752430745650315</v>
       </c>
       <c r="U2">
-        <v>0.2228472546131702</v>
+        <v>0.7437187566226665</v>
       </c>
       <c r="V2">
-        <v>0.1668696457810976</v>
+        <v>0.6532104628804056</v>
       </c>
       <c r="W2">
-        <v>0.4134254205919054</v>
+        <v>0.6275956919492929</v>
       </c>
       <c r="X2">
-        <v>0.08541369275486553</v>
+        <v>0.5200175476115876</v>
       </c>
       <c r="Y2">
-        <v>-0.01971473340509991</v>
+        <v>0.6467239230945879</v>
       </c>
       <c r="Z2">
-        <v>-0.2553119341850661</v>
+        <v>0.6371296387758979</v>
       </c>
       <c r="AA2">
-        <v>0.1545059850328485</v>
+        <v>0.598007232776019</v>
       </c>
       <c r="AB2">
-        <v>0.1229615570432125</v>
+        <v>0.6783934349726731</v>
       </c>
       <c r="AC2">
-        <v>0.1676072863305038</v>
+        <v>0.6544561079375889</v>
       </c>
       <c r="AD2">
-        <v>-0.04536322968508042</v>
+        <v>0.7236645499500186</v>
       </c>
       <c r="AE2">
-        <v>0.3149453875568519</v>
+        <v>0.5113137528454941</v>
       </c>
       <c r="AF2">
-        <v>-0.01076163944933971</v>
+        <v>0.7539491400558626</v>
       </c>
       <c r="AG2">
-        <v>0.6627237264191621</v>
+        <v>0.7262668106525446</v>
       </c>
       <c r="AH2">
-        <v>-0.02052683085048188</v>
+        <v>0.5636557057463681</v>
       </c>
       <c r="AI2">
-        <v>-0.5677583529095378</v>
+        <v>0.5806559544264891</v>
       </c>
       <c r="AJ2">
-        <v>0.2071291578600826</v>
+        <v>0.6114750229826288</v>
       </c>
       <c r="AK2">
-        <v>-0.2352146278069887</v>
+        <v>0.5430554761221765</v>
       </c>
       <c r="AL2">
-        <v>-0.08479211051612368</v>
+        <v>0.553509471737346</v>
       </c>
       <c r="AM2">
-        <v>-0.4109278992200457</v>
+        <v>0.6074507800025648</v>
       </c>
       <c r="AN2">
-        <v>-0.4475658564078189</v>
+        <v>0.5128230444652097</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0.8531016234155482</v>
+        <v>1.370954641276728</v>
       </c>
       <c r="C3">
-        <v>0.6182356439017289</v>
+        <v>0.8897800330080857</v>
       </c>
       <c r="D3">
-        <v>1.259098101185609</v>
+        <v>1.059619428104362</v>
       </c>
       <c r="E3">
-        <v>0.4093604962532135</v>
+        <v>1.172603560952304</v>
       </c>
       <c r="F3">
-        <v>0.8767755308582628</v>
+        <v>1.67988728420331</v>
       </c>
       <c r="G3">
-        <v>0.5826148245658465</v>
+        <v>1.091789876046773</v>
       </c>
       <c r="H3">
-        <v>0.3204076091903936</v>
+        <v>1.077748105657679</v>
       </c>
       <c r="I3">
-        <v>0.6468348908082951</v>
+        <v>1.250705902140128</v>
       </c>
       <c r="J3">
-        <v>0.4088059299302845</v>
+        <v>1.020915753322624</v>
       </c>
       <c r="K3">
-        <v>0.4310594105146456</v>
+        <v>1.035774919413277</v>
       </c>
       <c r="L3">
-        <v>0.2832307584930979</v>
+        <v>0.9218804695424364</v>
       </c>
       <c r="M3">
-        <v>0.5239598836422538</v>
+        <v>0.9540091694040627</v>
       </c>
       <c r="N3">
-        <v>0.03619498205496708</v>
+        <v>1.039166222037027</v>
       </c>
       <c r="O3">
-        <v>-0.05902973081270906</v>
+        <v>1.006935870519393</v>
       </c>
       <c r="P3">
-        <v>-0.03804395271049753</v>
+        <v>1.028911575355132</v>
       </c>
       <c r="Q3">
-        <v>0.39231361812428</v>
+        <v>0.8207882908106036</v>
       </c>
       <c r="R3">
-        <v>0.05484270677626323</v>
+        <v>1.083256903687969</v>
       </c>
       <c r="S3">
-        <v>0.006475597404812898</v>
+        <v>1.057356458050491</v>
       </c>
       <c r="T3">
-        <v>0.4143445604438987</v>
+        <v>1.050106442347599</v>
       </c>
       <c r="U3">
-        <v>0.1872521723620153</v>
+        <v>1.164794316812873</v>
       </c>
       <c r="V3">
-        <v>0.1208151879711363</v>
+        <v>1.025163643874651</v>
       </c>
       <c r="W3">
-        <v>0.4105168842663147</v>
+        <v>1.020207954604524</v>
       </c>
       <c r="X3">
-        <v>0.0404841763543921</v>
+        <v>0.8546223027439003</v>
       </c>
       <c r="Y3">
-        <v>-0.1451994536645458</v>
+        <v>1.014424508148625</v>
       </c>
       <c r="Z3">
-        <v>-0.542023736893936</v>
+        <v>0.9747310120857511</v>
       </c>
       <c r="AA3">
-        <v>0.08931539948084501</v>
+        <v>0.9510135664803385</v>
       </c>
       <c r="AB3">
-        <v>0.1290335278463114</v>
+        <v>1.092874632809284</v>
       </c>
       <c r="AC3">
-        <v>0.1270565249912775</v>
+        <v>1.049625766592573</v>
       </c>
       <c r="AD3">
-        <v>-0.2495888693730656</v>
+        <v>1.131128481672005</v>
       </c>
       <c r="AE3">
-        <v>0.310038148487565</v>
+        <v>0.837610956641026</v>
       </c>
       <c r="AF3">
-        <v>-0.1341259572766414</v>
+        <v>1.182600923988112</v>
       </c>
       <c r="AG3">
-        <v>0.6957339454690321</v>
+        <v>1.111147287211526</v>
       </c>
       <c r="AH3">
-        <v>-0.1231396363481106</v>
+        <v>0.9338998918786082</v>
       </c>
       <c r="AI3">
-        <v>-0.8416164900104768</v>
+        <v>0.9555145084396603</v>
       </c>
       <c r="AJ3">
-        <v>0.2537460200806829</v>
+        <v>0.9559814929282526</v>
       </c>
       <c r="AK3">
-        <v>-0.4717101857619138</v>
+        <v>0.8678154937124841</v>
       </c>
       <c r="AL3">
-        <v>-0.2809534363857883</v>
+        <v>0.9313454198088925</v>
       </c>
       <c r="AM3">
-        <v>-0.7986211926541231</v>
+        <v>0.9697809310821481</v>
       </c>
       <c r="AN3">
-        <v>-1.102470277648616</v>
+        <v>0.8774445705925532</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>1.843963274617492</v>
+        <v>1.100601739694508</v>
       </c>
       <c r="C4">
-        <v>0.9084123476208529</v>
+        <v>0.691370234327326</v>
       </c>
       <c r="D4">
-        <v>1.646933923381698</v>
+        <v>0.8369028234267785</v>
       </c>
       <c r="E4">
-        <v>0.9380732832035709</v>
+        <v>0.9340336637707105</v>
       </c>
       <c r="F4">
-        <v>1.540834870536893</v>
+        <v>1.356509252166926</v>
       </c>
       <c r="G4">
-        <v>0.9681916046845387</v>
+        <v>0.8770331973206839</v>
       </c>
       <c r="H4">
-        <v>1.075210115925131</v>
+        <v>0.8679038031519886</v>
       </c>
       <c r="I4">
-        <v>1.536097655740077</v>
+        <v>0.9877527459370463</v>
       </c>
       <c r="J4">
-        <v>0.7653472355214268</v>
+        <v>0.7983934456858307</v>
       </c>
       <c r="K4">
-        <v>0.976948065566813</v>
+        <v>0.8476825705396013</v>
       </c>
       <c r="L4">
-        <v>1.093224425958622</v>
+        <v>0.7190618737500342</v>
       </c>
       <c r="M4">
-        <v>0.9318938876164752</v>
+        <v>0.8082078262272675</v>
       </c>
       <c r="N4">
-        <v>0.5838513696022027</v>
+        <v>0.8439879189835421</v>
       </c>
       <c r="O4">
-        <v>0.6751266896409027</v>
+        <v>0.8021163103762023</v>
       </c>
       <c r="P4">
-        <v>0.2736332429218543</v>
+        <v>0.8324251970374972</v>
       </c>
       <c r="Q4">
-        <v>0.8974029393588223</v>
+        <v>0.6513253252801964</v>
       </c>
       <c r="R4">
-        <v>0.8740208198654001</v>
+        <v>0.8711802030459392</v>
       </c>
       <c r="S4">
-        <v>0.4436895262125262</v>
+        <v>0.8441721350737078</v>
       </c>
       <c r="T4">
-        <v>0.7759166325771617</v>
+        <v>0.846109054457105</v>
       </c>
       <c r="U4">
-        <v>0.8523798151918556</v>
+        <v>0.941792683007846</v>
       </c>
       <c r="V4">
-        <v>0.6060591702424571</v>
+        <v>0.8320125244959042</v>
       </c>
       <c r="W4">
-        <v>1.187343842913533</v>
+        <v>0.8389603986088224</v>
       </c>
       <c r="X4">
-        <v>0.3906988201200275</v>
+        <v>0.7050535425724928</v>
       </c>
       <c r="Y4">
-        <v>0.1217286961788694</v>
+        <v>0.8188977107626544</v>
       </c>
       <c r="Z4">
-        <v>-0.1592164489614318</v>
+        <v>0.778801096398774</v>
       </c>
       <c r="AA4">
-        <v>0.6833826430322073</v>
+        <v>0.7728153372192463</v>
       </c>
       <c r="AB4">
-        <v>0.3402312251366698</v>
+        <v>0.8937655372822767</v>
       </c>
       <c r="AC4">
-        <v>0.5134424339392887</v>
+        <v>0.8572627166934627</v>
       </c>
       <c r="AD4">
-        <v>0.2136153285349165</v>
+        <v>0.9112787900611213</v>
       </c>
       <c r="AE4">
-        <v>0.7824218355325644</v>
+        <v>0.6876927876395852</v>
       </c>
       <c r="AF4">
-        <v>0.213084438620944</v>
+        <v>0.9541428799709422</v>
       </c>
       <c r="AG4">
-        <v>1.257298748618573</v>
+        <v>0.8839763352589051</v>
       </c>
       <c r="AH4">
-        <v>0.1854075121411748</v>
+        <v>0.7711441812326731</v>
       </c>
       <c r="AI4">
-        <v>-0.6556337522080895</v>
+        <v>0.7869778103370961</v>
       </c>
       <c r="AJ4">
-        <v>0.4685042555121256</v>
+        <v>0.76855819460352</v>
       </c>
       <c r="AK4">
-        <v>0.06569466130109833</v>
+        <v>0.7038970500726816</v>
       </c>
       <c r="AL4">
-        <v>0.1933063565172124</v>
+        <v>0.7763325054688618</v>
       </c>
       <c r="AM4">
-        <v>-0.2877170299350666</v>
+        <v>0.7865696233046269</v>
       </c>
       <c r="AN4">
-        <v>0.03825017957448874</v>
+        <v>0.7354987186477233</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>2.392021215160439</v>
+        <v>1.227711758372117</v>
       </c>
       <c r="C5">
-        <v>1.018392380279733</v>
+        <v>0.7742801249219505</v>
       </c>
       <c r="D5">
-        <v>1.489729544044201</v>
+        <v>0.9290500497027877</v>
       </c>
       <c r="E5">
-        <v>1.283610632063481</v>
+        <v>1.048572589785628</v>
       </c>
       <c r="F5">
-        <v>1.813774782718036</v>
+        <v>1.499962760448322</v>
       </c>
       <c r="G5">
-        <v>1.062731343889506</v>
+        <v>0.9847883151250107</v>
       </c>
       <c r="H5">
-        <v>1.755624174183863</v>
+        <v>0.9707928667066725</v>
       </c>
       <c r="I5">
-        <v>2.665637886237052</v>
+        <v>1.096398769083536</v>
       </c>
       <c r="J5">
-        <v>1.118984109313873</v>
+        <v>0.8905208553901224</v>
       </c>
       <c r="K5">
-        <v>1.516010818734546</v>
+        <v>0.9650768682001463</v>
       </c>
       <c r="L5">
-        <v>2.045217662914942</v>
+        <v>0.8079758606283932</v>
       </c>
       <c r="M5">
-        <v>1.175445078331099</v>
+        <v>0.9171934174281504</v>
       </c>
       <c r="N5">
-        <v>1.108593095431956</v>
+        <v>0.9614266760120547</v>
       </c>
       <c r="O5">
-        <v>1.372495320008272</v>
+        <v>0.9045842496445166</v>
       </c>
       <c r="P5">
-        <v>0.4746255287734604</v>
+        <v>0.9443913102438302</v>
       </c>
       <c r="Q5">
-        <v>1.127788485175836</v>
+        <v>0.7287742645556773</v>
       </c>
       <c r="R5">
-        <v>1.604146779586542</v>
+        <v>0.9891969952138926</v>
       </c>
       <c r="S5">
-        <v>0.9783684440996403</v>
+        <v>0.9695068707689943</v>
       </c>
       <c r="T5">
-        <v>1.029835667789922</v>
+        <v>0.9622323856175227</v>
       </c>
       <c r="U5">
-        <v>1.650732380041526</v>
+        <v>1.057887389720528</v>
       </c>
       <c r="V5">
-        <v>1.1463264624578</v>
+        <v>0.9307843270783509</v>
       </c>
       <c r="W5">
-        <v>1.991658009682372</v>
+        <v>0.9450013642169017</v>
       </c>
       <c r="X5">
-        <v>0.8064425683829121</v>
+        <v>0.7904033535019103</v>
       </c>
       <c r="Y5">
-        <v>0.3781499014626027</v>
+        <v>0.9277934121625031</v>
       </c>
       <c r="Z5">
-        <v>0.3168843384814468</v>
+        <v>0.878965959962099</v>
       </c>
       <c r="AA5">
-        <v>1.39223219989487</v>
+        <v>0.8743094971675744</v>
       </c>
       <c r="AB5">
-        <v>0.556317680354033</v>
+        <v>1.018058690045972</v>
       </c>
       <c r="AC5">
-        <v>0.8901313879744988</v>
+        <v>0.9693522881641385</v>
       </c>
       <c r="AD5">
-        <v>0.7037749144960399</v>
+        <v>1.03237237882156</v>
       </c>
       <c r="AE5">
-        <v>1.178486661641236</v>
+        <v>0.7790670397881312</v>
       </c>
       <c r="AF5">
-        <v>0.5995848550667757</v>
+        <v>1.076429940112134</v>
       </c>
       <c r="AG5">
-        <v>1.416490916265578</v>
+        <v>0.9978112408195517</v>
       </c>
       <c r="AH5">
-        <v>0.5614152258497099</v>
+        <v>0.8918299803339558</v>
       </c>
       <c r="AI5">
-        <v>-0.09056550987373156</v>
+        <v>0.8821441238864843</v>
       </c>
       <c r="AJ5">
-        <v>0.6533239695699674</v>
+        <v>0.8779193433389961</v>
       </c>
       <c r="AK5">
-        <v>0.8708308731533819</v>
+        <v>0.8103370266192645</v>
       </c>
       <c r="AL5">
-        <v>0.768010526043421</v>
+        <v>0.8903965451581171</v>
       </c>
       <c r="AM5">
-        <v>0.4198219933854812</v>
+        <v>0.9104918567521509</v>
       </c>
       <c r="AN5">
-        <v>1.401605204140956</v>
+        <v>0.8485226143104766</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>-1.173056504695929</v>
+        <v>1.17029288311464</v>
       </c>
       <c r="C6">
-        <v>0.1000565335689215</v>
+        <v>0.7450041713749246</v>
       </c>
       <c r="D6">
-        <v>-0.9298459163752294</v>
+        <v>0.907289771248919</v>
       </c>
       <c r="E6">
-        <v>-0.2990820836965538</v>
+        <v>1.007716901803931</v>
       </c>
       <c r="F6">
-        <v>-0.6863213476270694</v>
+        <v>1.436826254045687</v>
       </c>
       <c r="G6">
-        <v>-0.6246657083487334</v>
+        <v>0.9433679691193185</v>
       </c>
       <c r="H6">
-        <v>0.2837605484152773</v>
+        <v>0.9298750045545381</v>
       </c>
       <c r="I6">
-        <v>3.143853381118114</v>
+        <v>1.062509220769566</v>
       </c>
       <c r="J6">
-        <v>0.8745068315191846</v>
+        <v>0.8658582840721193</v>
       </c>
       <c r="K6">
-        <v>0.8998853324398577</v>
+        <v>0.9253539081945326</v>
       </c>
       <c r="L6">
-        <v>1.395534578158689</v>
+        <v>0.7825013309953199</v>
       </c>
       <c r="M6">
-        <v>0.007241268582372873</v>
+        <v>0.8717854407387254</v>
       </c>
       <c r="N6">
-        <v>-0.02664019361264849</v>
+        <v>0.9249179810656494</v>
       </c>
       <c r="O6">
-        <v>-0.4323453655757155</v>
+        <v>0.8694138799206979</v>
       </c>
       <c r="P6">
-        <v>-0.6732328937215302</v>
+        <v>0.9082628276352445</v>
       </c>
       <c r="Q6">
-        <v>-1.00375365768337</v>
+        <v>0.7001056444180249</v>
       </c>
       <c r="R6">
-        <v>-0.403477764510061</v>
+        <v>0.9584257704299541</v>
       </c>
       <c r="S6">
-        <v>0.6866222969460062</v>
+        <v>0.9379475809767724</v>
       </c>
       <c r="T6">
-        <v>0.2350202285224788</v>
+        <v>0.9232260189270832</v>
       </c>
       <c r="U6">
-        <v>1.387669934696545</v>
+        <v>1.016643944035505</v>
       </c>
       <c r="V6">
-        <v>0.7064143044586793</v>
+        <v>0.8894640388194254</v>
       </c>
       <c r="W6">
-        <v>1.24711911154707</v>
+        <v>0.907711517286905</v>
       </c>
       <c r="X6">
-        <v>0.6204252802609945</v>
+        <v>0.7625036366342017</v>
       </c>
       <c r="Y6">
-        <v>-0.4515018463809707</v>
+        <v>0.8949765437734639</v>
       </c>
       <c r="Z6">
-        <v>-0.4604705059793431</v>
+        <v>0.8454951344233737</v>
       </c>
       <c r="AA6">
-        <v>0.997865867795753</v>
+        <v>0.8430482782999703</v>
       </c>
       <c r="AB6">
-        <v>0.3190274450869826</v>
+        <v>0.9794016404162752</v>
       </c>
       <c r="AC6">
-        <v>0.2480250859074597</v>
+        <v>0.9322518771499494</v>
       </c>
       <c r="AD6">
-        <v>-0.2984082945862706</v>
+        <v>0.9966801076329007</v>
       </c>
       <c r="AE6">
-        <v>0.1493075991759518</v>
+        <v>0.7559911854246507</v>
       </c>
       <c r="AF6">
-        <v>-0.1345561207825403</v>
+        <v>1.040333025312713</v>
       </c>
       <c r="AG6">
-        <v>-1.325358967614405</v>
+        <v>0.9691121586042428</v>
       </c>
       <c r="AH6">
-        <v>0.2536176316329358</v>
+        <v>0.860897499002635</v>
       </c>
       <c r="AI6">
-        <v>0.6833478348443547</v>
+        <v>0.8552847492994602</v>
       </c>
       <c r="AJ6">
-        <v>0.3171161870801619</v>
+        <v>0.8505292524263111</v>
       </c>
       <c r="AK6">
-        <v>0.7075783520844789</v>
+        <v>0.7860909435955343</v>
       </c>
       <c r="AL6">
-        <v>0.08655533114013197</v>
+        <v>0.8552555936456968</v>
       </c>
       <c r="AM6">
-        <v>-0.633004007470034</v>
+        <v>0.8816633851237607</v>
       </c>
       <c r="AN6">
-        <v>-0.9385731594430393</v>
+        <v>0.8167080783261337</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>1.297817235996709</v>
+        <v>1.271973546344076</v>
       </c>
       <c r="C7">
-        <v>0.2354604799823327</v>
+        <v>0.8231722329880822</v>
       </c>
       <c r="D7">
-        <v>-0.1581296894266158</v>
+        <v>1.040107185143401</v>
       </c>
       <c r="E7">
-        <v>0.719184626512607</v>
+        <v>1.125858842594475</v>
       </c>
       <c r="F7">
-        <v>0.6398898530725213</v>
+        <v>1.569785203563989</v>
       </c>
       <c r="G7">
-        <v>0.2549558836501233</v>
+        <v>1.048831042246723</v>
       </c>
       <c r="H7">
-        <v>1.284772267903976</v>
+        <v>1.029666000802265</v>
       </c>
       <c r="I7">
-        <v>1.782251162191891</v>
+        <v>1.192803737985487</v>
       </c>
       <c r="J7">
-        <v>0.5935369095154516</v>
+        <v>0.9824641128853039</v>
       </c>
       <c r="K7">
-        <v>0.959242759912259</v>
+        <v>1.05772896699202</v>
       </c>
       <c r="L7">
-        <v>1.802379449918894</v>
+        <v>0.8854978699186462</v>
       </c>
       <c r="M7">
-        <v>0.5099451739414357</v>
+        <v>0.9836519636965759</v>
       </c>
       <c r="N7">
-        <v>1.028672180688665</v>
+        <v>1.063923921407119</v>
       </c>
       <c r="O7">
-        <v>1.477872430758566</v>
+        <v>0.9771520348319608</v>
       </c>
       <c r="P7">
-        <v>0.4175584234952392</v>
+        <v>1.0371226412488</v>
       </c>
       <c r="Q7">
-        <v>0.610271083956445</v>
+        <v>0.7767301942563504</v>
       </c>
       <c r="R7">
-        <v>1.477328610573706</v>
+        <v>1.114357297352666</v>
       </c>
       <c r="S7">
-        <v>0.9659803246416041</v>
+        <v>1.09762280812461</v>
       </c>
       <c r="T7">
-        <v>0.456005689279083</v>
+        <v>1.048741062321204</v>
       </c>
       <c r="U7">
-        <v>1.368135886007018</v>
+        <v>1.144126970251468</v>
       </c>
       <c r="V7">
-        <v>0.9494563981524762</v>
+        <v>0.9820981303619051</v>
       </c>
       <c r="W7">
-        <v>1.362793100201851</v>
+        <v>1.031178155339259</v>
       </c>
       <c r="X7">
-        <v>0.7019521787813542</v>
+        <v>0.8724546727877027</v>
       </c>
       <c r="Y7">
-        <v>0.6021178147493752</v>
+        <v>1.027505227278555</v>
       </c>
       <c r="Z7">
-        <v>0.9574819558821853</v>
+        <v>0.9546052706053098</v>
       </c>
       <c r="AA7">
-        <v>1.266071469201115</v>
+        <v>0.9678853392845072</v>
       </c>
       <c r="AB7">
-        <v>0.3881769362129806</v>
+        <v>1.129769760763941</v>
       </c>
       <c r="AC7">
-        <v>0.7032892536686993</v>
+        <v>1.06447727936306</v>
       </c>
       <c r="AD7">
-        <v>0.9834016357744145</v>
+        <v>1.145690563848214</v>
       </c>
       <c r="AE7">
-        <v>0.7831189781261187</v>
+        <v>0.8876521704229217</v>
       </c>
       <c r="AF7">
-        <v>0.8393465042186947</v>
+        <v>1.194013511524556</v>
       </c>
       <c r="AG7">
-        <v>0.5783928010991681</v>
+        <v>1.120844024091132</v>
       </c>
       <c r="AH7">
-        <v>0.6806730377920415</v>
+        <v>1.023648577885125</v>
       </c>
       <c r="AI7">
-        <v>1.034125961904264</v>
+        <v>0.990862692449979</v>
       </c>
       <c r="AJ7">
-        <v>0.3476638920985792</v>
+        <v>0.9955150203116822</v>
       </c>
       <c r="AK7">
-        <v>1.533645681463776</v>
+        <v>0.9348796961607042</v>
       </c>
       <c r="AL7">
-        <v>1.119006948673277</v>
+        <v>0.998290170249341</v>
       </c>
       <c r="AM7">
-        <v>1.588056572526447</v>
+        <v>1.050282851742355</v>
       </c>
       <c r="AN7">
-        <v>2.845042863095864</v>
+        <v>0.9669478321027084</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.6384715556717427</v>
+        <v>1.171156089492089</v>
       </c>
       <c r="C8">
-        <v>-0.09514420716717634</v>
+        <v>0.7507616540634605</v>
       </c>
       <c r="D8">
-        <v>-0.3494600245969424</v>
+        <v>0.9791541862737654</v>
       </c>
       <c r="E8">
-        <v>0.2814502288944896</v>
+        <v>1.048804209810114</v>
       </c>
       <c r="F8">
-        <v>0.1503202489958543</v>
+        <v>1.455305895942679</v>
       </c>
       <c r="G8">
-        <v>0.02350713952440782</v>
+        <v>0.9789365711742982</v>
       </c>
       <c r="H8">
-        <v>0.4884986717018481</v>
+        <v>0.9602616014533959</v>
       </c>
       <c r="I8">
-        <v>0.09156700698748686</v>
+        <v>1.109237352959082</v>
       </c>
       <c r="J8">
-        <v>0.00967576463744497</v>
+        <v>0.9141978008554527</v>
       </c>
       <c r="K8">
-        <v>0.1919517262134352</v>
+        <v>1.012499245955601</v>
       </c>
       <c r="L8">
-        <v>0.6779539863102557</v>
+        <v>0.8212963796099152</v>
       </c>
       <c r="M8">
-        <v>0.100034877497843</v>
+        <v>0.9521817974678914</v>
       </c>
       <c r="N8">
-        <v>0.5242697227943708</v>
+        <v>1.017832400073569</v>
       </c>
       <c r="O8">
-        <v>0.9174700606832278</v>
+        <v>0.9133700075626179</v>
       </c>
       <c r="P8">
-        <v>0.3006592375156554</v>
+        <v>0.9863243928975168</v>
       </c>
       <c r="Q8">
-        <v>0.3822416605112847</v>
+        <v>0.7190732793876207</v>
       </c>
       <c r="R8">
-        <v>0.8178579026051935</v>
+        <v>1.066950257845613</v>
       </c>
       <c r="S8">
-        <v>0.3803058109862136</v>
+        <v>1.050352643065023</v>
       </c>
       <c r="T8">
-        <v>0.03219668782406406</v>
+        <v>0.9922409519559443</v>
       </c>
       <c r="U8">
-        <v>0.3740286448369015</v>
+        <v>1.079275919896986</v>
       </c>
       <c r="V8">
-        <v>0.3047173355619354</v>
+        <v>0.918443966108237</v>
       </c>
       <c r="W8">
-        <v>0.2848206706034538</v>
+        <v>0.9866592845840273</v>
       </c>
       <c r="X8">
-        <v>0.208761796164195</v>
+        <v>0.8395587229119705</v>
       </c>
       <c r="Y8">
-        <v>0.4848548679866552</v>
+        <v>0.9789992558817721</v>
       </c>
       <c r="Z8">
-        <v>0.7522000679820054</v>
+        <v>0.8961310709969019</v>
       </c>
       <c r="AA8">
-        <v>0.4480595997892313</v>
+        <v>0.9254582679212139</v>
       </c>
       <c r="AB8">
-        <v>0.1011158381301221</v>
+        <v>1.086343414122806</v>
       </c>
       <c r="AC8">
-        <v>0.2713423087229687</v>
+        <v>1.01751730986987</v>
       </c>
       <c r="AD8">
-        <v>0.6448968699836859</v>
+        <v>1.091198613444792</v>
       </c>
       <c r="AE8">
-        <v>0.2885578095117985</v>
+        <v>0.8633628330931178</v>
       </c>
       <c r="AF8">
-        <v>0.5660002362484509</v>
+        <v>1.137274820684343</v>
       </c>
       <c r="AG8">
-        <v>0.3695034131912359</v>
+        <v>1.064154174940368</v>
       </c>
       <c r="AH8">
-        <v>0.333010695829072</v>
+        <v>1.004115644098325</v>
       </c>
       <c r="AI8">
-        <v>0.7353300805181388</v>
+        <v>0.9589452263146346</v>
       </c>
       <c r="AJ8">
-        <v>0.05203929533258564</v>
+        <v>0.9562706714489807</v>
       </c>
       <c r="AK8">
-        <v>0.8822928499413452</v>
+        <v>0.9094200698758889</v>
       </c>
       <c r="AL8">
-        <v>0.6732133098713734</v>
+        <v>0.9748725665748205</v>
       </c>
       <c r="AM8">
-        <v>1.338659952524853</v>
+        <v>1.02236919413109</v>
       </c>
       <c r="AN8">
-        <v>2.102785242019964</v>
+        <v>0.9533270934735275</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.01178120560545869</v>
+        <v>1.210836548502988</v>
       </c>
       <c r="C9">
-        <v>-0.2520285990172739</v>
+        <v>0.814728957890683</v>
       </c>
       <c r="D9">
-        <v>-0.6120869147353364</v>
+        <v>1.021256265326066</v>
       </c>
       <c r="E9">
-        <v>-0.01258642821019117</v>
+        <v>1.105945749164087</v>
       </c>
       <c r="F9">
-        <v>-0.2404054622792342</v>
+        <v>1.467994568535344</v>
       </c>
       <c r="G9">
-        <v>-0.2047658323421072</v>
+        <v>1.022198211361114</v>
       </c>
       <c r="H9">
-        <v>0.119645312717413</v>
+        <v>0.9928688545179583</v>
       </c>
       <c r="I9">
-        <v>-0.1548114729005816</v>
+        <v>1.158560930795747</v>
       </c>
       <c r="J9">
-        <v>-0.1250226570079118</v>
+        <v>0.9738659691883857</v>
       </c>
       <c r="K9">
-        <v>-0.04399423169840454</v>
+        <v>1.057001787548613</v>
       </c>
       <c r="L9">
-        <v>0.2752323170935932</v>
+        <v>0.8889990843584273</v>
       </c>
       <c r="M9">
-        <v>-0.1266639073725048</v>
+        <v>0.9500593474324679</v>
       </c>
       <c r="N9">
-        <v>0.2358559006958895</v>
+        <v>1.072424470236004</v>
       </c>
       <c r="O9">
-        <v>0.4697393853150379</v>
+        <v>0.9701757540385775</v>
       </c>
       <c r="P9">
-        <v>0.1295812692610613</v>
+        <v>1.037420748076367</v>
       </c>
       <c r="Q9">
-        <v>0.04093854133384085</v>
+        <v>0.7578935180711871</v>
       </c>
       <c r="R9">
-        <v>0.3640022688592484</v>
+        <v>1.129683412317083</v>
       </c>
       <c r="S9">
-        <v>0.1891469893587698</v>
+        <v>1.140814403545465</v>
       </c>
       <c r="T9">
-        <v>-0.1312717349549364</v>
+        <v>1.053449475603592</v>
       </c>
       <c r="U9">
-        <v>0.1234582899350352</v>
+        <v>1.117773553317758</v>
       </c>
       <c r="V9">
-        <v>0.1055217343360302</v>
+        <v>0.940641534972951</v>
       </c>
       <c r="W9">
-        <v>-0.0100348106646923</v>
+        <v>1.00582110770397</v>
       </c>
       <c r="X9">
-        <v>0.08266019665070715</v>
+        <v>0.8454412535577267</v>
       </c>
       <c r="Y9">
-        <v>0.2894185658593473</v>
+        <v>1.029554878945532</v>
       </c>
       <c r="Z9">
-        <v>0.5334216066605357</v>
+        <v>0.9492003992117281</v>
       </c>
       <c r="AA9">
-        <v>0.1956114899048672</v>
+        <v>0.9634352140868222</v>
       </c>
       <c r="AB9">
-        <v>0.008286565243150631</v>
+        <v>1.13526505309669</v>
       </c>
       <c r="AC9">
-        <v>0.08661078731641079</v>
+        <v>1.052496890740509</v>
       </c>
       <c r="AD9">
-        <v>0.3870097656570624</v>
+        <v>1.149934825939069</v>
       </c>
       <c r="AE9">
-        <v>0.0380011057505734</v>
+        <v>0.8893312674215939</v>
       </c>
       <c r="AF9">
-        <v>0.3349733775738182</v>
+        <v>1.188258118713526</v>
       </c>
       <c r="AG9">
-        <v>-0.05580259177984482</v>
+        <v>1.130481845700308</v>
       </c>
       <c r="AH9">
-        <v>0.1979886067700722</v>
+        <v>1.061518217350268</v>
       </c>
       <c r="AI9">
-        <v>0.659586714510861</v>
+        <v>0.9672919290861441</v>
       </c>
       <c r="AJ9">
-        <v>-0.05284970804436327</v>
+        <v>1.021954942459904</v>
       </c>
       <c r="AK9">
-        <v>0.6093395444975004</v>
+        <v>0.9726048940096627</v>
       </c>
       <c r="AL9">
-        <v>0.42204918612437</v>
+        <v>1.008201479435495</v>
       </c>
       <c r="AM9">
-        <v>0.9481736655276967</v>
+        <v>1.102431252323779</v>
       </c>
       <c r="AN9">
-        <v>1.395292475010078</v>
+        <v>0.9887008276084626</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>-0.03971175527495334</v>
+        <v>1.109487646076657</v>
       </c>
       <c r="C10">
-        <v>-0.1494023243568873</v>
+        <v>0.7160356585820978</v>
       </c>
       <c r="D10">
-        <v>-0.5567711664407144</v>
+        <v>0.962091630288965</v>
       </c>
       <c r="E10">
-        <v>0.03233085684752736</v>
+        <v>1.011747551794125</v>
       </c>
       <c r="F10">
-        <v>-0.1834481063591473</v>
+        <v>1.387427512995708</v>
       </c>
       <c r="G10">
-        <v>-0.1773643609474337</v>
+        <v>0.9421257230040461</v>
       </c>
       <c r="H10">
-        <v>0.2645961187216399</v>
+        <v>0.9223762453303185</v>
       </c>
       <c r="I10">
-        <v>0.5004352058831356</v>
+        <v>1.074389569236415</v>
       </c>
       <c r="J10">
-        <v>0.08263798557380567</v>
+        <v>0.8902627110508368</v>
       </c>
       <c r="K10">
-        <v>0.1763835079856612</v>
+        <v>0.9933563971128453</v>
       </c>
       <c r="L10">
-        <v>0.4794810372818168</v>
+        <v>0.7971021631506177</v>
       </c>
       <c r="M10">
-        <v>-0.04792935794460162</v>
+        <v>0.9304376881649142</v>
       </c>
       <c r="N10">
-        <v>0.2689642314656508</v>
+        <v>1.001753485351336</v>
       </c>
       <c r="O10">
-        <v>0.3857717040333327</v>
+        <v>0.8841955642698649</v>
       </c>
       <c r="P10">
-        <v>0.0895690834760992</v>
+        <v>0.9662227782412559</v>
       </c>
       <c r="Q10">
-        <v>-0.0480450564292533</v>
+        <v>0.6901733460468771</v>
       </c>
       <c r="R10">
-        <v>0.358577690146856</v>
+        <v>1.056717125475053</v>
       </c>
       <c r="S10">
-        <v>0.312892066519951</v>
+        <v>1.042041074198311</v>
       </c>
       <c r="T10">
-        <v>5.727666318158168e-05</v>
+        <v>0.9677936431706167</v>
       </c>
       <c r="U10">
-        <v>0.4162195871466353</v>
+        <v>1.048465431155926</v>
       </c>
       <c r="V10">
-        <v>0.2742068037461452</v>
+        <v>0.8813375623749704</v>
       </c>
       <c r="W10">
-        <v>0.3325521503094097</v>
+        <v>0.9661897380848092</v>
       </c>
       <c r="X10">
-        <v>0.230354346526688</v>
+        <v>0.8269005168566471</v>
       </c>
       <c r="Y10">
-        <v>0.1759426444153755</v>
+        <v>0.9624319720169611</v>
       </c>
       <c r="Z10">
-        <v>0.4248450813534982</v>
+        <v>0.8705092789785306</v>
       </c>
       <c r="AA10">
-        <v>0.3896354915871892</v>
+        <v>0.9106889858056877</v>
       </c>
       <c r="AB10">
-        <v>0.08421812975234717</v>
+        <v>1.071967536456439</v>
       </c>
       <c r="AC10">
-        <v>0.1679036443544768</v>
+        <v>0.9983718558834112</v>
       </c>
       <c r="AD10">
-        <v>0.3384605743677562</v>
+        <v>1.073370257211296</v>
       </c>
       <c r="AE10">
-        <v>0.1136593274459</v>
+        <v>0.8624465136420338</v>
       </c>
       <c r="AF10">
-        <v>0.2566535522223735</v>
+        <v>1.118442003494199</v>
       </c>
       <c r="AG10">
-        <v>-0.1979088617181185</v>
+        <v>1.050003882276808</v>
       </c>
       <c r="AH10">
-        <v>0.2530150554322954</v>
+        <v>1.008330278619075</v>
       </c>
       <c r="AI10">
-        <v>0.6260884537295275</v>
+        <v>0.9518028438033845</v>
       </c>
       <c r="AJ10">
-        <v>0.02582837685168596</v>
+        <v>0.9502447090001537</v>
       </c>
       <c r="AK10">
-        <v>0.6305724910217437</v>
+        <v>0.9123930383490149</v>
       </c>
       <c r="AL10">
-        <v>0.4116628585786461</v>
+        <v>0.9701031045748029</v>
       </c>
       <c r="AM10">
-        <v>0.6483685276261449</v>
+        <v>1.025962612237965</v>
       </c>
       <c r="AN10">
-        <v>1.089539227396577</v>
+        <v>0.9565404004595037</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>-0.3489010533935801</v>
+        <v>0.9472392907518278</v>
       </c>
       <c r="C11">
-        <v>-0.2949695222380402</v>
+        <v>0.6271933956654028</v>
       </c>
       <c r="D11">
-        <v>-0.750233213753851</v>
+        <v>0.8830393832833667</v>
       </c>
       <c r="E11">
-        <v>-0.1815052620875051</v>
+        <v>0.8981516254511982</v>
       </c>
       <c r="F11">
-        <v>-0.461679537498363</v>
+        <v>1.194152582956233</v>
       </c>
       <c r="G11">
-        <v>-0.3539158711615863</v>
+        <v>0.8304249527988914</v>
       </c>
       <c r="H11">
-        <v>-0.07007269414097098</v>
+        <v>0.8086341282941784</v>
       </c>
       <c r="I11">
-        <v>-0.09957583842559596</v>
+        <v>0.9610327708488036</v>
       </c>
       <c r="J11">
-        <v>-0.1283945234819124</v>
+        <v>0.8075368358214451</v>
       </c>
       <c r="K11">
-        <v>-0.101031365022401</v>
+        <v>0.9048614198894822</v>
       </c>
       <c r="L11">
-        <v>0.1909565489784426</v>
+        <v>0.7204673661196176</v>
       </c>
       <c r="M11">
-        <v>-0.2192294227673768</v>
+        <v>0.8324721102102436</v>
       </c>
       <c r="N11">
-        <v>0.06688826103609596</v>
+        <v>0.9197706322391956</v>
       </c>
       <c r="O11">
-        <v>0.2087576789216708</v>
+        <v>0.7908396052880609</v>
       </c>
       <c r="P11">
-        <v>-0.04098093561246222</v>
+        <v>0.8800107619477785</v>
       </c>
       <c r="Q11">
-        <v>-0.1847221880273943</v>
+        <v>0.6072116017043316</v>
       </c>
       <c r="R11">
-        <v>0.07665836865703195</v>
+        <v>0.9829632358370899</v>
       </c>
       <c r="S11">
-        <v>0.1216237244242654</v>
+        <v>0.9762850464755108</v>
       </c>
       <c r="T11">
-        <v>-0.2001708361582024</v>
+        <v>0.876097840565444</v>
       </c>
       <c r="U11">
-        <v>0.05837145370239481</v>
+        <v>0.9385567682375747</v>
       </c>
       <c r="V11">
-        <v>0.027392361176634</v>
+        <v>0.7692370121376533</v>
       </c>
       <c r="W11">
-        <v>-0.1163600189107844</v>
+        <v>0.8738196322623641</v>
       </c>
       <c r="X11">
-        <v>0.03151179737161295</v>
+        <v>0.7542341108332812</v>
       </c>
       <c r="Y11">
-        <v>0.163340266531205</v>
+        <v>0.8823731422971293</v>
       </c>
       <c r="Z11">
-        <v>0.3395098401069681</v>
+        <v>0.7829186619824827</v>
       </c>
       <c r="AA11">
-        <v>0.1136445268583916</v>
+        <v>0.8345460869576808</v>
       </c>
       <c r="AB11">
-        <v>-0.01869239652512188</v>
+        <v>0.9868562279482247</v>
       </c>
       <c r="AC11">
-        <v>-0.00217752401062487</v>
+        <v>0.9087396006910946</v>
       </c>
       <c r="AD11">
-        <v>0.2016457531464189</v>
+        <v>0.985663766545685</v>
       </c>
       <c r="AE11">
-        <v>-0.07288365359649152</v>
+        <v>0.8093527299370145</v>
       </c>
       <c r="AF11">
-        <v>0.2183142660003048</v>
+        <v>1.025293935709944</v>
       </c>
       <c r="AG11">
-        <v>-0.3040925771132619</v>
+        <v>0.9721680945380559</v>
       </c>
       <c r="AH11">
-        <v>0.1177581712364605</v>
+        <v>0.9572564085964028</v>
       </c>
       <c r="AI11">
-        <v>0.6264340154128847</v>
+        <v>0.8806052578416651</v>
       </c>
       <c r="AJ11">
-        <v>-0.07171627702347484</v>
+        <v>0.8901193208691658</v>
       </c>
       <c r="AK11">
-        <v>0.4944455950914281</v>
+        <v>0.8678851771615299</v>
       </c>
       <c r="AL11">
-        <v>0.2710721268441021</v>
+        <v>0.9030969338113917</v>
       </c>
       <c r="AM11">
-        <v>0.7080066330522411</v>
+        <v>0.9773330211206528</v>
       </c>
       <c r="AN11">
-        <v>0.9076660162088784</v>
+        <v>0.9030957584675255</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>-0.2001768396367765</v>
+        <v>0.986433478425648</v>
       </c>
       <c r="C12">
-        <v>-0.2214043779626054</v>
+        <v>0.7029453088072014</v>
       </c>
       <c r="D12">
-        <v>-0.481682700872838</v>
+        <v>0.9638177363640167</v>
       </c>
       <c r="E12">
-        <v>-0.1452156054244734</v>
+        <v>0.9603481985180472</v>
       </c>
       <c r="F12">
-        <v>-0.3206093913298833</v>
+        <v>1.22942147890889</v>
       </c>
       <c r="G12">
-        <v>-0.2421229353890656</v>
+        <v>0.8719971351864862</v>
       </c>
       <c r="H12">
-        <v>-0.1318380099781295</v>
+        <v>0.843257716241546</v>
       </c>
       <c r="I12">
-        <v>-0.3727096875893285</v>
+        <v>1.044750956140596</v>
       </c>
       <c r="J12">
-        <v>-0.1726879583431025</v>
+        <v>0.8961276918287363</v>
       </c>
       <c r="K12">
-        <v>-0.1659268211656853</v>
+        <v>0.9293317881839006</v>
       </c>
       <c r="L12">
-        <v>0.03932317353621386</v>
+        <v>0.8036044667336436</v>
       </c>
       <c r="M12">
-        <v>-0.1690713613167156</v>
+        <v>0.796947128054871</v>
       </c>
       <c r="N12">
-        <v>0.007735243215329209</v>
+        <v>0.9596986449368403</v>
       </c>
       <c r="O12">
-        <v>0.1548266502280738</v>
+        <v>0.847298927916754</v>
       </c>
       <c r="P12">
-        <v>-0.037684739566475</v>
+        <v>0.9216103818409564</v>
       </c>
       <c r="Q12">
-        <v>-0.08220140075048454</v>
+        <v>0.6526544545613587</v>
       </c>
       <c r="R12">
-        <v>0.02018656064700315</v>
+        <v>1.045966750438655</v>
       </c>
       <c r="S12">
-        <v>0.009503453900111168</v>
+        <v>1.054033403581223</v>
       </c>
       <c r="T12">
-        <v>-0.1918782175940943</v>
+        <v>0.9228179610801683</v>
       </c>
       <c r="U12">
-        <v>-0.1147423223679543</v>
+        <v>0.9776937581711083</v>
       </c>
       <c r="V12">
-        <v>-0.07575158571181627</v>
+        <v>0.7886077323066357</v>
       </c>
       <c r="W12">
-        <v>-0.2560993381553397</v>
+        <v>0.8861878004700563</v>
       </c>
       <c r="X12">
-        <v>-0.06448422469585005</v>
+        <v>0.7627789110012418</v>
       </c>
       <c r="Y12">
-        <v>0.150673608362155</v>
+        <v>0.9292312117985932</v>
       </c>
       <c r="Z12">
-        <v>0.2281928212865668</v>
+        <v>0.8352199559154501</v>
       </c>
       <c r="AA12">
-        <v>-0.03033382016235718</v>
+        <v>0.868702483245407</v>
       </c>
       <c r="AB12">
-        <v>-0.04835557946365954</v>
+        <v>1.018728997325123</v>
       </c>
       <c r="AC12">
-        <v>-0.04903842448496661</v>
+        <v>0.9355413092140079</v>
       </c>
       <c r="AD12">
-        <v>0.1226637724639426</v>
+        <v>1.042009638763126</v>
       </c>
       <c r="AE12">
-        <v>-0.08341746469438865</v>
+        <v>0.835495996817799</v>
       </c>
       <c r="AF12">
-        <v>0.1737390533663828</v>
+        <v>1.080174461946876</v>
       </c>
       <c r="AG12">
-        <v>-0.1137936468480045</v>
+        <v>1.051380194201711</v>
       </c>
       <c r="AH12">
-        <v>0.03095845359821393</v>
+        <v>0.9864702400067639</v>
       </c>
       <c r="AI12">
-        <v>0.3924248061110974</v>
+        <v>0.8983178687850532</v>
       </c>
       <c r="AJ12">
-        <v>-0.07547478841242945</v>
+        <v>0.9499496892931398</v>
       </c>
       <c r="AK12">
-        <v>0.2877604629672043</v>
+        <v>0.9182637366420795</v>
       </c>
       <c r="AL12">
-        <v>0.1543900482040596</v>
+        <v>0.9088718783098255</v>
       </c>
       <c r="AM12">
-        <v>0.5753437120241265</v>
+        <v>1.035155610126283</v>
       </c>
       <c r="AN12">
-        <v>0.6574673138593979</v>
+        <v>0.907870314490814</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块-beta.xlsx
+++ b/FOF/data/基金公司-板块-beta.xlsx
@@ -16,157 +16,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
     <t>中邮创业</t>
   </si>
   <si>
-    <t>华商</t>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>鹏华</t>
   </si>
   <si>
     <t>交银施罗德</t>
   </si>
   <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
+    <t>平安大华</t>
   </si>
   <si>
     <t>兴业</t>
   </si>
   <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
     <t>创业板综</t>
-  </si>
-  <si>
-    <t>中证1000</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>上证50</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0.8963011014905613</v>
+        <v>0.7339344721448789</v>
       </c>
       <c r="C2">
-        <v>0.6152572755217093</v>
+        <v>0.8781952370262927</v>
       </c>
       <c r="D2">
-        <v>0.7012898822299646</v>
+        <v>0.8095845110467366</v>
       </c>
       <c r="E2">
-        <v>0.7725849890224334</v>
+        <v>0.5376400119475555</v>
       </c>
       <c r="F2">
-        <v>1.081430091671449</v>
+        <v>0.9065629190477169</v>
       </c>
       <c r="G2">
-        <v>0.7089635229650869</v>
+        <v>0.3875911215367122</v>
       </c>
       <c r="H2">
-        <v>0.696669771079413</v>
+        <v>0.4663346250839893</v>
       </c>
       <c r="I2">
-        <v>0.8336245674015622</v>
+        <v>1.125165656463493</v>
       </c>
       <c r="J2">
-        <v>0.691355154284782</v>
+        <v>0.5744404796857093</v>
       </c>
       <c r="K2">
-        <v>0.6441101289766793</v>
+        <v>0.5455220443047549</v>
       </c>
       <c r="L2">
-        <v>0.6289593292517173</v>
+        <v>0.364555372613165</v>
       </c>
       <c r="M2">
-        <v>0.5524527617335661</v>
+        <v>0.8355444490107952</v>
       </c>
       <c r="N2">
-        <v>0.6549768634415224</v>
+        <v>0.299512807188786</v>
       </c>
       <c r="O2">
-        <v>0.6628566177384269</v>
+        <v>0.4539635487706612</v>
       </c>
       <c r="P2">
-        <v>0.6546087336969996</v>
+        <v>0.6244794653604534</v>
       </c>
       <c r="Q2">
-        <v>0.5454262474761266</v>
+        <v>0.6551559146728406</v>
       </c>
       <c r="R2">
-        <v>0.6929926376038363</v>
+        <v>0.4931527146755442</v>
       </c>
       <c r="S2">
-        <v>0.686652475253091</v>
+        <v>0.710189777529242</v>
       </c>
       <c r="T2">
-        <v>0.6752430745650315</v>
+        <v>0.4175253562979242</v>
       </c>
       <c r="U2">
-        <v>0.7437187566226665</v>
+        <v>0.6267157045455926</v>
       </c>
       <c r="V2">
-        <v>0.6532104628804056</v>
+        <v>0.7052012322415633</v>
       </c>
       <c r="W2">
-        <v>0.6275956919492929</v>
+        <v>0.6348885028076326</v>
       </c>
       <c r="X2">
-        <v>0.5200175476115876</v>
+        <v>0.6083238825021361</v>
       </c>
       <c r="Y2">
-        <v>0.6467239230945879</v>
+        <v>0.4332897903194451</v>
       </c>
       <c r="Z2">
-        <v>0.6371296387758979</v>
+        <v>0.7277707813681376</v>
       </c>
       <c r="AA2">
-        <v>0.598007232776019</v>
+        <v>0.7047053932916101</v>
       </c>
       <c r="AB2">
-        <v>0.6783934349726731</v>
+        <v>0.4832630458252142</v>
       </c>
       <c r="AC2">
-        <v>0.6544561079375889</v>
+        <v>0.3503429870434316</v>
       </c>
       <c r="AD2">
-        <v>0.7236645499500186</v>
+        <v>0.8194805837602446</v>
       </c>
       <c r="AE2">
-        <v>0.5113137528454941</v>
+        <v>0.8647040154731429</v>
       </c>
       <c r="AF2">
-        <v>0.7539491400558626</v>
+        <v>0.5331446109910287</v>
       </c>
       <c r="AG2">
-        <v>0.7262668106525446</v>
+        <v>0.8868163139637126</v>
       </c>
       <c r="AH2">
-        <v>0.5636557057463681</v>
+        <v>0.2834815863705864</v>
       </c>
       <c r="AI2">
-        <v>0.5806559544264891</v>
+        <v>0.5315038265961665</v>
       </c>
       <c r="AJ2">
-        <v>0.6114750229826288</v>
+        <v>0.565673272774628</v>
       </c>
       <c r="AK2">
-        <v>0.5430554761221765</v>
+        <v>0.6184431109033206</v>
       </c>
       <c r="AL2">
-        <v>0.553509471737346</v>
+        <v>0.7192965445710086</v>
       </c>
       <c r="AM2">
-        <v>0.6074507800025648</v>
+        <v>0.7898345891581461</v>
       </c>
       <c r="AN2">
-        <v>0.5128230444652097</v>
+        <v>0.6030406764435068</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>1.370954641276728</v>
+        <v>0.8049261897067241</v>
       </c>
       <c r="C3">
-        <v>0.8897800330080857</v>
+        <v>1.039263803326391</v>
       </c>
       <c r="D3">
-        <v>1.059619428104362</v>
+        <v>0.9901439859570514</v>
       </c>
       <c r="E3">
-        <v>1.172603560952304</v>
+        <v>0.7173012479000676</v>
       </c>
       <c r="F3">
-        <v>1.67988728420331</v>
+        <v>1.06971745759172</v>
       </c>
       <c r="G3">
-        <v>1.091789876046773</v>
+        <v>0.5193866757048224</v>
       </c>
       <c r="H3">
-        <v>1.077748105657679</v>
+        <v>0.6119105271812083</v>
       </c>
       <c r="I3">
-        <v>1.250705902140128</v>
+        <v>1.376155338639328</v>
       </c>
       <c r="J3">
-        <v>1.020915753322624</v>
+        <v>0.7163419384557383</v>
       </c>
       <c r="K3">
-        <v>1.035774919413277</v>
+        <v>0.7184893401099172</v>
       </c>
       <c r="L3">
-        <v>0.9218804695424364</v>
+        <v>0.4842516558164206</v>
       </c>
       <c r="M3">
-        <v>0.9540091694040627</v>
+        <v>0.9404678519659552</v>
       </c>
       <c r="N3">
-        <v>1.039166222037027</v>
+        <v>0.4702916532438012</v>
       </c>
       <c r="O3">
-        <v>1.006935870519393</v>
+        <v>0.6303425225212362</v>
       </c>
       <c r="P3">
-        <v>1.028911575355132</v>
+        <v>0.7838560692825745</v>
       </c>
       <c r="Q3">
-        <v>0.8207882908106036</v>
+        <v>0.7735772396956284</v>
       </c>
       <c r="R3">
-        <v>1.083256903687969</v>
+        <v>0.6483257270037744</v>
       </c>
       <c r="S3">
-        <v>1.057356458050491</v>
+        <v>0.8367669151902389</v>
       </c>
       <c r="T3">
-        <v>1.050106442347599</v>
+        <v>0.5355055715454378</v>
       </c>
       <c r="U3">
-        <v>1.164794316812873</v>
+        <v>0.7871034669953408</v>
       </c>
       <c r="V3">
-        <v>1.025163643874651</v>
+        <v>0.8415916072505651</v>
       </c>
       <c r="W3">
-        <v>1.020207954604524</v>
+        <v>0.7943846979841829</v>
       </c>
       <c r="X3">
-        <v>0.8546223027439003</v>
+        <v>0.7403244534566549</v>
       </c>
       <c r="Y3">
-        <v>1.014424508148625</v>
+        <v>0.5777950165395705</v>
       </c>
       <c r="Z3">
-        <v>0.9747310120857511</v>
+        <v>0.9098897130810092</v>
       </c>
       <c r="AA3">
-        <v>0.9510135664803385</v>
+        <v>0.8722656611740259</v>
       </c>
       <c r="AB3">
-        <v>1.092874632809284</v>
+        <v>0.5927159247651171</v>
       </c>
       <c r="AC3">
-        <v>1.049625766592573</v>
+        <v>0.5344116418724932</v>
       </c>
       <c r="AD3">
-        <v>1.131128481672005</v>
+        <v>0.9902759564065863</v>
       </c>
       <c r="AE3">
-        <v>0.837610956641026</v>
+        <v>1.021898080188941</v>
       </c>
       <c r="AF3">
-        <v>1.182600923988112</v>
+        <v>0.6728634587044032</v>
       </c>
       <c r="AG3">
-        <v>1.111147287211526</v>
+        <v>1.017893088810137</v>
       </c>
       <c r="AH3">
-        <v>0.9338998918786082</v>
+        <v>0.3953348992799488</v>
       </c>
       <c r="AI3">
-        <v>0.9555145084396603</v>
+        <v>0.6651598081354917</v>
       </c>
       <c r="AJ3">
-        <v>0.9559814929282526</v>
+        <v>0.694559095581724</v>
       </c>
       <c r="AK3">
-        <v>0.8678154937124841</v>
+        <v>0.7282607579474047</v>
       </c>
       <c r="AL3">
-        <v>0.9313454198088925</v>
+        <v>0.8461920676677197</v>
       </c>
       <c r="AM3">
-        <v>0.9697809310821481</v>
+        <v>0.930333944443772</v>
       </c>
       <c r="AN3">
-        <v>0.8774445705925532</v>
+        <v>0.7007925534919492</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>1.100601739694508</v>
+        <v>0.7777983870469414</v>
       </c>
       <c r="C4">
-        <v>0.691370234327326</v>
+        <v>0.9912256654795467</v>
       </c>
       <c r="D4">
-        <v>0.8369028234267785</v>
+        <v>0.9338245229079769</v>
       </c>
       <c r="E4">
-        <v>0.9340336637707105</v>
+        <v>0.6633084401631298</v>
       </c>
       <c r="F4">
-        <v>1.356509252166926</v>
+        <v>1.015600731952518</v>
       </c>
       <c r="G4">
-        <v>0.8770331973206839</v>
+        <v>0.4801258209721527</v>
       </c>
       <c r="H4">
-        <v>0.8679038031519886</v>
+        <v>0.5667029603846506</v>
       </c>
       <c r="I4">
-        <v>0.9877527459370463</v>
+        <v>1.301461210542589</v>
       </c>
       <c r="J4">
-        <v>0.7983934456858307</v>
+        <v>0.6685758750014413</v>
       </c>
       <c r="K4">
-        <v>0.8476825705396013</v>
+        <v>0.6663384508024353</v>
       </c>
       <c r="L4">
-        <v>0.7190618737500342</v>
+        <v>0.4451835917591323</v>
       </c>
       <c r="M4">
-        <v>0.8082078262272675</v>
+        <v>0.9148933448781077</v>
       </c>
       <c r="N4">
-        <v>0.8439879189835421</v>
+        <v>0.4172598107856064</v>
       </c>
       <c r="O4">
-        <v>0.8021163103762023</v>
+        <v>0.5689762278732023</v>
       </c>
       <c r="P4">
-        <v>0.8324251970374972</v>
+        <v>0.7387958438638251</v>
       </c>
       <c r="Q4">
-        <v>0.6513253252801964</v>
+        <v>0.7385691203595282</v>
       </c>
       <c r="R4">
-        <v>0.8711802030459392</v>
+        <v>0.5979543905694723</v>
       </c>
       <c r="S4">
-        <v>0.8441721350737078</v>
+        <v>0.8007890550827099</v>
       </c>
       <c r="T4">
-        <v>0.846109054457105</v>
+        <v>0.4989291225897625</v>
       </c>
       <c r="U4">
-        <v>0.941792683007846</v>
+        <v>0.7337141874786874</v>
       </c>
       <c r="V4">
-        <v>0.8320125244959042</v>
+        <v>0.7986736781035007</v>
       </c>
       <c r="W4">
-        <v>0.8389603986088224</v>
+        <v>0.7440591112281215</v>
       </c>
       <c r="X4">
-        <v>0.7050535425724928</v>
+        <v>0.6988778382364637</v>
       </c>
       <c r="Y4">
-        <v>0.8188977107626544</v>
+        <v>0.5364631392772922</v>
       </c>
       <c r="Z4">
-        <v>0.778801096398774</v>
+        <v>0.8518236946410455</v>
       </c>
       <c r="AA4">
-        <v>0.7728153372192463</v>
+        <v>0.8202205481084869</v>
       </c>
       <c r="AB4">
-        <v>0.8937655372822767</v>
+        <v>0.5599789175393152</v>
       </c>
       <c r="AC4">
-        <v>0.8572627166934627</v>
+        <v>0.4738906330535554</v>
       </c>
       <c r="AD4">
-        <v>0.9112787900611213</v>
+        <v>0.9351731061450956</v>
       </c>
       <c r="AE4">
-        <v>0.6876927876395852</v>
+        <v>0.9734213532450284</v>
       </c>
       <c r="AF4">
-        <v>0.9541428799709422</v>
+        <v>0.6306166977708326</v>
       </c>
       <c r="AG4">
-        <v>0.8839763352589051</v>
+        <v>0.9856535360786308</v>
       </c>
       <c r="AH4">
-        <v>0.7711441812326731</v>
+        <v>0.3606674326222638</v>
       </c>
       <c r="AI4">
-        <v>0.7869778103370961</v>
+        <v>0.6198170414691897</v>
       </c>
       <c r="AJ4">
-        <v>0.76855819460352</v>
+        <v>0.6503808544368566</v>
       </c>
       <c r="AK4">
-        <v>0.7038970500726816</v>
+        <v>0.6981068185151384</v>
       </c>
       <c r="AL4">
-        <v>0.7763325054688618</v>
+        <v>0.813000122737533</v>
       </c>
       <c r="AM4">
-        <v>0.7865696233046269</v>
+        <v>0.8915086750009258</v>
       </c>
       <c r="AN4">
-        <v>0.7354987186477233</v>
+        <v>0.6683689995365091</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>1.227711758372117</v>
+        <v>1.016604846436449</v>
       </c>
       <c r="C5">
-        <v>0.7742801249219505</v>
+        <v>1.385973483918852</v>
       </c>
       <c r="D5">
-        <v>0.9290500497027877</v>
+        <v>1.374434813498957</v>
       </c>
       <c r="E5">
-        <v>1.048572589785628</v>
+        <v>1.067167831882742</v>
       </c>
       <c r="F5">
-        <v>1.499962760448322</v>
+        <v>1.40610807212963</v>
       </c>
       <c r="G5">
-        <v>0.9847883151250107</v>
+        <v>0.7980916978095819</v>
       </c>
       <c r="H5">
-        <v>0.9707928667066725</v>
+        <v>0.9106118503128093</v>
       </c>
       <c r="I5">
-        <v>1.096398769083536</v>
+        <v>1.884731665918488</v>
       </c>
       <c r="J5">
-        <v>0.8905208553901224</v>
+        <v>1.000535895000568</v>
       </c>
       <c r="K5">
-        <v>0.9650768682001463</v>
+        <v>1.073470812123698</v>
       </c>
       <c r="L5">
-        <v>0.8079758606283932</v>
+        <v>0.7277535224688408</v>
       </c>
       <c r="M5">
-        <v>0.9171934174281504</v>
+        <v>1.248454966220181</v>
       </c>
       <c r="N5">
-        <v>0.9614266760120547</v>
+        <v>0.79205799366844</v>
       </c>
       <c r="O5">
-        <v>0.9045842496445166</v>
+        <v>0.9413609911668899</v>
       </c>
       <c r="P5">
-        <v>0.9443913102438302</v>
+        <v>1.129722579707062</v>
       </c>
       <c r="Q5">
-        <v>0.7287742645556773</v>
+        <v>1.052447956921677</v>
       </c>
       <c r="R5">
-        <v>0.9891969952138926</v>
+        <v>0.9359277737939523</v>
       </c>
       <c r="S5">
-        <v>0.9695068707689943</v>
+        <v>1.143459428164026</v>
       </c>
       <c r="T5">
-        <v>0.9622323856175227</v>
+        <v>0.7848182244344865</v>
       </c>
       <c r="U5">
-        <v>1.057887389720528</v>
+        <v>1.098976285282259</v>
       </c>
       <c r="V5">
-        <v>0.9307843270783509</v>
+        <v>1.137467697164408</v>
       </c>
       <c r="W5">
-        <v>0.9450013642169017</v>
+        <v>1.112987364345006</v>
       </c>
       <c r="X5">
-        <v>0.7904033535019103</v>
+        <v>1.020152620560006</v>
       </c>
       <c r="Y5">
-        <v>0.9277934121625031</v>
+        <v>0.8771956226175819</v>
       </c>
       <c r="Z5">
-        <v>0.878965959962099</v>
+        <v>1.272623272406813</v>
       </c>
       <c r="AA5">
-        <v>0.8743094971675744</v>
+        <v>1.23112601300967</v>
       </c>
       <c r="AB5">
-        <v>1.018058690045972</v>
+        <v>0.8245465300469164</v>
       </c>
       <c r="AC5">
-        <v>0.9693522881641385</v>
+        <v>0.8608001589801811</v>
       </c>
       <c r="AD5">
-        <v>1.03237237882156</v>
+        <v>1.341815292455189</v>
       </c>
       <c r="AE5">
-        <v>0.7790670397881312</v>
+        <v>1.372593910863461</v>
       </c>
       <c r="AF5">
-        <v>1.076429940112134</v>
+        <v>0.9566994667760902</v>
       </c>
       <c r="AG5">
-        <v>0.9978112408195517</v>
+        <v>1.380771711373648</v>
       </c>
       <c r="AH5">
-        <v>0.8918299803339558</v>
+        <v>0.619026150484412</v>
       </c>
       <c r="AI5">
-        <v>0.8821441238864843</v>
+        <v>0.9409318896224741</v>
       </c>
       <c r="AJ5">
-        <v>0.8779193433389961</v>
+        <v>0.9535960184317284</v>
       </c>
       <c r="AK5">
-        <v>0.8103370266192645</v>
+        <v>1.02198768613858</v>
       </c>
       <c r="AL5">
-        <v>0.8903965451581171</v>
+        <v>1.16866003024136</v>
       </c>
       <c r="AM5">
-        <v>0.9104918567521509</v>
+        <v>1.274034018858798</v>
       </c>
       <c r="AN5">
-        <v>0.8485226143104766</v>
+        <v>0.9246604646447341</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>1.17029288311464</v>
+        <v>1.321459611617209</v>
       </c>
       <c r="C6">
-        <v>0.7450041713749246</v>
+        <v>1.973908124118021</v>
       </c>
       <c r="D6">
-        <v>0.907289771248919</v>
+        <v>1.935963530561527</v>
       </c>
       <c r="E6">
-        <v>1.007716901803931</v>
+        <v>1.554941309303996</v>
       </c>
       <c r="F6">
-        <v>1.436826254045687</v>
+        <v>1.965507879748106</v>
       </c>
       <c r="G6">
-        <v>0.9433679691193185</v>
+        <v>1.139501677541409</v>
       </c>
       <c r="H6">
-        <v>0.9298750045545381</v>
+        <v>1.292832604497043</v>
       </c>
       <c r="I6">
-        <v>1.062509220769566</v>
+        <v>2.721051198741951</v>
       </c>
       <c r="J6">
-        <v>0.8658582840721193</v>
+        <v>1.39337035103233</v>
       </c>
       <c r="K6">
-        <v>0.9253539081945326</v>
+        <v>1.539558732396545</v>
       </c>
       <c r="L6">
-        <v>0.7825013309953199</v>
+        <v>1.016330571897446</v>
       </c>
       <c r="M6">
-        <v>0.8717854407387254</v>
+        <v>1.740506572625151</v>
       </c>
       <c r="N6">
-        <v>0.9249179810656494</v>
+        <v>1.154802155413309</v>
       </c>
       <c r="O6">
-        <v>0.8694138799206979</v>
+        <v>1.328891927563448</v>
       </c>
       <c r="P6">
-        <v>0.9082628276352445</v>
+        <v>1.627875802174184</v>
       </c>
       <c r="Q6">
-        <v>0.7001056444180249</v>
+        <v>1.473554332876824</v>
       </c>
       <c r="R6">
-        <v>0.9584257704299541</v>
+        <v>1.343319363740617</v>
       </c>
       <c r="S6">
-        <v>0.9379475809767724</v>
+        <v>1.605767042409523</v>
       </c>
       <c r="T6">
-        <v>0.9232260189270832</v>
+        <v>1.106866352568253</v>
       </c>
       <c r="U6">
-        <v>1.016643944035505</v>
+        <v>1.546387978465548</v>
       </c>
       <c r="V6">
-        <v>0.8894640388194254</v>
+        <v>1.594297691904361</v>
       </c>
       <c r="W6">
-        <v>0.907711517286905</v>
+        <v>1.584328838105813</v>
       </c>
       <c r="X6">
-        <v>0.7625036366342017</v>
+        <v>1.435931101728646</v>
       </c>
       <c r="Y6">
-        <v>0.8949765437734639</v>
+        <v>1.277160396677843</v>
       </c>
       <c r="Z6">
-        <v>0.8454951344233737</v>
+        <v>1.806801999728453</v>
       </c>
       <c r="AA6">
-        <v>0.8430482782999703</v>
+        <v>1.732453669841838</v>
       </c>
       <c r="AB6">
-        <v>0.9794016404162752</v>
+        <v>1.176661518831399</v>
       </c>
       <c r="AC6">
-        <v>0.9322518771499494</v>
+        <v>1.245589435778248</v>
       </c>
       <c r="AD6">
-        <v>0.9966801076329007</v>
+        <v>1.887114308849047</v>
       </c>
       <c r="AE6">
-        <v>0.7559911854246507</v>
+        <v>1.924191115764209</v>
       </c>
       <c r="AF6">
-        <v>1.040333025312713</v>
+        <v>1.374445647328469</v>
       </c>
       <c r="AG6">
-        <v>0.9691121586042428</v>
+        <v>1.941068819070125</v>
       </c>
       <c r="AH6">
-        <v>0.860897499002635</v>
+        <v>0.8853081540929151</v>
       </c>
       <c r="AI6">
-        <v>0.8552847492994602</v>
+        <v>1.297020268160344</v>
       </c>
       <c r="AJ6">
-        <v>0.8505292524263111</v>
+        <v>1.320818750356893</v>
       </c>
       <c r="AK6">
-        <v>0.7860909435955343</v>
+        <v>1.413512012756534</v>
       </c>
       <c r="AL6">
-        <v>0.8552555936456968</v>
+        <v>1.652738299314405</v>
       </c>
       <c r="AM6">
-        <v>0.8816633851237607</v>
+        <v>1.796511142857653</v>
       </c>
       <c r="AN6">
-        <v>0.8167080783261337</v>
+        <v>1.268712783157008</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>1.271973546344076</v>
+        <v>0.8628812638600085</v>
       </c>
       <c r="C7">
-        <v>0.8231722329880822</v>
+        <v>1.115924589631578</v>
       </c>
       <c r="D7">
-        <v>1.040107185143401</v>
+        <v>1.058236392969167</v>
       </c>
       <c r="E7">
-        <v>1.125858842594475</v>
+        <v>0.7635994609460539</v>
       </c>
       <c r="F7">
-        <v>1.569785203563989</v>
+        <v>1.148567522590739</v>
       </c>
       <c r="G7">
-        <v>1.048831042246723</v>
+        <v>0.5499870318837007</v>
       </c>
       <c r="H7">
-        <v>1.029666000802265</v>
+        <v>0.6498663061158493</v>
       </c>
       <c r="I7">
-        <v>1.192803737985487</v>
+        <v>1.475664506594573</v>
       </c>
       <c r="J7">
-        <v>0.9824641128853039</v>
+        <v>0.7644895131697189</v>
       </c>
       <c r="K7">
-        <v>1.05772896699202</v>
+        <v>0.7634151357313819</v>
       </c>
       <c r="L7">
-        <v>0.8854978699186462</v>
+        <v>0.5130273069864285</v>
       </c>
       <c r="M7">
-        <v>0.9836519636965759</v>
+        <v>1.008436927483832</v>
       </c>
       <c r="N7">
-        <v>1.063923921407119</v>
+        <v>0.4939851086830921</v>
       </c>
       <c r="O7">
-        <v>0.9771520348319608</v>
+        <v>0.6689901449081043</v>
       </c>
       <c r="P7">
-        <v>1.0371226412488</v>
+        <v>0.8362152113610568</v>
       </c>
       <c r="Q7">
-        <v>0.7767301942563504</v>
+        <v>0.8279292563145615</v>
       </c>
       <c r="R7">
-        <v>1.114357297352666</v>
+        <v>0.6914032553966718</v>
       </c>
       <c r="S7">
-        <v>1.09762280812461</v>
+        <v>0.8953669377290745</v>
       </c>
       <c r="T7">
-        <v>1.048741062321204</v>
+        <v>0.5692835862801132</v>
       </c>
       <c r="U7">
-        <v>1.144126970251468</v>
+        <v>0.8407554715249453</v>
       </c>
       <c r="V7">
-        <v>0.9820981303619051</v>
+        <v>0.9014205855641509</v>
       </c>
       <c r="W7">
-        <v>1.031178155339259</v>
+        <v>0.8490174068498789</v>
       </c>
       <c r="X7">
-        <v>0.8724546727877027</v>
+        <v>0.7917589672677461</v>
       </c>
       <c r="Y7">
-        <v>1.027505227278555</v>
+        <v>0.6137198124620226</v>
       </c>
       <c r="Z7">
-        <v>0.9546052706053098</v>
+        <v>0.9724239652104429</v>
       </c>
       <c r="AA7">
-        <v>0.9678853392845072</v>
+        <v>0.9306481732458861</v>
       </c>
       <c r="AB7">
-        <v>1.129769760763941</v>
+        <v>0.6340103515331119</v>
       </c>
       <c r="AC7">
-        <v>1.06447727936306</v>
+        <v>0.5638300100959909</v>
       </c>
       <c r="AD7">
-        <v>1.145690563848214</v>
+        <v>1.060743043458843</v>
       </c>
       <c r="AE7">
-        <v>0.8876521704229217</v>
+        <v>1.095183393840466</v>
       </c>
       <c r="AF7">
-        <v>1.194013511524556</v>
+        <v>0.7186377337588935</v>
       </c>
       <c r="AG7">
-        <v>1.120844024091132</v>
+        <v>1.089941763697904</v>
       </c>
       <c r="AH7">
-        <v>1.023648577885125</v>
+        <v>0.4178642605713798</v>
       </c>
       <c r="AI7">
-        <v>0.990862692449979</v>
+        <v>0.7083657559468697</v>
       </c>
       <c r="AJ7">
-        <v>0.9955150203116822</v>
+        <v>0.7421762439008919</v>
       </c>
       <c r="AK7">
-        <v>0.9348796961607042</v>
+        <v>0.7762326419965168</v>
       </c>
       <c r="AL7">
-        <v>0.998290170249341</v>
+        <v>0.9049943212626246</v>
       </c>
       <c r="AM7">
-        <v>1.050282851742355</v>
+        <v>0.9955963408592365</v>
       </c>
       <c r="AN7">
-        <v>0.9669478321027084</v>
+        <v>0.7510912765427248</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>1.171156089492089</v>
+        <v>0.872518573471417</v>
       </c>
       <c r="C8">
-        <v>0.7507616540634605</v>
+        <v>1.343211918240917</v>
       </c>
       <c r="D8">
-        <v>0.9791541862737654</v>
+        <v>1.419396281558964</v>
       </c>
       <c r="E8">
-        <v>1.048804209810114</v>
+        <v>1.224019150345521</v>
       </c>
       <c r="F8">
-        <v>1.455305895942679</v>
+        <v>1.330527340000418</v>
       </c>
       <c r="G8">
-        <v>0.9789365711742982</v>
+        <v>0.9460089426903416</v>
       </c>
       <c r="H8">
-        <v>0.9602616014533959</v>
+        <v>1.039113182411046</v>
       </c>
       <c r="I8">
-        <v>1.109237352959082</v>
+        <v>1.916081337516582</v>
       </c>
       <c r="J8">
-        <v>0.9141978008554527</v>
+        <v>1.045926603932598</v>
       </c>
       <c r="K8">
-        <v>1.012499245955601</v>
+        <v>1.232072980404568</v>
       </c>
       <c r="L8">
-        <v>0.8212963796099152</v>
+        <v>0.8403523390407316</v>
       </c>
       <c r="M8">
-        <v>0.9521817974678914</v>
+        <v>1.180331031419438</v>
       </c>
       <c r="N8">
-        <v>1.017832400073569</v>
+        <v>1.047098533506238</v>
       </c>
       <c r="O8">
-        <v>0.9133700075626179</v>
+        <v>1.090332712740002</v>
       </c>
       <c r="P8">
-        <v>0.9863243928975168</v>
+        <v>1.232416356204322</v>
       </c>
       <c r="Q8">
-        <v>0.7190732793876207</v>
+        <v>1.047009335149586</v>
       </c>
       <c r="R8">
-        <v>1.066950257845613</v>
+        <v>1.033703538887386</v>
       </c>
       <c r="S8">
-        <v>1.050352643065023</v>
+        <v>1.144062336511703</v>
       </c>
       <c r="T8">
-        <v>0.9922409519559443</v>
+        <v>0.8757768439058649</v>
       </c>
       <c r="U8">
-        <v>1.079275919896986</v>
+        <v>1.151358958805502</v>
       </c>
       <c r="V8">
-        <v>0.918443966108237</v>
+        <v>1.124909394226074</v>
       </c>
       <c r="W8">
-        <v>0.9866592845840273</v>
+        <v>1.171083631236431</v>
       </c>
       <c r="X8">
-        <v>0.8395587229119705</v>
+        <v>1.041987726336685</v>
       </c>
       <c r="Y8">
-        <v>0.9789992558817721</v>
+        <v>1.027571569498959</v>
       </c>
       <c r="Z8">
-        <v>0.8961310709969019</v>
+        <v>1.335602340242439</v>
       </c>
       <c r="AA8">
-        <v>0.9254582679212139</v>
+        <v>1.30255638319726</v>
       </c>
       <c r="AB8">
-        <v>1.086343414122806</v>
+        <v>0.8554595081086014</v>
       </c>
       <c r="AC8">
-        <v>1.01751730986987</v>
+        <v>1.091325910908967</v>
       </c>
       <c r="AD8">
-        <v>1.091198613444792</v>
+        <v>1.336941718809089</v>
       </c>
       <c r="AE8">
-        <v>0.8633628330931178</v>
+        <v>1.341621759288868</v>
       </c>
       <c r="AF8">
-        <v>1.137274820684343</v>
+        <v>1.028031522543363</v>
       </c>
       <c r="AG8">
-        <v>1.064154174940368</v>
+        <v>1.356798010792197</v>
       </c>
       <c r="AH8">
-        <v>1.004115644098325</v>
+        <v>0.7530307685644689</v>
       </c>
       <c r="AI8">
-        <v>0.9589452263146346</v>
+        <v>0.9994963381138244</v>
       </c>
       <c r="AJ8">
-        <v>0.9562706714489807</v>
+        <v>0.9704089285138495</v>
       </c>
       <c r="AK8">
-        <v>0.9094200698758889</v>
+        <v>1.057874175256795</v>
       </c>
       <c r="AL8">
-        <v>0.9748725665748205</v>
+        <v>1.186343595344735</v>
       </c>
       <c r="AM8">
-        <v>1.02236919413109</v>
+        <v>1.278754111469387</v>
       </c>
       <c r="AN8">
-        <v>0.9533270934735275</v>
+        <v>0.8742210728561716</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>1.210836548502988</v>
+        <v>0.7147513793402039</v>
       </c>
       <c r="C9">
-        <v>0.814728957890683</v>
+        <v>1.225780355157936</v>
       </c>
       <c r="D9">
-        <v>1.021256265326066</v>
+        <v>1.364691535329363</v>
       </c>
       <c r="E9">
-        <v>1.105945749164087</v>
+        <v>1.26338732069223</v>
       </c>
       <c r="F9">
-        <v>1.467994568535344</v>
+        <v>1.193783772435048</v>
       </c>
       <c r="G9">
-        <v>1.022198211361114</v>
+        <v>0.9962785295084342</v>
       </c>
       <c r="H9">
-        <v>0.9928688545179583</v>
+        <v>1.070392390517533</v>
       </c>
       <c r="I9">
-        <v>1.158560930795747</v>
+        <v>1.817183909771591</v>
       </c>
       <c r="J9">
-        <v>0.9738659691883857</v>
+        <v>1.017638848142569</v>
       </c>
       <c r="K9">
-        <v>1.057001787548613</v>
+        <v>1.272528864002618</v>
       </c>
       <c r="L9">
-        <v>0.8889990843584273</v>
+        <v>0.8737103114760101</v>
       </c>
       <c r="M9">
-        <v>0.9500593474324679</v>
+        <v>1.050246038845922</v>
       </c>
       <c r="N9">
-        <v>1.072424470236004</v>
+        <v>1.172434990064216</v>
       </c>
       <c r="O9">
-        <v>0.9701757540385775</v>
+        <v>1.138991174725334</v>
       </c>
       <c r="P9">
-        <v>1.037420748076367</v>
+        <v>1.228711978079393</v>
       </c>
       <c r="Q9">
-        <v>0.7578935180711871</v>
+        <v>0.9762623621933875</v>
       </c>
       <c r="R9">
-        <v>1.129683412317083</v>
+        <v>1.044009935244924</v>
       </c>
       <c r="S9">
-        <v>1.140814403545465</v>
+        <v>1.070525612117107</v>
       </c>
       <c r="T9">
-        <v>1.053449475603592</v>
+        <v>0.8891424763322555</v>
       </c>
       <c r="U9">
-        <v>1.117773553317758</v>
+        <v>1.121577543454789</v>
       </c>
       <c r="V9">
-        <v>0.940641534972951</v>
+        <v>1.045821807757311</v>
       </c>
       <c r="W9">
-        <v>1.00582110770397</v>
+        <v>1.142065489981622</v>
       </c>
       <c r="X9">
-        <v>0.8454412535577267</v>
+        <v>0.9936912707297585</v>
       </c>
       <c r="Y9">
-        <v>1.029554878945532</v>
+        <v>1.073004429165674</v>
       </c>
       <c r="Z9">
-        <v>0.9492003992117281</v>
+        <v>1.300551440919474</v>
       </c>
       <c r="AA9">
-        <v>0.9634352140868222</v>
+        <v>1.274759686496052</v>
       </c>
       <c r="AB9">
-        <v>1.13526505309669</v>
+        <v>0.8241726823997743</v>
       </c>
       <c r="AC9">
-        <v>1.052496890740509</v>
+        <v>1.198254514026246</v>
       </c>
       <c r="AD9">
-        <v>1.149934825939069</v>
+        <v>1.251549212637988</v>
       </c>
       <c r="AE9">
-        <v>0.8893312674215939</v>
+        <v>1.234529692850715</v>
       </c>
       <c r="AF9">
-        <v>1.188258118713526</v>
+        <v>1.0162623808999</v>
       </c>
       <c r="AG9">
-        <v>1.130481845700308</v>
+        <v>1.247525425877747</v>
       </c>
       <c r="AH9">
-        <v>1.061518217350268</v>
+        <v>0.8062063159325837</v>
       </c>
       <c r="AI9">
-        <v>0.9672919290861441</v>
+        <v>0.9841165015534702</v>
       </c>
       <c r="AJ9">
-        <v>1.021954942459904</v>
+        <v>0.9258368027556948</v>
       </c>
       <c r="AK9">
-        <v>0.9726048940096627</v>
+        <v>1.015699180241325</v>
       </c>
       <c r="AL9">
-        <v>1.008201479435495</v>
+        <v>1.120614982036203</v>
       </c>
       <c r="AM9">
-        <v>1.102431252323779</v>
+        <v>1.198698503827689</v>
       </c>
       <c r="AN9">
-        <v>0.9887008276084626</v>
+        <v>0.7837232054049583</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>1.109487646076657</v>
+        <v>0.5137303905531124</v>
       </c>
       <c r="C10">
-        <v>0.7160356585820978</v>
+        <v>0.9460400392209238</v>
       </c>
       <c r="D10">
-        <v>0.962091630288965</v>
+        <v>1.17222553195189</v>
       </c>
       <c r="E10">
-        <v>1.011747551794125</v>
+        <v>1.17272277974744</v>
       </c>
       <c r="F10">
-        <v>1.387427512995708</v>
+        <v>0.8906335609969267</v>
       </c>
       <c r="G10">
-        <v>0.9421257230040461</v>
+        <v>0.9823264252079799</v>
       </c>
       <c r="H10">
-        <v>0.9223762453303185</v>
+        <v>1.016781995764503</v>
       </c>
       <c r="I10">
-        <v>1.074389569236415</v>
+        <v>1.475778909663939</v>
       </c>
       <c r="J10">
-        <v>0.8902627110508368</v>
+        <v>0.8847603981587203</v>
       </c>
       <c r="K10">
-        <v>0.9933563971128453</v>
+        <v>1.207673551326467</v>
       </c>
       <c r="L10">
-        <v>0.7971021631506177</v>
+        <v>0.8465501756283285</v>
       </c>
       <c r="M10">
-        <v>0.9304376881649142</v>
+        <v>0.8459088174136251</v>
       </c>
       <c r="N10">
-        <v>1.001753485351336</v>
+        <v>1.21453176249203</v>
       </c>
       <c r="O10">
-        <v>0.8841955642698649</v>
+        <v>1.066059364063509</v>
       </c>
       <c r="P10">
-        <v>0.9662227782412559</v>
+        <v>1.114032469339613</v>
       </c>
       <c r="Q10">
-        <v>0.6901733460468771</v>
+        <v>0.8164607599541116</v>
       </c>
       <c r="R10">
-        <v>1.056717125475053</v>
+        <v>0.9304694135005133</v>
       </c>
       <c r="S10">
-        <v>1.042041074198311</v>
+        <v>0.9056541656298761</v>
       </c>
       <c r="T10">
-        <v>0.9677936431706167</v>
+        <v>0.8345737094278549</v>
       </c>
       <c r="U10">
-        <v>1.048465431155926</v>
+        <v>0.9630865278321555</v>
       </c>
       <c r="V10">
-        <v>0.8813375623749704</v>
+        <v>0.8506611062779836</v>
       </c>
       <c r="W10">
-        <v>0.9661897380848092</v>
+        <v>0.9827649014360492</v>
       </c>
       <c r="X10">
-        <v>0.8269005168566471</v>
+        <v>0.840483775253653</v>
       </c>
       <c r="Y10">
-        <v>0.9624319720169611</v>
+        <v>1.030259045605322</v>
       </c>
       <c r="Z10">
-        <v>0.8705092789785306</v>
+        <v>1.117110446962582</v>
       </c>
       <c r="AA10">
-        <v>0.9106889858056877</v>
+        <v>1.132025263982</v>
       </c>
       <c r="AB10">
-        <v>1.071967536456439</v>
+        <v>0.7036630951410404</v>
       </c>
       <c r="AC10">
-        <v>0.9983718558834112</v>
+        <v>1.194427713600422</v>
       </c>
       <c r="AD10">
-        <v>1.073370257211296</v>
+        <v>1.014319179234473</v>
       </c>
       <c r="AE10">
-        <v>0.8624465136420338</v>
+        <v>0.9912920283898944</v>
       </c>
       <c r="AF10">
-        <v>1.118442003494199</v>
+        <v>0.8946466526629013</v>
       </c>
       <c r="AG10">
-        <v>1.050003882276808</v>
+        <v>1.051851259308001</v>
       </c>
       <c r="AH10">
-        <v>1.008330278619075</v>
+        <v>0.8028221814429329</v>
       </c>
       <c r="AI10">
-        <v>0.9518028438033845</v>
+        <v>0.8852776087056863</v>
       </c>
       <c r="AJ10">
-        <v>0.9502447090001537</v>
+        <v>0.7807973442456435</v>
       </c>
       <c r="AK10">
-        <v>0.9123930383490149</v>
+        <v>0.9282677241498334</v>
       </c>
       <c r="AL10">
-        <v>0.9701031045748029</v>
+        <v>0.9707815550916762</v>
       </c>
       <c r="AM10">
-        <v>1.025962612237965</v>
+        <v>1.016895347500736</v>
       </c>
       <c r="AN10">
-        <v>0.9565404004595037</v>
+        <v>0.6112493127433125</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0.9472392907518278</v>
+        <v>0.4890229784939379</v>
       </c>
       <c r="C11">
-        <v>0.6271933956654028</v>
+        <v>0.9756934703672631</v>
       </c>
       <c r="D11">
-        <v>0.8830393832833667</v>
+        <v>1.159765879050307</v>
       </c>
       <c r="E11">
-        <v>0.8981516254511982</v>
+        <v>1.157663096513159</v>
       </c>
       <c r="F11">
-        <v>1.194152582956233</v>
+        <v>0.916667015806199</v>
       </c>
       <c r="G11">
-        <v>0.8304249527988914</v>
+        <v>0.9403223742254946</v>
       </c>
       <c r="H11">
-        <v>0.8086341282941784</v>
+        <v>0.9821372858345493</v>
       </c>
       <c r="I11">
-        <v>0.9610327708488036</v>
+        <v>1.513697874429141</v>
       </c>
       <c r="J11">
-        <v>0.8075368358214451</v>
+        <v>0.8680089320400779</v>
       </c>
       <c r="K11">
-        <v>0.9048614198894822</v>
+        <v>1.172743545611121</v>
       </c>
       <c r="L11">
-        <v>0.7204673661196176</v>
+        <v>0.8068338441461622</v>
       </c>
       <c r="M11">
-        <v>0.8324721102102436</v>
+        <v>0.8374885081752533</v>
       </c>
       <c r="N11">
-        <v>0.9197706322391956</v>
+        <v>1.159489008065768</v>
       </c>
       <c r="O11">
-        <v>0.7908396052880609</v>
+        <v>1.036782062566732</v>
       </c>
       <c r="P11">
-        <v>0.8800107619477785</v>
+        <v>1.098091823953555</v>
       </c>
       <c r="Q11">
-        <v>0.6072116017043316</v>
+        <v>0.8080264832953525</v>
       </c>
       <c r="R11">
-        <v>0.9829632358370899</v>
+        <v>0.9248191416283386</v>
       </c>
       <c r="S11">
-        <v>0.9762850464755108</v>
+        <v>0.8942274792461061</v>
       </c>
       <c r="T11">
-        <v>0.876097840565444</v>
+        <v>0.8053638030483833</v>
       </c>
       <c r="U11">
-        <v>0.9385567682375747</v>
+        <v>0.9555527736685936</v>
       </c>
       <c r="V11">
-        <v>0.7692370121376533</v>
+        <v>0.8521622828526227</v>
       </c>
       <c r="W11">
-        <v>0.8738196322623641</v>
+        <v>0.9804584270772559</v>
       </c>
       <c r="X11">
-        <v>0.7542341108332812</v>
+        <v>0.8351719617726766</v>
       </c>
       <c r="Y11">
-        <v>0.8823731422971293</v>
+        <v>1.003869373317825</v>
       </c>
       <c r="Z11">
-        <v>0.7829186619824827</v>
+        <v>1.113430973203361</v>
       </c>
       <c r="AA11">
-        <v>0.8345460869576808</v>
+        <v>1.108090223572271</v>
       </c>
       <c r="AB11">
-        <v>0.9868562279482247</v>
+        <v>0.7034365399704247</v>
       </c>
       <c r="AC11">
-        <v>0.9087396006910946</v>
+        <v>1.152440142476062</v>
       </c>
       <c r="AD11">
-        <v>0.985663766545685</v>
+        <v>1.021795896818059</v>
       </c>
       <c r="AE11">
-        <v>0.8093527299370145</v>
+        <v>0.9960374809276836</v>
       </c>
       <c r="AF11">
-        <v>1.025293935709944</v>
+        <v>0.8904852276050488</v>
       </c>
       <c r="AG11">
-        <v>0.9721680945380559</v>
+        <v>1.03592174319259</v>
       </c>
       <c r="AH11">
-        <v>0.9572564085964028</v>
+        <v>0.7681719190606756</v>
       </c>
       <c r="AI11">
-        <v>0.8806052578416651</v>
+        <v>0.8540397802167224</v>
       </c>
       <c r="AJ11">
-        <v>0.8901193208691658</v>
+        <v>0.7698716547035345</v>
       </c>
       <c r="AK11">
-        <v>0.8678851771615299</v>
+        <v>0.8852518841422476</v>
       </c>
       <c r="AL11">
-        <v>0.9030969338113917</v>
+        <v>0.9548488773124127</v>
       </c>
       <c r="AM11">
-        <v>0.9773330211206528</v>
+        <v>1.005763041163297</v>
       </c>
       <c r="AN11">
-        <v>0.9030957584675255</v>
+        <v>0.6084995654641238</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.986433478425648</v>
+        <v>0.5677060178535035</v>
       </c>
       <c r="C12">
-        <v>0.7029453088072014</v>
+        <v>0.7841002740844621</v>
       </c>
       <c r="D12">
-        <v>0.9638177363640167</v>
+        <v>0.7174562022787898</v>
       </c>
       <c r="E12">
-        <v>0.9603481985180472</v>
+        <v>0.5186265336095092</v>
       </c>
       <c r="F12">
-        <v>1.22942147890889</v>
+        <v>0.779493937177545</v>
       </c>
       <c r="G12">
-        <v>0.8719971351864862</v>
+        <v>0.3658423356450385</v>
       </c>
       <c r="H12">
-        <v>0.843257716241546</v>
+        <v>0.4285594004272751</v>
       </c>
       <c r="I12">
-        <v>1.044750956140596</v>
+        <v>1.034251367777182</v>
       </c>
       <c r="J12">
-        <v>0.8961276918287363</v>
+        <v>0.4973746782431331</v>
       </c>
       <c r="K12">
-        <v>0.9293317881839006</v>
+        <v>0.5124354902857787</v>
       </c>
       <c r="L12">
-        <v>0.8036044667336436</v>
+        <v>0.3248269265698455</v>
       </c>
       <c r="M12">
-        <v>0.796947128054871</v>
+        <v>0.7291514758933426</v>
       </c>
       <c r="N12">
-        <v>0.9596986449368403</v>
+        <v>0.3089588530372902</v>
       </c>
       <c r="O12">
-        <v>0.847298927916754</v>
+        <v>0.4074203792997647</v>
       </c>
       <c r="P12">
-        <v>0.9216103818409564</v>
+        <v>0.5852376301007213</v>
       </c>
       <c r="Q12">
-        <v>0.6526544545613587</v>
+        <v>0.574378804898499</v>
       </c>
       <c r="R12">
-        <v>1.045966750438655</v>
+        <v>0.4545145694723342</v>
       </c>
       <c r="S12">
-        <v>1.054033403581223</v>
+        <v>0.6275673531375571</v>
       </c>
       <c r="T12">
-        <v>0.9228179610801683</v>
+        <v>0.3773799734552906</v>
       </c>
       <c r="U12">
-        <v>0.9776937581711083</v>
+        <v>0.5519509511297567</v>
       </c>
       <c r="V12">
-        <v>0.7886077323066357</v>
+        <v>0.6154237666263647</v>
       </c>
       <c r="W12">
-        <v>0.8861878004700563</v>
+        <v>0.5729481622373005</v>
       </c>
       <c r="X12">
-        <v>0.7627789110012418</v>
+        <v>0.5370975638887731</v>
       </c>
       <c r="Y12">
-        <v>0.9292312117985932</v>
+        <v>0.4227694775807782</v>
       </c>
       <c r="Z12">
-        <v>0.8352199559154501</v>
+        <v>0.6530960133144472</v>
       </c>
       <c r="AA12">
-        <v>0.868702483245407</v>
+        <v>0.6269219775220048</v>
       </c>
       <c r="AB12">
-        <v>1.018728997325123</v>
+        <v>0.4385824113813122</v>
       </c>
       <c r="AC12">
-        <v>0.9355413092140079</v>
+        <v>0.343996015624032</v>
       </c>
       <c r="AD12">
-        <v>1.042009638763126</v>
+        <v>0.7176559873022536</v>
       </c>
       <c r="AE12">
-        <v>0.835495996817799</v>
+        <v>0.7547091878717357</v>
       </c>
       <c r="AF12">
-        <v>1.080174461946876</v>
+        <v>0.4924489133587255</v>
       </c>
       <c r="AG12">
-        <v>1.051380194201711</v>
+        <v>0.7879269752592628</v>
       </c>
       <c r="AH12">
-        <v>0.9864702400067639</v>
+        <v>0.2697118902399167</v>
       </c>
       <c r="AI12">
-        <v>0.8983178687850532</v>
+        <v>0.4539543643238461</v>
       </c>
       <c r="AJ12">
-        <v>0.9499496892931398</v>
+        <v>0.4829402868472408</v>
       </c>
       <c r="AK12">
-        <v>0.9182637366420795</v>
+        <v>0.5394604486502728</v>
       </c>
       <c r="AL12">
-        <v>0.9088718783098255</v>
+        <v>0.6469718123721524</v>
       </c>
       <c r="AM12">
-        <v>1.035155610126283</v>
+        <v>0.7036604607739209</v>
       </c>
       <c r="AN12">
-        <v>0.907870314490814</v>
+        <v>0.5060825769010958</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块-beta.xlsx
+++ b/FOF/data/基金公司-板块-beta.xlsx
@@ -16,157 +16,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
     <t>汇丰晋信</t>
   </si>
   <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
     <t>海富通</t>
   </si>
   <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
     <t>长信</t>
   </si>
   <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
     <t>上投摩根</t>
   </si>
   <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
     <t>中证1000</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>上证50</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>创业板综</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0.7339344721448789</v>
+        <v>1.065392319188189</v>
       </c>
       <c r="C2">
-        <v>0.8781952370262927</v>
+        <v>0.7550673269301507</v>
       </c>
       <c r="D2">
-        <v>0.8095845110467366</v>
+        <v>1.064451959190097</v>
       </c>
       <c r="E2">
-        <v>0.5376400119475555</v>
+        <v>0.9772647687391165</v>
       </c>
       <c r="F2">
-        <v>0.9065629190477169</v>
+        <v>0.9848728363353921</v>
       </c>
       <c r="G2">
-        <v>0.3875911215367122</v>
+        <v>1.044200739342058</v>
       </c>
       <c r="H2">
-        <v>0.4663346250839893</v>
+        <v>0.9649696461765183</v>
       </c>
       <c r="I2">
-        <v>1.125165656463493</v>
+        <v>0.9479436210152137</v>
       </c>
       <c r="J2">
-        <v>0.5744404796857093</v>
+        <v>0.9022209983211756</v>
       </c>
       <c r="K2">
-        <v>0.5455220443047549</v>
+        <v>1.155044982208104</v>
       </c>
       <c r="L2">
-        <v>0.364555372613165</v>
+        <v>0.9691198644011915</v>
       </c>
       <c r="M2">
-        <v>0.8355444490107952</v>
+        <v>0.9470575811256599</v>
       </c>
       <c r="N2">
-        <v>0.299512807188786</v>
+        <v>1.0587536971387</v>
       </c>
       <c r="O2">
-        <v>0.4539635487706612</v>
+        <v>1.084100192113307</v>
       </c>
       <c r="P2">
-        <v>0.6244794653604534</v>
+        <v>1.09257698532639</v>
       </c>
       <c r="Q2">
-        <v>0.6551559146728406</v>
+        <v>1.034262124356861</v>
       </c>
       <c r="R2">
-        <v>0.4931527146755442</v>
+        <v>1.053997600169314</v>
       </c>
       <c r="S2">
-        <v>0.710189777529242</v>
+        <v>0.9893952468076136</v>
       </c>
       <c r="T2">
-        <v>0.4175253562979242</v>
+        <v>0.8593466184329932</v>
       </c>
       <c r="U2">
-        <v>0.6267157045455926</v>
+        <v>1.18891081696927</v>
       </c>
       <c r="V2">
-        <v>0.7052012322415633</v>
+        <v>1.090328765199347</v>
       </c>
       <c r="W2">
-        <v>0.6348885028076326</v>
+        <v>1.039350418340889</v>
       </c>
       <c r="X2">
-        <v>0.6083238825021361</v>
+        <v>0.8652596565705821</v>
       </c>
       <c r="Y2">
-        <v>0.4332897903194451</v>
+        <v>1.009460576220633</v>
       </c>
       <c r="Z2">
-        <v>0.7277707813681376</v>
+        <v>1.200652440611905</v>
       </c>
       <c r="AA2">
-        <v>0.7047053932916101</v>
+        <v>1.225449374149163</v>
       </c>
       <c r="AB2">
-        <v>0.4832630458252142</v>
+        <v>1.004232104955976</v>
       </c>
       <c r="AC2">
-        <v>0.3503429870434316</v>
+        <v>1.245171425477857</v>
       </c>
       <c r="AD2">
-        <v>0.8194805837602446</v>
+        <v>1.140027500460892</v>
       </c>
       <c r="AE2">
-        <v>0.8647040154731429</v>
+        <v>1.070555486324031</v>
       </c>
       <c r="AF2">
-        <v>0.5331446109910287</v>
+        <v>1.153960259391964</v>
       </c>
       <c r="AG2">
-        <v>0.8868163139637126</v>
+        <v>0.9389730171045769</v>
       </c>
       <c r="AH2">
-        <v>0.2834815863705864</v>
+        <v>1.149608212277697</v>
       </c>
       <c r="AI2">
-        <v>0.5315038265961665</v>
+        <v>1.109250305507451</v>
       </c>
       <c r="AJ2">
-        <v>0.565673272774628</v>
+        <v>1.136425700197014</v>
       </c>
       <c r="AK2">
-        <v>0.6184431109033206</v>
+        <v>1.389997640105922</v>
       </c>
       <c r="AL2">
-        <v>0.7192965445710086</v>
+        <v>1.115809206160203</v>
       </c>
       <c r="AM2">
-        <v>0.7898345891581461</v>
+        <v>1.12376633934087</v>
       </c>
       <c r="AN2">
-        <v>0.6030406764435068</v>
+        <v>1.509278788619285</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0.8049261897067241</v>
+        <v>1.193779520947795</v>
       </c>
       <c r="C3">
-        <v>1.039263803326391</v>
+        <v>0.8608647808852007</v>
       </c>
       <c r="D3">
-        <v>0.9901439859570514</v>
+        <v>1.203894725426988</v>
       </c>
       <c r="E3">
-        <v>0.7173012479000676</v>
+        <v>1.102987118630239</v>
       </c>
       <c r="F3">
-        <v>1.06971745759172</v>
+        <v>1.112736979065416</v>
       </c>
       <c r="G3">
-        <v>0.5193866757048224</v>
+        <v>1.17986293598653</v>
       </c>
       <c r="H3">
-        <v>0.6119105271812083</v>
+        <v>1.090331466620846</v>
       </c>
       <c r="I3">
-        <v>1.376155338639328</v>
+        <v>1.064452995678325</v>
       </c>
       <c r="J3">
-        <v>0.7163419384557383</v>
+        <v>1.019007728144452</v>
       </c>
       <c r="K3">
-        <v>0.7184893401099172</v>
+        <v>1.298428797792599</v>
       </c>
       <c r="L3">
-        <v>0.4842516558164206</v>
+        <v>1.093737297910774</v>
       </c>
       <c r="M3">
-        <v>0.9404678519659552</v>
+        <v>1.074307845070931</v>
       </c>
       <c r="N3">
-        <v>0.4702916532438012</v>
+        <v>1.194851943636011</v>
       </c>
       <c r="O3">
-        <v>0.6303425225212362</v>
+        <v>1.215123264236371</v>
       </c>
       <c r="P3">
-        <v>0.7838560692825745</v>
+        <v>1.220786771573217</v>
       </c>
       <c r="Q3">
-        <v>0.7735772396956284</v>
+        <v>1.168015355233057</v>
       </c>
       <c r="R3">
-        <v>0.6483257270037744</v>
+        <v>1.187044973033521</v>
       </c>
       <c r="S3">
-        <v>0.8367669151902389</v>
+        <v>1.116962809045056</v>
       </c>
       <c r="T3">
-        <v>0.5355055715454378</v>
+        <v>0.9682559423642036</v>
       </c>
       <c r="U3">
-        <v>0.7871034669953408</v>
+        <v>1.336748410457713</v>
       </c>
       <c r="V3">
-        <v>0.8415916072505651</v>
+        <v>1.228214585898169</v>
       </c>
       <c r="W3">
-        <v>0.7943846979841829</v>
+        <v>1.177364749319866</v>
       </c>
       <c r="X3">
-        <v>0.7403244534566549</v>
+        <v>0.981760093501538</v>
       </c>
       <c r="Y3">
-        <v>0.5777950165395705</v>
+        <v>1.143717754955462</v>
       </c>
       <c r="Z3">
-        <v>0.9098897130810092</v>
+        <v>1.352557797513984</v>
       </c>
       <c r="AA3">
-        <v>0.8722656611740259</v>
+        <v>1.380323925488811</v>
       </c>
       <c r="AB3">
-        <v>0.5927159247651171</v>
+        <v>1.132712654521543</v>
       </c>
       <c r="AC3">
-        <v>0.5344116418724932</v>
+        <v>1.386309656232824</v>
       </c>
       <c r="AD3">
-        <v>0.9902759564065863</v>
+        <v>1.278550500814764</v>
       </c>
       <c r="AE3">
-        <v>1.021898080188941</v>
+        <v>1.204473769380013</v>
       </c>
       <c r="AF3">
-        <v>0.6728634587044032</v>
+        <v>1.300444358160428</v>
       </c>
       <c r="AG3">
-        <v>1.017893088810137</v>
+        <v>1.063552216164232</v>
       </c>
       <c r="AH3">
-        <v>0.3953348992799488</v>
+        <v>1.301898639013596</v>
       </c>
       <c r="AI3">
-        <v>0.6651598081354917</v>
+        <v>1.256543488342302</v>
       </c>
       <c r="AJ3">
-        <v>0.694559095581724</v>
+        <v>1.282975287017349</v>
       </c>
       <c r="AK3">
-        <v>0.7282607579474047</v>
+        <v>1.555442639043193</v>
       </c>
       <c r="AL3">
-        <v>0.8461920676677197</v>
+        <v>1.245407393906207</v>
       </c>
       <c r="AM3">
-        <v>0.930333944443772</v>
+        <v>1.262448119178868</v>
       </c>
       <c r="AN3">
-        <v>0.7007925534919492</v>
+        <v>1.692132743493143</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>0.7777983870469414</v>
+        <v>0.9624353711346189</v>
       </c>
       <c r="C4">
-        <v>0.9912256654795467</v>
+        <v>0.5749691868340994</v>
       </c>
       <c r="D4">
-        <v>0.9338245229079769</v>
+        <v>0.9275216266681791</v>
       </c>
       <c r="E4">
-        <v>0.6633084401631298</v>
+        <v>0.8420145308885917</v>
       </c>
       <c r="F4">
-        <v>1.015600731952518</v>
+        <v>0.8287964182040661</v>
       </c>
       <c r="G4">
-        <v>0.4801258209721527</v>
+        <v>0.92012513907551</v>
       </c>
       <c r="H4">
-        <v>0.5667029603846506</v>
+        <v>0.8382797955707748</v>
       </c>
       <c r="I4">
-        <v>1.301461210542589</v>
+        <v>0.8443366400468179</v>
       </c>
       <c r="J4">
-        <v>0.6685758750014413</v>
+        <v>0.8063620664842929</v>
       </c>
       <c r="K4">
-        <v>0.6663384508024353</v>
+        <v>0.9797423631471098</v>
       </c>
       <c r="L4">
-        <v>0.4451835917591323</v>
+        <v>0.8202271759137391</v>
       </c>
       <c r="M4">
-        <v>0.9148933448781077</v>
+        <v>0.8218105315885603</v>
       </c>
       <c r="N4">
-        <v>0.4172598107856064</v>
+        <v>0.9080089359460797</v>
       </c>
       <c r="O4">
-        <v>0.5689762278732023</v>
+        <v>0.9491634559956955</v>
       </c>
       <c r="P4">
-        <v>0.7387958438638251</v>
+        <v>0.9439238271201459</v>
       </c>
       <c r="Q4">
-        <v>0.7385691203595282</v>
+        <v>0.9216865054220036</v>
       </c>
       <c r="R4">
-        <v>0.5979543905694723</v>
+        <v>0.8781394949138679</v>
       </c>
       <c r="S4">
-        <v>0.8007890550827099</v>
+        <v>0.8678667109953732</v>
       </c>
       <c r="T4">
-        <v>0.4989291225897625</v>
+        <v>0.7352043273484012</v>
       </c>
       <c r="U4">
-        <v>0.7337141874786874</v>
+        <v>1.046334962279501</v>
       </c>
       <c r="V4">
-        <v>0.7986736781035007</v>
+        <v>0.9692614197689542</v>
       </c>
       <c r="W4">
-        <v>0.7440591112281215</v>
+        <v>0.8812299475367601</v>
       </c>
       <c r="X4">
-        <v>0.6988778382364637</v>
+        <v>0.7403522692880047</v>
       </c>
       <c r="Y4">
-        <v>0.5364631392772922</v>
+        <v>0.8866061182776026</v>
       </c>
       <c r="Z4">
-        <v>0.8518236946410455</v>
+        <v>1.054657574675467</v>
       </c>
       <c r="AA4">
-        <v>0.8202205481084869</v>
+        <v>1.090439326475186</v>
       </c>
       <c r="AB4">
-        <v>0.5599789175393152</v>
+        <v>0.8933473196047195</v>
       </c>
       <c r="AC4">
-        <v>0.4738906330535554</v>
+        <v>1.117064033280743</v>
       </c>
       <c r="AD4">
-        <v>0.9351731061450956</v>
+        <v>1.040994866862306</v>
       </c>
       <c r="AE4">
-        <v>0.9734213532450284</v>
+        <v>0.9260323860339303</v>
       </c>
       <c r="AF4">
-        <v>0.6306166977708326</v>
+        <v>1.052362528823203</v>
       </c>
       <c r="AG4">
-        <v>0.9856535360786308</v>
+        <v>0.7900370252938779</v>
       </c>
       <c r="AH4">
-        <v>0.3606674326222638</v>
+        <v>0.9966067515727075</v>
       </c>
       <c r="AI4">
-        <v>0.6198170414691897</v>
+        <v>0.9887420405327171</v>
       </c>
       <c r="AJ4">
-        <v>0.6503808544368566</v>
+        <v>1.017724872907195</v>
       </c>
       <c r="AK4">
-        <v>0.6981068185151384</v>
+        <v>1.207662281096801</v>
       </c>
       <c r="AL4">
-        <v>0.813000122737533</v>
+        <v>1.052945111175031</v>
       </c>
       <c r="AM4">
-        <v>0.8915086750009258</v>
+        <v>1.031399864592049</v>
       </c>
       <c r="AN4">
-        <v>0.6683689995365091</v>
+        <v>1.383286667266913</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>1.016604846436449</v>
+        <v>1.124361240192733</v>
       </c>
       <c r="C5">
-        <v>1.385973483918852</v>
+        <v>0.7586319406264692</v>
       </c>
       <c r="D5">
-        <v>1.374434813498957</v>
+        <v>1.11664078726431</v>
       </c>
       <c r="E5">
-        <v>1.067167831882742</v>
+        <v>1.018544509393586</v>
       </c>
       <c r="F5">
-        <v>1.40610807212963</v>
+        <v>1.018762315558694</v>
       </c>
       <c r="G5">
-        <v>0.7980916978095819</v>
+        <v>1.097548525643158</v>
       </c>
       <c r="H5">
-        <v>0.9106118503128093</v>
+        <v>1.010589736947104</v>
       </c>
       <c r="I5">
-        <v>1.884731665918488</v>
+        <v>0.9958361962270927</v>
       </c>
       <c r="J5">
-        <v>1.000535895000568</v>
+        <v>0.9541868467346661</v>
       </c>
       <c r="K5">
-        <v>1.073470812123698</v>
+        <v>1.193797823620799</v>
       </c>
       <c r="L5">
-        <v>0.7277535224688408</v>
+        <v>1.003233065407704</v>
       </c>
       <c r="M5">
-        <v>1.248454966220181</v>
+        <v>0.9921783422684615</v>
       </c>
       <c r="N5">
-        <v>0.79205799366844</v>
+        <v>1.100764846848449</v>
       </c>
       <c r="O5">
-        <v>0.9413609911668899</v>
+        <v>1.130744078609496</v>
       </c>
       <c r="P5">
-        <v>1.129722579707062</v>
+        <v>1.130100553339145</v>
       </c>
       <c r="Q5">
-        <v>1.052447956921677</v>
+        <v>1.091030835884444</v>
       </c>
       <c r="R5">
-        <v>0.9359277737939523</v>
+        <v>1.082966036903535</v>
       </c>
       <c r="S5">
-        <v>1.143459428164026</v>
+        <v>1.038652983909148</v>
       </c>
       <c r="T5">
-        <v>0.7848182244344865</v>
+        <v>0.8929650593679347</v>
       </c>
       <c r="U5">
-        <v>1.098976285282259</v>
+        <v>1.246191547966627</v>
       </c>
       <c r="V5">
-        <v>1.137467697164408</v>
+        <v>1.148649140354559</v>
       </c>
       <c r="W5">
-        <v>1.112987364345006</v>
+        <v>1.079397514319738</v>
       </c>
       <c r="X5">
-        <v>1.020152620560006</v>
+        <v>0.9024582744963831</v>
       </c>
       <c r="Y5">
-        <v>0.8771956226175819</v>
+        <v>1.062227449277805</v>
       </c>
       <c r="Z5">
-        <v>1.272623272406813</v>
+        <v>1.258272303206373</v>
       </c>
       <c r="AA5">
-        <v>1.23112601300967</v>
+        <v>1.290325538765011</v>
       </c>
       <c r="AB5">
-        <v>0.8245465300469164</v>
+        <v>1.059113156935157</v>
       </c>
       <c r="AC5">
-        <v>0.8608001589801811</v>
+        <v>1.303753201653209</v>
       </c>
       <c r="AD5">
-        <v>1.341815292455189</v>
+        <v>1.207832233586831</v>
       </c>
       <c r="AE5">
-        <v>1.372593910863461</v>
+        <v>1.114219517358789</v>
       </c>
       <c r="AF5">
-        <v>0.9566994667760902</v>
+        <v>1.227678302462809</v>
       </c>
       <c r="AG5">
-        <v>1.380771711373648</v>
+        <v>0.972693973096141</v>
       </c>
       <c r="AH5">
-        <v>0.619026150484412</v>
+        <v>1.203424865298953</v>
       </c>
       <c r="AI5">
-        <v>0.9409318896224741</v>
+        <v>1.17609725904779</v>
       </c>
       <c r="AJ5">
-        <v>0.9535960184317284</v>
+        <v>1.201122626946095</v>
       </c>
       <c r="AK5">
-        <v>1.02198768613858</v>
+        <v>1.444460548068952</v>
       </c>
       <c r="AL5">
-        <v>1.16866003024136</v>
+        <v>1.194394279273751</v>
       </c>
       <c r="AM5">
-        <v>1.274034018858798</v>
+        <v>1.195627411551554</v>
       </c>
       <c r="AN5">
-        <v>0.9246604646447341</v>
+        <v>1.603509468316684</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>1.321459611617209</v>
+        <v>0.9708595379578717</v>
       </c>
       <c r="C6">
-        <v>1.973908124118021</v>
+        <v>0.6114493385278306</v>
       </c>
       <c r="D6">
-        <v>1.935963530561527</v>
+        <v>0.9459637224951127</v>
       </c>
       <c r="E6">
-        <v>1.554941309303996</v>
+        <v>0.8613792771331711</v>
       </c>
       <c r="F6">
-        <v>1.965507879748106</v>
+        <v>0.8542104098471882</v>
       </c>
       <c r="G6">
-        <v>1.139501677541409</v>
+        <v>0.9343993372389886</v>
       </c>
       <c r="H6">
-        <v>1.292832604497043</v>
+        <v>0.8558644055402</v>
       </c>
       <c r="I6">
-        <v>2.721051198741951</v>
+        <v>0.8548568027499069</v>
       </c>
       <c r="J6">
-        <v>1.39337035103233</v>
+        <v>0.8159735367383232</v>
       </c>
       <c r="K6">
-        <v>1.539558732396545</v>
+        <v>1.00751990565228</v>
       </c>
       <c r="L6">
-        <v>1.016330571897446</v>
+        <v>0.8436414488378003</v>
       </c>
       <c r="M6">
-        <v>1.740506572625151</v>
+        <v>0.8380902004811157</v>
       </c>
       <c r="N6">
-        <v>1.154802155413309</v>
+        <v>0.9298278168711691</v>
       </c>
       <c r="O6">
-        <v>1.328891927563448</v>
+        <v>0.9664453323489868</v>
       </c>
       <c r="P6">
-        <v>1.627875802174184</v>
+        <v>0.9645237497858596</v>
       </c>
       <c r="Q6">
-        <v>1.473554332876824</v>
+        <v>0.9327008080039927</v>
       </c>
       <c r="R6">
-        <v>1.343319363740617</v>
+        <v>0.9076308965030644</v>
       </c>
       <c r="S6">
-        <v>1.605767042409523</v>
+        <v>0.8831772086436267</v>
       </c>
       <c r="T6">
-        <v>1.106866352568253</v>
+        <v>0.7542059976396892</v>
       </c>
       <c r="U6">
-        <v>1.546387978465548</v>
+        <v>1.06403865289732</v>
       </c>
       <c r="V6">
-        <v>1.594297691904361</v>
+        <v>0.9825407065237067</v>
       </c>
       <c r="W6">
-        <v>1.584328838105813</v>
+        <v>0.9056329006803869</v>
       </c>
       <c r="X6">
-        <v>1.435931101728646</v>
+        <v>0.7585293447906981</v>
       </c>
       <c r="Y6">
-        <v>1.277160396677843</v>
+        <v>0.9013468783712221</v>
       </c>
       <c r="Z6">
-        <v>1.806801999728453</v>
+        <v>1.072460468202844</v>
       </c>
       <c r="AA6">
-        <v>1.732453669841838</v>
+        <v>1.104495550747593</v>
       </c>
       <c r="AB6">
-        <v>1.176661518831399</v>
+        <v>0.9052841484615413</v>
       </c>
       <c r="AC6">
-        <v>1.245589435778248</v>
+        <v>1.129055561764129</v>
       </c>
       <c r="AD6">
-        <v>1.887114308849047</v>
+        <v>1.046177935186915</v>
       </c>
       <c r="AE6">
-        <v>1.924191115764209</v>
+        <v>0.9460020380295117</v>
       </c>
       <c r="AF6">
-        <v>1.374445647328469</v>
+        <v>1.058539914296103</v>
       </c>
       <c r="AG6">
-        <v>1.941068819070125</v>
+        <v>0.8140347356586272</v>
       </c>
       <c r="AH6">
-        <v>0.8853081540929151</v>
+        <v>1.017222362955242</v>
       </c>
       <c r="AI6">
-        <v>1.297020268160344</v>
+        <v>1.002054591308121</v>
       </c>
       <c r="AJ6">
-        <v>1.320818750356893</v>
+        <v>1.028578953053699</v>
       </c>
       <c r="AK6">
-        <v>1.413512012756534</v>
+        <v>1.232913944627257</v>
       </c>
       <c r="AL6">
-        <v>1.652738299314405</v>
+        <v>1.048845435517647</v>
       </c>
       <c r="AM6">
-        <v>1.796511142857653</v>
+        <v>1.03554558007592</v>
       </c>
       <c r="AN6">
-        <v>1.268712783157008</v>
+        <v>1.390001948255706</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>0.8628812638600085</v>
+        <v>0.8392730565215551</v>
       </c>
       <c r="C7">
-        <v>1.115924589631578</v>
+        <v>0.493030519100605</v>
       </c>
       <c r="D7">
-        <v>1.058236392969167</v>
+        <v>0.8025321836308046</v>
       </c>
       <c r="E7">
-        <v>0.7635994609460539</v>
+        <v>0.7295488494346982</v>
       </c>
       <c r="F7">
-        <v>1.148567522590739</v>
+        <v>0.7181001924045619</v>
       </c>
       <c r="G7">
-        <v>0.5499870318837007</v>
+        <v>0.7947977926186768</v>
       </c>
       <c r="H7">
-        <v>0.6498663061158493</v>
+        <v>0.7263545736089516</v>
       </c>
       <c r="I7">
-        <v>1.475664506594573</v>
+        <v>0.734055561836192</v>
       </c>
       <c r="J7">
-        <v>0.7644895131697189</v>
+        <v>0.6978797748555308</v>
       </c>
       <c r="K7">
-        <v>0.7634151357313819</v>
+        <v>0.8536446188087661</v>
       </c>
       <c r="L7">
-        <v>0.5130273069864285</v>
+        <v>0.7108634111508579</v>
       </c>
       <c r="M7">
-        <v>1.008436927483832</v>
+        <v>0.7064790190511722</v>
       </c>
       <c r="N7">
-        <v>0.4939851086830921</v>
+        <v>0.7860332271790603</v>
       </c>
       <c r="O7">
-        <v>0.6689901449081043</v>
+        <v>0.8281647744414796</v>
       </c>
       <c r="P7">
-        <v>0.8362152113610568</v>
+        <v>0.8254375732412341</v>
       </c>
       <c r="Q7">
-        <v>0.8279292563145615</v>
+        <v>0.7960764999380803</v>
       </c>
       <c r="R7">
-        <v>0.6914032553966718</v>
+        <v>0.7630051505121653</v>
       </c>
       <c r="S7">
-        <v>0.8953669377290745</v>
+        <v>0.751811119491665</v>
       </c>
       <c r="T7">
-        <v>0.5692835862801132</v>
+        <v>0.6392594038778134</v>
       </c>
       <c r="U7">
-        <v>0.8407554715249453</v>
+        <v>0.9107141888711672</v>
       </c>
       <c r="V7">
-        <v>0.9014205855641509</v>
+        <v>0.841498672744146</v>
       </c>
       <c r="W7">
-        <v>0.8490174068498789</v>
+        <v>0.7601805063686462</v>
       </c>
       <c r="X7">
-        <v>0.7917589672677461</v>
+        <v>0.6370349278260488</v>
       </c>
       <c r="Y7">
-        <v>0.6137198124620226</v>
+        <v>0.7640203488089731</v>
       </c>
       <c r="Z7">
-        <v>0.9724239652104429</v>
+        <v>0.9147745301496899</v>
       </c>
       <c r="AA7">
-        <v>0.9306481732458861</v>
+        <v>0.9454906779983215</v>
       </c>
       <c r="AB7">
-        <v>0.6340103515331119</v>
+        <v>0.7743222417128659</v>
       </c>
       <c r="AC7">
-        <v>0.5638300100959909</v>
+        <v>0.9800962516432528</v>
       </c>
       <c r="AD7">
-        <v>1.060743043458843</v>
+        <v>0.9053629271507794</v>
       </c>
       <c r="AE7">
-        <v>1.095183393840466</v>
+        <v>0.8044145196412861</v>
       </c>
       <c r="AF7">
-        <v>0.7186377337588935</v>
+        <v>0.9122547447915439</v>
       </c>
       <c r="AG7">
-        <v>1.089941763697904</v>
+        <v>0.6821097515576533</v>
       </c>
       <c r="AH7">
-        <v>0.4178642605713798</v>
+        <v>0.8595105531850903</v>
       </c>
       <c r="AI7">
-        <v>0.7083657559468697</v>
+        <v>0.8548989856591509</v>
       </c>
       <c r="AJ7">
-        <v>0.7421762439008919</v>
+        <v>0.8796622975438525</v>
       </c>
       <c r="AK7">
-        <v>0.7762326419965168</v>
+        <v>1.056557820505782</v>
       </c>
       <c r="AL7">
-        <v>0.9049943212626246</v>
+        <v>0.9205364047069173</v>
       </c>
       <c r="AM7">
-        <v>0.9955963408592365</v>
+        <v>0.8967006590037753</v>
       </c>
       <c r="AN7">
-        <v>0.7510912765427248</v>
+        <v>1.20628511354406</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.872518573471417</v>
+        <v>0.7744711024904215</v>
       </c>
       <c r="C8">
-        <v>1.343211918240917</v>
+        <v>0.4365278349559456</v>
       </c>
       <c r="D8">
-        <v>1.419396281558964</v>
+        <v>0.736193075895525</v>
       </c>
       <c r="E8">
-        <v>1.224019150345521</v>
+        <v>0.6661700492629982</v>
       </c>
       <c r="F8">
-        <v>1.330527340000418</v>
+        <v>0.6537033159691676</v>
       </c>
       <c r="G8">
-        <v>0.9460089426903416</v>
+        <v>0.7259139808801693</v>
       </c>
       <c r="H8">
-        <v>1.039113182411046</v>
+        <v>0.666697042306443</v>
       </c>
       <c r="I8">
-        <v>1.916081337516582</v>
+        <v>0.673107096754517</v>
       </c>
       <c r="J8">
-        <v>1.045926603932598</v>
+        <v>0.6422213808184424</v>
       </c>
       <c r="K8">
-        <v>1.232072980404568</v>
+        <v>0.7798113111478195</v>
       </c>
       <c r="L8">
-        <v>0.8403523390407316</v>
+        <v>0.6465703616516669</v>
       </c>
       <c r="M8">
-        <v>1.180331031419438</v>
+        <v>0.6412160692039679</v>
       </c>
       <c r="N8">
-        <v>1.047098533506238</v>
+        <v>0.7150101377874156</v>
       </c>
       <c r="O8">
-        <v>1.090332712740002</v>
+        <v>0.7598579352686244</v>
       </c>
       <c r="P8">
-        <v>1.232416356204322</v>
+        <v>0.7530519733606955</v>
       </c>
       <c r="Q8">
-        <v>1.047009335149586</v>
+        <v>0.7278762715644456</v>
       </c>
       <c r="R8">
-        <v>1.033703538887386</v>
+        <v>0.6920127890679137</v>
       </c>
       <c r="S8">
-        <v>1.144062336511703</v>
+        <v>0.6896668125814098</v>
       </c>
       <c r="T8">
-        <v>0.8757768439058649</v>
+        <v>0.5856291936043988</v>
       </c>
       <c r="U8">
-        <v>1.151358958805502</v>
+        <v>0.8379194027156351</v>
       </c>
       <c r="V8">
-        <v>1.124909394226074</v>
+        <v>0.7746504400550052</v>
       </c>
       <c r="W8">
-        <v>1.171083631236431</v>
+        <v>0.6899901244434373</v>
       </c>
       <c r="X8">
-        <v>1.041987726336685</v>
+        <v>0.5780835700782077</v>
       </c>
       <c r="Y8">
-        <v>1.027571569498959</v>
+        <v>0.6977631836939764</v>
       </c>
       <c r="Z8">
-        <v>1.335602340242439</v>
+        <v>0.8375928706954141</v>
       </c>
       <c r="AA8">
-        <v>1.30255638319726</v>
+        <v>0.8674218914909004</v>
       </c>
       <c r="AB8">
-        <v>0.8554595081086014</v>
+        <v>0.7121954284685995</v>
       </c>
       <c r="AC8">
-        <v>1.091325910908967</v>
+        <v>0.903176893865389</v>
       </c>
       <c r="AD8">
-        <v>1.336941718809089</v>
+        <v>0.8335926554849412</v>
       </c>
       <c r="AE8">
-        <v>1.341621759288868</v>
+        <v>0.7342161834194183</v>
       </c>
       <c r="AF8">
-        <v>1.028031522543363</v>
+        <v>0.842426502113202</v>
       </c>
       <c r="AG8">
-        <v>1.356798010792197</v>
+        <v>0.6192641645354869</v>
       </c>
       <c r="AH8">
-        <v>0.7530307685644689</v>
+        <v>0.783289593830192</v>
       </c>
       <c r="AI8">
-        <v>0.9994963381138244</v>
+        <v>0.7901937561708118</v>
       </c>
       <c r="AJ8">
-        <v>0.9704089285138495</v>
+        <v>0.8061551593539619</v>
       </c>
       <c r="AK8">
-        <v>1.057874175256795</v>
+        <v>0.9703906055936535</v>
       </c>
       <c r="AL8">
-        <v>1.186343595344735</v>
+        <v>0.8564857240618114</v>
       </c>
       <c r="AM8">
-        <v>1.278754111469387</v>
+        <v>0.8293448405333971</v>
       </c>
       <c r="AN8">
-        <v>0.8742210728561716</v>
+        <v>1.118809277363685</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.7147513793402039</v>
+        <v>0.7539191822665345</v>
       </c>
       <c r="C9">
-        <v>1.225780355157936</v>
+        <v>0.4291518421093576</v>
       </c>
       <c r="D9">
-        <v>1.364691535329363</v>
+        <v>0.7130197324546798</v>
       </c>
       <c r="E9">
-        <v>1.26338732069223</v>
+        <v>0.6490688522620317</v>
       </c>
       <c r="F9">
-        <v>1.193783772435048</v>
+        <v>0.63633151454673</v>
       </c>
       <c r="G9">
-        <v>0.9962785295084342</v>
+        <v>0.7092920567607961</v>
       </c>
       <c r="H9">
-        <v>1.070392390517533</v>
+        <v>0.6453281278153348</v>
       </c>
       <c r="I9">
-        <v>1.817183909771591</v>
+        <v>0.6584151984937487</v>
       </c>
       <c r="J9">
-        <v>1.017638848142569</v>
+        <v>0.6227512788688381</v>
       </c>
       <c r="K9">
-        <v>1.272528864002618</v>
+        <v>0.7596280429397656</v>
       </c>
       <c r="L9">
-        <v>0.8737103114760101</v>
+        <v>0.6313571854471018</v>
       </c>
       <c r="M9">
-        <v>1.050246038845922</v>
+        <v>0.6282822282495353</v>
       </c>
       <c r="N9">
-        <v>1.172434990064216</v>
+        <v>0.6998060771695793</v>
       </c>
       <c r="O9">
-        <v>1.138991174725334</v>
+        <v>0.7414957391381319</v>
       </c>
       <c r="P9">
-        <v>1.228711978079393</v>
+        <v>0.7407524328314997</v>
       </c>
       <c r="Q9">
-        <v>0.9762623621933875</v>
+        <v>0.7118406097067648</v>
       </c>
       <c r="R9">
-        <v>1.044009935244924</v>
+        <v>0.6775945756265024</v>
       </c>
       <c r="S9">
-        <v>1.070525612117107</v>
+        <v>0.6697089345148967</v>
       </c>
       <c r="T9">
-        <v>0.8891424763322555</v>
+        <v>0.5680675521295958</v>
       </c>
       <c r="U9">
-        <v>1.121577543454789</v>
+        <v>0.8133402219487591</v>
       </c>
       <c r="V9">
-        <v>1.045821807757311</v>
+        <v>0.7516085631386058</v>
       </c>
       <c r="W9">
-        <v>1.142065489981622</v>
+        <v>0.6738690452366727</v>
       </c>
       <c r="X9">
-        <v>0.9936912707297585</v>
+        <v>0.5649675179491321</v>
       </c>
       <c r="Y9">
-        <v>1.073004429165674</v>
+        <v>0.6799963915103842</v>
       </c>
       <c r="Z9">
-        <v>1.300551440919474</v>
+        <v>0.8170154458753086</v>
       </c>
       <c r="AA9">
-        <v>1.274759686496052</v>
+        <v>0.8457935858620104</v>
       </c>
       <c r="AB9">
-        <v>0.8241726823997743</v>
+        <v>0.6912371542706973</v>
       </c>
       <c r="AC9">
-        <v>1.198254514026246</v>
+        <v>0.8839700169646739</v>
       </c>
       <c r="AD9">
-        <v>1.251549212637988</v>
+        <v>0.8149172504954947</v>
       </c>
       <c r="AE9">
-        <v>1.234529692850715</v>
+        <v>0.7180779413192132</v>
       </c>
       <c r="AF9">
-        <v>1.0162623808999</v>
+        <v>0.8171314878643111</v>
       </c>
       <c r="AG9">
-        <v>1.247525425877747</v>
+        <v>0.6037869174060437</v>
       </c>
       <c r="AH9">
-        <v>0.8062063159325837</v>
+        <v>0.7640730725436375</v>
       </c>
       <c r="AI9">
-        <v>0.9841165015534702</v>
+        <v>0.7594841002573762</v>
       </c>
       <c r="AJ9">
-        <v>0.9258368027556948</v>
+        <v>0.7867562371955822</v>
       </c>
       <c r="AK9">
-        <v>1.015699180241325</v>
+        <v>0.9455483515539491</v>
       </c>
       <c r="AL9">
-        <v>1.120614982036203</v>
+        <v>0.832334079651838</v>
       </c>
       <c r="AM9">
-        <v>1.198698503827689</v>
+        <v>0.805408607277125</v>
       </c>
       <c r="AN9">
-        <v>0.7837232054049583</v>
+        <v>1.083596186391252</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0.5137303905531124</v>
+        <v>0.5492854950221651</v>
       </c>
       <c r="C10">
-        <v>0.9460400392209238</v>
+        <v>0.3151705478654978</v>
       </c>
       <c r="D10">
-        <v>1.17222553195189</v>
+        <v>0.5080761352283996</v>
       </c>
       <c r="E10">
-        <v>1.17272277974744</v>
+        <v>0.4705627984319161</v>
       </c>
       <c r="F10">
-        <v>0.8906335609969267</v>
+        <v>0.4609615581737124</v>
       </c>
       <c r="G10">
-        <v>0.9823264252079799</v>
+        <v>0.5146312176962802</v>
       </c>
       <c r="H10">
-        <v>1.016781995764503</v>
+        <v>0.4602875517561298</v>
       </c>
       <c r="I10">
-        <v>1.475778909663939</v>
+        <v>0.4833875813742407</v>
       </c>
       <c r="J10">
-        <v>0.8847603981587203</v>
+        <v>0.4445779999733578</v>
       </c>
       <c r="K10">
-        <v>1.207673551326467</v>
+        <v>0.5556638983676916</v>
       </c>
       <c r="L10">
-        <v>0.8465501756283285</v>
+        <v>0.4608022337964154</v>
       </c>
       <c r="M10">
-        <v>0.8459088174136251</v>
+        <v>0.4559001147196339</v>
       </c>
       <c r="N10">
-        <v>1.21453176249203</v>
+        <v>0.5122608356283788</v>
       </c>
       <c r="O10">
-        <v>1.066059364063509</v>
+        <v>0.5447846367002851</v>
       </c>
       <c r="P10">
-        <v>1.114032469339613</v>
+        <v>0.5566685551936563</v>
       </c>
       <c r="Q10">
-        <v>0.8164607599541116</v>
+        <v>0.5171748781967762</v>
       </c>
       <c r="R10">
-        <v>0.9304694135005133</v>
+        <v>0.5001759750515019</v>
       </c>
       <c r="S10">
-        <v>0.9056541656298761</v>
+        <v>0.4809736119602743</v>
       </c>
       <c r="T10">
-        <v>0.8345737094278549</v>
+        <v>0.4098614392360666</v>
       </c>
       <c r="U10">
-        <v>0.9630865278321555</v>
+        <v>0.5877079997271947</v>
       </c>
       <c r="V10">
-        <v>0.8506611062779836</v>
+        <v>0.5401275374118143</v>
       </c>
       <c r="W10">
-        <v>0.9827649014360492</v>
+        <v>0.4884574613445055</v>
       </c>
       <c r="X10">
-        <v>0.840483775253653</v>
+        <v>0.4083586508600897</v>
       </c>
       <c r="Y10">
-        <v>1.030259045605322</v>
+        <v>0.4885515982338262</v>
       </c>
       <c r="Z10">
-        <v>1.117110446962582</v>
+        <v>0.5942337138130437</v>
       </c>
       <c r="AA10">
-        <v>1.132025263982</v>
+        <v>0.613842481770406</v>
       </c>
       <c r="AB10">
-        <v>0.7036630951410404</v>
+        <v>0.4958597300855543</v>
       </c>
       <c r="AC10">
-        <v>1.194427713600422</v>
+        <v>0.6584305821080244</v>
       </c>
       <c r="AD10">
-        <v>1.014319179234473</v>
+        <v>0.5969636720679027</v>
       </c>
       <c r="AE10">
-        <v>0.9912920283898944</v>
+        <v>0.5272243848723399</v>
       </c>
       <c r="AF10">
-        <v>0.8946466526629013</v>
+        <v>0.5845710425231521</v>
       </c>
       <c r="AG10">
-        <v>1.051851259308001</v>
+        <v>0.436706336920699</v>
       </c>
       <c r="AH10">
-        <v>0.8028221814429329</v>
+        <v>0.5513348780799195</v>
       </c>
       <c r="AI10">
-        <v>0.8852776087056863</v>
+        <v>0.5296777130442232</v>
       </c>
       <c r="AJ10">
-        <v>0.7807973442456435</v>
+        <v>0.5692464689247969</v>
       </c>
       <c r="AK10">
-        <v>0.9282677241498334</v>
+        <v>0.6954044172623143</v>
       </c>
       <c r="AL10">
-        <v>0.9707815550916762</v>
+        <v>0.6048059681463616</v>
       </c>
       <c r="AM10">
-        <v>1.016895347500736</v>
+        <v>0.5802655332180291</v>
       </c>
       <c r="AN10">
-        <v>0.6112493127433125</v>
+        <v>0.7792822202928911</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0.4890229784939379</v>
+        <v>0.6541073020613343</v>
       </c>
       <c r="C11">
-        <v>0.9756934703672631</v>
+        <v>0.3636804515581115</v>
       </c>
       <c r="D11">
-        <v>1.159765879050307</v>
+        <v>0.6171388169041534</v>
       </c>
       <c r="E11">
-        <v>1.157663096513159</v>
+        <v>0.5602944299467439</v>
       </c>
       <c r="F11">
-        <v>0.916667015806199</v>
+        <v>0.547318774051802</v>
       </c>
       <c r="G11">
-        <v>0.9403223742254946</v>
+        <v>0.6148089462894252</v>
       </c>
       <c r="H11">
-        <v>0.9821372858345493</v>
+        <v>0.5580677388064673</v>
       </c>
       <c r="I11">
-        <v>1.513697874429141</v>
+        <v>0.5703946706473926</v>
       </c>
       <c r="J11">
-        <v>0.8680089320400779</v>
+        <v>0.5409487884156995</v>
       </c>
       <c r="K11">
-        <v>1.172743545611121</v>
+        <v>0.6530173945786839</v>
       </c>
       <c r="L11">
-        <v>0.8068338441461622</v>
+        <v>0.5433470512604646</v>
       </c>
       <c r="M11">
-        <v>0.8374885081752533</v>
+        <v>0.54402809587418</v>
       </c>
       <c r="N11">
-        <v>1.159489008065768</v>
+        <v>0.6035980338833039</v>
       </c>
       <c r="O11">
-        <v>1.036782062566732</v>
+        <v>0.6401499436451261</v>
       </c>
       <c r="P11">
-        <v>1.098091823953555</v>
+        <v>0.6373587494789588</v>
       </c>
       <c r="Q11">
-        <v>0.8080264832953525</v>
+        <v>0.6180159018752822</v>
       </c>
       <c r="R11">
-        <v>0.9248191416283386</v>
+        <v>0.5810875344080817</v>
       </c>
       <c r="S11">
-        <v>0.8942274792461061</v>
+        <v>0.5798844712600908</v>
       </c>
       <c r="T11">
-        <v>0.8053638030483833</v>
+        <v>0.4894808217020581</v>
       </c>
       <c r="U11">
-        <v>0.9555527736685936</v>
+        <v>0.7035738089634567</v>
       </c>
       <c r="V11">
-        <v>0.8521622828526227</v>
+        <v>0.6516826419641559</v>
       </c>
       <c r="W11">
-        <v>0.9804584270772559</v>
+        <v>0.5809312058310835</v>
       </c>
       <c r="X11">
-        <v>0.8351719617726766</v>
+        <v>0.4881085863026909</v>
       </c>
       <c r="Y11">
-        <v>1.003869373317825</v>
+        <v>0.5897073822988516</v>
       </c>
       <c r="Z11">
-        <v>1.113430973203361</v>
+        <v>0.7070294294337406</v>
       </c>
       <c r="AA11">
-        <v>1.108090223572271</v>
+        <v>0.7334359766559618</v>
       </c>
       <c r="AB11">
-        <v>0.7034365399704247</v>
+        <v>0.5996934422958305</v>
       </c>
       <c r="AC11">
-        <v>1.152440142476062</v>
+        <v>0.7643553061107492</v>
       </c>
       <c r="AD11">
-        <v>1.021795896818059</v>
+        <v>0.7084483370760748</v>
       </c>
       <c r="AE11">
-        <v>0.9960374809276836</v>
+        <v>0.6195409769578171</v>
       </c>
       <c r="AF11">
-        <v>0.8904852276050488</v>
+        <v>0.7114735347790218</v>
       </c>
       <c r="AG11">
-        <v>1.03592174319259</v>
+        <v>0.5198117535275053</v>
       </c>
       <c r="AH11">
-        <v>0.7681719190606756</v>
+        <v>0.6610866766926787</v>
       </c>
       <c r="AI11">
-        <v>0.8540397802167224</v>
+        <v>0.6601743974190846</v>
       </c>
       <c r="AJ11">
-        <v>0.7698716547035345</v>
+        <v>0.6835135698740029</v>
       </c>
       <c r="AK11">
-        <v>0.8852518841422476</v>
+        <v>0.8147903375137159</v>
       </c>
       <c r="AL11">
-        <v>0.9548488773124127</v>
+        <v>0.7260370755256486</v>
       </c>
       <c r="AM11">
-        <v>1.005763041163297</v>
+        <v>0.7011682080341161</v>
       </c>
       <c r="AN11">
-        <v>0.6084995654641238</v>
+        <v>0.9424756853111892</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.5677060178535035</v>
+        <v>0.6198611483707751</v>
       </c>
       <c r="C12">
-        <v>0.7841002740844621</v>
+        <v>0.3305919542507119</v>
       </c>
       <c r="D12">
-        <v>0.7174562022787898</v>
+        <v>0.5797256639472356</v>
       </c>
       <c r="E12">
-        <v>0.5186265336095092</v>
+        <v>0.5246456860507402</v>
       </c>
       <c r="F12">
-        <v>0.779493937177545</v>
+        <v>0.5123808309243766</v>
       </c>
       <c r="G12">
-        <v>0.3658423356450385</v>
+        <v>0.5722870935488349</v>
       </c>
       <c r="H12">
-        <v>0.4285594004272751</v>
+        <v>0.525543107530557</v>
       </c>
       <c r="I12">
-        <v>1.034251367777182</v>
+        <v>0.5358119353279062</v>
       </c>
       <c r="J12">
-        <v>0.4973746782431331</v>
+        <v>0.5083673635815126</v>
       </c>
       <c r="K12">
-        <v>0.5124354902857787</v>
+        <v>0.6163162879638472</v>
       </c>
       <c r="L12">
-        <v>0.3248269265698455</v>
+        <v>0.5077082859372083</v>
       </c>
       <c r="M12">
-        <v>0.7291514758933426</v>
+        <v>0.5012762158062339</v>
       </c>
       <c r="N12">
-        <v>0.3089588530372902</v>
+        <v>0.5622911099685435</v>
       </c>
       <c r="O12">
-        <v>0.4074203792997647</v>
+        <v>0.6052872488915858</v>
       </c>
       <c r="P12">
-        <v>0.5852376301007213</v>
+        <v>0.6004833224228853</v>
       </c>
       <c r="Q12">
-        <v>0.574378804898499</v>
+        <v>0.5750540202327651</v>
       </c>
       <c r="R12">
-        <v>0.4545145694723342</v>
+        <v>0.5435033474707004</v>
       </c>
       <c r="S12">
-        <v>0.6275673531375571</v>
+        <v>0.5446970315737089</v>
       </c>
       <c r="T12">
-        <v>0.3773799734552906</v>
+        <v>0.4622761154471828</v>
       </c>
       <c r="U12">
-        <v>0.5519509511297567</v>
+        <v>0.6658164539111888</v>
       </c>
       <c r="V12">
-        <v>0.6154237666263647</v>
+        <v>0.6148580552283057</v>
       </c>
       <c r="W12">
-        <v>0.5729481622373005</v>
+        <v>0.5389677142101347</v>
       </c>
       <c r="X12">
-        <v>0.5370975638887731</v>
+        <v>0.4510282891025343</v>
       </c>
       <c r="Y12">
-        <v>0.4227694775807782</v>
+        <v>0.5480345826651155</v>
       </c>
       <c r="Z12">
-        <v>0.6530960133144472</v>
+        <v>0.6630181404712416</v>
       </c>
       <c r="AA12">
-        <v>0.6269219775220048</v>
+        <v>0.687987769676037</v>
       </c>
       <c r="AB12">
-        <v>0.4385824113813122</v>
+        <v>0.5643100760951009</v>
       </c>
       <c r="AC12">
-        <v>0.343996015624032</v>
+        <v>0.727446264955589</v>
       </c>
       <c r="AD12">
-        <v>0.7176559873022536</v>
+        <v>0.6667727095507178</v>
       </c>
       <c r="AE12">
-        <v>0.7547091878717357</v>
+        <v>0.5806852388713536</v>
       </c>
       <c r="AF12">
-        <v>0.4924489133587255</v>
+        <v>0.6705550622854372</v>
       </c>
       <c r="AG12">
-        <v>0.7879269752592628</v>
+        <v>0.4833931204922309</v>
       </c>
       <c r="AH12">
-        <v>0.2697118902399167</v>
+        <v>0.6143107992968551</v>
       </c>
       <c r="AI12">
-        <v>0.4539543643238461</v>
+        <v>0.6238639031089304</v>
       </c>
       <c r="AJ12">
-        <v>0.4829402868472408</v>
+        <v>0.6378715077058449</v>
       </c>
       <c r="AK12">
-        <v>0.5394604486502728</v>
+        <v>0.7741496188437005</v>
       </c>
       <c r="AL12">
-        <v>0.6469718123721524</v>
+        <v>0.6924445175711685</v>
       </c>
       <c r="AM12">
-        <v>0.7036604607739209</v>
+        <v>0.6631800792102532</v>
       </c>
       <c r="AN12">
-        <v>0.5060825769010958</v>
+        <v>0.8971961083632266</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块-beta.xlsx
+++ b/FOF/data/基金公司-板块-beta.xlsx
@@ -16,157 +16,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
     <t>华商</t>
   </si>
   <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>鹏华</t>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>中金</t>
   </si>
   <si>
     <t>华安</t>
   </si>
   <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
     <t>华夏</t>
   </si>
   <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
     <t>大成</t>
   </si>
   <si>
     <t>兴业</t>
   </si>
   <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>民生加银</t>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>银华</t>
   </si>
   <si>
     <t>安信</t>
   </si>
   <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
     <t>上投摩根</t>
   </si>
   <si>
     <t>名称</t>
   </si>
   <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
     <t>上证50</t>
   </si>
   <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
     <t>中小板综</t>
   </si>
   <si>
     <t>深证综指</t>
-  </si>
-  <si>
-    <t>创业板综</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中证1000</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>1.065392319188189</v>
+        <v>0.8713099899621625</v>
       </c>
       <c r="C2">
-        <v>0.7550673269301507</v>
+        <v>0.6714599525974214</v>
       </c>
       <c r="D2">
-        <v>1.064451959190097</v>
+        <v>0.8515663071950019</v>
       </c>
       <c r="E2">
-        <v>0.9772647687391165</v>
+        <v>0.7636276338166483</v>
       </c>
       <c r="F2">
-        <v>0.9848728363353921</v>
+        <v>0.7280235057045522</v>
       </c>
       <c r="G2">
-        <v>1.044200739342058</v>
+        <v>0.5513504792782965</v>
       </c>
       <c r="H2">
-        <v>0.9649696461765183</v>
+        <v>0.5425808141082868</v>
       </c>
       <c r="I2">
-        <v>0.9479436210152137</v>
+        <v>0.7689306409732408</v>
       </c>
       <c r="J2">
-        <v>0.9022209983211756</v>
+        <v>0.8145869650940607</v>
       </c>
       <c r="K2">
-        <v>1.155044982208104</v>
+        <v>0.9085184410606238</v>
       </c>
       <c r="L2">
-        <v>0.9691198644011915</v>
+        <v>0.7947781544226163</v>
       </c>
       <c r="M2">
-        <v>0.9470575811256599</v>
+        <v>0.6778241530319967</v>
       </c>
       <c r="N2">
-        <v>1.0587536971387</v>
+        <v>0.7102750536825677</v>
       </c>
       <c r="O2">
-        <v>1.084100192113307</v>
+        <v>0.8157393603162301</v>
       </c>
       <c r="P2">
-        <v>1.09257698532639</v>
+        <v>1.067180552227829</v>
       </c>
       <c r="Q2">
-        <v>1.034262124356861</v>
+        <v>0.7243998577308821</v>
       </c>
       <c r="R2">
-        <v>1.053997600169314</v>
+        <v>0.7578354623699683</v>
       </c>
       <c r="S2">
-        <v>0.9893952468076136</v>
+        <v>0.9868833900750614</v>
       </c>
       <c r="T2">
-        <v>0.8593466184329932</v>
+        <v>0.7423636312077291</v>
       </c>
       <c r="U2">
-        <v>1.18891081696927</v>
+        <v>0.6940398054844266</v>
       </c>
       <c r="V2">
-        <v>1.090328765199347</v>
+        <v>0.7918831064757995</v>
       </c>
       <c r="W2">
-        <v>1.039350418340889</v>
+        <v>0.8802538166749145</v>
       </c>
       <c r="X2">
-        <v>0.8652596565705821</v>
+        <v>0.9206340601019253</v>
       </c>
       <c r="Y2">
-        <v>1.009460576220633</v>
+        <v>0.7810740976426975</v>
       </c>
       <c r="Z2">
-        <v>1.200652440611905</v>
+        <v>0.6873752921936209</v>
       </c>
       <c r="AA2">
-        <v>1.225449374149163</v>
+        <v>0.9692391331514252</v>
       </c>
       <c r="AB2">
-        <v>1.004232104955976</v>
+        <v>0.6874741854948124</v>
       </c>
       <c r="AC2">
-        <v>1.245171425477857</v>
+        <v>0.7257101143350078</v>
       </c>
       <c r="AD2">
-        <v>1.140027500460892</v>
+        <v>0.5315221505029691</v>
       </c>
       <c r="AE2">
-        <v>1.070555486324031</v>
+        <v>0.9641827641856903</v>
       </c>
       <c r="AF2">
-        <v>1.153960259391964</v>
+        <v>0.7654968446823133</v>
       </c>
       <c r="AG2">
-        <v>0.9389730171045769</v>
+        <v>0.8485012638700865</v>
       </c>
       <c r="AH2">
-        <v>1.149608212277697</v>
+        <v>0.8411304538254161</v>
       </c>
       <c r="AI2">
-        <v>1.109250305507451</v>
+        <v>0.7236482680789121</v>
       </c>
       <c r="AJ2">
-        <v>1.136425700197014</v>
+        <v>0.7015035638245753</v>
       </c>
       <c r="AK2">
-        <v>1.389997640105922</v>
+        <v>0.9109392500179906</v>
       </c>
       <c r="AL2">
-        <v>1.115809206160203</v>
+        <v>0.6811621984241969</v>
       </c>
       <c r="AM2">
-        <v>1.12376633934087</v>
+        <v>0.8373283596528125</v>
       </c>
       <c r="AN2">
-        <v>1.509278788619285</v>
+        <v>0.9134323798934132</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>1.193779520947795</v>
+        <v>0.5710004911130924</v>
       </c>
       <c r="C3">
-        <v>0.8608647808852007</v>
+        <v>0.4052849381279162</v>
       </c>
       <c r="D3">
-        <v>1.203894725426988</v>
+        <v>0.6009765310832023</v>
       </c>
       <c r="E3">
-        <v>1.102987118630239</v>
+        <v>0.5463123010883489</v>
       </c>
       <c r="F3">
-        <v>1.112736979065416</v>
+        <v>0.5009179535807595</v>
       </c>
       <c r="G3">
-        <v>1.17986293598653</v>
+        <v>0.3420723651101256</v>
       </c>
       <c r="H3">
-        <v>1.090331466620846</v>
+        <v>0.3370515201228839</v>
       </c>
       <c r="I3">
-        <v>1.064452995678325</v>
+        <v>0.4873497568264772</v>
       </c>
       <c r="J3">
-        <v>1.019007728144452</v>
+        <v>0.522103186481388</v>
       </c>
       <c r="K3">
-        <v>1.298428797792599</v>
+        <v>0.6030400170107013</v>
       </c>
       <c r="L3">
-        <v>1.093737297910774</v>
+        <v>0.4833549497772189</v>
       </c>
       <c r="M3">
-        <v>1.074307845070931</v>
+        <v>0.4383398670185732</v>
       </c>
       <c r="N3">
-        <v>1.194851943636011</v>
+        <v>0.4436551804973763</v>
       </c>
       <c r="O3">
-        <v>1.215123264236371</v>
+        <v>0.5411671341851615</v>
       </c>
       <c r="P3">
-        <v>1.220786771573217</v>
+        <v>0.7753559818383453</v>
       </c>
       <c r="Q3">
-        <v>1.168015355233057</v>
+        <v>0.478898848811368</v>
       </c>
       <c r="R3">
-        <v>1.187044973033521</v>
+        <v>0.5003775131575861</v>
       </c>
       <c r="S3">
-        <v>1.116962809045056</v>
+        <v>0.7193866927730945</v>
       </c>
       <c r="T3">
-        <v>0.9682559423642036</v>
+        <v>0.4841075958456157</v>
       </c>
       <c r="U3">
-        <v>1.336748410457713</v>
+        <v>0.415611673916954</v>
       </c>
       <c r="V3">
-        <v>1.228214585898169</v>
+        <v>0.5128578683794672</v>
       </c>
       <c r="W3">
-        <v>1.177364749319866</v>
+        <v>0.5764746831338402</v>
       </c>
       <c r="X3">
-        <v>0.981760093501538</v>
+        <v>0.6261143197381891</v>
       </c>
       <c r="Y3">
-        <v>1.143717754955462</v>
+        <v>0.510800975341322</v>
       </c>
       <c r="Z3">
-        <v>1.352557797513984</v>
+        <v>0.3986790569071401</v>
       </c>
       <c r="AA3">
-        <v>1.380323925488811</v>
+        <v>0.6370667258526709</v>
       </c>
       <c r="AB3">
-        <v>1.132712654521543</v>
+        <v>0.4140969422458147</v>
       </c>
       <c r="AC3">
-        <v>1.386309656232824</v>
+        <v>0.4552876191650683</v>
       </c>
       <c r="AD3">
-        <v>1.278550500814764</v>
+        <v>0.316449239731692</v>
       </c>
       <c r="AE3">
-        <v>1.204473769380013</v>
+        <v>0.6792103407717494</v>
       </c>
       <c r="AF3">
-        <v>1.300444358160428</v>
+        <v>0.5000214613336105</v>
       </c>
       <c r="AG3">
-        <v>1.063552216164232</v>
+        <v>0.5517529282770745</v>
       </c>
       <c r="AH3">
-        <v>1.301898639013596</v>
+        <v>0.5417805668112633</v>
       </c>
       <c r="AI3">
-        <v>1.256543488342302</v>
+        <v>0.4612576562024081</v>
       </c>
       <c r="AJ3">
-        <v>1.282975287017349</v>
+        <v>0.4353802615351739</v>
       </c>
       <c r="AK3">
-        <v>1.555442639043193</v>
+        <v>0.6263369234060696</v>
       </c>
       <c r="AL3">
-        <v>1.245407393906207</v>
+        <v>0.3691438849608419</v>
       </c>
       <c r="AM3">
-        <v>1.262448119178868</v>
+        <v>0.534421006118541</v>
       </c>
       <c r="AN3">
-        <v>1.692132743493143</v>
+        <v>0.6243429298264809</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>0.9624353711346189</v>
+        <v>1.047842667840198</v>
       </c>
       <c r="C4">
-        <v>0.5749691868340994</v>
+        <v>0.9028013009198917</v>
       </c>
       <c r="D4">
-        <v>0.9275216266681791</v>
+        <v>0.9339926557561961</v>
       </c>
       <c r="E4">
-        <v>0.8420145308885917</v>
+        <v>0.8402950961304927</v>
       </c>
       <c r="F4">
-        <v>0.8287964182040661</v>
+        <v>0.8653576080298673</v>
       </c>
       <c r="G4">
-        <v>0.92012513907551</v>
+        <v>0.7167763750328398</v>
       </c>
       <c r="H4">
-        <v>0.8382797955707748</v>
+        <v>0.6814530332551262</v>
       </c>
       <c r="I4">
-        <v>0.8443366400468179</v>
+        <v>0.961691064721145</v>
       </c>
       <c r="J4">
-        <v>0.8063620664842929</v>
+        <v>1.042740266969212</v>
       </c>
       <c r="K4">
-        <v>0.9797423631471098</v>
+        <v>1.05727732581525</v>
       </c>
       <c r="L4">
-        <v>0.8202271759137391</v>
+        <v>1.00511888263658</v>
       </c>
       <c r="M4">
-        <v>0.8218105315885603</v>
+        <v>0.8488534325052435</v>
       </c>
       <c r="N4">
-        <v>0.9080089359460797</v>
+        <v>0.9204416370668539</v>
       </c>
       <c r="O4">
-        <v>0.9491634559956955</v>
+        <v>0.9998081148797067</v>
       </c>
       <c r="P4">
-        <v>0.9439238271201459</v>
+        <v>1.107349683302163</v>
       </c>
       <c r="Q4">
-        <v>0.9216865054220036</v>
+        <v>0.8389115508290721</v>
       </c>
       <c r="R4">
-        <v>0.8781394949138679</v>
+        <v>0.8938382293463747</v>
       </c>
       <c r="S4">
-        <v>0.8678667109953732</v>
+        <v>1.043274158654835</v>
       </c>
       <c r="T4">
-        <v>0.7352043273484012</v>
+        <v>0.8857900830999409</v>
       </c>
       <c r="U4">
-        <v>1.046334962279501</v>
+        <v>0.9653740146102748</v>
       </c>
       <c r="V4">
-        <v>0.9692614197689542</v>
+        <v>0.9842183644019165</v>
       </c>
       <c r="W4">
-        <v>0.8812299475367601</v>
+        <v>1.062943380138857</v>
       </c>
       <c r="X4">
-        <v>0.7403522692880047</v>
+        <v>1.026928195821648</v>
       </c>
       <c r="Y4">
-        <v>0.8866061182776026</v>
+        <v>1.004605464406026</v>
       </c>
       <c r="Z4">
-        <v>1.054657574675467</v>
+        <v>0.9802779943541798</v>
       </c>
       <c r="AA4">
-        <v>1.090439326475186</v>
+        <v>1.137947242183128</v>
       </c>
       <c r="AB4">
-        <v>0.8933473196047195</v>
+        <v>0.9485288920698833</v>
       </c>
       <c r="AC4">
-        <v>1.117064033280743</v>
+        <v>0.9479609524012647</v>
       </c>
       <c r="AD4">
-        <v>1.040994866862306</v>
+        <v>0.7091222881647097</v>
       </c>
       <c r="AE4">
-        <v>0.9260323860339303</v>
+        <v>1.012510526485983</v>
       </c>
       <c r="AF4">
-        <v>1.052362528823203</v>
+        <v>0.9072758241920411</v>
       </c>
       <c r="AG4">
-        <v>0.7900370252938779</v>
+        <v>1.028748123260303</v>
       </c>
       <c r="AH4">
-        <v>0.9966067515727075</v>
+        <v>1.026142106161309</v>
       </c>
       <c r="AI4">
-        <v>0.9887420405327171</v>
+        <v>0.9006510626800346</v>
       </c>
       <c r="AJ4">
-        <v>1.017724872907195</v>
+        <v>0.9149483858008506</v>
       </c>
       <c r="AK4">
-        <v>1.207662281096801</v>
+        <v>1.049928572417811</v>
       </c>
       <c r="AL4">
-        <v>1.052945111175031</v>
+        <v>1.026259685553234</v>
       </c>
       <c r="AM4">
-        <v>1.031399864592049</v>
+        <v>1.06468960535369</v>
       </c>
       <c r="AN4">
-        <v>1.383286667266913</v>
+        <v>1.036058233867766</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>1.124361240192733</v>
+        <v>0.8457333217262561</v>
       </c>
       <c r="C5">
-        <v>0.7586319406264692</v>
+        <v>0.7704619780939721</v>
       </c>
       <c r="D5">
-        <v>1.11664078726431</v>
+        <v>0.6862734207380863</v>
       </c>
       <c r="E5">
-        <v>1.018544509393586</v>
+        <v>0.614922932780462</v>
       </c>
       <c r="F5">
-        <v>1.018762315558694</v>
+        <v>0.6764945075575396</v>
       </c>
       <c r="G5">
-        <v>1.097548525643158</v>
+        <v>0.6126085829326349</v>
       </c>
       <c r="H5">
-        <v>1.010589736947104</v>
+        <v>0.5934749078136188</v>
       </c>
       <c r="I5">
-        <v>0.9958361962270927</v>
+        <v>0.8051971855889902</v>
       </c>
       <c r="J5">
-        <v>0.9541868467346661</v>
+        <v>0.8639687262156178</v>
       </c>
       <c r="K5">
-        <v>1.193797823620799</v>
+        <v>0.8146537624430585</v>
       </c>
       <c r="L5">
-        <v>1.003233065407704</v>
+        <v>0.8604215449148102</v>
       </c>
       <c r="M5">
-        <v>0.9921783422684615</v>
+        <v>0.706376174371284</v>
       </c>
       <c r="N5">
-        <v>1.100764846848449</v>
+        <v>0.7972494927391959</v>
       </c>
       <c r="O5">
-        <v>1.130744078609496</v>
+        <v>0.7956269452404224</v>
       </c>
       <c r="P5">
-        <v>1.130100553339145</v>
+        <v>0.7487819895051246</v>
       </c>
       <c r="Q5">
-        <v>1.091030835884444</v>
+        <v>0.6352564298089126</v>
       </c>
       <c r="R5">
-        <v>1.082966036903535</v>
+        <v>0.6963214897161605</v>
       </c>
       <c r="S5">
-        <v>1.038652983909148</v>
+        <v>0.7548891508300245</v>
       </c>
       <c r="T5">
-        <v>0.8929650593679347</v>
+        <v>0.7041767879461175</v>
       </c>
       <c r="U5">
-        <v>1.246191547966627</v>
+        <v>0.8697864666816324</v>
       </c>
       <c r="V5">
-        <v>1.148649140354559</v>
+        <v>0.8104125320597736</v>
       </c>
       <c r="W5">
-        <v>1.079397514319738</v>
+        <v>0.8533776675212277</v>
       </c>
       <c r="X5">
-        <v>0.9024582744963831</v>
+        <v>0.7634043406662374</v>
       </c>
       <c r="Y5">
-        <v>1.062227449277805</v>
+        <v>0.8409580620588111</v>
       </c>
       <c r="Z5">
-        <v>1.258272303206373</v>
+        <v>0.8904423703564427</v>
       </c>
       <c r="AA5">
-        <v>1.290325538765011</v>
+        <v>0.9042410794475993</v>
       </c>
       <c r="AB5">
-        <v>1.059113156935157</v>
+        <v>0.8447821731646391</v>
       </c>
       <c r="AC5">
-        <v>1.303753201653209</v>
+        <v>0.7988579422915963</v>
       </c>
       <c r="AD5">
-        <v>1.207832233586831</v>
+        <v>0.6174003199893026</v>
       </c>
       <c r="AE5">
-        <v>1.114219517358789</v>
+        <v>0.6990796275721087</v>
       </c>
       <c r="AF5">
-        <v>1.227678302462809</v>
+        <v>0.7037587710791581</v>
       </c>
       <c r="AG5">
-        <v>0.972693973096141</v>
+        <v>0.8237984518662269</v>
       </c>
       <c r="AH5">
-        <v>1.203424865298953</v>
+        <v>0.8238126620157834</v>
       </c>
       <c r="AI5">
-        <v>1.17609725904779</v>
+        <v>0.7438041583411441</v>
       </c>
       <c r="AJ5">
-        <v>1.201122626946095</v>
+        <v>0.7975852055229011</v>
       </c>
       <c r="AK5">
-        <v>1.444460548068952</v>
+        <v>0.7988645632493849</v>
       </c>
       <c r="AL5">
-        <v>1.194394279273751</v>
+        <v>0.9732391410037724</v>
       </c>
       <c r="AM5">
-        <v>1.195627411551554</v>
+        <v>0.8988711351520178</v>
       </c>
       <c r="AN5">
-        <v>1.603509468316684</v>
+        <v>0.7583503013065502</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.9708595379578717</v>
+        <v>0.7955709065010003</v>
       </c>
       <c r="C6">
-        <v>0.6114493385278306</v>
+        <v>0.5914297142626909</v>
       </c>
       <c r="D6">
-        <v>0.9459637224951127</v>
+        <v>0.8029239894893412</v>
       </c>
       <c r="E6">
-        <v>0.8613792771331711</v>
+        <v>0.7233971717731673</v>
       </c>
       <c r="F6">
-        <v>0.8542104098471882</v>
+        <v>0.6766929236070962</v>
       </c>
       <c r="G6">
-        <v>0.9343993372389886</v>
+        <v>0.4913338467436578</v>
       </c>
       <c r="H6">
-        <v>0.8558644055402</v>
+        <v>0.4849258887366991</v>
       </c>
       <c r="I6">
-        <v>0.8548568027499069</v>
+        <v>0.6921723514835681</v>
       </c>
       <c r="J6">
-        <v>0.8159735367383232</v>
+        <v>0.7348258971215978</v>
       </c>
       <c r="K6">
-        <v>1.00751990565228</v>
+        <v>0.8351759737153898</v>
       </c>
       <c r="L6">
-        <v>0.8436414488378003</v>
+        <v>0.7050867592030503</v>
       </c>
       <c r="M6">
-        <v>0.8380902004811157</v>
+        <v>0.6142774852093911</v>
       </c>
       <c r="N6">
-        <v>0.9298278168711691</v>
+        <v>0.6344917016462214</v>
       </c>
       <c r="O6">
-        <v>0.9664453323489868</v>
+        <v>0.7470306873595867</v>
       </c>
       <c r="P6">
-        <v>0.9645237497858596</v>
+        <v>1.020314871082029</v>
       </c>
       <c r="Q6">
-        <v>0.9327008080039927</v>
+        <v>0.6652573431929418</v>
       </c>
       <c r="R6">
-        <v>0.9076308965030644</v>
+        <v>0.6947503656418594</v>
       </c>
       <c r="S6">
-        <v>0.8831772086436267</v>
+        <v>0.9434911524300386</v>
       </c>
       <c r="T6">
-        <v>0.7542059976396892</v>
+        <v>0.6771000763481108</v>
       </c>
       <c r="U6">
-        <v>1.06403865289732</v>
+        <v>0.6078878463623392</v>
       </c>
       <c r="V6">
-        <v>0.9825407065237067</v>
+        <v>0.7184266665947524</v>
       </c>
       <c r="W6">
-        <v>0.9056329006803869</v>
+        <v>0.803344300924529</v>
       </c>
       <c r="X6">
-        <v>0.7585293447906981</v>
+        <v>0.8558844636989853</v>
       </c>
       <c r="Y6">
-        <v>0.9013468783712221</v>
+        <v>0.7091587986337283</v>
       </c>
       <c r="Z6">
-        <v>1.072460468202844</v>
+        <v>0.5945944409293981</v>
       </c>
       <c r="AA6">
-        <v>1.104495550747593</v>
+        <v>0.8873816247004923</v>
       </c>
       <c r="AB6">
-        <v>0.9052841484615413</v>
+        <v>0.6037297952139187</v>
       </c>
       <c r="AC6">
-        <v>1.129055561764129</v>
+        <v>0.6489202037854348</v>
       </c>
       <c r="AD6">
-        <v>1.046177935186915</v>
+        <v>0.4663316799533512</v>
       </c>
       <c r="AE6">
-        <v>0.9460020380295117</v>
+        <v>0.9110174299343843</v>
       </c>
       <c r="AF6">
-        <v>1.058539914296103</v>
+        <v>0.6989790650150816</v>
       </c>
       <c r="AG6">
-        <v>0.8140347356586272</v>
+        <v>0.7722886668888352</v>
       </c>
       <c r="AH6">
-        <v>1.017222362955242</v>
+        <v>0.7627766077822798</v>
       </c>
       <c r="AI6">
-        <v>1.002054591308121</v>
+        <v>0.6529211733959214</v>
       </c>
       <c r="AJ6">
-        <v>1.028578953053699</v>
+        <v>0.6249983388263521</v>
       </c>
       <c r="AK6">
-        <v>1.232913944627257</v>
+        <v>0.8482945576297694</v>
       </c>
       <c r="AL6">
-        <v>1.048845435517647</v>
+        <v>0.573841011881048</v>
       </c>
       <c r="AM6">
-        <v>1.03554558007592</v>
+        <v>0.754574735420093</v>
       </c>
       <c r="AN6">
-        <v>1.390001948255706</v>
+        <v>0.8498340461171842</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>0.8392730565215551</v>
+        <v>1.067109142858508</v>
       </c>
       <c r="C7">
-        <v>0.493030519100605</v>
+        <v>0.8856764388632709</v>
       </c>
       <c r="D7">
-        <v>0.8025321836308046</v>
+        <v>0.9393068742131391</v>
       </c>
       <c r="E7">
-        <v>0.7295488494346982</v>
+        <v>0.8413666965319133</v>
       </c>
       <c r="F7">
-        <v>0.7181001924045619</v>
+        <v>0.8641690570030892</v>
       </c>
       <c r="G7">
-        <v>0.7947977926186768</v>
+        <v>0.7293167510303443</v>
       </c>
       <c r="H7">
-        <v>0.7263545736089516</v>
+        <v>0.7331802054357949</v>
       </c>
       <c r="I7">
-        <v>0.734055561836192</v>
+        <v>0.9869438160042356</v>
       </c>
       <c r="J7">
-        <v>0.6978797748555308</v>
+        <v>1.035733723312985</v>
       </c>
       <c r="K7">
-        <v>0.8536446188087661</v>
+        <v>1.046582604120677</v>
       </c>
       <c r="L7">
-        <v>0.7108634111508579</v>
+        <v>1.044521120517529</v>
       </c>
       <c r="M7">
-        <v>0.7064790190511722</v>
+        <v>0.8667877959619277</v>
       </c>
       <c r="N7">
-        <v>0.7860332271790603</v>
+        <v>0.9587747548732708</v>
       </c>
       <c r="O7">
-        <v>0.8281647744414796</v>
+        <v>0.9840581788081925</v>
       </c>
       <c r="P7">
-        <v>0.8254375732412341</v>
+        <v>1.078378860284019</v>
       </c>
       <c r="Q7">
-        <v>0.7960764999380803</v>
+        <v>0.8142258093903343</v>
       </c>
       <c r="R7">
-        <v>0.7630051505121653</v>
+        <v>0.8850817789658755</v>
       </c>
       <c r="S7">
-        <v>0.751811119491665</v>
+        <v>1.081051806449428</v>
       </c>
       <c r="T7">
-        <v>0.6392594038778134</v>
+        <v>0.8888809332725395</v>
       </c>
       <c r="U7">
-        <v>0.9107141888711672</v>
+        <v>0.998468056638654</v>
       </c>
       <c r="V7">
-        <v>0.841498672744146</v>
+        <v>0.9971971813953684</v>
       </c>
       <c r="W7">
-        <v>0.7601805063686462</v>
+        <v>1.070362427544225</v>
       </c>
       <c r="X7">
-        <v>0.6370349278260488</v>
+        <v>1.018776472006318</v>
       </c>
       <c r="Y7">
-        <v>0.7640203488089731</v>
+        <v>1.013370328533557</v>
       </c>
       <c r="Z7">
-        <v>0.9147745301496899</v>
+        <v>1.001069713322543</v>
       </c>
       <c r="AA7">
-        <v>0.9454906779983215</v>
+        <v>1.161156708289429</v>
       </c>
       <c r="AB7">
-        <v>0.7743222417128659</v>
+        <v>0.9713080689870662</v>
       </c>
       <c r="AC7">
-        <v>0.9800962516432528</v>
+        <v>0.9434670555369418</v>
       </c>
       <c r="AD7">
-        <v>0.9053629271507794</v>
+        <v>0.7192863618908207</v>
       </c>
       <c r="AE7">
-        <v>0.8044145196412861</v>
+        <v>0.9873509096037241</v>
       </c>
       <c r="AF7">
-        <v>0.9122547447915439</v>
+        <v>0.886345979575405</v>
       </c>
       <c r="AG7">
-        <v>0.6821097515576533</v>
+        <v>1.026505087791058</v>
       </c>
       <c r="AH7">
-        <v>0.8595105531850903</v>
+        <v>1.01919169932</v>
       </c>
       <c r="AI7">
-        <v>0.8548989856591509</v>
+        <v>0.9116897272469205</v>
       </c>
       <c r="AJ7">
-        <v>0.8796622975438525</v>
+        <v>0.9554819614908934</v>
       </c>
       <c r="AK7">
-        <v>1.056557820505782</v>
+        <v>1.042005174948983</v>
       </c>
       <c r="AL7">
-        <v>0.9205364047069173</v>
+        <v>1.064617110553101</v>
       </c>
       <c r="AM7">
-        <v>0.8967006590037753</v>
+        <v>1.091660720751981</v>
       </c>
       <c r="AN7">
-        <v>1.20628511354406</v>
+        <v>0.9912760669064</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.7744711024904215</v>
+        <v>0.9850498404609236</v>
       </c>
       <c r="C8">
-        <v>0.4365278349559456</v>
+        <v>0.8876066653627074</v>
       </c>
       <c r="D8">
-        <v>0.736193075895525</v>
+        <v>0.8414120387526689</v>
       </c>
       <c r="E8">
-        <v>0.6661700492629982</v>
+        <v>0.758223089905171</v>
       </c>
       <c r="F8">
-        <v>0.6537033159691676</v>
+        <v>0.8093889793666486</v>
       </c>
       <c r="G8">
-        <v>0.7259139808801693</v>
+        <v>0.6956671654541665</v>
       </c>
       <c r="H8">
-        <v>0.666697042306443</v>
+        <v>0.6522236822213878</v>
       </c>
       <c r="I8">
-        <v>0.673107096754517</v>
+        <v>0.9190664986962143</v>
       </c>
       <c r="J8">
-        <v>0.6422213808184424</v>
+        <v>1.006005375926649</v>
       </c>
       <c r="K8">
-        <v>0.7798113111478195</v>
+        <v>0.979716670968204</v>
       </c>
       <c r="L8">
-        <v>0.6465703616516669</v>
+        <v>0.9648949196399008</v>
       </c>
       <c r="M8">
-        <v>0.6412160692039679</v>
+        <v>0.8116577509975319</v>
       </c>
       <c r="N8">
-        <v>0.7150101377874156</v>
+        <v>0.8921183229693935</v>
       </c>
       <c r="O8">
-        <v>0.7598579352686244</v>
+        <v>0.9476572921210408</v>
       </c>
       <c r="P8">
-        <v>0.7530519733606955</v>
+        <v>0.9696065955284473</v>
       </c>
       <c r="Q8">
-        <v>0.7278762715644456</v>
+        <v>0.7757326897300703</v>
       </c>
       <c r="R8">
-        <v>0.6920127890679137</v>
+        <v>0.8332680056272391</v>
       </c>
       <c r="S8">
-        <v>0.6896668125814098</v>
+        <v>0.922239909588586</v>
       </c>
       <c r="T8">
-        <v>0.5856291936043988</v>
+        <v>0.8299456037995538</v>
       </c>
       <c r="U8">
-        <v>0.8379194027156351</v>
+        <v>0.9605774192248926</v>
       </c>
       <c r="V8">
-        <v>0.7746504400550052</v>
+        <v>0.9382150078325378</v>
       </c>
       <c r="W8">
-        <v>0.6899901244434373</v>
+        <v>1.001065505422793</v>
       </c>
       <c r="X8">
-        <v>0.5780835700782077</v>
+        <v>0.9329109816954166</v>
       </c>
       <c r="Y8">
-        <v>0.6977631836939764</v>
+        <v>0.970927888443322</v>
       </c>
       <c r="Z8">
-        <v>0.8375928706954141</v>
+        <v>0.983977762141707</v>
       </c>
       <c r="AA8">
-        <v>0.8674218914909004</v>
+        <v>1.058518519039927</v>
       </c>
       <c r="AB8">
-        <v>0.7121954284685995</v>
+        <v>0.9411510776151812</v>
       </c>
       <c r="AC8">
-        <v>0.903176893865389</v>
+        <v>0.921819401616412</v>
       </c>
       <c r="AD8">
-        <v>0.8335926554849412</v>
+        <v>0.6950847824478549</v>
       </c>
       <c r="AE8">
-        <v>0.7342161834194183</v>
+        <v>0.8922782509496443</v>
       </c>
       <c r="AF8">
-        <v>0.842426502113202</v>
+        <v>0.8476867341731855</v>
       </c>
       <c r="AG8">
-        <v>0.6192641645354869</v>
+        <v>0.9705911756583645</v>
       </c>
       <c r="AH8">
-        <v>0.783289593830192</v>
+        <v>0.9707157855822063</v>
       </c>
       <c r="AI8">
-        <v>0.7901937561708118</v>
+        <v>0.8590654839633464</v>
       </c>
       <c r="AJ8">
-        <v>0.8061551593539619</v>
+        <v>0.8890009698498287</v>
       </c>
       <c r="AK8">
-        <v>0.9703906055936535</v>
+        <v>0.9685720307748692</v>
       </c>
       <c r="AL8">
-        <v>0.8564857240618114</v>
+        <v>1.048877041955071</v>
       </c>
       <c r="AM8">
-        <v>0.8293448405333971</v>
+        <v>1.024299908476256</v>
       </c>
       <c r="AN8">
-        <v>1.118809277363685</v>
+        <v>0.9488728818604332</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.7539191822665345</v>
+        <v>1.058158321230933</v>
       </c>
       <c r="C9">
-        <v>0.4291518421093576</v>
+        <v>0.8696561446757995</v>
       </c>
       <c r="D9">
-        <v>0.7130197324546798</v>
+        <v>0.9782647864743569</v>
       </c>
       <c r="E9">
-        <v>0.6490688522620317</v>
+        <v>0.8792687451332456</v>
       </c>
       <c r="F9">
-        <v>0.63633151454673</v>
+        <v>0.8776488734957212</v>
       </c>
       <c r="G9">
-        <v>0.7092920567607961</v>
+        <v>0.7025429883445344</v>
       </c>
       <c r="H9">
-        <v>0.6453281278153348</v>
+        <v>0.6810000355652709</v>
       </c>
       <c r="I9">
-        <v>0.6584151984937487</v>
+        <v>0.9572176549670365</v>
       </c>
       <c r="J9">
-        <v>0.6227512788688381</v>
+        <v>1.025771842949082</v>
       </c>
       <c r="K9">
-        <v>0.7596280429397656</v>
+        <v>1.077251634608015</v>
       </c>
       <c r="L9">
-        <v>0.6313571854471018</v>
+        <v>0.9963150672450424</v>
       </c>
       <c r="M9">
-        <v>0.6282822282495353</v>
+        <v>0.8448117170940241</v>
       </c>
       <c r="N9">
-        <v>0.6998060771695793</v>
+        <v>0.9062947121417106</v>
       </c>
       <c r="O9">
-        <v>0.7414957391381319</v>
+        <v>0.9991233168975718</v>
       </c>
       <c r="P9">
-        <v>0.7407524328314997</v>
+        <v>1.182644342781737</v>
       </c>
       <c r="Q9">
-        <v>0.7118406097067648</v>
+        <v>0.8540098756809006</v>
       </c>
       <c r="R9">
-        <v>0.6775945756265024</v>
+        <v>0.9060637534974567</v>
       </c>
       <c r="S9">
-        <v>0.6697089345148967</v>
+        <v>1.11468389827941</v>
       </c>
       <c r="T9">
-        <v>0.5680675521295958</v>
+        <v>0.8950873310792827</v>
       </c>
       <c r="U9">
-        <v>0.8133402219487591</v>
+        <v>0.9259943375221851</v>
       </c>
       <c r="V9">
-        <v>0.7516085631386058</v>
+        <v>0.9811752885565913</v>
       </c>
       <c r="W9">
-        <v>0.6738690452366727</v>
+        <v>1.070241756474252</v>
       </c>
       <c r="X9">
-        <v>0.5649675179491321</v>
+        <v>1.064643870913051</v>
       </c>
       <c r="Y9">
-        <v>0.6799963915103842</v>
+        <v>0.9896449106474332</v>
       </c>
       <c r="Z9">
-        <v>0.8170154458753086</v>
+        <v>0.9299503784572505</v>
       </c>
       <c r="AA9">
-        <v>0.8457935858620104</v>
+        <v>1.159585703094541</v>
       </c>
       <c r="AB9">
-        <v>0.6912371542706973</v>
+        <v>0.9111846291144563</v>
       </c>
       <c r="AC9">
-        <v>0.8839700169646739</v>
+        <v>0.9254175689226635</v>
       </c>
       <c r="AD9">
-        <v>0.8149172504954947</v>
+        <v>0.6874680960399663</v>
       </c>
       <c r="AE9">
-        <v>0.7180779413192132</v>
+        <v>1.074352303476957</v>
       </c>
       <c r="AF9">
-        <v>0.8171314878643111</v>
+        <v>0.9159872061200489</v>
       </c>
       <c r="AG9">
-        <v>0.6037869174060437</v>
+        <v>1.032727013731688</v>
       </c>
       <c r="AH9">
-        <v>0.7640730725436375</v>
+        <v>1.026741128982116</v>
       </c>
       <c r="AI9">
-        <v>0.7594841002573762</v>
+        <v>0.8966055608249183</v>
       </c>
       <c r="AJ9">
-        <v>0.7867562371955822</v>
+        <v>0.8989789128074601</v>
       </c>
       <c r="AK9">
-        <v>0.9455483515539491</v>
+        <v>1.076012103447904</v>
       </c>
       <c r="AL9">
-        <v>0.832334079651838</v>
+        <v>0.9568251018356153</v>
       </c>
       <c r="AM9">
-        <v>0.805408607277125</v>
+        <v>1.053961081519415</v>
       </c>
       <c r="AN9">
-        <v>1.083596186391252</v>
+        <v>1.062999698832428</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0.5492854950221651</v>
+        <v>0.8226730825581405</v>
       </c>
       <c r="C10">
-        <v>0.3151705478654978</v>
+        <v>0.7054412378844813</v>
       </c>
       <c r="D10">
-        <v>0.5080761352283996</v>
+        <v>0.6726341958059111</v>
       </c>
       <c r="E10">
-        <v>0.4705627984319161</v>
+        <v>0.5995024644839835</v>
       </c>
       <c r="F10">
-        <v>0.4609615581737124</v>
+        <v>0.6462120025868102</v>
       </c>
       <c r="G10">
-        <v>0.5146312176962802</v>
+        <v>0.5866660622885048</v>
       </c>
       <c r="H10">
-        <v>0.4602875517561298</v>
+        <v>0.6053914978259866</v>
       </c>
       <c r="I10">
-        <v>0.4833875813742407</v>
+        <v>0.7835023668657561</v>
       </c>
       <c r="J10">
-        <v>0.4445779999733578</v>
+        <v>0.8085643248152059</v>
       </c>
       <c r="K10">
-        <v>0.5556638983676916</v>
+        <v>0.7723988081149639</v>
       </c>
       <c r="L10">
-        <v>0.4608022337964154</v>
+        <v>0.8457122423889682</v>
       </c>
       <c r="M10">
-        <v>0.4559001147196339</v>
+        <v>0.6839354987072203</v>
       </c>
       <c r="N10">
-        <v>0.5122608356283788</v>
+        <v>0.7830036887150061</v>
       </c>
       <c r="O10">
-        <v>0.5447846367002851</v>
+        <v>0.7426472400889546</v>
       </c>
       <c r="P10">
-        <v>0.5566685551936563</v>
+        <v>0.7157402962243845</v>
       </c>
       <c r="Q10">
-        <v>0.5171748781967762</v>
+        <v>0.5888343805370579</v>
       </c>
       <c r="R10">
-        <v>0.5001759750515019</v>
+        <v>0.6587215436516144</v>
       </c>
       <c r="S10">
-        <v>0.4809736119602743</v>
+        <v>0.7743390355227409</v>
       </c>
       <c r="T10">
-        <v>0.4098614392360666</v>
+        <v>0.6746931929535023</v>
       </c>
       <c r="U10">
-        <v>0.5877079997271947</v>
+        <v>0.8382715945583791</v>
       </c>
       <c r="V10">
-        <v>0.5401275374118143</v>
+        <v>0.7790811036413009</v>
       </c>
       <c r="W10">
-        <v>0.4884574613445055</v>
+        <v>0.8191974546985341</v>
       </c>
       <c r="X10">
-        <v>0.4083586508600897</v>
+        <v>0.7323980889556618</v>
       </c>
       <c r="Y10">
-        <v>0.4885515982338262</v>
+        <v>0.8003402078200884</v>
       </c>
       <c r="Z10">
-        <v>0.5942337138130437</v>
+        <v>0.8437910647168155</v>
       </c>
       <c r="AA10">
-        <v>0.613842481770406</v>
+        <v>0.8856052846133824</v>
       </c>
       <c r="AB10">
-        <v>0.4958597300855543</v>
+        <v>0.8069066316474796</v>
       </c>
       <c r="AC10">
-        <v>0.6584305821080244</v>
+        <v>0.7466630732226495</v>
       </c>
       <c r="AD10">
-        <v>0.5969636720679027</v>
+        <v>0.586476253364239</v>
       </c>
       <c r="AE10">
-        <v>0.5272243848723399</v>
+        <v>0.6664971331886016</v>
       </c>
       <c r="AF10">
-        <v>0.5845710425231521</v>
+        <v>0.6545659233880612</v>
       </c>
       <c r="AG10">
-        <v>0.436706336920699</v>
+        <v>0.7820081659654223</v>
       </c>
       <c r="AH10">
-        <v>0.5513348780799195</v>
+        <v>0.7769208616159723</v>
       </c>
       <c r="AI10">
-        <v>0.5296777130442232</v>
+        <v>0.7138254368422637</v>
       </c>
       <c r="AJ10">
-        <v>0.5692464689247969</v>
+        <v>0.784424980212465</v>
       </c>
       <c r="AK10">
-        <v>0.6954044172623143</v>
+        <v>0.7620509207089372</v>
       </c>
       <c r="AL10">
-        <v>0.6048059681463616</v>
+        <v>0.9295204540786122</v>
       </c>
       <c r="AM10">
-        <v>0.5802655332180291</v>
+        <v>0.8715920583940657</v>
       </c>
       <c r="AN10">
-        <v>0.7792822202928911</v>
+        <v>0.6939054208995187</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0.6541073020613343</v>
+        <v>0.9152096079637079</v>
       </c>
       <c r="C11">
-        <v>0.3636804515581115</v>
+        <v>0.730896253562367</v>
       </c>
       <c r="D11">
-        <v>0.6171388169041534</v>
+        <v>0.8937398279724414</v>
       </c>
       <c r="E11">
-        <v>0.5602944299467439</v>
+        <v>0.809113930487861</v>
       </c>
       <c r="F11">
-        <v>0.547318774051802</v>
+        <v>0.7838399047214414</v>
       </c>
       <c r="G11">
-        <v>0.6148089462894252</v>
+        <v>0.5869020812377135</v>
       </c>
       <c r="H11">
-        <v>0.5580677388064673</v>
+        <v>0.5535441108642697</v>
       </c>
       <c r="I11">
-        <v>0.5703946706473926</v>
+        <v>0.8076924127150428</v>
       </c>
       <c r="J11">
-        <v>0.5409487884156995</v>
+        <v>0.8819409875073184</v>
       </c>
       <c r="K11">
-        <v>0.6530173945786839</v>
+        <v>0.9571546699879601</v>
       </c>
       <c r="L11">
-        <v>0.5433470512604646</v>
+        <v>0.8199870821803468</v>
       </c>
       <c r="M11">
-        <v>0.54402809587418</v>
+        <v>0.7201804707300027</v>
       </c>
       <c r="N11">
-        <v>0.6035980338833039</v>
+        <v>0.7486642067342034</v>
       </c>
       <c r="O11">
-        <v>0.6401499436451261</v>
+        <v>0.8816267855331036</v>
       </c>
       <c r="P11">
-        <v>0.6373587494789588</v>
+        <v>1.123840584660959</v>
       </c>
       <c r="Q11">
-        <v>0.6180159018752822</v>
+        <v>0.7662614246321713</v>
       </c>
       <c r="R11">
-        <v>0.5810875344080817</v>
+        <v>0.8012353502739459</v>
       </c>
       <c r="S11">
-        <v>0.5798844712600908</v>
+        <v>1.024359489426725</v>
       </c>
       <c r="T11">
-        <v>0.4894808217020581</v>
+        <v>0.7803147240043271</v>
       </c>
       <c r="U11">
-        <v>0.7035738089634567</v>
+        <v>0.7469156258001459</v>
       </c>
       <c r="V11">
-        <v>0.6516826419641559</v>
+        <v>0.8419155168500122</v>
       </c>
       <c r="W11">
-        <v>0.5809312058310835</v>
+        <v>0.9305862478657788</v>
       </c>
       <c r="X11">
-        <v>0.4881085863026909</v>
+        <v>0.9617445930361892</v>
       </c>
       <c r="Y11">
-        <v>0.5897073822988516</v>
+        <v>0.8488740228325244</v>
       </c>
       <c r="Z11">
-        <v>0.7070294294337406</v>
+        <v>0.7448003486361039</v>
       </c>
       <c r="AA11">
-        <v>0.7334359766559618</v>
+        <v>1.007711729678871</v>
       </c>
       <c r="AB11">
-        <v>0.5996934422958305</v>
+        <v>0.7422279751311893</v>
       </c>
       <c r="AC11">
-        <v>0.7643553061107492</v>
+        <v>0.7857177591654567</v>
       </c>
       <c r="AD11">
-        <v>0.7084483370760748</v>
+        <v>0.5643992538774277</v>
       </c>
       <c r="AE11">
-        <v>0.6195409769578171</v>
+        <v>1.004848103121268</v>
       </c>
       <c r="AF11">
-        <v>0.7114735347790218</v>
+        <v>0.8118312005594503</v>
       </c>
       <c r="AG11">
-        <v>0.5198117535275053</v>
+        <v>0.8994449790368961</v>
       </c>
       <c r="AH11">
-        <v>0.6610866766926787</v>
+        <v>0.8922976024135845</v>
       </c>
       <c r="AI11">
-        <v>0.6601743974190846</v>
+        <v>0.7649796592159749</v>
       </c>
       <c r="AJ11">
-        <v>0.6835135698740029</v>
+        <v>0.7387940811200421</v>
       </c>
       <c r="AK11">
-        <v>0.8147903375137159</v>
+        <v>0.969807603510785</v>
       </c>
       <c r="AL11">
-        <v>0.7260370755256486</v>
+        <v>0.7350675332824281</v>
       </c>
       <c r="AM11">
-        <v>0.7011682080341161</v>
+        <v>0.8892954840100848</v>
       </c>
       <c r="AN11">
-        <v>0.9424756853111892</v>
+        <v>0.9770270675672088</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.6198611483707751</v>
+        <v>0.9215200341712676</v>
       </c>
       <c r="C12">
-        <v>0.3305919542507119</v>
+        <v>0.7358815653476495</v>
       </c>
       <c r="D12">
-        <v>0.5797256639472356</v>
+        <v>0.8887893133315923</v>
       </c>
       <c r="E12">
-        <v>0.5246456860507402</v>
+        <v>0.8005223097144786</v>
       </c>
       <c r="F12">
-        <v>0.5123808309243766</v>
+        <v>0.7770542188633738</v>
       </c>
       <c r="G12">
-        <v>0.5722870935488349</v>
+        <v>0.5935508782142314</v>
       </c>
       <c r="H12">
-        <v>0.525543107530557</v>
+        <v>0.5684291331830043</v>
       </c>
       <c r="I12">
-        <v>0.5358119353279062</v>
+        <v>0.817758259975931</v>
       </c>
       <c r="J12">
-        <v>0.5083673635815126</v>
+        <v>0.8823196242776303</v>
       </c>
       <c r="K12">
-        <v>0.6163162879638472</v>
+        <v>0.9596618766511312</v>
       </c>
       <c r="L12">
-        <v>0.5077082859372083</v>
+        <v>0.8402186413693929</v>
       </c>
       <c r="M12">
-        <v>0.5012762158062339</v>
+        <v>0.7243943402912483</v>
       </c>
       <c r="N12">
-        <v>0.5622911099685435</v>
+        <v>0.7595331200375337</v>
       </c>
       <c r="O12">
-        <v>0.6052872488915858</v>
+        <v>0.8774763209431441</v>
       </c>
       <c r="P12">
-        <v>0.6004833224228853</v>
+        <v>1.109447269548215</v>
       </c>
       <c r="Q12">
-        <v>0.5750540202327651</v>
+        <v>0.7671684085544983</v>
       </c>
       <c r="R12">
-        <v>0.5435033474707004</v>
+        <v>0.8032048791841517</v>
       </c>
       <c r="S12">
-        <v>0.5446970315737089</v>
+        <v>1.017475863228932</v>
       </c>
       <c r="T12">
-        <v>0.4622761154471828</v>
+        <v>0.7855465168873282</v>
       </c>
       <c r="U12">
-        <v>0.6658164539111888</v>
+        <v>0.7575282437834298</v>
       </c>
       <c r="V12">
-        <v>0.6148580552283057</v>
+        <v>0.8461435483226815</v>
       </c>
       <c r="W12">
-        <v>0.5389677142101347</v>
+        <v>0.9348558153378841</v>
       </c>
       <c r="X12">
-        <v>0.4510282891025343</v>
+        <v>0.9629291307766588</v>
       </c>
       <c r="Y12">
-        <v>0.5480345826651155</v>
+        <v>0.8464799298103683</v>
       </c>
       <c r="Z12">
-        <v>0.6630181404712416</v>
+        <v>0.7566039011159265</v>
       </c>
       <c r="AA12">
-        <v>0.687987769676037</v>
+        <v>1.017230057350379</v>
       </c>
       <c r="AB12">
-        <v>0.5643100760951009</v>
+        <v>0.7510302320763025</v>
       </c>
       <c r="AC12">
-        <v>0.727446264955589</v>
+        <v>0.7885934341462465</v>
       </c>
       <c r="AD12">
-        <v>0.6667727095507178</v>
+        <v>0.5744425798839307</v>
       </c>
       <c r="AE12">
-        <v>0.5806852388713536</v>
+        <v>1.000153558996787</v>
       </c>
       <c r="AF12">
-        <v>0.6705550622854372</v>
+        <v>0.8139429724814156</v>
       </c>
       <c r="AG12">
-        <v>0.4833931204922309</v>
+        <v>0.9034492540263642</v>
       </c>
       <c r="AH12">
-        <v>0.6143107992968551</v>
+        <v>0.8971666237112623</v>
       </c>
       <c r="AI12">
-        <v>0.6238639031089304</v>
+        <v>0.7718839115344331</v>
       </c>
       <c r="AJ12">
-        <v>0.6378715077058449</v>
+        <v>0.7505200478625959</v>
       </c>
       <c r="AK12">
-        <v>0.7741496188437005</v>
+        <v>0.9642045292403566</v>
       </c>
       <c r="AL12">
-        <v>0.6924445175711685</v>
+        <v>0.754867235112731</v>
       </c>
       <c r="AM12">
-        <v>0.6631800792102532</v>
+        <v>0.896579699791795</v>
       </c>
       <c r="AN12">
-        <v>0.8971961083632266</v>
+        <v>0.9694328075692167</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块-beta.xlsx
+++ b/FOF/data/基金公司-板块-beta.xlsx
@@ -16,157 +16,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
     <t>鹏华</t>
   </si>
   <si>
-    <t>诺德</t>
-  </si>
-  <si>
     <t>华商</t>
   </si>
   <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
     <t>东方</t>
   </si>
   <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>平安大华</t>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>上投摩根</t>
   </si>
   <si>
     <t>中邮创业</t>
   </si>
   <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
     <t>中证500</t>
   </si>
   <si>
-    <t>创业板综</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>中证1000</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>上证50</t>
-  </si>
-  <si>
     <t>中小板综</t>
-  </si>
-  <si>
-    <t>深证综指</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0.8713099899621625</v>
+        <v>0.791327057458952</v>
       </c>
       <c r="C2">
-        <v>0.6714599525974214</v>
+        <v>0.565402704635954</v>
       </c>
       <c r="D2">
-        <v>0.8515663071950019</v>
+        <v>0.6268683560730584</v>
       </c>
       <c r="E2">
-        <v>0.7636276338166483</v>
+        <v>0.7064792501240533</v>
       </c>
       <c r="F2">
-        <v>0.7280235057045522</v>
+        <v>0.4693654486828666</v>
       </c>
       <c r="G2">
-        <v>0.5513504792782965</v>
+        <v>0.6706529188387622</v>
       </c>
       <c r="H2">
-        <v>0.5425808141082868</v>
+        <v>0.7751629832139633</v>
       </c>
       <c r="I2">
-        <v>0.7689306409732408</v>
+        <v>0.5972850581436777</v>
       </c>
       <c r="J2">
-        <v>0.8145869650940607</v>
+        <v>0.743808914324984</v>
       </c>
       <c r="K2">
-        <v>0.9085184410606238</v>
+        <v>0.7323751669928539</v>
       </c>
       <c r="L2">
-        <v>0.7947781544226163</v>
+        <v>0.6945226914635287</v>
       </c>
       <c r="M2">
-        <v>0.6778241530319967</v>
+        <v>0.690891991943865</v>
       </c>
       <c r="N2">
-        <v>0.7102750536825677</v>
+        <v>0.6819234400795481</v>
       </c>
       <c r="O2">
-        <v>0.8157393603162301</v>
+        <v>0.6875280522683814</v>
       </c>
       <c r="P2">
-        <v>1.067180552227829</v>
+        <v>0.6758421173294697</v>
       </c>
       <c r="Q2">
-        <v>0.7243998577308821</v>
+        <v>0.7317730981113278</v>
       </c>
       <c r="R2">
-        <v>0.7578354623699683</v>
+        <v>0.8087359065723537</v>
       </c>
       <c r="S2">
-        <v>0.9868833900750614</v>
+        <v>0.6159326572356996</v>
       </c>
       <c r="T2">
-        <v>0.7423636312077291</v>
+        <v>0.7324946399432015</v>
       </c>
       <c r="U2">
-        <v>0.6940398054844266</v>
+        <v>0.7905059378602292</v>
       </c>
       <c r="V2">
-        <v>0.7918831064757995</v>
+        <v>0.6360671823190039</v>
       </c>
       <c r="W2">
-        <v>0.8802538166749145</v>
+        <v>0.6132629433030794</v>
       </c>
       <c r="X2">
-        <v>0.9206340601019253</v>
+        <v>0.619016499855264</v>
       </c>
       <c r="Y2">
-        <v>0.7810740976426975</v>
+        <v>0.5322776905744627</v>
       </c>
       <c r="Z2">
-        <v>0.6873752921936209</v>
+        <v>0.7638430345598985</v>
       </c>
       <c r="AA2">
-        <v>0.9692391331514252</v>
+        <v>0.8287237901413126</v>
       </c>
       <c r="AB2">
-        <v>0.6874741854948124</v>
+        <v>0.6373947192768483</v>
       </c>
       <c r="AC2">
-        <v>0.7257101143350078</v>
+        <v>0.7974010728062758</v>
       </c>
       <c r="AD2">
-        <v>0.5315221505029691</v>
+        <v>0.777316099194982</v>
       </c>
       <c r="AE2">
-        <v>0.9641827641856903</v>
+        <v>0.6659965332306571</v>
       </c>
       <c r="AF2">
-        <v>0.7654968446823133</v>
+        <v>0.8113592207549801</v>
       </c>
       <c r="AG2">
-        <v>0.8485012638700865</v>
+        <v>0.8256821348069406</v>
       </c>
       <c r="AH2">
-        <v>0.8411304538254161</v>
+        <v>0.7776912876427333</v>
       </c>
       <c r="AI2">
-        <v>0.7236482680789121</v>
+        <v>0.671389411330467</v>
       </c>
       <c r="AJ2">
-        <v>0.7015035638245753</v>
+        <v>0.6006111143910127</v>
       </c>
       <c r="AK2">
-        <v>0.9109392500179906</v>
+        <v>0.7874105037427604</v>
       </c>
       <c r="AL2">
-        <v>0.6811621984241969</v>
+        <v>0.8924828986416723</v>
       </c>
       <c r="AM2">
-        <v>0.8373283596528125</v>
+        <v>1.06751146595682</v>
       </c>
       <c r="AN2">
-        <v>0.9134323798934132</v>
+        <v>0.7964350957316332</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0.5710004911130924</v>
+        <v>1.241322628428315</v>
       </c>
       <c r="C3">
-        <v>0.4052849381279162</v>
+        <v>0.9511002413392667</v>
       </c>
       <c r="D3">
-        <v>0.6009765310832023</v>
+        <v>0.9453296233855103</v>
       </c>
       <c r="E3">
-        <v>0.5463123010883489</v>
+        <v>1.152072451252482</v>
       </c>
       <c r="F3">
-        <v>0.5009179535807595</v>
+        <v>0.9205268433405626</v>
       </c>
       <c r="G3">
-        <v>0.3420723651101256</v>
+        <v>1.112830717388107</v>
       </c>
       <c r="H3">
-        <v>0.3370515201228839</v>
+        <v>1.32491218572661</v>
       </c>
       <c r="I3">
-        <v>0.4873497568264772</v>
+        <v>1.005586348654931</v>
       </c>
       <c r="J3">
-        <v>0.522103186481388</v>
+        <v>1.24545518796446</v>
       </c>
       <c r="K3">
-        <v>0.6030400170107013</v>
+        <v>1.22323860624963</v>
       </c>
       <c r="L3">
-        <v>0.4833549497772189</v>
+        <v>1.21674024169283</v>
       </c>
       <c r="M3">
-        <v>0.4383398670185732</v>
+        <v>1.171485104780737</v>
       </c>
       <c r="N3">
-        <v>0.4436551804973763</v>
+        <v>1.138644548654365</v>
       </c>
       <c r="O3">
-        <v>0.5411671341851615</v>
+        <v>1.145311119402679</v>
       </c>
       <c r="P3">
-        <v>0.7753559818383453</v>
+        <v>1.104700649458036</v>
       </c>
       <c r="Q3">
-        <v>0.478898848811368</v>
+        <v>1.226903358718461</v>
       </c>
       <c r="R3">
-        <v>0.5003775131575861</v>
+        <v>1.295552317510822</v>
       </c>
       <c r="S3">
-        <v>0.7193866927730945</v>
+        <v>0.9869416504604662</v>
       </c>
       <c r="T3">
-        <v>0.4841075958456157</v>
+        <v>1.198314562652055</v>
       </c>
       <c r="U3">
-        <v>0.415611673916954</v>
+        <v>1.288280536827669</v>
       </c>
       <c r="V3">
-        <v>0.5128578683794672</v>
+        <v>0.9951287181913332</v>
       </c>
       <c r="W3">
-        <v>0.5764746831338402</v>
+        <v>1.122220907327077</v>
       </c>
       <c r="X3">
-        <v>0.6261143197381891</v>
+        <v>1.120791633525398</v>
       </c>
       <c r="Y3">
-        <v>0.510800975341322</v>
+        <v>0.9660428019855885</v>
       </c>
       <c r="Z3">
-        <v>0.3986790569071401</v>
+        <v>1.293980636221647</v>
       </c>
       <c r="AA3">
-        <v>0.6370667258526709</v>
+        <v>1.298080321087803</v>
       </c>
       <c r="AB3">
-        <v>0.4140969422458147</v>
+        <v>1.058788960279497</v>
       </c>
       <c r="AC3">
-        <v>0.4552876191650683</v>
+        <v>1.338009701567075</v>
       </c>
       <c r="AD3">
-        <v>0.316449239731692</v>
+        <v>1.345025991892654</v>
       </c>
       <c r="AE3">
-        <v>0.6792103407717494</v>
+        <v>1.087560672425324</v>
       </c>
       <c r="AF3">
-        <v>0.5000214613336105</v>
+        <v>1.279712175722366</v>
       </c>
       <c r="AG3">
-        <v>0.5517529282770745</v>
+        <v>1.259306383460541</v>
       </c>
       <c r="AH3">
-        <v>0.5417805668112633</v>
+        <v>1.160840983418984</v>
       </c>
       <c r="AI3">
-        <v>0.4612576562024081</v>
+        <v>0.9426050443782445</v>
       </c>
       <c r="AJ3">
-        <v>0.4353802615351739</v>
+        <v>0.9871959227271939</v>
       </c>
       <c r="AK3">
-        <v>0.6263369234060696</v>
+        <v>1.251075797096247</v>
       </c>
       <c r="AL3">
-        <v>0.3691438849608419</v>
+        <v>1.443422071938252</v>
       </c>
       <c r="AM3">
-        <v>0.534421006118541</v>
+        <v>1.585973254684103</v>
       </c>
       <c r="AN3">
-        <v>0.6243429298264809</v>
+        <v>1.209953050773375</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>1.047842667840198</v>
+        <v>0.8548642408387312</v>
       </c>
       <c r="C4">
-        <v>0.9028013009198917</v>
+        <v>0.7183052233271002</v>
       </c>
       <c r="D4">
-        <v>0.9339926557561961</v>
+        <v>0.6322077647971006</v>
       </c>
       <c r="E4">
-        <v>0.8402950961304927</v>
+        <v>0.805399603298849</v>
       </c>
       <c r="F4">
-        <v>0.8653576080298673</v>
+        <v>0.7261194947681195</v>
       </c>
       <c r="G4">
-        <v>0.7167763750328398</v>
+        <v>0.835043451903774</v>
       </c>
       <c r="H4">
-        <v>0.6814530332551262</v>
+        <v>0.9738794412781552</v>
       </c>
       <c r="I4">
-        <v>0.961691064721145</v>
+        <v>0.7390009573414941</v>
       </c>
       <c r="J4">
-        <v>1.042740266969212</v>
+        <v>0.9041799117473084</v>
       </c>
       <c r="K4">
-        <v>1.05727732581525</v>
+        <v>0.9171305552666158</v>
       </c>
       <c r="L4">
-        <v>1.00511888263658</v>
+        <v>0.95532188645012</v>
       </c>
       <c r="M4">
-        <v>0.8488534325052435</v>
+        <v>0.8917611183368017</v>
       </c>
       <c r="N4">
-        <v>0.9204416370668539</v>
+        <v>0.8350078341652585</v>
       </c>
       <c r="O4">
-        <v>0.9998081148797067</v>
+        <v>0.8559248496733318</v>
       </c>
       <c r="P4">
-        <v>1.107349683302163</v>
+        <v>0.8002371776576656</v>
       </c>
       <c r="Q4">
-        <v>0.8389115508290721</v>
+        <v>0.8919315231806004</v>
       </c>
       <c r="R4">
-        <v>0.8938382293463747</v>
+        <v>0.9246621208662971</v>
       </c>
       <c r="S4">
-        <v>1.043274158654835</v>
+        <v>0.715491980890318</v>
       </c>
       <c r="T4">
-        <v>0.8857900830999409</v>
+        <v>0.8552398824798579</v>
       </c>
       <c r="U4">
-        <v>0.9653740146102748</v>
+        <v>0.9190743551608477</v>
       </c>
       <c r="V4">
-        <v>0.9842183644019165</v>
+        <v>0.6874967512575005</v>
       </c>
       <c r="W4">
-        <v>1.062943380138857</v>
+        <v>0.8945769776929263</v>
       </c>
       <c r="X4">
-        <v>1.026928195821648</v>
+        <v>0.8890640752570189</v>
       </c>
       <c r="Y4">
-        <v>1.004605464406026</v>
+        <v>0.7525073068704513</v>
       </c>
       <c r="Z4">
-        <v>0.9802779943541798</v>
+        <v>0.9753763148964275</v>
       </c>
       <c r="AA4">
-        <v>1.137947242183128</v>
+        <v>0.9038736535381346</v>
       </c>
       <c r="AB4">
-        <v>0.9485288920698833</v>
+        <v>0.7856215248379436</v>
       </c>
       <c r="AC4">
-        <v>0.9479609524012647</v>
+        <v>1.012527456369949</v>
       </c>
       <c r="AD4">
-        <v>0.7091222881647097</v>
+        <v>1.032582247282853</v>
       </c>
       <c r="AE4">
-        <v>1.012510526485983</v>
+        <v>0.7863322171130162</v>
       </c>
       <c r="AF4">
-        <v>0.9072758241920411</v>
+        <v>0.9004969604017059</v>
       </c>
       <c r="AG4">
-        <v>1.028748123260303</v>
+        <v>0.8612343288630265</v>
       </c>
       <c r="AH4">
-        <v>1.026142106161309</v>
+        <v>0.77624120918296</v>
       </c>
       <c r="AI4">
-        <v>0.9006510626800346</v>
+        <v>0.6032082703442069</v>
       </c>
       <c r="AJ4">
-        <v>0.9149483858008506</v>
+        <v>0.7272327567619594</v>
       </c>
       <c r="AK4">
-        <v>1.049928572417811</v>
+        <v>0.8850509432677898</v>
       </c>
       <c r="AL4">
-        <v>1.026259685553234</v>
+        <v>1.023502333746418</v>
       </c>
       <c r="AM4">
-        <v>1.06468960535369</v>
+        <v>0.9897721950339767</v>
       </c>
       <c r="AN4">
-        <v>1.036058233867766</v>
+        <v>0.7873951015320925</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>0.8457333217262561</v>
+        <v>1.12638689784867</v>
       </c>
       <c r="C5">
-        <v>0.7704619780939721</v>
+        <v>0.8495810745045967</v>
       </c>
       <c r="D5">
-        <v>0.6862734207380863</v>
+        <v>0.8620542473627518</v>
       </c>
       <c r="E5">
-        <v>0.614922932780462</v>
+        <v>1.006915178162203</v>
       </c>
       <c r="F5">
-        <v>0.6764945075575396</v>
+        <v>0.7619761299023333</v>
       </c>
       <c r="G5">
-        <v>0.6126085829326349</v>
+        <v>0.9876175586601746</v>
       </c>
       <c r="H5">
-        <v>0.5934749078136188</v>
+        <v>1.15273086273597</v>
       </c>
       <c r="I5">
-        <v>0.8051971855889902</v>
+        <v>0.8791528804070973</v>
       </c>
       <c r="J5">
-        <v>0.8639687262156178</v>
+        <v>1.097164244189927</v>
       </c>
       <c r="K5">
-        <v>0.8146537624430585</v>
+        <v>1.075374163875003</v>
       </c>
       <c r="L5">
-        <v>0.8604215449148102</v>
+        <v>1.067351639396871</v>
       </c>
       <c r="M5">
-        <v>0.706376174371284</v>
+        <v>1.026344183935897</v>
       </c>
       <c r="N5">
-        <v>0.7972494927391959</v>
+        <v>1.010693876347662</v>
       </c>
       <c r="O5">
-        <v>0.7956269452404224</v>
+        <v>1.012930349335558</v>
       </c>
       <c r="P5">
-        <v>0.7487819895051246</v>
+        <v>0.9683103888470838</v>
       </c>
       <c r="Q5">
-        <v>0.6352564298089126</v>
+        <v>1.07094848338828</v>
       </c>
       <c r="R5">
-        <v>0.6963214897161605</v>
+        <v>1.151829195155253</v>
       </c>
       <c r="S5">
-        <v>0.7548891508300245</v>
+        <v>0.8849302280194626</v>
       </c>
       <c r="T5">
-        <v>0.7041767879461175</v>
+        <v>1.06192837020588</v>
       </c>
       <c r="U5">
-        <v>0.8697864666816324</v>
+        <v>1.13693145447574</v>
       </c>
       <c r="V5">
-        <v>0.8104125320597736</v>
+        <v>0.8832308453442153</v>
       </c>
       <c r="W5">
-        <v>0.8533776675212277</v>
+        <v>0.9600649449675561</v>
       </c>
       <c r="X5">
-        <v>0.7634043406662374</v>
+        <v>0.9673004074965518</v>
       </c>
       <c r="Y5">
-        <v>0.8409580620588111</v>
+        <v>0.8342424615228394</v>
       </c>
       <c r="Z5">
-        <v>0.8904423703564427</v>
+        <v>1.13908516675989</v>
       </c>
       <c r="AA5">
-        <v>0.9042410794475993</v>
+        <v>1.160089507143619</v>
       </c>
       <c r="AB5">
-        <v>0.8447821731646391</v>
+        <v>0.9388677119021283</v>
       </c>
       <c r="AC5">
-        <v>0.7988579422915963</v>
+        <v>1.187905639600451</v>
       </c>
       <c r="AD5">
-        <v>0.6174003199893026</v>
+        <v>1.179149019142647</v>
       </c>
       <c r="AE5">
-        <v>0.6990796275721087</v>
+        <v>0.9607444133781602</v>
       </c>
       <c r="AF5">
-        <v>0.7037587710791581</v>
+        <v>1.126510955660181</v>
       </c>
       <c r="AG5">
-        <v>0.8237984518662269</v>
+        <v>1.131780059369872</v>
       </c>
       <c r="AH5">
-        <v>0.8238126620157834</v>
+        <v>1.050226205450063</v>
       </c>
       <c r="AI5">
-        <v>0.7438041583411441</v>
+        <v>0.870047594867824</v>
       </c>
       <c r="AJ5">
-        <v>0.7975852055229011</v>
+        <v>0.8729091329042005</v>
       </c>
       <c r="AK5">
-        <v>0.7988645632493849</v>
+        <v>1.118800086892759</v>
       </c>
       <c r="AL5">
-        <v>0.9732391410037724</v>
+        <v>1.276977807572152</v>
       </c>
       <c r="AM5">
-        <v>0.8988711351520178</v>
+        <v>1.445896033651868</v>
       </c>
       <c r="AN5">
-        <v>0.7583503013065502</v>
+        <v>1.085530097979946</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.7955709065010003</v>
+        <v>1.059987549149449</v>
       </c>
       <c r="C6">
-        <v>0.5914297142626909</v>
+        <v>0.8245317220344858</v>
       </c>
       <c r="D6">
-        <v>0.8029239894893412</v>
+        <v>0.7861277170787685</v>
       </c>
       <c r="E6">
-        <v>0.7233971717731673</v>
+        <v>0.9394505192339978</v>
       </c>
       <c r="F6">
-        <v>0.6766929236070962</v>
+        <v>0.7755152137224398</v>
       </c>
       <c r="G6">
-        <v>0.4913338467436578</v>
+        <v>0.9391421399309217</v>
       </c>
       <c r="H6">
-        <v>0.4849258887366991</v>
+        <v>1.109820666051013</v>
       </c>
       <c r="I6">
-        <v>0.6921723514835681</v>
+        <v>0.8381366604405465</v>
       </c>
       <c r="J6">
-        <v>0.7348258971215978</v>
+        <v>1.053232440583054</v>
       </c>
       <c r="K6">
-        <v>0.8351759737153898</v>
+        <v>1.017882266094822</v>
       </c>
       <c r="L6">
-        <v>0.7050867592030503</v>
+        <v>1.044632041986603</v>
       </c>
       <c r="M6">
-        <v>0.6142774852093911</v>
+        <v>0.9786997894431874</v>
       </c>
       <c r="N6">
-        <v>0.6344917016462214</v>
+        <v>0.9737329332914106</v>
       </c>
       <c r="O6">
-        <v>0.7470306873595867</v>
+        <v>0.9641614392892478</v>
       </c>
       <c r="P6">
-        <v>1.020314871082029</v>
+        <v>0.900418296746494</v>
       </c>
       <c r="Q6">
-        <v>0.6652573431929418</v>
+        <v>1.017503430023598</v>
       </c>
       <c r="R6">
-        <v>0.6947503656418594</v>
+        <v>1.070943824562394</v>
       </c>
       <c r="S6">
-        <v>0.9434911524300386</v>
+        <v>0.8285641374853406</v>
       </c>
       <c r="T6">
-        <v>0.6771000763481108</v>
+        <v>1.006338700540224</v>
       </c>
       <c r="U6">
-        <v>0.6078878463623392</v>
+        <v>1.067430084497697</v>
       </c>
       <c r="V6">
-        <v>0.7184266665947524</v>
+        <v>0.8043768948609392</v>
       </c>
       <c r="W6">
-        <v>0.803344300924529</v>
+        <v>0.9478769148484063</v>
       </c>
       <c r="X6">
-        <v>0.8558844636989853</v>
+        <v>0.9563716142355034</v>
       </c>
       <c r="Y6">
-        <v>0.7091587986337283</v>
+        <v>0.831596140094453</v>
       </c>
       <c r="Z6">
-        <v>0.5945944409293981</v>
+        <v>1.0945724573058</v>
       </c>
       <c r="AA6">
-        <v>0.8873816247004923</v>
+        <v>1.065533305144328</v>
       </c>
       <c r="AB6">
-        <v>0.6037297952139187</v>
+        <v>0.8956513955370268</v>
       </c>
       <c r="AC6">
-        <v>0.6489202037854348</v>
+        <v>1.140798351967198</v>
       </c>
       <c r="AD6">
-        <v>0.4663316799533512</v>
+        <v>1.146291955913701</v>
       </c>
       <c r="AE6">
-        <v>0.9110174299343843</v>
+        <v>0.9018856734203365</v>
       </c>
       <c r="AF6">
-        <v>0.6989790650150816</v>
+        <v>1.019254601128083</v>
       </c>
       <c r="AG6">
-        <v>0.7722886668888352</v>
+        <v>1.019819239139456</v>
       </c>
       <c r="AH6">
-        <v>0.7627766077822798</v>
+        <v>0.9357546162233721</v>
       </c>
       <c r="AI6">
-        <v>0.6529211733959214</v>
+        <v>0.7457710874038952</v>
       </c>
       <c r="AJ6">
-        <v>0.6249983388263521</v>
+        <v>0.8220509842333622</v>
       </c>
       <c r="AK6">
-        <v>0.8482945576297694</v>
+        <v>1.040962522354512</v>
       </c>
       <c r="AL6">
-        <v>0.573841011881048</v>
+        <v>1.19452390284308</v>
       </c>
       <c r="AM6">
-        <v>0.754574735420093</v>
+        <v>1.316715760589744</v>
       </c>
       <c r="AN6">
-        <v>0.8498340461171842</v>
+        <v>0.9837092620326938</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>1.067109142858508</v>
+        <v>1.012403382281363</v>
       </c>
       <c r="C7">
-        <v>0.8856764388632709</v>
+        <v>0.7451351815647648</v>
       </c>
       <c r="D7">
-        <v>0.9393068742131391</v>
+        <v>0.7813164377049194</v>
       </c>
       <c r="E7">
-        <v>0.8413666965319133</v>
+        <v>0.8924829404985704</v>
       </c>
       <c r="F7">
-        <v>0.8641690570030892</v>
+        <v>0.6422718818471368</v>
       </c>
       <c r="G7">
-        <v>0.7293167510303443</v>
+        <v>0.8665131987967483</v>
       </c>
       <c r="H7">
-        <v>0.7331802054357949</v>
+        <v>1.008253782303493</v>
       </c>
       <c r="I7">
-        <v>0.9869438160042356</v>
+        <v>0.7706851241376601</v>
       </c>
       <c r="J7">
-        <v>1.035733723312985</v>
+        <v>0.9662055666792508</v>
       </c>
       <c r="K7">
-        <v>1.046582604120677</v>
+        <v>0.940940731704576</v>
       </c>
       <c r="L7">
-        <v>1.044521120517529</v>
+        <v>0.9222326814511866</v>
       </c>
       <c r="M7">
-        <v>0.8667877959619277</v>
+        <v>0.8937523499629605</v>
       </c>
       <c r="N7">
-        <v>0.9587747548732708</v>
+        <v>0.8902770381523629</v>
       </c>
       <c r="O7">
-        <v>0.9840581788081925</v>
+        <v>0.8883928749936291</v>
       </c>
       <c r="P7">
-        <v>1.078378860284019</v>
+        <v>0.8532548156673326</v>
       </c>
       <c r="Q7">
-        <v>0.8142258093903343</v>
+        <v>0.9405795913656956</v>
       </c>
       <c r="R7">
-        <v>0.8850817789658755</v>
+        <v>1.02260953498532</v>
       </c>
       <c r="S7">
-        <v>1.081051806449428</v>
+        <v>0.7850888786733154</v>
       </c>
       <c r="T7">
-        <v>0.8888809332725395</v>
+        <v>0.9408183372977488</v>
       </c>
       <c r="U7">
-        <v>0.998468056638654</v>
+        <v>1.006540789771593</v>
       </c>
       <c r="V7">
-        <v>0.9971971813953684</v>
+        <v>0.7894663153593016</v>
       </c>
       <c r="W7">
-        <v>1.070362427544225</v>
+        <v>0.8188317209131335</v>
       </c>
       <c r="X7">
-        <v>1.018776472006318</v>
+        <v>0.8285193432066484</v>
       </c>
       <c r="Y7">
-        <v>1.013370328533557</v>
+        <v>0.7172908297289157</v>
       </c>
       <c r="Z7">
-        <v>1.001069713322543</v>
+        <v>0.9951537761439987</v>
       </c>
       <c r="AA7">
-        <v>1.161156708289429</v>
+        <v>1.03715354709966</v>
       </c>
       <c r="AB7">
-        <v>0.9713080689870662</v>
+        <v>0.8252515030402414</v>
       </c>
       <c r="AC7">
-        <v>0.9434670555369418</v>
+        <v>1.039960483137645</v>
       </c>
       <c r="AD7">
-        <v>0.7192863618908207</v>
+        <v>1.024023238240486</v>
       </c>
       <c r="AE7">
-        <v>0.9873509096037241</v>
+        <v>0.848607156722148</v>
       </c>
       <c r="AF7">
-        <v>0.886345979575405</v>
+        <v>1.001199958057875</v>
       </c>
       <c r="AG7">
-        <v>1.026505087791058</v>
+        <v>1.017980207900581</v>
       </c>
       <c r="AH7">
-        <v>1.01919169932</v>
+        <v>0.9508412408795922</v>
       </c>
       <c r="AI7">
-        <v>0.9116897272469205</v>
+        <v>0.7996587878169226</v>
       </c>
       <c r="AJ7">
-        <v>0.9554819614908934</v>
+        <v>0.7682485235620302</v>
       </c>
       <c r="AK7">
-        <v>1.042005174948983</v>
+        <v>0.9967626711033039</v>
       </c>
       <c r="AL7">
-        <v>1.064617110553101</v>
+        <v>1.132981936830943</v>
       </c>
       <c r="AM7">
-        <v>1.091660720751981</v>
+        <v>1.325597662825138</v>
       </c>
       <c r="AN7">
-        <v>0.9912760669064</v>
+        <v>0.9841217122370373</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.9850498404609236</v>
+        <v>1.09142408257532</v>
       </c>
       <c r="C8">
-        <v>0.8876066653627074</v>
+        <v>0.8358664439844883</v>
       </c>
       <c r="D8">
-        <v>0.8414120387526689</v>
+        <v>0.8232857565293766</v>
       </c>
       <c r="E8">
-        <v>0.758223089905171</v>
+        <v>0.9765446786172111</v>
       </c>
       <c r="F8">
-        <v>0.8093889793666486</v>
+        <v>0.7736592823227093</v>
       </c>
       <c r="G8">
-        <v>0.6956671654541665</v>
+        <v>0.9635352228406796</v>
       </c>
       <c r="H8">
-        <v>0.6522236822213878</v>
+        <v>1.134106913965901</v>
       </c>
       <c r="I8">
-        <v>0.9190664986962143</v>
+        <v>0.8605473131009572</v>
       </c>
       <c r="J8">
-        <v>1.006005375926649</v>
+        <v>1.076368827375059</v>
       </c>
       <c r="K8">
-        <v>0.979716670968204</v>
+        <v>1.048261119759575</v>
       </c>
       <c r="L8">
-        <v>0.9648949196399008</v>
+        <v>1.056260500074082</v>
       </c>
       <c r="M8">
-        <v>0.8116577509975319</v>
+        <v>1.004138908217933</v>
       </c>
       <c r="N8">
-        <v>0.8921183229693935</v>
+        <v>0.9921105862797266</v>
       </c>
       <c r="O8">
-        <v>0.9476572921210408</v>
+        <v>0.9891517844355987</v>
       </c>
       <c r="P8">
-        <v>0.9696065955284473</v>
+        <v>0.9370523726849034</v>
       </c>
       <c r="Q8">
-        <v>0.7757326897300703</v>
+        <v>1.046983414702535</v>
       </c>
       <c r="R8">
-        <v>0.8332680056272391</v>
+        <v>1.112652139009844</v>
       </c>
       <c r="S8">
-        <v>0.922239909588586</v>
+        <v>0.856457417014453</v>
       </c>
       <c r="T8">
-        <v>0.8299456037995538</v>
+        <v>1.035073598518025</v>
       </c>
       <c r="U8">
-        <v>0.9605774192248926</v>
+        <v>1.104139228682768</v>
       </c>
       <c r="V8">
-        <v>0.9382150078325378</v>
+        <v>0.8457882445705126</v>
       </c>
       <c r="W8">
-        <v>1.001065505422793</v>
+        <v>0.9568876468562947</v>
       </c>
       <c r="X8">
-        <v>0.9329109816954166</v>
+        <v>0.9636699059437074</v>
       </c>
       <c r="Y8">
-        <v>0.970927888443322</v>
+        <v>0.8343427273843693</v>
       </c>
       <c r="Z8">
-        <v>0.983977762141707</v>
+        <v>1.117738194797077</v>
       </c>
       <c r="AA8">
-        <v>1.058518519039927</v>
+        <v>1.114017432468572</v>
       </c>
       <c r="AB8">
-        <v>0.9411510776151812</v>
+        <v>0.9174986341902286</v>
       </c>
       <c r="AC8">
-        <v>0.921819401616412</v>
+        <v>1.164003031097725</v>
       </c>
       <c r="AD8">
-        <v>0.6950847824478549</v>
+        <v>1.163625511429035</v>
       </c>
       <c r="AE8">
-        <v>0.8922782509496443</v>
+        <v>0.9327448305817704</v>
       </c>
       <c r="AF8">
-        <v>0.8476867341731855</v>
+        <v>1.076658162728109</v>
       </c>
       <c r="AG8">
-        <v>0.9705911756583645</v>
+        <v>1.077028010989307</v>
       </c>
       <c r="AH8">
-        <v>0.9707157855822063</v>
+        <v>0.9938123615922512</v>
       </c>
       <c r="AI8">
-        <v>0.8590654839633464</v>
+        <v>0.8077461371541981</v>
       </c>
       <c r="AJ8">
-        <v>0.8890009698498287</v>
+        <v>0.8484429278266578</v>
       </c>
       <c r="AK8">
-        <v>0.9685720307748692</v>
+        <v>1.080343142054209</v>
       </c>
       <c r="AL8">
-        <v>1.048877041955071</v>
+        <v>1.237769941999874</v>
       </c>
       <c r="AM8">
-        <v>1.024299908476256</v>
+        <v>1.380799465909527</v>
       </c>
       <c r="AN8">
-        <v>0.9488728818604332</v>
+        <v>1.036256600121135</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>1.058158321230933</v>
+        <v>0.8673438769088225</v>
       </c>
       <c r="C9">
-        <v>0.8696561446757995</v>
+        <v>0.7075087290269634</v>
       </c>
       <c r="D9">
-        <v>0.9782647864743569</v>
+        <v>0.6278892058534236</v>
       </c>
       <c r="E9">
-        <v>0.8792687451332456</v>
+        <v>0.7684868542282577</v>
       </c>
       <c r="F9">
-        <v>0.8776488734957212</v>
+        <v>0.6858574042054608</v>
       </c>
       <c r="G9">
-        <v>0.7025429883445344</v>
+        <v>0.7980279395584111</v>
       </c>
       <c r="H9">
-        <v>0.6810000355652709</v>
+        <v>0.9378324539727205</v>
       </c>
       <c r="I9">
-        <v>0.9572176549670365</v>
+        <v>0.7059675682039109</v>
       </c>
       <c r="J9">
-        <v>1.025771842949082</v>
+        <v>0.8851539172924615</v>
       </c>
       <c r="K9">
-        <v>1.077251634608015</v>
+        <v>0.8628796200718299</v>
       </c>
       <c r="L9">
-        <v>0.9963150672450424</v>
+        <v>0.9128978787741431</v>
       </c>
       <c r="M9">
-        <v>0.8448117170940241</v>
+        <v>0.8370742870384222</v>
       </c>
       <c r="N9">
-        <v>0.9062947121417106</v>
+        <v>0.8231674507404628</v>
       </c>
       <c r="O9">
-        <v>0.9991233168975718</v>
+        <v>0.8180046546765721</v>
       </c>
       <c r="P9">
-        <v>1.182644342781737</v>
+        <v>0.747139384231378</v>
       </c>
       <c r="Q9">
-        <v>0.8540098756809006</v>
+        <v>0.8519961638508986</v>
       </c>
       <c r="R9">
-        <v>0.9060637534974567</v>
+        <v>0.8838087693491595</v>
       </c>
       <c r="S9">
-        <v>1.11468389827941</v>
+        <v>0.6905052821963863</v>
       </c>
       <c r="T9">
-        <v>0.8950873310792827</v>
+        <v>0.8362046956619166</v>
       </c>
       <c r="U9">
-        <v>0.9259943375221851</v>
+        <v>0.8834994261995495</v>
       </c>
       <c r="V9">
-        <v>0.9811752885565913</v>
+        <v>0.6492481087978623</v>
       </c>
       <c r="W9">
-        <v>1.070241756474252</v>
+        <v>0.8354239124652556</v>
       </c>
       <c r="X9">
-        <v>1.064643870913051</v>
+        <v>0.8416298309769729</v>
       </c>
       <c r="Y9">
-        <v>0.9896449106474332</v>
+        <v>0.7279627272771055</v>
       </c>
       <c r="Z9">
-        <v>0.9299503784572505</v>
+        <v>0.9348034184596504</v>
       </c>
       <c r="AA9">
-        <v>1.159585703094541</v>
+        <v>0.8664146419677431</v>
       </c>
       <c r="AB9">
-        <v>0.9111846291144563</v>
+        <v>0.7582577739367047</v>
       </c>
       <c r="AC9">
-        <v>0.9254175689226635</v>
+        <v>0.9760763760088399</v>
       </c>
       <c r="AD9">
-        <v>0.6874680960399663</v>
+        <v>0.9901428254569192</v>
       </c>
       <c r="AE9">
-        <v>1.074352303476957</v>
+        <v>0.7507441485520971</v>
       </c>
       <c r="AF9">
-        <v>0.9159872061200489</v>
+        <v>0.8265332319490435</v>
       </c>
       <c r="AG9">
-        <v>1.032727013731688</v>
+        <v>0.816906053239181</v>
       </c>
       <c r="AH9">
-        <v>1.026741128982116</v>
+        <v>0.7393140721755986</v>
       </c>
       <c r="AI9">
-        <v>0.8966055608249183</v>
+        <v>0.5692786319691369</v>
       </c>
       <c r="AJ9">
-        <v>0.8989789128074601</v>
+        <v>0.6906031481065337</v>
       </c>
       <c r="AK9">
-        <v>1.076012103447904</v>
+        <v>0.8564558591050763</v>
       </c>
       <c r="AL9">
-        <v>0.9568251018356153</v>
+        <v>0.9849700703249247</v>
       </c>
       <c r="AM9">
-        <v>1.053961081519415</v>
+        <v>1.022213468501933</v>
       </c>
       <c r="AN9">
-        <v>1.062999698832428</v>
+        <v>0.7734217437707449</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0.8226730825581405</v>
+        <v>1.063195844583222</v>
       </c>
       <c r="C10">
-        <v>0.7054412378844813</v>
+        <v>0.7795561974621017</v>
       </c>
       <c r="D10">
-        <v>0.6726341958059111</v>
+        <v>0.8396463138881707</v>
       </c>
       <c r="E10">
-        <v>0.5995024644839835</v>
+        <v>0.9551679299984026</v>
       </c>
       <c r="F10">
-        <v>0.6462120025868102</v>
+        <v>0.6551310650347595</v>
       </c>
       <c r="G10">
-        <v>0.5866660622885048</v>
+        <v>0.9258793686742085</v>
       </c>
       <c r="H10">
-        <v>0.6053914978259866</v>
+        <v>1.060433920106908</v>
       </c>
       <c r="I10">
-        <v>0.7835023668657561</v>
+        <v>0.8183823280034312</v>
       </c>
       <c r="J10">
-        <v>0.8085643248152059</v>
+        <v>1.013374325797742</v>
       </c>
       <c r="K10">
-        <v>0.7723988081149639</v>
+        <v>1.011814656485572</v>
       </c>
       <c r="L10">
-        <v>0.8457122423889682</v>
+        <v>0.9711350834887652</v>
       </c>
       <c r="M10">
-        <v>0.6839354987072203</v>
+        <v>0.9587647368407618</v>
       </c>
       <c r="N10">
-        <v>0.7830036887150061</v>
+        <v>0.9316496072165492</v>
       </c>
       <c r="O10">
-        <v>0.7426472400889546</v>
+        <v>0.9477211525214446</v>
       </c>
       <c r="P10">
-        <v>0.7157402962243845</v>
+        <v>0.9252522028726187</v>
       </c>
       <c r="Q10">
-        <v>0.5888343805370579</v>
+        <v>0.9994322338373604</v>
       </c>
       <c r="R10">
-        <v>0.6587215436516144</v>
+        <v>1.101541427403192</v>
       </c>
       <c r="S10">
-        <v>0.7743390355227409</v>
+        <v>0.842237412017797</v>
       </c>
       <c r="T10">
-        <v>0.6746931929535023</v>
+        <v>0.9943762749985694</v>
       </c>
       <c r="U10">
-        <v>0.8382715945583791</v>
+        <v>1.074794997758304</v>
       </c>
       <c r="V10">
-        <v>0.7790811036413009</v>
+        <v>0.8603633510088526</v>
       </c>
       <c r="W10">
-        <v>0.8191974546985341</v>
+        <v>0.8627304707475077</v>
       </c>
       <c r="X10">
-        <v>0.7323980889556618</v>
+        <v>0.8684293745957611</v>
       </c>
       <c r="Y10">
-        <v>0.8003402078200884</v>
+        <v>0.740156603965872</v>
       </c>
       <c r="Z10">
-        <v>0.8437910647168155</v>
+        <v>1.054659001570834</v>
       </c>
       <c r="AA10">
-        <v>0.8856052846133824</v>
+        <v>1.122125000120063</v>
       </c>
       <c r="AB10">
-        <v>0.8069066316474796</v>
+        <v>0.8759872467831346</v>
       </c>
       <c r="AC10">
-        <v>0.7466630732226495</v>
+        <v>1.102411258168305</v>
       </c>
       <c r="AD10">
-        <v>0.586476253364239</v>
+        <v>1.078687611218508</v>
       </c>
       <c r="AE10">
-        <v>0.6664971331886016</v>
+        <v>0.9096379326140339</v>
       </c>
       <c r="AF10">
-        <v>0.6545659233880612</v>
+        <v>1.105069703239046</v>
       </c>
       <c r="AG10">
-        <v>0.7820081659654223</v>
+        <v>1.115452074697484</v>
       </c>
       <c r="AH10">
-        <v>0.7769208616159723</v>
+        <v>1.045695440142852</v>
       </c>
       <c r="AI10">
-        <v>0.7138254368422637</v>
+        <v>0.8979541568782285</v>
       </c>
       <c r="AJ10">
-        <v>0.784424980212465</v>
+        <v>0.8251855386295629</v>
       </c>
       <c r="AK10">
-        <v>0.7620509207089372</v>
+        <v>1.069223873261732</v>
       </c>
       <c r="AL10">
-        <v>0.9295204540786122</v>
+        <v>1.211744841010034</v>
       </c>
       <c r="AM10">
-        <v>0.8715920583940657</v>
+        <v>1.402614925783109</v>
       </c>
       <c r="AN10">
-        <v>0.6939054208995187</v>
+        <v>1.059208643159059</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0.9152096079637079</v>
+        <v>1.039376604297279</v>
       </c>
       <c r="C11">
-        <v>0.730896253562367</v>
+        <v>0.7666416623423747</v>
       </c>
       <c r="D11">
-        <v>0.8937398279724414</v>
+        <v>0.815021705983384</v>
       </c>
       <c r="E11">
-        <v>0.809113930487861</v>
+        <v>0.9505558080494484</v>
       </c>
       <c r="F11">
-        <v>0.7838399047214414</v>
+        <v>0.6809804753303434</v>
       </c>
       <c r="G11">
-        <v>0.5869020812377135</v>
+        <v>0.9098329502577455</v>
       </c>
       <c r="H11">
-        <v>0.5535441108642697</v>
+        <v>1.060617507496844</v>
       </c>
       <c r="I11">
-        <v>0.8076924127150428</v>
+        <v>0.8139781427053489</v>
       </c>
       <c r="J11">
-        <v>0.8819409875073184</v>
+        <v>1.006848840783916</v>
       </c>
       <c r="K11">
-        <v>0.9571546699879601</v>
+        <v>0.9986644401999282</v>
       </c>
       <c r="L11">
-        <v>0.8199870821803468</v>
+        <v>0.9625453260469374</v>
       </c>
       <c r="M11">
-        <v>0.7201804707300027</v>
+        <v>0.9481893305146061</v>
       </c>
       <c r="N11">
-        <v>0.7486642067342034</v>
+        <v>0.9212635302098516</v>
       </c>
       <c r="O11">
-        <v>0.8816267855331036</v>
+        <v>0.933891511543588</v>
       </c>
       <c r="P11">
-        <v>1.123840584660959</v>
+        <v>0.9145415044907177</v>
       </c>
       <c r="Q11">
-        <v>0.7662614246321713</v>
+        <v>0.9954180016179406</v>
       </c>
       <c r="R11">
-        <v>0.8012353502739459</v>
+        <v>1.081827442036505</v>
       </c>
       <c r="S11">
-        <v>1.024359489426725</v>
+        <v>0.8230487733963368</v>
       </c>
       <c r="T11">
-        <v>0.7803147240043271</v>
+        <v>0.9831814103285744</v>
       </c>
       <c r="U11">
-        <v>0.7469156258001459</v>
+        <v>1.062736601353702</v>
       </c>
       <c r="V11">
-        <v>0.8419155168500122</v>
+        <v>0.8447153403939393</v>
       </c>
       <c r="W11">
-        <v>0.9305862478657788</v>
+        <v>0.8684208754502769</v>
       </c>
       <c r="X11">
-        <v>0.9617445930361892</v>
+        <v>0.8705002823847052</v>
       </c>
       <c r="Y11">
-        <v>0.8488740228325244</v>
+        <v>0.7454311058660625</v>
       </c>
       <c r="Z11">
-        <v>0.7448003486361039</v>
+        <v>1.043588967950126</v>
       </c>
       <c r="AA11">
-        <v>1.007711729678871</v>
+        <v>1.098658651736887</v>
       </c>
       <c r="AB11">
-        <v>0.7422279751311893</v>
+        <v>0.8631705679511908</v>
       </c>
       <c r="AC11">
-        <v>0.7857177591654567</v>
+        <v>1.084693783327862</v>
       </c>
       <c r="AD11">
-        <v>0.5643992538774277</v>
+        <v>1.07079347124128</v>
       </c>
       <c r="AE11">
-        <v>1.004848103121268</v>
+        <v>0.8974299937205854</v>
       </c>
       <c r="AF11">
-        <v>0.8118312005594503</v>
+        <v>1.086089416580371</v>
       </c>
       <c r="AG11">
-        <v>0.8994449790368961</v>
+        <v>1.086012294626729</v>
       </c>
       <c r="AH11">
-        <v>0.8922976024135845</v>
+        <v>1.014256665175691</v>
       </c>
       <c r="AI11">
-        <v>0.7649796592159749</v>
+        <v>0.8584829464759971</v>
       </c>
       <c r="AJ11">
-        <v>0.7387940811200421</v>
+        <v>0.8124631662400428</v>
       </c>
       <c r="AK11">
-        <v>0.969807603510785</v>
+        <v>1.04785065090496</v>
       </c>
       <c r="AL11">
-        <v>0.7350675332824281</v>
+        <v>1.196188459923081</v>
       </c>
       <c r="AM11">
-        <v>0.8892954840100848</v>
+        <v>1.370948654188505</v>
       </c>
       <c r="AN11">
-        <v>0.9770270675672088</v>
+        <v>1.039110539056936</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.9215200341712676</v>
+        <v>1.131803373331004</v>
       </c>
       <c r="C12">
-        <v>0.7358815653476495</v>
+        <v>0.8192598645320912</v>
       </c>
       <c r="D12">
-        <v>0.8887893133315923</v>
+        <v>0.8776502838950619</v>
       </c>
       <c r="E12">
-        <v>0.8005223097144786</v>
+        <v>1.008201890577461</v>
       </c>
       <c r="F12">
-        <v>0.7770542188633738</v>
+        <v>0.7170850357903599</v>
       </c>
       <c r="G12">
-        <v>0.5935508782142314</v>
+        <v>0.9567049311757458</v>
       </c>
       <c r="H12">
-        <v>0.5684291331830043</v>
+        <v>1.126919086243596</v>
       </c>
       <c r="I12">
-        <v>0.817758259975931</v>
+        <v>0.8599970124940108</v>
       </c>
       <c r="J12">
-        <v>0.8823196242776303</v>
+        <v>1.078345431837094</v>
       </c>
       <c r="K12">
-        <v>0.9596618766511312</v>
+        <v>1.04267199738654</v>
       </c>
       <c r="L12">
-        <v>0.8402186413693929</v>
+        <v>1.009800779477661</v>
       </c>
       <c r="M12">
-        <v>0.7243943402912483</v>
+        <v>0.9876140052848995</v>
       </c>
       <c r="N12">
-        <v>0.7595331200375337</v>
+        <v>0.9884123367524629</v>
       </c>
       <c r="O12">
-        <v>0.8774763209431441</v>
+        <v>0.9830792511145564</v>
       </c>
       <c r="P12">
-        <v>1.109447269548215</v>
+        <v>0.9548521357574001</v>
       </c>
       <c r="Q12">
-        <v>0.7671684085544983</v>
+        <v>1.053040058435836</v>
       </c>
       <c r="R12">
-        <v>0.8032048791841517</v>
+        <v>1.142512670410936</v>
       </c>
       <c r="S12">
-        <v>1.017475863228932</v>
+        <v>0.8711844677493933</v>
       </c>
       <c r="T12">
-        <v>0.7855465168873282</v>
+        <v>1.052168988794464</v>
       </c>
       <c r="U12">
-        <v>0.7575282437834298</v>
+        <v>1.127588701724461</v>
       </c>
       <c r="V12">
-        <v>0.8461435483226815</v>
+        <v>0.8893425897336957</v>
       </c>
       <c r="W12">
-        <v>0.9348558153378841</v>
+        <v>0.9006434707570761</v>
       </c>
       <c r="X12">
-        <v>0.9629291307766588</v>
+        <v>0.9096960940847516</v>
       </c>
       <c r="Y12">
-        <v>0.8464799298103683</v>
+        <v>0.7913747499041937</v>
       </c>
       <c r="Z12">
-        <v>0.7566039011159265</v>
+        <v>1.100512457024877</v>
       </c>
       <c r="AA12">
-        <v>1.017230057350379</v>
+        <v>1.163289240134294</v>
       </c>
       <c r="AB12">
-        <v>0.7510302320763025</v>
+        <v>0.9139799368724444</v>
       </c>
       <c r="AC12">
-        <v>0.7885934341462465</v>
+        <v>1.145432967666572</v>
       </c>
       <c r="AD12">
-        <v>0.5744425798839307</v>
+        <v>1.128502338745513</v>
       </c>
       <c r="AE12">
-        <v>1.000153558996787</v>
+        <v>0.9472975281277392</v>
       </c>
       <c r="AF12">
-        <v>0.8139429724814156</v>
+        <v>1.126655484930226</v>
       </c>
       <c r="AG12">
-        <v>0.9034492540263642</v>
+        <v>1.144201020780585</v>
       </c>
       <c r="AH12">
-        <v>0.8971666237112623</v>
+        <v>1.071392177807462</v>
       </c>
       <c r="AI12">
-        <v>0.7718839115344331</v>
+        <v>0.9027605707915346</v>
       </c>
       <c r="AJ12">
-        <v>0.7505200478625959</v>
+        <v>0.853366600217871</v>
       </c>
       <c r="AK12">
-        <v>0.9642045292403566</v>
+        <v>1.113568027502992</v>
       </c>
       <c r="AL12">
-        <v>0.754867235112731</v>
+        <v>1.269954364301864</v>
       </c>
       <c r="AM12">
-        <v>0.896579699791795</v>
+        <v>1.509627016777686</v>
       </c>
       <c r="AN12">
-        <v>0.9694328075692167</v>
+        <v>1.11833081145109</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块-beta.xlsx
+++ b/FOF/data/基金公司-板块-beta.xlsx
@@ -16,157 +16,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
     <t>汇添富</t>
   </si>
   <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
     <t>中金</t>
   </si>
   <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
     <t>中欧</t>
   </si>
   <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
     <t>博时</t>
   </si>
   <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>建信</t>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>国泰</t>
   </si>
   <si>
     <t>平安大华</t>
   </si>
   <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>南方</t>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>华商</t>
   </si>
   <si>
     <t>海富通</t>
   </si>
   <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
     <t>创业板综</t>
   </si>
   <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>上证50</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
     <t>中证1000</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中小板综</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0.791327057458952</v>
+        <v>0.6011308716049273</v>
       </c>
       <c r="C2">
-        <v>0.565402704635954</v>
+        <v>0.9211683488007498</v>
       </c>
       <c r="D2">
-        <v>0.6268683560730584</v>
+        <v>0.7867617513436618</v>
       </c>
       <c r="E2">
-        <v>0.7064792501240533</v>
+        <v>0.8281176291888578</v>
       </c>
       <c r="F2">
-        <v>0.4693654486828666</v>
+        <v>0.9453083733772987</v>
       </c>
       <c r="G2">
-        <v>0.6706529188387622</v>
+        <v>0.702597870372776</v>
       </c>
       <c r="H2">
-        <v>0.7751629832139633</v>
+        <v>0.5366752659261993</v>
       </c>
       <c r="I2">
-        <v>0.5972850581436777</v>
+        <v>0.670251991815765</v>
       </c>
       <c r="J2">
-        <v>0.743808914324984</v>
+        <v>0.8026204320155791</v>
       </c>
       <c r="K2">
-        <v>0.7323751669928539</v>
+        <v>0.7588752709231217</v>
       </c>
       <c r="L2">
-        <v>0.6945226914635287</v>
+        <v>0.7557814584186828</v>
       </c>
       <c r="M2">
-        <v>0.690891991943865</v>
+        <v>0.5187297228394178</v>
       </c>
       <c r="N2">
-        <v>0.6819234400795481</v>
+        <v>0.8061468820923301</v>
       </c>
       <c r="O2">
-        <v>0.6875280522683814</v>
+        <v>0.8905367053830435</v>
       </c>
       <c r="P2">
-        <v>0.6758421173294697</v>
+        <v>0.8184219803563731</v>
       </c>
       <c r="Q2">
-        <v>0.7317730981113278</v>
+        <v>0.8483098087436641</v>
       </c>
       <c r="R2">
-        <v>0.8087359065723537</v>
+        <v>0.9275788906801605</v>
       </c>
       <c r="S2">
-        <v>0.6159326572356996</v>
+        <v>0.6504913399528607</v>
       </c>
       <c r="T2">
-        <v>0.7324946399432015</v>
+        <v>0.7180771179060362</v>
       </c>
       <c r="U2">
-        <v>0.7905059378602292</v>
+        <v>0.6444737534723842</v>
       </c>
       <c r="V2">
-        <v>0.6360671823190039</v>
+        <v>0.949912364022543</v>
       </c>
       <c r="W2">
-        <v>0.6132629433030794</v>
+        <v>0.7242439967569804</v>
       </c>
       <c r="X2">
-        <v>0.619016499855264</v>
+        <v>0.7358446795554308</v>
       </c>
       <c r="Y2">
-        <v>0.5322776905744627</v>
+        <v>0.6439203816907915</v>
       </c>
       <c r="Z2">
-        <v>0.7638430345598985</v>
+        <v>0.7463743050627563</v>
       </c>
       <c r="AA2">
-        <v>0.8287237901413126</v>
+        <v>0.7441791003731496</v>
       </c>
       <c r="AB2">
-        <v>0.6373947192768483</v>
+        <v>0.6911879921184688</v>
       </c>
       <c r="AC2">
-        <v>0.7974010728062758</v>
+        <v>0.7140122677018248</v>
       </c>
       <c r="AD2">
-        <v>0.777316099194982</v>
+        <v>0.5627963936869547</v>
       </c>
       <c r="AE2">
-        <v>0.6659965332306571</v>
+        <v>0.7151985836450728</v>
       </c>
       <c r="AF2">
-        <v>0.8113592207549801</v>
+        <v>0.8813182932177011</v>
       </c>
       <c r="AG2">
-        <v>0.8256821348069406</v>
+        <v>0.7025475008470425</v>
       </c>
       <c r="AH2">
-        <v>0.7776912876427333</v>
+        <v>0.6843068133989127</v>
       </c>
       <c r="AI2">
-        <v>0.671389411330467</v>
+        <v>0.6219858523284597</v>
       </c>
       <c r="AJ2">
-        <v>0.6006111143910127</v>
+        <v>0.7383074902890052</v>
       </c>
       <c r="AK2">
-        <v>0.7874105037427604</v>
+        <v>0.6816540966235445</v>
       </c>
       <c r="AL2">
-        <v>0.8924828986416723</v>
+        <v>0.6822409001506703</v>
       </c>
       <c r="AM2">
-        <v>1.06751146595682</v>
+        <v>0.5681380893244558</v>
       </c>
       <c r="AN2">
-        <v>0.7964350957316332</v>
+        <v>0.5686673781314825</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>1.241322628428315</v>
+        <v>0.7760698752926626</v>
       </c>
       <c r="C3">
-        <v>0.9511002413392667</v>
+        <v>1.187763777259731</v>
       </c>
       <c r="D3">
-        <v>0.9453296233855103</v>
+        <v>0.7858807554420471</v>
       </c>
       <c r="E3">
-        <v>1.152072451252482</v>
+        <v>0.8489055913270744</v>
       </c>
       <c r="F3">
-        <v>0.9205268433405626</v>
+        <v>1.001647777166822</v>
       </c>
       <c r="G3">
-        <v>1.112830717388107</v>
+        <v>0.6655148934295736</v>
       </c>
       <c r="H3">
-        <v>1.32491218572661</v>
+        <v>0.6372870406355091</v>
       </c>
       <c r="I3">
-        <v>1.005586348654931</v>
+        <v>0.6009923251912322</v>
       </c>
       <c r="J3">
-        <v>1.24545518796446</v>
+        <v>0.813614493893082</v>
       </c>
       <c r="K3">
-        <v>1.22323860624963</v>
+        <v>0.7093721292229819</v>
       </c>
       <c r="L3">
-        <v>1.21674024169283</v>
+        <v>0.6503801803448835</v>
       </c>
       <c r="M3">
-        <v>1.171485104780737</v>
+        <v>0.7389581563080977</v>
       </c>
       <c r="N3">
-        <v>1.138644548654365</v>
+        <v>0.9385980448998537</v>
       </c>
       <c r="O3">
-        <v>1.145311119402679</v>
+        <v>0.9512856402382006</v>
       </c>
       <c r="P3">
-        <v>1.104700649458036</v>
+        <v>0.7659024153081355</v>
       </c>
       <c r="Q3">
-        <v>1.226903358718461</v>
+        <v>0.7817203464719116</v>
       </c>
       <c r="R3">
-        <v>1.295552317510822</v>
+        <v>0.8518717382631742</v>
       </c>
       <c r="S3">
-        <v>0.9869416504604662</v>
+        <v>0.6342341747568155</v>
       </c>
       <c r="T3">
-        <v>1.198314562652055</v>
+        <v>0.5537362327316228</v>
       </c>
       <c r="U3">
-        <v>1.288280536827669</v>
+        <v>0.6517631634339141</v>
       </c>
       <c r="V3">
-        <v>0.9951287181913332</v>
+        <v>0.9215695176392048</v>
       </c>
       <c r="W3">
-        <v>1.122220907327077</v>
+        <v>0.652469132549889</v>
       </c>
       <c r="X3">
-        <v>1.120791633525398</v>
+        <v>0.758165407944757</v>
       </c>
       <c r="Y3">
-        <v>0.9660428019855885</v>
+        <v>0.7127193014489541</v>
       </c>
       <c r="Z3">
-        <v>1.293980636221647</v>
+        <v>0.8853847456011054</v>
       </c>
       <c r="AA3">
-        <v>1.298080321087803</v>
+        <v>0.7347161142954991</v>
       </c>
       <c r="AB3">
-        <v>1.058788960279497</v>
+        <v>0.6063126394316913</v>
       </c>
       <c r="AC3">
-        <v>1.338009701567075</v>
+        <v>0.5900049983761986</v>
       </c>
       <c r="AD3">
-        <v>1.345025991892654</v>
+        <v>0.5462728429522967</v>
       </c>
       <c r="AE3">
-        <v>1.087560672425324</v>
+        <v>0.6108013405887833</v>
       </c>
       <c r="AF3">
-        <v>1.279712175722366</v>
+        <v>0.6795437699266396</v>
       </c>
       <c r="AG3">
-        <v>1.259306383460541</v>
+        <v>0.5100556645805593</v>
       </c>
       <c r="AH3">
-        <v>1.160840983418984</v>
+        <v>0.5955899602390247</v>
       </c>
       <c r="AI3">
-        <v>0.9426050443782445</v>
+        <v>0.6183138748278016</v>
       </c>
       <c r="AJ3">
-        <v>0.9871959227271939</v>
+        <v>0.7429084003940651</v>
       </c>
       <c r="AK3">
-        <v>1.251075797096247</v>
+        <v>0.6316867137019521</v>
       </c>
       <c r="AL3">
-        <v>1.443422071938252</v>
+        <v>0.537666139158625</v>
       </c>
       <c r="AM3">
-        <v>1.585973254684103</v>
+        <v>0.4135665891766755</v>
       </c>
       <c r="AN3">
-        <v>1.209953050773375</v>
+        <v>0.397034436418451</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>0.8548642408387312</v>
+        <v>0.578689901602136</v>
       </c>
       <c r="C4">
-        <v>0.7183052233271002</v>
+        <v>0.9524046136004602</v>
       </c>
       <c r="D4">
-        <v>0.6322077647971006</v>
+        <v>0.6462376959066877</v>
       </c>
       <c r="E4">
-        <v>0.805399603298849</v>
+        <v>0.6051451050719212</v>
       </c>
       <c r="F4">
-        <v>0.7261194947681195</v>
+        <v>0.7962766654866564</v>
       </c>
       <c r="G4">
-        <v>0.835043451903774</v>
+        <v>0.4840597226251329</v>
       </c>
       <c r="H4">
-        <v>0.9738794412781552</v>
+        <v>0.4374254265197677</v>
       </c>
       <c r="I4">
-        <v>0.7390009573414941</v>
+        <v>0.4013184660809604</v>
       </c>
       <c r="J4">
-        <v>0.9041799117473084</v>
+        <v>0.6105219217892559</v>
       </c>
       <c r="K4">
-        <v>0.9171305552666158</v>
+        <v>0.5136274852407391</v>
       </c>
       <c r="L4">
-        <v>0.95532188645012</v>
+        <v>0.4425582386805363</v>
       </c>
       <c r="M4">
-        <v>0.8917611183368017</v>
+        <v>0.5244171650619052</v>
       </c>
       <c r="N4">
-        <v>0.8350078341652585</v>
+        <v>0.7043760357481852</v>
       </c>
       <c r="O4">
-        <v>0.8559248496733318</v>
+        <v>0.7010114290486166</v>
       </c>
       <c r="P4">
-        <v>0.8002371776576656</v>
+        <v>0.5556650242638697</v>
       </c>
       <c r="Q4">
-        <v>0.8919315231806004</v>
+        <v>0.5388170785929265</v>
       </c>
       <c r="R4">
-        <v>0.9246621208662971</v>
+        <v>0.6660886143050209</v>
       </c>
       <c r="S4">
-        <v>0.715491980890318</v>
+        <v>0.458169193769068</v>
       </c>
       <c r="T4">
-        <v>0.8552398824798579</v>
+        <v>0.38789310613456</v>
       </c>
       <c r="U4">
-        <v>0.9190743551608477</v>
+        <v>0.5206873036015173</v>
       </c>
       <c r="V4">
-        <v>0.6874967512575005</v>
+        <v>0.6675679301951152</v>
       </c>
       <c r="W4">
-        <v>0.8945769776929263</v>
+        <v>0.4731641604199535</v>
       </c>
       <c r="X4">
-        <v>0.8890640752570189</v>
+        <v>0.5693251494423476</v>
       </c>
       <c r="Y4">
-        <v>0.7525073068704513</v>
+        <v>0.5215661882248388</v>
       </c>
       <c r="Z4">
-        <v>0.9753763148964275</v>
+        <v>0.6538182447627611</v>
       </c>
       <c r="AA4">
-        <v>0.9038736535381346</v>
+        <v>0.5264964499030625</v>
       </c>
       <c r="AB4">
-        <v>0.7856215248379436</v>
+        <v>0.4266099056980482</v>
       </c>
       <c r="AC4">
-        <v>1.012527456369949</v>
+        <v>0.3991377126971118</v>
       </c>
       <c r="AD4">
-        <v>1.032582247282853</v>
+        <v>0.3881342569191623</v>
       </c>
       <c r="AE4">
-        <v>0.7863322171130162</v>
+        <v>0.4243927648527808</v>
       </c>
       <c r="AF4">
-        <v>0.9004969604017059</v>
+        <v>0.4819147403887913</v>
       </c>
       <c r="AG4">
-        <v>0.8612343288630265</v>
+        <v>0.312159261886286</v>
       </c>
       <c r="AH4">
-        <v>0.77624120918296</v>
+        <v>0.4302885457404581</v>
       </c>
       <c r="AI4">
-        <v>0.6032082703442069</v>
+        <v>0.4820440352323627</v>
       </c>
       <c r="AJ4">
-        <v>0.7272327567619594</v>
+        <v>0.5179387737011305</v>
       </c>
       <c r="AK4">
-        <v>0.8850509432677898</v>
+        <v>0.4066310666005312</v>
       </c>
       <c r="AL4">
-        <v>1.023502333746418</v>
+        <v>0.34760597580842</v>
       </c>
       <c r="AM4">
-        <v>0.9897721950339767</v>
+        <v>0.2352166357635089</v>
       </c>
       <c r="AN4">
-        <v>0.7873951015320925</v>
+        <v>0.2250391702396799</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>1.12638689784867</v>
+        <v>0.9195793014145743</v>
       </c>
       <c r="C5">
-        <v>0.8495810745045967</v>
+        <v>1.339384403207259</v>
       </c>
       <c r="D5">
-        <v>0.8620542473627518</v>
+        <v>0.9151022340714416</v>
       </c>
       <c r="E5">
-        <v>1.006915178162203</v>
+        <v>1.082687852538992</v>
       </c>
       <c r="F5">
-        <v>0.7619761299023333</v>
+        <v>1.181038662608335</v>
       </c>
       <c r="G5">
-        <v>0.9876175586601746</v>
+        <v>0.8522740206281588</v>
       </c>
       <c r="H5">
-        <v>1.15273086273597</v>
+        <v>0.8044780300306791</v>
       </c>
       <c r="I5">
-        <v>0.8791528804070973</v>
+        <v>0.8203898238315216</v>
       </c>
       <c r="J5">
-        <v>1.097164244189927</v>
+        <v>1.006866195024154</v>
       </c>
       <c r="K5">
-        <v>1.075374163875003</v>
+        <v>0.9105660626004344</v>
       </c>
       <c r="L5">
-        <v>1.067351639396871</v>
+        <v>0.882884752598874</v>
       </c>
       <c r="M5">
-        <v>1.026344183935897</v>
+        <v>0.8891575225421187</v>
       </c>
       <c r="N5">
-        <v>1.010693876347662</v>
+        <v>1.131273264911627</v>
       </c>
       <c r="O5">
-        <v>1.012930349335558</v>
+        <v>1.177348147643085</v>
       </c>
       <c r="P5">
-        <v>0.9683103888470838</v>
+        <v>0.9847070161070111</v>
       </c>
       <c r="Q5">
-        <v>1.07094848338828</v>
+        <v>1.035874078238029</v>
       </c>
       <c r="R5">
-        <v>1.151829195155253</v>
+        <v>1.049278172239529</v>
       </c>
       <c r="S5">
-        <v>0.8849302280194626</v>
+        <v>0.8105363944695128</v>
       </c>
       <c r="T5">
-        <v>1.06192837020588</v>
+        <v>0.7586719414581045</v>
       </c>
       <c r="U5">
-        <v>1.13693145447574</v>
+        <v>0.7734829838519953</v>
       </c>
       <c r="V5">
-        <v>0.8832308453442153</v>
+        <v>1.174843537274604</v>
       </c>
       <c r="W5">
-        <v>0.9600649449675561</v>
+        <v>0.8463083281067691</v>
       </c>
       <c r="X5">
-        <v>0.9673004074965518</v>
+        <v>0.9333038185216894</v>
       </c>
       <c r="Y5">
-        <v>0.8342424615228394</v>
+        <v>0.8793438051202884</v>
       </c>
       <c r="Z5">
-        <v>1.13908516675989</v>
+        <v>1.070982251117134</v>
       </c>
       <c r="AA5">
-        <v>1.160089507143619</v>
+        <v>0.9402892760581721</v>
       </c>
       <c r="AB5">
-        <v>0.9388677119021283</v>
+        <v>0.8074423047616313</v>
       </c>
       <c r="AC5">
-        <v>1.187905639600451</v>
+        <v>0.8101407188684313</v>
       </c>
       <c r="AD5">
-        <v>1.179149019142647</v>
+        <v>0.7013639798914195</v>
       </c>
       <c r="AE5">
-        <v>0.9607444133781602</v>
+        <v>0.8205446512655465</v>
       </c>
       <c r="AF5">
-        <v>1.126510955660181</v>
+        <v>0.9281604291534091</v>
       </c>
       <c r="AG5">
-        <v>1.131780059369872</v>
+        <v>0.7552222916928971</v>
       </c>
       <c r="AH5">
-        <v>1.050226205450063</v>
+        <v>0.7774979028362872</v>
       </c>
       <c r="AI5">
-        <v>0.870047594867824</v>
+        <v>0.7474430140574458</v>
       </c>
       <c r="AJ5">
-        <v>0.8729091329042005</v>
+        <v>0.9587253001533599</v>
       </c>
       <c r="AK5">
-        <v>1.118800086892759</v>
+        <v>0.8680801181641294</v>
       </c>
       <c r="AL5">
-        <v>1.276977807572152</v>
+        <v>0.7660534796649389</v>
       </c>
       <c r="AM5">
-        <v>1.445896033651868</v>
+        <v>0.6324343372170028</v>
       </c>
       <c r="AN5">
-        <v>1.085530097979946</v>
+        <v>0.6167021714175999</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>1.059987549149449</v>
+        <v>0.4491848336764873</v>
       </c>
       <c r="C6">
-        <v>0.8245317220344858</v>
+        <v>0.7989091195292631</v>
       </c>
       <c r="D6">
-        <v>0.7861277170787685</v>
+        <v>0.597353021558697</v>
       </c>
       <c r="E6">
-        <v>0.9394505192339978</v>
+        <v>0.488050188642802</v>
       </c>
       <c r="F6">
-        <v>0.7755152137224398</v>
+        <v>0.702929205965767</v>
       </c>
       <c r="G6">
-        <v>0.9391421399309217</v>
+        <v>0.4111410237277192</v>
       </c>
       <c r="H6">
-        <v>1.109820666051013</v>
+        <v>0.3159056550019584</v>
       </c>
       <c r="I6">
-        <v>0.8381366604405465</v>
+        <v>0.3229985553949047</v>
       </c>
       <c r="J6">
-        <v>1.053232440583054</v>
+        <v>0.5196586879738191</v>
       </c>
       <c r="K6">
-        <v>1.017882266094822</v>
+        <v>0.4350520349756971</v>
       </c>
       <c r="L6">
-        <v>1.044632041986603</v>
+        <v>0.3679981450259582</v>
       </c>
       <c r="M6">
-        <v>0.9786997894431874</v>
+        <v>0.3707196750630185</v>
       </c>
       <c r="N6">
-        <v>0.9737329332914106</v>
+        <v>0.5715179833107493</v>
       </c>
       <c r="O6">
-        <v>0.9641614392892478</v>
+        <v>0.5744553002306475</v>
       </c>
       <c r="P6">
-        <v>0.900418296746494</v>
+        <v>0.4730847701270668</v>
       </c>
       <c r="Q6">
-        <v>1.017503430023598</v>
+        <v>0.4378634640654289</v>
       </c>
       <c r="R6">
-        <v>1.070943824562394</v>
+        <v>0.6096315059253303</v>
       </c>
       <c r="S6">
-        <v>0.8285641374853406</v>
+        <v>0.382065197846983</v>
       </c>
       <c r="T6">
-        <v>1.006338700540224</v>
+        <v>0.3490202660479401</v>
       </c>
       <c r="U6">
-        <v>1.067430084497697</v>
+        <v>0.4686580381783317</v>
       </c>
       <c r="V6">
-        <v>0.8043768948609392</v>
+        <v>0.5580001885804693</v>
       </c>
       <c r="W6">
-        <v>0.9478769148484063</v>
+        <v>0.4092624159749891</v>
       </c>
       <c r="X6">
-        <v>0.9563716142355034</v>
+        <v>0.4812244796621893</v>
       </c>
       <c r="Y6">
-        <v>0.831596140094453</v>
+        <v>0.4185047334840954</v>
       </c>
       <c r="Z6">
-        <v>1.0945724573058</v>
+        <v>0.5160625804013487</v>
       </c>
       <c r="AA6">
-        <v>1.065533305144328</v>
+        <v>0.4329109848168722</v>
       </c>
       <c r="AB6">
-        <v>0.8956513955370268</v>
+        <v>0.3645661049015917</v>
       </c>
       <c r="AC6">
-        <v>1.140798351967198</v>
+        <v>0.3364011769418588</v>
       </c>
       <c r="AD6">
-        <v>1.146291955913701</v>
+        <v>0.3164670546651502</v>
       </c>
       <c r="AE6">
-        <v>0.9018856734203365</v>
+        <v>0.3608854179760167</v>
       </c>
       <c r="AF6">
-        <v>1.019254601128083</v>
+        <v>0.4400044029283827</v>
       </c>
       <c r="AG6">
-        <v>1.019819239139456</v>
+        <v>0.2558312718088305</v>
       </c>
       <c r="AH6">
-        <v>0.9357546162233721</v>
+        <v>0.3748093380296786</v>
       </c>
       <c r="AI6">
-        <v>0.7457710874038952</v>
+        <v>0.4265101750720324</v>
       </c>
       <c r="AJ6">
-        <v>0.8220509842333622</v>
+        <v>0.4084617978700727</v>
       </c>
       <c r="AK6">
-        <v>1.040962522354512</v>
+        <v>0.3064858220635416</v>
       </c>
       <c r="AL6">
-        <v>1.19452390284308</v>
+        <v>0.289054728691426</v>
       </c>
       <c r="AM6">
-        <v>1.316715760589744</v>
+        <v>0.1785430622636915</v>
       </c>
       <c r="AN6">
-        <v>0.9837092620326938</v>
+        <v>0.1772747046323806</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>1.012403382281363</v>
+        <v>0.8732642570645066</v>
       </c>
       <c r="C7">
-        <v>0.7451351815647648</v>
+        <v>1.177748215135235</v>
       </c>
       <c r="D7">
-        <v>0.7813164377049194</v>
+        <v>0.8984654567003622</v>
       </c>
       <c r="E7">
-        <v>0.8924829404985704</v>
+        <v>1.210957627047303</v>
       </c>
       <c r="F7">
-        <v>0.6422718818471368</v>
+        <v>1.170516649327209</v>
       </c>
       <c r="G7">
-        <v>0.8665131987967483</v>
+        <v>0.9712973575613492</v>
       </c>
       <c r="H7">
-        <v>1.008253782303493</v>
+        <v>0.8430866253765033</v>
       </c>
       <c r="I7">
-        <v>0.7706851241376601</v>
+        <v>1.034335251293564</v>
       </c>
       <c r="J7">
-        <v>0.9662055666792508</v>
+        <v>1.080667936171839</v>
       </c>
       <c r="K7">
-        <v>0.940940731704576</v>
+        <v>1.027157234769399</v>
       </c>
       <c r="L7">
-        <v>0.9222326814511866</v>
+        <v>1.092416802831634</v>
       </c>
       <c r="M7">
-        <v>0.8937523499629605</v>
+        <v>0.8478839439961969</v>
       </c>
       <c r="N7">
-        <v>0.8902770381523629</v>
+        <v>1.143625006117671</v>
       </c>
       <c r="O7">
-        <v>0.8883928749936291</v>
+        <v>1.245550683338645</v>
       </c>
       <c r="P7">
-        <v>0.8532548156673326</v>
+        <v>1.129229490874149</v>
       </c>
       <c r="Q7">
-        <v>0.9405795913656956</v>
+        <v>1.219961461119612</v>
       </c>
       <c r="R7">
-        <v>1.02260953498532</v>
+        <v>1.146729487186793</v>
       </c>
       <c r="S7">
-        <v>0.7850888786733154</v>
+        <v>0.9161137303028904</v>
       </c>
       <c r="T7">
-        <v>0.9408183372977488</v>
+        <v>0.9638586130966696</v>
       </c>
       <c r="U7">
-        <v>1.006540789771593</v>
+        <v>0.7824050906046317</v>
       </c>
       <c r="V7">
-        <v>0.7894663153593016</v>
+        <v>1.312993627321064</v>
       </c>
       <c r="W7">
-        <v>0.8188317209131335</v>
+        <v>0.9890430205347397</v>
       </c>
       <c r="X7">
-        <v>0.8285193432066484</v>
+        <v>0.9837827584553416</v>
       </c>
       <c r="Y7">
-        <v>0.7172908297289157</v>
+        <v>0.9170438593979386</v>
       </c>
       <c r="Z7">
-        <v>0.9951537761439987</v>
+        <v>1.06414311726674</v>
       </c>
       <c r="AA7">
-        <v>1.03715354709966</v>
+        <v>1.058099259879869</v>
       </c>
       <c r="AB7">
-        <v>0.8252515030402414</v>
+        <v>0.9903576945912606</v>
       </c>
       <c r="AC7">
-        <v>1.039960483137645</v>
+        <v>1.018297488777577</v>
       </c>
       <c r="AD7">
-        <v>1.024023238240486</v>
+        <v>0.7742848279394147</v>
       </c>
       <c r="AE7">
-        <v>0.848607156722148</v>
+        <v>1.00154182875357</v>
       </c>
       <c r="AF7">
-        <v>1.001199958057875</v>
+        <v>1.193966623293485</v>
       </c>
       <c r="AG7">
-        <v>1.017980207900581</v>
+        <v>1.029825811710225</v>
       </c>
       <c r="AH7">
-        <v>0.9508412408795922</v>
+        <v>0.9061710828979863</v>
       </c>
       <c r="AI7">
-        <v>0.7996587878169226</v>
+        <v>0.7701121799709718</v>
       </c>
       <c r="AJ7">
-        <v>0.7682485235620302</v>
+        <v>1.066174596880501</v>
       </c>
       <c r="AK7">
-        <v>0.9967626711033039</v>
+        <v>1.071769997913668</v>
       </c>
       <c r="AL7">
-        <v>1.132981936830943</v>
+        <v>1.020337242185145</v>
       </c>
       <c r="AM7">
-        <v>1.325597662825138</v>
+        <v>0.8937980138700891</v>
       </c>
       <c r="AN7">
-        <v>0.9841217122370373</v>
+        <v>0.9031771050252214</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>1.09142408257532</v>
+        <v>1.423553179474528</v>
       </c>
       <c r="C8">
-        <v>0.8358664439844883</v>
+        <v>1.610206366604543</v>
       </c>
       <c r="D8">
-        <v>0.8232857565293766</v>
+        <v>0.8704770197925236</v>
       </c>
       <c r="E8">
-        <v>0.9765446786172111</v>
+        <v>1.825577980611819</v>
       </c>
       <c r="F8">
-        <v>0.7736592823227093</v>
+        <v>1.386943923906702</v>
       </c>
       <c r="G8">
-        <v>0.9635352228406796</v>
+        <v>1.325888617146206</v>
       </c>
       <c r="H8">
-        <v>1.134106913965901</v>
+        <v>1.470081006331823</v>
       </c>
       <c r="I8">
-        <v>0.8605473131009572</v>
+        <v>1.583079421441585</v>
       </c>
       <c r="J8">
-        <v>1.076368827375059</v>
+        <v>1.452286007647055</v>
       </c>
       <c r="K8">
-        <v>1.048261119759575</v>
+        <v>1.37706061910712</v>
       </c>
       <c r="L8">
-        <v>1.056260500074082</v>
+        <v>1.552951906306634</v>
       </c>
       <c r="M8">
-        <v>1.004138908217933</v>
+        <v>1.600489066914024</v>
       </c>
       <c r="N8">
-        <v>0.9921105862797266</v>
+        <v>1.722548702918371</v>
       </c>
       <c r="O8">
-        <v>0.9891517844355987</v>
+        <v>1.80867742663045</v>
       </c>
       <c r="P8">
-        <v>0.9370523726849034</v>
+        <v>1.533009977993018</v>
       </c>
       <c r="Q8">
-        <v>1.046983414702535</v>
+        <v>1.773635120174315</v>
       </c>
       <c r="R8">
-        <v>1.112652139009844</v>
+        <v>1.267948870199411</v>
       </c>
       <c r="S8">
-        <v>0.856457417014453</v>
+        <v>1.296375012737031</v>
       </c>
       <c r="T8">
-        <v>1.035073598518025</v>
+        <v>1.189221708421929</v>
       </c>
       <c r="U8">
-        <v>1.104139228682768</v>
+        <v>0.8728505979374335</v>
       </c>
       <c r="V8">
-        <v>0.8457882445705126</v>
+        <v>1.824589776297337</v>
       </c>
       <c r="W8">
-        <v>0.9568876468562947</v>
+        <v>1.304737134949072</v>
       </c>
       <c r="X8">
-        <v>0.9636699059437074</v>
+        <v>1.326888162571606</v>
       </c>
       <c r="Y8">
-        <v>0.8343427273843693</v>
+        <v>1.384034568379186</v>
       </c>
       <c r="Z8">
-        <v>1.117738194797077</v>
+        <v>1.65557030154513</v>
       </c>
       <c r="AA8">
-        <v>1.114017432468572</v>
+        <v>1.529376870052351</v>
       </c>
       <c r="AB8">
-        <v>0.9174986341902286</v>
+        <v>1.373409455350683</v>
       </c>
       <c r="AC8">
-        <v>1.164003031097725</v>
+        <v>1.411078534193466</v>
       </c>
       <c r="AD8">
-        <v>1.163625511429035</v>
+        <v>1.094992737905018</v>
       </c>
       <c r="AE8">
-        <v>0.9327448305817704</v>
+        <v>1.362849182340929</v>
       </c>
       <c r="AF8">
-        <v>1.076658162728109</v>
+        <v>1.467927329142835</v>
       </c>
       <c r="AG8">
-        <v>1.077028010989307</v>
+        <v>1.460042245276334</v>
       </c>
       <c r="AH8">
-        <v>0.9938123615922512</v>
+        <v>1.147784176452436</v>
       </c>
       <c r="AI8">
-        <v>0.8077461371541981</v>
+        <v>0.9024943703970413</v>
       </c>
       <c r="AJ8">
-        <v>0.8484429278266578</v>
+        <v>1.613976534325244</v>
       </c>
       <c r="AK8">
-        <v>1.080343142054209</v>
+        <v>1.727263202109634</v>
       </c>
       <c r="AL8">
-        <v>1.237769941999874</v>
+        <v>1.47281772157282</v>
       </c>
       <c r="AM8">
-        <v>1.380799465909527</v>
+        <v>1.377025641429433</v>
       </c>
       <c r="AN8">
-        <v>1.036256600121135</v>
+        <v>1.373692275375352</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.8673438769088225</v>
+        <v>0.7917571592173656</v>
       </c>
       <c r="C9">
-        <v>0.7075087290269634</v>
+        <v>0.8488414045348166</v>
       </c>
       <c r="D9">
-        <v>0.6278892058534236</v>
+        <v>0.6343731495872524</v>
       </c>
       <c r="E9">
-        <v>0.7684868542282577</v>
+        <v>1.247508960684403</v>
       </c>
       <c r="F9">
-        <v>0.6858574042054608</v>
+        <v>0.9279133009910819</v>
       </c>
       <c r="G9">
-        <v>0.7980279395584111</v>
+        <v>0.9687752789692748</v>
       </c>
       <c r="H9">
-        <v>0.9378324539727205</v>
+        <v>0.8895989373009785</v>
       </c>
       <c r="I9">
-        <v>0.7059675682039109</v>
+        <v>1.182414139881892</v>
       </c>
       <c r="J9">
-        <v>0.8851539172924615</v>
+        <v>1.007408960595634</v>
       </c>
       <c r="K9">
-        <v>0.8628796200718299</v>
+        <v>1.008806013298168</v>
       </c>
       <c r="L9">
-        <v>0.9128978787741431</v>
+        <v>1.193110245622719</v>
       </c>
       <c r="M9">
-        <v>0.8370742870384222</v>
+        <v>0.8512641966705661</v>
       </c>
       <c r="N9">
-        <v>0.8231674507404628</v>
+        <v>1.060782932191622</v>
       </c>
       <c r="O9">
-        <v>0.8180046546765721</v>
+        <v>1.192226144623494</v>
       </c>
       <c r="P9">
-        <v>0.747139384231378</v>
+        <v>1.13006922167292</v>
       </c>
       <c r="Q9">
-        <v>0.8519961638508986</v>
+        <v>1.295536123284195</v>
       </c>
       <c r="R9">
-        <v>0.8838087693491595</v>
+        <v>0.9911827266955877</v>
       </c>
       <c r="S9">
-        <v>0.6905052821963863</v>
+        <v>0.9229502508109726</v>
       </c>
       <c r="T9">
-        <v>0.8362046956619166</v>
+        <v>1.01066374979602</v>
       </c>
       <c r="U9">
-        <v>0.8834994261995495</v>
+        <v>0.6179384741935254</v>
       </c>
       <c r="V9">
-        <v>0.6492481087978623</v>
+        <v>1.29915186357619</v>
       </c>
       <c r="W9">
-        <v>0.8354239124652556</v>
+        <v>0.9933548852918579</v>
       </c>
       <c r="X9">
-        <v>0.8416298309769729</v>
+        <v>0.9023897692731807</v>
       </c>
       <c r="Y9">
-        <v>0.7279627272771055</v>
+        <v>0.8836663474519311</v>
       </c>
       <c r="Z9">
-        <v>0.9348034184596504</v>
+        <v>0.9903009514493728</v>
       </c>
       <c r="AA9">
-        <v>0.8664146419677431</v>
+        <v>1.073813986323867</v>
       </c>
       <c r="AB9">
-        <v>0.7582577739367047</v>
+        <v>1.058816688855142</v>
       </c>
       <c r="AC9">
-        <v>0.9760763760088399</v>
+        <v>1.11361364098405</v>
       </c>
       <c r="AD9">
-        <v>0.9901428254569192</v>
+        <v>0.7670188740397695</v>
       </c>
       <c r="AE9">
-        <v>0.7507441485520971</v>
+        <v>1.061025121266021</v>
       </c>
       <c r="AF9">
-        <v>0.8265332319490435</v>
+        <v>1.258905498813505</v>
       </c>
       <c r="AG9">
-        <v>0.816906053239181</v>
+        <v>1.208977595284391</v>
       </c>
       <c r="AH9">
-        <v>0.7393140721755986</v>
+        <v>0.8939335258494652</v>
       </c>
       <c r="AI9">
-        <v>0.5692786319691369</v>
+        <v>0.6404676318909446</v>
       </c>
       <c r="AJ9">
-        <v>0.6906031481065337</v>
+        <v>1.099937759015572</v>
       </c>
       <c r="AK9">
-        <v>0.8564558591050763</v>
+        <v>1.241602261556765</v>
       </c>
       <c r="AL9">
-        <v>0.9849700703249247</v>
+        <v>1.183087442590381</v>
       </c>
       <c r="AM9">
-        <v>1.022213468501933</v>
+        <v>1.111327469697307</v>
       </c>
       <c r="AN9">
-        <v>0.7734217437707449</v>
+        <v>1.137659177504488</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>1.063195844583222</v>
+        <v>0.5098423850332731</v>
       </c>
       <c r="C10">
-        <v>0.7795561974621017</v>
+        <v>0.3829577176755688</v>
       </c>
       <c r="D10">
-        <v>0.8396463138881707</v>
+        <v>0.4204568295249237</v>
       </c>
       <c r="E10">
-        <v>0.9551679299984026</v>
+        <v>1.004585737703211</v>
       </c>
       <c r="F10">
-        <v>0.6551310650347595</v>
+        <v>0.6222642970459984</v>
       </c>
       <c r="G10">
-        <v>0.9258793686742085</v>
+        <v>0.8073740428542253</v>
       </c>
       <c r="H10">
-        <v>1.060433920106908</v>
+        <v>0.7065005760656459</v>
       </c>
       <c r="I10">
-        <v>0.8183823280034312</v>
+        <v>1.025098017495689</v>
       </c>
       <c r="J10">
-        <v>1.013374325797742</v>
+        <v>0.7827728970204052</v>
       </c>
       <c r="K10">
-        <v>1.011814656485572</v>
+        <v>0.872952026885961</v>
       </c>
       <c r="L10">
-        <v>0.9711350834887652</v>
+        <v>1.08034673052284</v>
       </c>
       <c r="M10">
-        <v>0.9587647368407618</v>
+        <v>0.5651626308055797</v>
       </c>
       <c r="N10">
-        <v>0.9316496072165492</v>
+        <v>0.7274173680368894</v>
       </c>
       <c r="O10">
-        <v>0.9477211525214446</v>
+        <v>0.9163601633336825</v>
       </c>
       <c r="P10">
-        <v>0.9252522028726187</v>
+        <v>0.9516960620090074</v>
       </c>
       <c r="Q10">
-        <v>0.9994322338373604</v>
+        <v>1.151343423333389</v>
       </c>
       <c r="R10">
-        <v>1.101541427403192</v>
+        <v>0.7898976958694941</v>
       </c>
       <c r="S10">
-        <v>0.842237412017797</v>
+        <v>0.7598083941467647</v>
       </c>
       <c r="T10">
-        <v>0.9943762749985694</v>
+        <v>0.9598588810701753</v>
       </c>
       <c r="U10">
-        <v>1.074794997758304</v>
+        <v>0.4337686599051366</v>
       </c>
       <c r="V10">
-        <v>0.8603633510088526</v>
+        <v>1.087077487977574</v>
       </c>
       <c r="W10">
-        <v>0.8627304707475077</v>
+        <v>0.8539367963216329</v>
       </c>
       <c r="X10">
-        <v>0.8684293745957611</v>
+        <v>0.7006935030122193</v>
       </c>
       <c r="Y10">
-        <v>0.740156603965872</v>
+        <v>0.6707545829617156</v>
       </c>
       <c r="Z10">
-        <v>1.054659001570834</v>
+        <v>0.7088361476357701</v>
       </c>
       <c r="AA10">
-        <v>1.122125000120063</v>
+        <v>0.8881116661125374</v>
       </c>
       <c r="AB10">
-        <v>0.8759872467831346</v>
+        <v>0.9159923796525693</v>
       </c>
       <c r="AC10">
-        <v>1.102411258168305</v>
+        <v>1.033610985443732</v>
       </c>
       <c r="AD10">
-        <v>1.078687611218508</v>
+        <v>0.6733966493354746</v>
       </c>
       <c r="AE10">
-        <v>0.9096379326140339</v>
+        <v>0.9642552933167476</v>
       </c>
       <c r="AF10">
-        <v>1.105069703239046</v>
+        <v>1.161063381792864</v>
       </c>
       <c r="AG10">
-        <v>1.115452074697484</v>
+        <v>1.213187542074785</v>
       </c>
       <c r="AH10">
-        <v>1.045695440142852</v>
+        <v>0.8083188735159009</v>
       </c>
       <c r="AI10">
-        <v>0.8979541568782285</v>
+        <v>0.4911952586566154</v>
       </c>
       <c r="AJ10">
-        <v>0.8251855386295629</v>
+        <v>0.9446545257621638</v>
       </c>
       <c r="AK10">
-        <v>1.069223873261732</v>
+        <v>1.111566977785866</v>
       </c>
       <c r="AL10">
-        <v>1.211744841010034</v>
+        <v>1.103834982179526</v>
       </c>
       <c r="AM10">
-        <v>1.402614925783109</v>
+        <v>1.100966521460962</v>
       </c>
       <c r="AN10">
-        <v>1.059208643159059</v>
+        <v>1.112463632857477</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>1.039376604297279</v>
+        <v>0.2615625881795386</v>
       </c>
       <c r="C11">
-        <v>0.7666416623423747</v>
+        <v>0.2036517756603321</v>
       </c>
       <c r="D11">
-        <v>0.815021705983384</v>
+        <v>0.2385208037093663</v>
       </c>
       <c r="E11">
-        <v>0.9505558080494484</v>
+        <v>0.5860799480027147</v>
       </c>
       <c r="F11">
-        <v>0.6809804753303434</v>
+        <v>0.3570673328482918</v>
       </c>
       <c r="G11">
-        <v>0.9098329502577455</v>
+        <v>0.4717719293858511</v>
       </c>
       <c r="H11">
-        <v>1.060617507496844</v>
+        <v>0.3581032863410924</v>
       </c>
       <c r="I11">
-        <v>0.8139781427053489</v>
+        <v>0.6389633763269202</v>
       </c>
       <c r="J11">
-        <v>1.006848840783916</v>
+        <v>0.4504516116226396</v>
       </c>
       <c r="K11">
-        <v>0.9986644401999282</v>
+        <v>0.474752005628817</v>
       </c>
       <c r="L11">
-        <v>0.9625453260469374</v>
+        <v>0.6270981953944037</v>
       </c>
       <c r="M11">
-        <v>0.9481893305146061</v>
+        <v>0.2828232796227153</v>
       </c>
       <c r="N11">
-        <v>0.9212635302098516</v>
+        <v>0.4242246470370275</v>
       </c>
       <c r="O11">
-        <v>0.933891511543588</v>
+        <v>0.5120670536700539</v>
       </c>
       <c r="P11">
-        <v>0.9145415044907177</v>
+        <v>0.554141182157242</v>
       </c>
       <c r="Q11">
-        <v>0.9954180016179406</v>
+        <v>0.6375223814645476</v>
       </c>
       <c r="R11">
-        <v>1.081827442036505</v>
+        <v>0.470356595711529</v>
       </c>
       <c r="S11">
-        <v>0.8230487733963368</v>
+        <v>0.4424641787217143</v>
       </c>
       <c r="T11">
-        <v>0.9831814103285744</v>
+        <v>0.5531509096515955</v>
       </c>
       <c r="U11">
-        <v>1.062736601353702</v>
+        <v>0.2513016908298494</v>
       </c>
       <c r="V11">
-        <v>0.8447153403939393</v>
+        <v>0.6069100943372004</v>
       </c>
       <c r="W11">
-        <v>0.8684208754502769</v>
+        <v>0.5006091964921716</v>
       </c>
       <c r="X11">
-        <v>0.8705002823847052</v>
+        <v>0.3860609342232972</v>
       </c>
       <c r="Y11">
-        <v>0.7454311058660625</v>
+        <v>0.3665581905589645</v>
       </c>
       <c r="Z11">
-        <v>1.043588967950126</v>
+        <v>0.366536607421971</v>
       </c>
       <c r="AA11">
-        <v>1.098658651736887</v>
+        <v>0.5075119132568408</v>
       </c>
       <c r="AB11">
-        <v>0.8631705679511908</v>
+        <v>0.5652650742999831</v>
       </c>
       <c r="AC11">
-        <v>1.084693783327862</v>
+        <v>0.5931881384679826</v>
       </c>
       <c r="AD11">
-        <v>1.07079347124128</v>
+        <v>0.3397741785859665</v>
       </c>
       <c r="AE11">
-        <v>0.8974299937205854</v>
+        <v>0.5517674807034436</v>
       </c>
       <c r="AF11">
-        <v>1.086089416580371</v>
+        <v>0.7098812416838844</v>
       </c>
       <c r="AG11">
-        <v>1.086012294626729</v>
+        <v>0.6731912264523753</v>
       </c>
       <c r="AH11">
-        <v>1.014256665175691</v>
+        <v>0.4407982483462176</v>
       </c>
       <c r="AI11">
-        <v>0.8584829464759971</v>
+        <v>0.2632969868687846</v>
       </c>
       <c r="AJ11">
-        <v>0.8124631662400428</v>
+        <v>0.4943775577042139</v>
       </c>
       <c r="AK11">
-        <v>1.04785065090496</v>
+        <v>0.6365273884496851</v>
       </c>
       <c r="AL11">
-        <v>1.196188459923081</v>
+        <v>0.6647285599779541</v>
       </c>
       <c r="AM11">
-        <v>1.370948654188505</v>
+        <v>0.6308351420575549</v>
       </c>
       <c r="AN11">
-        <v>1.039110539056936</v>
+        <v>0.671236975287429</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>1.131803373331004</v>
+        <v>0.234618832114642</v>
       </c>
       <c r="C12">
-        <v>0.8192598645320912</v>
+        <v>0.1353570370035873</v>
       </c>
       <c r="D12">
-        <v>0.8776502838950619</v>
+        <v>0.2961078068828241</v>
       </c>
       <c r="E12">
-        <v>1.008201890577461</v>
+        <v>0.6642405298184733</v>
       </c>
       <c r="F12">
-        <v>0.7170850357903599</v>
+        <v>0.403660556709932</v>
       </c>
       <c r="G12">
-        <v>0.9567049311757458</v>
+        <v>0.5626063284817848</v>
       </c>
       <c r="H12">
-        <v>1.126919086243596</v>
+        <v>0.3789680548387651</v>
       </c>
       <c r="I12">
-        <v>0.8599970124940108</v>
+        <v>0.748111596705318</v>
       </c>
       <c r="J12">
-        <v>1.078345431837094</v>
+        <v>0.5218513780365694</v>
       </c>
       <c r="K12">
-        <v>1.04267199738654</v>
+        <v>0.5843340021573201</v>
       </c>
       <c r="L12">
-        <v>1.009800779477661</v>
+        <v>0.7691067885265191</v>
       </c>
       <c r="M12">
-        <v>0.9876140052848995</v>
+        <v>0.2349997685308004</v>
       </c>
       <c r="N12">
-        <v>0.9884123367524629</v>
+        <v>0.4316924790833992</v>
       </c>
       <c r="O12">
-        <v>0.9830792511145564</v>
+        <v>0.5728146605419112</v>
       </c>
       <c r="P12">
-        <v>0.9548521357574001</v>
+        <v>0.6655209142088847</v>
       </c>
       <c r="Q12">
-        <v>1.053040058435836</v>
+        <v>0.7739873246719365</v>
       </c>
       <c r="R12">
-        <v>1.142512670410936</v>
+        <v>0.5873047754223784</v>
       </c>
       <c r="S12">
-        <v>0.8711844677493933</v>
+        <v>0.5185685185452359</v>
       </c>
       <c r="T12">
-        <v>1.052168988794464</v>
+        <v>0.7170081137803073</v>
       </c>
       <c r="U12">
-        <v>1.127588701724461</v>
+        <v>0.2985037235813554</v>
       </c>
       <c r="V12">
-        <v>0.8893425897336957</v>
+        <v>0.7241255507129558</v>
       </c>
       <c r="W12">
-        <v>0.9006434707570761</v>
+        <v>0.6116450424558675</v>
       </c>
       <c r="X12">
-        <v>0.9096960940847516</v>
+        <v>0.4478328729858581</v>
       </c>
       <c r="Y12">
-        <v>0.7913747499041937</v>
+        <v>0.4002431950011957</v>
       </c>
       <c r="Z12">
-        <v>1.100512457024877</v>
+        <v>0.3761806198168748</v>
       </c>
       <c r="AA12">
-        <v>1.163289240134294</v>
+        <v>0.592911125407602</v>
       </c>
       <c r="AB12">
-        <v>0.9139799368724444</v>
+        <v>0.6791910976766936</v>
       </c>
       <c r="AC12">
-        <v>1.145432967666572</v>
+        <v>0.7414059989285433</v>
       </c>
       <c r="AD12">
-        <v>1.128502338745513</v>
+        <v>0.4176922680560616</v>
       </c>
       <c r="AE12">
-        <v>0.9472975281277392</v>
+        <v>0.6868739017641979</v>
       </c>
       <c r="AF12">
-        <v>1.126655484930226</v>
+        <v>0.9023094713760631</v>
       </c>
       <c r="AG12">
-        <v>1.144201020780585</v>
+        <v>0.868955445118804</v>
       </c>
       <c r="AH12">
-        <v>1.071392177807462</v>
+        <v>0.5624346767910045</v>
       </c>
       <c r="AI12">
-        <v>0.9027605707915346</v>
+        <v>0.3220913600824234</v>
       </c>
       <c r="AJ12">
-        <v>0.853366600217871</v>
+        <v>0.5843759298858598</v>
       </c>
       <c r="AK12">
-        <v>1.113568027502992</v>
+        <v>0.7513018433739304</v>
       </c>
       <c r="AL12">
-        <v>1.269954364301864</v>
+        <v>0.8196062112746777</v>
       </c>
       <c r="AM12">
-        <v>1.509627016777686</v>
+        <v>0.7917744137407525</v>
       </c>
       <c r="AN12">
-        <v>1.11833081145109</v>
+        <v>0.8347929411770915</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块-beta.xlsx
+++ b/FOF/data/基金公司-板块-beta.xlsx
@@ -16,157 +16,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
     <t>安信</t>
   </si>
   <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
     <t>招商</t>
   </si>
   <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
     <t>汇丰晋信</t>
   </si>
   <si>
-    <t>汇添富</t>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>鹏华</t>
   </si>
   <si>
     <t>华夏</t>
   </si>
   <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>诺安</t>
   </si>
   <si>
     <t>中金</t>
   </si>
   <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>诺安</t>
+    <t>兴业</t>
   </si>
   <si>
     <t>长盛</t>
   </si>
   <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
     <t>中邮创业</t>
   </si>
   <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>上证50</t>
+  </si>
+  <si>
     <t>上证综指</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>上证50</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>创业板综</t>
-  </si>
-  <si>
-    <t>中证1000</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0.6011308716049273</v>
+        <v>0.7756024398298239</v>
       </c>
       <c r="C2">
-        <v>0.9211683488007498</v>
+        <v>0.6905863994481186</v>
       </c>
       <c r="D2">
-        <v>0.7867617513436618</v>
+        <v>0.7134205470130364</v>
       </c>
       <c r="E2">
-        <v>0.8281176291888578</v>
+        <v>0.8051706201979941</v>
       </c>
       <c r="F2">
-        <v>0.9453083733772987</v>
+        <v>0.6308279096198369</v>
       </c>
       <c r="G2">
-        <v>0.702597870372776</v>
+        <v>0.6652145046026995</v>
       </c>
       <c r="H2">
-        <v>0.5366752659261993</v>
+        <v>0.7758342882836055</v>
       </c>
       <c r="I2">
-        <v>0.670251991815765</v>
+        <v>0.7574699730580057</v>
       </c>
       <c r="J2">
-        <v>0.8026204320155791</v>
+        <v>0.6699616802586202</v>
       </c>
       <c r="K2">
-        <v>0.7588752709231217</v>
+        <v>0.7663622485972236</v>
       </c>
       <c r="L2">
-        <v>0.7557814584186828</v>
+        <v>0.5990650189565027</v>
       </c>
       <c r="M2">
-        <v>0.5187297228394178</v>
+        <v>0.8391471968054065</v>
       </c>
       <c r="N2">
-        <v>0.8061468820923301</v>
+        <v>0.7895065817315234</v>
       </c>
       <c r="O2">
-        <v>0.8905367053830435</v>
+        <v>0.7378700291083929</v>
       </c>
       <c r="P2">
-        <v>0.8184219803563731</v>
+        <v>0.7623934352707442</v>
       </c>
       <c r="Q2">
-        <v>0.8483098087436641</v>
+        <v>0.7647170160656156</v>
       </c>
       <c r="R2">
-        <v>0.9275788906801605</v>
+        <v>0.7740177112156613</v>
       </c>
       <c r="S2">
-        <v>0.6504913399528607</v>
+        <v>0.7709357819297442</v>
       </c>
       <c r="T2">
-        <v>0.7180771179060362</v>
+        <v>0.7496046856178082</v>
       </c>
       <c r="U2">
-        <v>0.6444737534723842</v>
+        <v>0.6946869888827368</v>
       </c>
       <c r="V2">
-        <v>0.949912364022543</v>
+        <v>0.7658664043334037</v>
       </c>
       <c r="W2">
-        <v>0.7242439967569804</v>
+        <v>0.7349585458559242</v>
       </c>
       <c r="X2">
-        <v>0.7358446795554308</v>
+        <v>0.6379339680428411</v>
       </c>
       <c r="Y2">
-        <v>0.6439203816907915</v>
+        <v>0.8443835074751557</v>
       </c>
       <c r="Z2">
-        <v>0.7463743050627563</v>
+        <v>0.7995175073419123</v>
       </c>
       <c r="AA2">
-        <v>0.7441791003731496</v>
+        <v>0.7630436631541876</v>
       </c>
       <c r="AB2">
-        <v>0.6911879921184688</v>
+        <v>0.7111925654496708</v>
       </c>
       <c r="AC2">
-        <v>0.7140122677018248</v>
+        <v>0.7821563981055343</v>
       </c>
       <c r="AD2">
-        <v>0.5627963936869547</v>
+        <v>0.7118137946059377</v>
       </c>
       <c r="AE2">
-        <v>0.7151985836450728</v>
+        <v>0.7768407698709797</v>
       </c>
       <c r="AF2">
-        <v>0.8813182932177011</v>
+        <v>0.719807529391547</v>
       </c>
       <c r="AG2">
-        <v>0.7025475008470425</v>
+        <v>0.6110931720186129</v>
       </c>
       <c r="AH2">
-        <v>0.6843068133989127</v>
+        <v>0.7254708894213718</v>
       </c>
       <c r="AI2">
-        <v>0.6219858523284597</v>
+        <v>0.7073322151347708</v>
       </c>
       <c r="AJ2">
-        <v>0.7383074902890052</v>
+        <v>0.7130004274771343</v>
       </c>
       <c r="AK2">
-        <v>0.6816540966235445</v>
+        <v>0.6329571981508413</v>
       </c>
       <c r="AL2">
-        <v>0.6822409001506703</v>
+        <v>0.6490931299026109</v>
       </c>
       <c r="AM2">
-        <v>0.5681380893244558</v>
+        <v>0.7073105323672575</v>
       </c>
       <c r="AN2">
-        <v>0.5686673781314825</v>
+        <v>0.6884753818635745</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0.7760698752926626</v>
+        <v>0.8706803155973668</v>
       </c>
       <c r="C3">
-        <v>1.187763777259731</v>
+        <v>0.8011455389466563</v>
       </c>
       <c r="D3">
-        <v>0.7858807554420471</v>
+        <v>0.8126188904422886</v>
       </c>
       <c r="E3">
-        <v>0.8489055913270744</v>
+        <v>0.8971504136476137</v>
       </c>
       <c r="F3">
-        <v>1.001647777166822</v>
+        <v>0.7157843651992615</v>
       </c>
       <c r="G3">
-        <v>0.6655148934295736</v>
+        <v>0.7532135377660685</v>
       </c>
       <c r="H3">
-        <v>0.6372870406355091</v>
+        <v>0.879108108541001</v>
       </c>
       <c r="I3">
-        <v>0.6009923251912322</v>
+        <v>0.8537121774619698</v>
       </c>
       <c r="J3">
-        <v>0.813614493893082</v>
+        <v>0.7408707837533153</v>
       </c>
       <c r="K3">
-        <v>0.7093721292229819</v>
+        <v>0.868522511723863</v>
       </c>
       <c r="L3">
-        <v>0.6503801803448835</v>
+        <v>0.6663469151422239</v>
       </c>
       <c r="M3">
-        <v>0.7389581563080977</v>
+        <v>0.9454899967405108</v>
       </c>
       <c r="N3">
-        <v>0.9385980448998537</v>
+        <v>0.8877874845664425</v>
       </c>
       <c r="O3">
-        <v>0.9512856402382006</v>
+        <v>0.8355792532499462</v>
       </c>
       <c r="P3">
-        <v>0.7659024153081355</v>
+        <v>0.8688878468463496</v>
       </c>
       <c r="Q3">
-        <v>0.7817203464719116</v>
+        <v>0.8625533861879177</v>
       </c>
       <c r="R3">
-        <v>0.8518717382631742</v>
+        <v>0.8596783611319346</v>
       </c>
       <c r="S3">
-        <v>0.6342341747568155</v>
+        <v>0.8735315681612935</v>
       </c>
       <c r="T3">
-        <v>0.5537362327316228</v>
+        <v>0.8474361586793117</v>
       </c>
       <c r="U3">
-        <v>0.6517631634339141</v>
+        <v>0.7831561714857223</v>
       </c>
       <c r="V3">
-        <v>0.9215695176392048</v>
+        <v>0.8549891967266462</v>
       </c>
       <c r="W3">
-        <v>0.652469132549889</v>
+        <v>0.8231542831168533</v>
       </c>
       <c r="X3">
-        <v>0.758165407944757</v>
+        <v>0.7221969789999415</v>
       </c>
       <c r="Y3">
-        <v>0.7127193014489541</v>
+        <v>0.9480362245909809</v>
       </c>
       <c r="Z3">
-        <v>0.8853847456011054</v>
+        <v>0.8992404786056057</v>
       </c>
       <c r="AA3">
-        <v>0.7347161142954991</v>
+        <v>0.8535099017467919</v>
       </c>
       <c r="AB3">
-        <v>0.6063126394316913</v>
+        <v>0.7996218142887654</v>
       </c>
       <c r="AC3">
-        <v>0.5900049983761986</v>
+        <v>0.8715656229534158</v>
       </c>
       <c r="AD3">
-        <v>0.5462728429522967</v>
+        <v>0.8033131264703195</v>
       </c>
       <c r="AE3">
-        <v>0.6108013405887833</v>
+        <v>0.8691507222245827</v>
       </c>
       <c r="AF3">
-        <v>0.6795437699266396</v>
+        <v>0.8111279275785346</v>
       </c>
       <c r="AG3">
-        <v>0.5100556645805593</v>
+        <v>0.6917487853974226</v>
       </c>
       <c r="AH3">
-        <v>0.5955899602390247</v>
+        <v>0.8137130096455061</v>
       </c>
       <c r="AI3">
-        <v>0.6183138748278016</v>
+        <v>0.7892736037204623</v>
       </c>
       <c r="AJ3">
-        <v>0.7429084003940651</v>
+        <v>0.7940198002526445</v>
       </c>
       <c r="AK3">
-        <v>0.6316867137019521</v>
+        <v>0.7055915130184492</v>
       </c>
       <c r="AL3">
-        <v>0.537666139158625</v>
+        <v>0.7270476932802247</v>
       </c>
       <c r="AM3">
-        <v>0.4135665891766755</v>
+        <v>0.7859798847530772</v>
       </c>
       <c r="AN3">
-        <v>0.397034436418451</v>
+        <v>0.7620531150845744</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>0.578689901602136</v>
+        <v>0.9168894278088807</v>
       </c>
       <c r="C4">
-        <v>0.9524046136004602</v>
+        <v>0.853325443905672</v>
       </c>
       <c r="D4">
-        <v>0.6462376959066877</v>
+        <v>0.8595256484254307</v>
       </c>
       <c r="E4">
-        <v>0.6051451050719212</v>
+        <v>0.9429531560642848</v>
       </c>
       <c r="F4">
-        <v>0.7962766654866564</v>
+        <v>0.7562110723257303</v>
       </c>
       <c r="G4">
-        <v>0.4840597226251329</v>
+        <v>0.7959365096484269</v>
       </c>
       <c r="H4">
-        <v>0.4374254265197677</v>
+        <v>0.9292358494741927</v>
       </c>
       <c r="I4">
-        <v>0.4013184660809604</v>
+        <v>0.9004905949018065</v>
       </c>
       <c r="J4">
-        <v>0.6105219217892559</v>
+        <v>0.7766473772996687</v>
       </c>
       <c r="K4">
-        <v>0.5136274852407391</v>
+        <v>0.9181956691604544</v>
       </c>
       <c r="L4">
-        <v>0.4425582386805363</v>
+        <v>0.7000491820203866</v>
       </c>
       <c r="M4">
-        <v>0.5244171650619052</v>
+        <v>0.9977982641812772</v>
       </c>
       <c r="N4">
-        <v>0.7043760357481852</v>
+        <v>0.9359015204196762</v>
       </c>
       <c r="O4">
-        <v>0.7010114290486166</v>
+        <v>0.8824020185776719</v>
       </c>
       <c r="P4">
-        <v>0.5556650242638697</v>
+        <v>0.9200751656080288</v>
       </c>
       <c r="Q4">
-        <v>0.5388170785929265</v>
+        <v>0.9099258428027469</v>
       </c>
       <c r="R4">
-        <v>0.6660886143050209</v>
+        <v>0.9025453192304911</v>
       </c>
       <c r="S4">
-        <v>0.458169193769068</v>
+        <v>0.9227484957726504</v>
       </c>
       <c r="T4">
-        <v>0.38789310613456</v>
+        <v>0.8944646136825827</v>
       </c>
       <c r="U4">
-        <v>0.5206873036015173</v>
+        <v>0.8256657312228232</v>
       </c>
       <c r="V4">
-        <v>0.6675679301951152</v>
+        <v>0.8996756792356768</v>
       </c>
       <c r="W4">
-        <v>0.4731641604199535</v>
+        <v>0.8668420328949604</v>
       </c>
       <c r="X4">
-        <v>0.5693251494423476</v>
+        <v>0.7628482698825899</v>
       </c>
       <c r="Y4">
-        <v>0.5215661882248388</v>
+        <v>0.9978042975589088</v>
       </c>
       <c r="Z4">
-        <v>0.6538182447627611</v>
+        <v>0.9475025813083209</v>
       </c>
       <c r="AA4">
-        <v>0.5264964499030625</v>
+        <v>0.8981171476856016</v>
       </c>
       <c r="AB4">
-        <v>0.4266099056980482</v>
+        <v>0.8432225676573373</v>
       </c>
       <c r="AC4">
-        <v>0.3991377126971118</v>
+        <v>0.9156288699332538</v>
       </c>
       <c r="AD4">
-        <v>0.3881342569191623</v>
+        <v>0.8476707013772555</v>
       </c>
       <c r="AE4">
-        <v>0.4243927648527808</v>
+        <v>0.9139081061846023</v>
       </c>
       <c r="AF4">
-        <v>0.4819147403887913</v>
+        <v>0.8551684242977134</v>
       </c>
       <c r="AG4">
-        <v>0.312159261886286</v>
+        <v>0.7301868880545248</v>
       </c>
       <c r="AH4">
-        <v>0.4302885457404581</v>
+        <v>0.8566623618418655</v>
       </c>
       <c r="AI4">
-        <v>0.4820440352323627</v>
+        <v>0.8302880880729339</v>
       </c>
       <c r="AJ4">
-        <v>0.5179387737011305</v>
+        <v>0.8344803230369913</v>
       </c>
       <c r="AK4">
-        <v>0.4066310666005312</v>
+        <v>0.7425502712889026</v>
       </c>
       <c r="AL4">
-        <v>0.34760597580842</v>
+        <v>0.7653524372168464</v>
       </c>
       <c r="AM4">
-        <v>0.2352166357635089</v>
+        <v>0.825236108548425</v>
       </c>
       <c r="AN4">
-        <v>0.2250391702396799</v>
+        <v>0.7990436561670115</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>0.9195793014145743</v>
+        <v>0.8988140864633243</v>
       </c>
       <c r="C5">
-        <v>1.339384403207259</v>
+        <v>0.8387121595120297</v>
       </c>
       <c r="D5">
-        <v>0.9151022340714416</v>
+        <v>0.8345742659162079</v>
       </c>
       <c r="E5">
-        <v>1.082687852538992</v>
+        <v>0.9273615596779266</v>
       </c>
       <c r="F5">
-        <v>1.181038662608335</v>
+        <v>0.7383500797960258</v>
       </c>
       <c r="G5">
-        <v>0.8522740206281588</v>
+        <v>0.7822927303386238</v>
       </c>
       <c r="H5">
-        <v>0.8044780300306791</v>
+        <v>0.9181565163629186</v>
       </c>
       <c r="I5">
-        <v>0.8203898238315216</v>
+        <v>0.8866334757294714</v>
       </c>
       <c r="J5">
-        <v>1.006866195024154</v>
+        <v>0.7719462971818473</v>
       </c>
       <c r="K5">
-        <v>0.9105660626004344</v>
+        <v>0.9029958622209033</v>
       </c>
       <c r="L5">
-        <v>0.882884752598874</v>
+        <v>0.6932436104766976</v>
       </c>
       <c r="M5">
-        <v>0.8891575225421187</v>
+        <v>0.983804646677708</v>
       </c>
       <c r="N5">
-        <v>1.131273264911627</v>
+        <v>0.9195435494665348</v>
       </c>
       <c r="O5">
-        <v>1.177348147643085</v>
+        <v>0.8613822715037931</v>
       </c>
       <c r="P5">
-        <v>0.9847070161070111</v>
+        <v>0.9043789268370493</v>
       </c>
       <c r="Q5">
-        <v>1.035874078238029</v>
+        <v>0.8959488831686517</v>
       </c>
       <c r="R5">
-        <v>1.049278172239529</v>
+        <v>0.8905505324047982</v>
       </c>
       <c r="S5">
-        <v>0.8105363944695128</v>
+        <v>0.9047686157286773</v>
       </c>
       <c r="T5">
-        <v>0.7586719414581045</v>
+        <v>0.876035510759597</v>
       </c>
       <c r="U5">
-        <v>0.7734829838519953</v>
+        <v>0.8085721368374431</v>
       </c>
       <c r="V5">
-        <v>1.174843537274604</v>
+        <v>0.892987779988536</v>
       </c>
       <c r="W5">
-        <v>0.8463083281067691</v>
+        <v>0.8556217124332177</v>
       </c>
       <c r="X5">
-        <v>0.9333038185216894</v>
+        <v>0.7473895672468764</v>
       </c>
       <c r="Y5">
-        <v>0.8793438051202884</v>
+        <v>0.9663501879166349</v>
       </c>
       <c r="Z5">
-        <v>1.070982251117134</v>
+        <v>0.9276477370376611</v>
       </c>
       <c r="AA5">
-        <v>0.9402892760581721</v>
+        <v>0.8837339871213705</v>
       </c>
       <c r="AB5">
-        <v>0.8074423047616313</v>
+        <v>0.8312913364820906</v>
       </c>
       <c r="AC5">
-        <v>0.8101407188684313</v>
+        <v>0.9011141198553947</v>
       </c>
       <c r="AD5">
-        <v>0.7013639798914195</v>
+        <v>0.8294858378189477</v>
       </c>
       <c r="AE5">
-        <v>0.8205446512655465</v>
+        <v>0.8936269902199717</v>
       </c>
       <c r="AF5">
-        <v>0.9281604291534091</v>
+        <v>0.8376256062573129</v>
       </c>
       <c r="AG5">
-        <v>0.7552222916928971</v>
+        <v>0.7107868449322043</v>
       </c>
       <c r="AH5">
-        <v>0.7774979028362872</v>
+        <v>0.8378282922124086</v>
       </c>
       <c r="AI5">
-        <v>0.7474430140574458</v>
+        <v>0.8229076492280651</v>
       </c>
       <c r="AJ5">
-        <v>0.9587253001533599</v>
+        <v>0.8224889015442289</v>
       </c>
       <c r="AK5">
-        <v>0.8680801181641294</v>
+        <v>0.7409502048972099</v>
       </c>
       <c r="AL5">
-        <v>0.7660534796649389</v>
+        <v>0.7558094043582632</v>
       </c>
       <c r="AM5">
-        <v>0.6324343372170028</v>
+        <v>0.8149014009414853</v>
       </c>
       <c r="AN5">
-        <v>0.6167021714175999</v>
+        <v>0.7898941208860638</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.4491848336764873</v>
+        <v>0.9203204530286569</v>
       </c>
       <c r="C6">
-        <v>0.7989091195292631</v>
+        <v>0.8580106741088173</v>
       </c>
       <c r="D6">
-        <v>0.597353021558697</v>
+        <v>0.8646739825486389</v>
       </c>
       <c r="E6">
-        <v>0.488050188642802</v>
+        <v>0.9419231734309012</v>
       </c>
       <c r="F6">
-        <v>0.702929205965767</v>
+        <v>0.7613107865679796</v>
       </c>
       <c r="G6">
-        <v>0.4111410237277192</v>
+        <v>0.7971418542510724</v>
       </c>
       <c r="H6">
-        <v>0.3159056550019584</v>
+        <v>0.9323620867339982</v>
       </c>
       <c r="I6">
-        <v>0.3229985553949047</v>
+        <v>0.9038250540764644</v>
       </c>
       <c r="J6">
-        <v>0.5196586879738191</v>
+        <v>0.7783401322439868</v>
       </c>
       <c r="K6">
-        <v>0.4350520349756971</v>
+        <v>0.9188485538171988</v>
       </c>
       <c r="L6">
-        <v>0.3679981450259582</v>
+        <v>0.7002093413978805</v>
       </c>
       <c r="M6">
-        <v>0.3707196750630185</v>
+        <v>0.9971822650334419</v>
       </c>
       <c r="N6">
-        <v>0.5715179833107493</v>
+        <v>0.9367535588073975</v>
       </c>
       <c r="O6">
-        <v>0.5744553002306475</v>
+        <v>0.8862889592034204</v>
       </c>
       <c r="P6">
-        <v>0.4730847701270668</v>
+        <v>0.9231002660291369</v>
       </c>
       <c r="Q6">
-        <v>0.4378634640654289</v>
+        <v>0.9144487694024273</v>
       </c>
       <c r="R6">
-        <v>0.6096315059253303</v>
+        <v>0.9025283441869152</v>
       </c>
       <c r="S6">
-        <v>0.382065197846983</v>
+        <v>0.9277681468348523</v>
       </c>
       <c r="T6">
-        <v>0.3490202660479401</v>
+        <v>0.8989437443902241</v>
       </c>
       <c r="U6">
-        <v>0.4686580381783317</v>
+        <v>0.8308302613718967</v>
       </c>
       <c r="V6">
-        <v>0.5580001885804693</v>
+        <v>0.8985875261142282</v>
       </c>
       <c r="W6">
-        <v>0.4092624159749891</v>
+        <v>0.8666708846567005</v>
       </c>
       <c r="X6">
-        <v>0.4812244796621893</v>
+        <v>0.7651856459100013</v>
       </c>
       <c r="Y6">
-        <v>0.4185047334840954</v>
+        <v>1.00169284255878</v>
       </c>
       <c r="Z6">
-        <v>0.5160625804013487</v>
+        <v>0.9514407318541892</v>
       </c>
       <c r="AA6">
-        <v>0.4329109848168722</v>
+        <v>0.8990674980290058</v>
       </c>
       <c r="AB6">
-        <v>0.3645661049015917</v>
+        <v>0.8426673504874904</v>
       </c>
       <c r="AC6">
-        <v>0.3364011769418588</v>
+        <v>0.9185259905551458</v>
       </c>
       <c r="AD6">
-        <v>0.3164670546651502</v>
+        <v>0.8492221677077566</v>
       </c>
       <c r="AE6">
-        <v>0.3608854179760167</v>
+        <v>0.9186208225857784</v>
       </c>
       <c r="AF6">
-        <v>0.4400044029283827</v>
+        <v>0.8594354545849534</v>
       </c>
       <c r="AG6">
-        <v>0.2558312718088305</v>
+        <v>0.734422353892959</v>
       </c>
       <c r="AH6">
-        <v>0.3748093380296786</v>
+        <v>0.8589126207524742</v>
       </c>
       <c r="AI6">
-        <v>0.4265101750720324</v>
+        <v>0.8295856949522212</v>
       </c>
       <c r="AJ6">
-        <v>0.4084617978700727</v>
+        <v>0.8335906645673267</v>
       </c>
       <c r="AK6">
-        <v>0.3064858220635416</v>
+        <v>0.7394578502558606</v>
       </c>
       <c r="AL6">
-        <v>0.289054728691426</v>
+        <v>0.767796814269887</v>
       </c>
       <c r="AM6">
-        <v>0.1785430622636915</v>
+        <v>0.8261487518822008</v>
       </c>
       <c r="AN6">
-        <v>0.1772747046323806</v>
+        <v>0.7997191569752821</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>0.8732642570645066</v>
+        <v>0.9402460105954596</v>
       </c>
       <c r="C7">
-        <v>1.177748215135235</v>
+        <v>0.8884290188324271</v>
       </c>
       <c r="D7">
-        <v>0.8984654567003622</v>
+        <v>0.8908608621166215</v>
       </c>
       <c r="E7">
-        <v>1.210957627047303</v>
+        <v>0.9518911877656111</v>
       </c>
       <c r="F7">
-        <v>1.170516649327209</v>
+        <v>0.7844769240820922</v>
       </c>
       <c r="G7">
-        <v>0.9712973575613492</v>
+        <v>0.8135655347856537</v>
       </c>
       <c r="H7">
-        <v>0.8430866253765033</v>
+        <v>0.9549192498069993</v>
       </c>
       <c r="I7">
-        <v>1.034335251293564</v>
+        <v>0.9245855402416833</v>
       </c>
       <c r="J7">
-        <v>1.080667936171839</v>
+        <v>0.7892241498784469</v>
       </c>
       <c r="K7">
-        <v>1.027157234769399</v>
+        <v>0.9367502394388025</v>
       </c>
       <c r="L7">
-        <v>1.092416802831634</v>
+        <v>0.7089287105103876</v>
       </c>
       <c r="M7">
-        <v>0.8478839439961969</v>
+        <v>1.012362952457058</v>
       </c>
       <c r="N7">
-        <v>1.143625006117671</v>
+        <v>0.9528915153605887</v>
       </c>
       <c r="O7">
-        <v>1.245550683338645</v>
+        <v>0.9090299409058624</v>
       </c>
       <c r="P7">
-        <v>1.129229490874149</v>
+        <v>0.9469903531657772</v>
       </c>
       <c r="Q7">
-        <v>1.219961461119612</v>
+        <v>0.9377366311280011</v>
       </c>
       <c r="R7">
-        <v>1.146729487186793</v>
+        <v>0.9128662278245969</v>
       </c>
       <c r="S7">
-        <v>0.9161137303028904</v>
+        <v>0.9535000840980993</v>
       </c>
       <c r="T7">
-        <v>0.9638586130966696</v>
+        <v>0.9225052454478616</v>
       </c>
       <c r="U7">
-        <v>0.7824050906046317</v>
+        <v>0.8536600072906653</v>
       </c>
       <c r="V7">
-        <v>1.312993627321064</v>
+        <v>0.9086120628421651</v>
       </c>
       <c r="W7">
-        <v>0.9890430205347397</v>
+        <v>0.8787870243929891</v>
       </c>
       <c r="X7">
-        <v>0.9837827584553416</v>
+        <v>0.7829720785350101</v>
       </c>
       <c r="Y7">
-        <v>0.9170438593979386</v>
+        <v>1.023534288869606</v>
       </c>
       <c r="Z7">
-        <v>1.06414311726674</v>
+        <v>0.9733257804900646</v>
       </c>
       <c r="AA7">
-        <v>1.058099259879869</v>
+        <v>0.9132162801065492</v>
       </c>
       <c r="AB7">
-        <v>0.9903576945912606</v>
+        <v>0.8548348819379926</v>
       </c>
       <c r="AC7">
-        <v>1.018297488777577</v>
+        <v>0.93523573487971</v>
       </c>
       <c r="AD7">
-        <v>0.7742848279394147</v>
+        <v>0.8662106144868021</v>
       </c>
       <c r="AE7">
-        <v>1.00154182875357</v>
+        <v>0.9397387459342154</v>
       </c>
       <c r="AF7">
-        <v>1.193966623293485</v>
+        <v>0.8810167789286941</v>
       </c>
       <c r="AG7">
-        <v>1.029825811710225</v>
+        <v>0.7549498898294615</v>
       </c>
       <c r="AH7">
-        <v>0.9061710828979863</v>
+        <v>0.8755404648712799</v>
       </c>
       <c r="AI7">
-        <v>0.7701121799709718</v>
+        <v>0.8392298206811495</v>
       </c>
       <c r="AJ7">
-        <v>1.066174596880501</v>
+        <v>0.8423236334434827</v>
       </c>
       <c r="AK7">
-        <v>1.071769997913668</v>
+        <v>0.7434829870094768</v>
       </c>
       <c r="AL7">
-        <v>1.020337242185145</v>
+        <v>0.7831847201870258</v>
       </c>
       <c r="AM7">
-        <v>0.8937980138700891</v>
+        <v>0.8374179148441996</v>
       </c>
       <c r="AN7">
-        <v>0.9031771050252214</v>
+        <v>0.8091946824746098</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>1.423553179474528</v>
+        <v>0.9390612086551137</v>
       </c>
       <c r="C8">
-        <v>1.610206366604543</v>
+        <v>0.890950927476701</v>
       </c>
       <c r="D8">
-        <v>0.8704770197925236</v>
+        <v>0.895647601889166</v>
       </c>
       <c r="E8">
-        <v>1.825577980611819</v>
+        <v>0.9446495881293913</v>
       </c>
       <c r="F8">
-        <v>1.386943923906702</v>
+        <v>0.7874966964480381</v>
       </c>
       <c r="G8">
-        <v>1.325888617146206</v>
+        <v>0.8109432465112681</v>
       </c>
       <c r="H8">
-        <v>1.470081006331823</v>
+        <v>0.9518550873425706</v>
       </c>
       <c r="I8">
-        <v>1.583079421441585</v>
+        <v>0.9224446140730842</v>
       </c>
       <c r="J8">
-        <v>1.452286007647055</v>
+        <v>0.7821543855541534</v>
       </c>
       <c r="K8">
-        <v>1.37706061910712</v>
+        <v>0.9329473108077644</v>
       </c>
       <c r="L8">
-        <v>1.552951906306634</v>
+        <v>0.7026345666558588</v>
       </c>
       <c r="M8">
-        <v>1.600489066914024</v>
+        <v>1.005506003456104</v>
       </c>
       <c r="N8">
-        <v>1.722548702918371</v>
+        <v>0.9486875467478831</v>
       </c>
       <c r="O8">
-        <v>1.80867742663045</v>
+        <v>0.9105166147974232</v>
       </c>
       <c r="P8">
-        <v>1.533009977993018</v>
+        <v>0.9460882654576473</v>
       </c>
       <c r="Q8">
-        <v>1.773635120174315</v>
+        <v>0.9367086747641932</v>
       </c>
       <c r="R8">
-        <v>1.267948870199411</v>
+        <v>0.9055015434160131</v>
       </c>
       <c r="S8">
-        <v>1.296375012737031</v>
+        <v>0.9546217445382796</v>
       </c>
       <c r="T8">
-        <v>1.189221708421929</v>
+        <v>0.923358103427362</v>
       </c>
       <c r="U8">
-        <v>0.8728505979374335</v>
+        <v>0.8551755119839762</v>
       </c>
       <c r="V8">
-        <v>1.824589776297337</v>
+        <v>0.8989851188345691</v>
       </c>
       <c r="W8">
-        <v>1.304737134949072</v>
+        <v>0.8722744334060056</v>
       </c>
       <c r="X8">
-        <v>1.326888162571606</v>
+        <v>0.7823553420855742</v>
       </c>
       <c r="Y8">
-        <v>1.384034568379186</v>
+        <v>1.026451186598837</v>
       </c>
       <c r="Z8">
-        <v>1.65557030154513</v>
+        <v>0.9730668788330001</v>
       </c>
       <c r="AA8">
-        <v>1.529376870052351</v>
+        <v>0.9083303226347436</v>
       </c>
       <c r="AB8">
-        <v>1.373409455350683</v>
+        <v>0.8488484258138619</v>
       </c>
       <c r="AC8">
-        <v>1.411078534193466</v>
+        <v>0.9315986236871634</v>
       </c>
       <c r="AD8">
-        <v>1.094992737905018</v>
+        <v>0.8646151706020764</v>
       </c>
       <c r="AE8">
-        <v>1.362849182340929</v>
+        <v>0.9401920504226912</v>
       </c>
       <c r="AF8">
-        <v>1.467927329142835</v>
+        <v>0.8814904822830805</v>
       </c>
       <c r="AG8">
-        <v>1.460042245276334</v>
+        <v>0.7577808638995182</v>
       </c>
       <c r="AH8">
-        <v>1.147784176452436</v>
+        <v>0.8741385036620146</v>
       </c>
       <c r="AI8">
-        <v>0.9024943703970413</v>
+        <v>0.8309960686330188</v>
       </c>
       <c r="AJ8">
-        <v>1.613976534325244</v>
+        <v>0.8352644178848839</v>
       </c>
       <c r="AK8">
-        <v>1.727263202109634</v>
+        <v>0.7320436032395565</v>
       </c>
       <c r="AL8">
-        <v>1.47281772157282</v>
+        <v>0.7797163710626051</v>
       </c>
       <c r="AM8">
-        <v>1.377025641429433</v>
+        <v>0.8313707790235629</v>
       </c>
       <c r="AN8">
-        <v>1.373692275375352</v>
+        <v>0.8025004029841478</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.7917571592173656</v>
+        <v>0.8325878421267376</v>
       </c>
       <c r="C9">
-        <v>0.8488414045348166</v>
+        <v>0.7615853884756991</v>
       </c>
       <c r="D9">
-        <v>0.6343731495872524</v>
+        <v>0.7709778300763022</v>
       </c>
       <c r="E9">
-        <v>1.247508960684403</v>
+        <v>0.8668551640827603</v>
       </c>
       <c r="F9">
-        <v>0.9279133009910819</v>
+        <v>0.6792877079636026</v>
       </c>
       <c r="G9">
-        <v>0.9687752789692748</v>
+        <v>0.7230667852788532</v>
       </c>
       <c r="H9">
-        <v>0.8895989373009785</v>
+        <v>0.8420100908192809</v>
       </c>
       <c r="I9">
-        <v>1.182414139881892</v>
+        <v>0.8169330923365234</v>
       </c>
       <c r="J9">
-        <v>1.007408960595634</v>
+        <v>0.71384526701441</v>
       </c>
       <c r="K9">
-        <v>1.008806013298168</v>
+        <v>0.8350454025548584</v>
       </c>
       <c r="L9">
-        <v>1.193110245622719</v>
+        <v>0.6434200690808319</v>
       </c>
       <c r="M9">
-        <v>0.8512641966705661</v>
+        <v>0.9123295535033756</v>
       </c>
       <c r="N9">
-        <v>1.060782932191622</v>
+        <v>0.8537115758645789</v>
       </c>
       <c r="O9">
-        <v>1.192226144623494</v>
+        <v>0.7965682729759416</v>
       </c>
       <c r="P9">
-        <v>1.13006922167292</v>
+        <v>0.8308560918419516</v>
       </c>
       <c r="Q9">
-        <v>1.295536123284195</v>
+        <v>0.8233938427193591</v>
       </c>
       <c r="R9">
-        <v>0.9911827266955877</v>
+        <v>0.8299025379603007</v>
       </c>
       <c r="S9">
-        <v>0.9229502508109726</v>
+        <v>0.8319509641491662</v>
       </c>
       <c r="T9">
-        <v>1.01066374979602</v>
+        <v>0.807718001760082</v>
       </c>
       <c r="U9">
-        <v>0.6179384741935254</v>
+        <v>0.7449103393215345</v>
       </c>
       <c r="V9">
-        <v>1.29915186357619</v>
+        <v>0.8279028222657241</v>
       </c>
       <c r="W9">
-        <v>0.9933548852918579</v>
+        <v>0.7943270758466633</v>
       </c>
       <c r="X9">
-        <v>0.9023897692731807</v>
+        <v>0.6908023425515093</v>
       </c>
       <c r="Y9">
-        <v>0.8836663474519311</v>
+        <v>0.9037587802265604</v>
       </c>
       <c r="Z9">
-        <v>0.9903009514493728</v>
+        <v>0.8588221801932044</v>
       </c>
       <c r="AA9">
-        <v>1.073813986323867</v>
+        <v>0.821230328063789</v>
       </c>
       <c r="AB9">
-        <v>1.058816688855142</v>
+        <v>0.7717690456840781</v>
       </c>
       <c r="AC9">
-        <v>1.11361364098405</v>
+        <v>0.8357008436462657</v>
       </c>
       <c r="AD9">
-        <v>0.7670188740397695</v>
+        <v>0.7701740084165748</v>
       </c>
       <c r="AE9">
-        <v>1.061025121266021</v>
+        <v>0.8287428154368207</v>
       </c>
       <c r="AF9">
-        <v>1.258905498813505</v>
+        <v>0.7734045243029379</v>
       </c>
       <c r="AG9">
-        <v>1.208977595284391</v>
+        <v>0.6573337496016882</v>
       </c>
       <c r="AH9">
-        <v>0.8939335258494652</v>
+        <v>0.7793691911188184</v>
       </c>
       <c r="AI9">
-        <v>0.6404676318909446</v>
+        <v>0.7635350282872653</v>
       </c>
       <c r="AJ9">
-        <v>1.099937759015572</v>
+        <v>0.7675985000606268</v>
       </c>
       <c r="AK9">
-        <v>1.241602261556765</v>
+        <v>0.6878700131728924</v>
       </c>
       <c r="AL9">
-        <v>1.183087442590381</v>
+        <v>0.6972883360607196</v>
       </c>
       <c r="AM9">
-        <v>1.111327469697307</v>
+        <v>0.7572932238794254</v>
       </c>
       <c r="AN9">
-        <v>1.137659177504488</v>
+        <v>0.7350564180761587</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0.5098423850332731</v>
+        <v>0.9355119488874714</v>
       </c>
       <c r="C10">
-        <v>0.3829577176755688</v>
+        <v>0.8988097552234833</v>
       </c>
       <c r="D10">
-        <v>0.4204568295249237</v>
+        <v>0.8996665998894217</v>
       </c>
       <c r="E10">
-        <v>1.004585737703211</v>
+        <v>0.9310892999858574</v>
       </c>
       <c r="F10">
-        <v>0.6222642970459984</v>
+        <v>0.7909783843581478</v>
       </c>
       <c r="G10">
-        <v>0.8073740428542253</v>
+        <v>0.8070444141620572</v>
       </c>
       <c r="H10">
-        <v>0.7065005760656459</v>
+        <v>0.9502676478236869</v>
       </c>
       <c r="I10">
-        <v>1.025098017495689</v>
+        <v>0.9199559985637188</v>
       </c>
       <c r="J10">
-        <v>0.7827728970204052</v>
+        <v>0.7731155532599784</v>
       </c>
       <c r="K10">
-        <v>0.872952026885961</v>
+        <v>0.927471248354851</v>
       </c>
       <c r="L10">
-        <v>1.08034673052284</v>
+        <v>0.6936073164839247</v>
       </c>
       <c r="M10">
-        <v>0.5651626308055797</v>
+        <v>0.9954584586169685</v>
       </c>
       <c r="N10">
-        <v>0.7274173680368894</v>
+        <v>0.9411179947440029</v>
       </c>
       <c r="O10">
-        <v>0.9163601633336825</v>
+        <v>0.910599075061451</v>
       </c>
       <c r="P10">
-        <v>0.9516960620090074</v>
+        <v>0.946171738045226</v>
       </c>
       <c r="Q10">
-        <v>1.151343423333389</v>
+        <v>0.9363369893242878</v>
       </c>
       <c r="R10">
-        <v>0.7898976958694941</v>
+        <v>0.8931286525275027</v>
       </c>
       <c r="S10">
-        <v>0.7598083941467647</v>
+        <v>0.9563763006229327</v>
       </c>
       <c r="T10">
-        <v>0.9598588810701753</v>
+        <v>0.9237972897481875</v>
       </c>
       <c r="U10">
-        <v>0.4337686599051366</v>
+        <v>0.8565624188805701</v>
       </c>
       <c r="V10">
-        <v>1.087077487977574</v>
+        <v>0.8862482988335643</v>
       </c>
       <c r="W10">
-        <v>0.8539367963216329</v>
+        <v>0.8624721905085246</v>
       </c>
       <c r="X10">
-        <v>0.7006935030122193</v>
+        <v>0.7805947000333291</v>
       </c>
       <c r="Y10">
-        <v>0.6707545829617156</v>
+        <v>1.023154111925168</v>
       </c>
       <c r="Z10">
-        <v>0.7088361476357701</v>
+        <v>0.9706551669971993</v>
       </c>
       <c r="AA10">
-        <v>0.8881116661125374</v>
+        <v>0.8997378959699871</v>
       </c>
       <c r="AB10">
-        <v>0.9159923796525693</v>
+        <v>0.839732631340409</v>
       </c>
       <c r="AC10">
-        <v>1.033610985443732</v>
+        <v>0.9249151928280189</v>
       </c>
       <c r="AD10">
-        <v>0.6733966493354746</v>
+        <v>0.8601017398412636</v>
       </c>
       <c r="AE10">
-        <v>0.9642552933167476</v>
+        <v>0.9378694725266191</v>
       </c>
       <c r="AF10">
-        <v>1.161063381792864</v>
+        <v>0.8810077973245564</v>
       </c>
       <c r="AG10">
-        <v>1.213187542074785</v>
+        <v>0.7594995113290363</v>
       </c>
       <c r="AH10">
-        <v>0.8083188735159009</v>
+        <v>0.8690443629201305</v>
       </c>
       <c r="AI10">
-        <v>0.4911952586566154</v>
+        <v>0.8196442303619716</v>
       </c>
       <c r="AJ10">
-        <v>0.9446545257621638</v>
+        <v>0.8231138880099119</v>
       </c>
       <c r="AK10">
-        <v>1.111566977785866</v>
+        <v>0.7174506739920345</v>
       </c>
       <c r="AL10">
-        <v>1.103834982179526</v>
+        <v>0.7753895362059403</v>
       </c>
       <c r="AM10">
-        <v>1.100966521460962</v>
+        <v>0.8217202411995459</v>
       </c>
       <c r="AN10">
-        <v>1.112463632857477</v>
+        <v>0.7917673370917959</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0.2615625881795386</v>
+        <v>0.9641721515892452</v>
       </c>
       <c r="C11">
-        <v>0.2036517756603321</v>
+        <v>0.9204145052283718</v>
       </c>
       <c r="D11">
-        <v>0.2385208037093663</v>
+        <v>0.9310310621706026</v>
       </c>
       <c r="E11">
-        <v>0.5860799480027147</v>
+        <v>0.956982648510776</v>
       </c>
       <c r="F11">
-        <v>0.3570673328482918</v>
+        <v>0.8166389335036367</v>
       </c>
       <c r="G11">
-        <v>0.4717719293858511</v>
+        <v>0.8283707458496163</v>
       </c>
       <c r="H11">
-        <v>0.3581032863410924</v>
+        <v>0.9728344282319802</v>
       </c>
       <c r="I11">
-        <v>0.6389633763269202</v>
+        <v>0.9448840103881854</v>
       </c>
       <c r="J11">
-        <v>0.4504516116226396</v>
+        <v>0.7914892730690833</v>
       </c>
       <c r="K11">
-        <v>0.474752005628817</v>
+        <v>0.9511356212027229</v>
       </c>
       <c r="L11">
-        <v>0.6270981953944037</v>
+        <v>0.7103875762967035</v>
       </c>
       <c r="M11">
-        <v>0.2828232796227153</v>
+        <v>1.019629868081612</v>
       </c>
       <c r="N11">
-        <v>0.4242246470370275</v>
+        <v>0.9671203589372842</v>
       </c>
       <c r="O11">
-        <v>0.5120670536700539</v>
+        <v>0.939707401288266</v>
       </c>
       <c r="P11">
-        <v>0.554141182157242</v>
+        <v>0.9707875227982722</v>
       </c>
       <c r="Q11">
-        <v>0.6375223814645476</v>
+        <v>0.9620851044308305</v>
       </c>
       <c r="R11">
-        <v>0.470356595711529</v>
+        <v>0.9170116706533197</v>
       </c>
       <c r="S11">
-        <v>0.4424641787217143</v>
+        <v>0.9846180836798545</v>
       </c>
       <c r="T11">
-        <v>0.5531509096515955</v>
+        <v>0.9519414415822511</v>
       </c>
       <c r="U11">
-        <v>0.2513016908298494</v>
+        <v>0.883590596137922</v>
       </c>
       <c r="V11">
-        <v>0.6069100943372004</v>
+        <v>0.905112122072563</v>
       </c>
       <c r="W11">
-        <v>0.5006091964921716</v>
+        <v>0.8839123831030655</v>
       </c>
       <c r="X11">
-        <v>0.3860609342232972</v>
+        <v>0.8033626323336328</v>
       </c>
       <c r="Y11">
-        <v>0.3665581905589645</v>
+        <v>1.062315121447583</v>
       </c>
       <c r="Z11">
-        <v>0.366536607421971</v>
+        <v>1.001000042855374</v>
       </c>
       <c r="AA11">
-        <v>0.5075119132568408</v>
+        <v>0.9246688703076233</v>
       </c>
       <c r="AB11">
-        <v>0.5652650742999831</v>
+        <v>0.8605018086064763</v>
       </c>
       <c r="AC11">
-        <v>0.5931881384679826</v>
+        <v>0.9519669237258364</v>
       </c>
       <c r="AD11">
-        <v>0.3397741785859665</v>
+        <v>0.8858811778267074</v>
       </c>
       <c r="AE11">
-        <v>0.5517674807034436</v>
+        <v>0.9692360127251394</v>
       </c>
       <c r="AF11">
-        <v>0.7098812416838844</v>
+        <v>0.9083043205021227</v>
       </c>
       <c r="AG11">
-        <v>0.6731912264523753</v>
+        <v>0.7855885770059255</v>
       </c>
       <c r="AH11">
-        <v>0.4407982483462176</v>
+        <v>0.8966736240753269</v>
       </c>
       <c r="AI11">
-        <v>0.2632969868687846</v>
+        <v>0.8381092549004932</v>
       </c>
       <c r="AJ11">
-        <v>0.4943775577042139</v>
+        <v>0.8449052362552075</v>
       </c>
       <c r="AK11">
-        <v>0.6365273884496851</v>
+        <v>0.7292524763149881</v>
       </c>
       <c r="AL11">
-        <v>0.6647285599779541</v>
+        <v>0.7956216425094947</v>
       </c>
       <c r="AM11">
-        <v>0.6308351420575549</v>
+        <v>0.8436213780768845</v>
       </c>
       <c r="AN11">
-        <v>0.671236975287429</v>
+        <v>0.8127991847485585</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.234618832114642</v>
+        <v>0.9439906124500405</v>
       </c>
       <c r="C12">
-        <v>0.1353570370035873</v>
+        <v>0.8478265994457133</v>
       </c>
       <c r="D12">
-        <v>0.2961078068828241</v>
+        <v>0.8895694516788724</v>
       </c>
       <c r="E12">
-        <v>0.6642405298184733</v>
+        <v>0.9623370870617557</v>
       </c>
       <c r="F12">
-        <v>0.403660556709932</v>
+        <v>0.7802365469099063</v>
       </c>
       <c r="G12">
-        <v>0.5626063284817848</v>
+        <v>0.8039273282720976</v>
       </c>
       <c r="H12">
-        <v>0.3789680548387651</v>
+        <v>0.9337548869788638</v>
       </c>
       <c r="I12">
-        <v>0.748111596705318</v>
+        <v>0.9163326335184752</v>
       </c>
       <c r="J12">
-        <v>0.5218513780365694</v>
+        <v>0.7916600176901977</v>
       </c>
       <c r="K12">
-        <v>0.5843340021573201</v>
+        <v>0.9237492035719559</v>
       </c>
       <c r="L12">
-        <v>0.7691067885265191</v>
+        <v>0.7099245763961163</v>
       </c>
       <c r="M12">
-        <v>0.2349997685308004</v>
+        <v>1.002665800955346</v>
       </c>
       <c r="N12">
-        <v>0.4316924790833992</v>
+        <v>0.9516375181394588</v>
       </c>
       <c r="O12">
-        <v>0.5728146605419112</v>
+        <v>0.9075704694457664</v>
       </c>
       <c r="P12">
-        <v>0.6655209142088847</v>
+        <v>0.9266322018901898</v>
       </c>
       <c r="Q12">
-        <v>0.7739873246719365</v>
+        <v>0.9279557390989561</v>
       </c>
       <c r="R12">
-        <v>0.5873047754223784</v>
+        <v>0.9217714801923549</v>
       </c>
       <c r="S12">
-        <v>0.5185685185452359</v>
+        <v>0.9439767950060809</v>
       </c>
       <c r="T12">
-        <v>0.7170081137803073</v>
+        <v>0.9180487678711348</v>
       </c>
       <c r="U12">
-        <v>0.2985037235813554</v>
+        <v>0.852697876026395</v>
       </c>
       <c r="V12">
-        <v>0.7241255507129558</v>
+        <v>0.9019069655541552</v>
       </c>
       <c r="W12">
-        <v>0.6116450424558675</v>
+        <v>0.8761817189544937</v>
       </c>
       <c r="X12">
-        <v>0.4478328729858581</v>
+        <v>0.7776686033136072</v>
       </c>
       <c r="Y12">
-        <v>0.4002431950011957</v>
+        <v>1.047727392519426</v>
       </c>
       <c r="Z12">
-        <v>0.3761806198168748</v>
+        <v>0.9764728060620071</v>
       </c>
       <c r="AA12">
-        <v>0.592911125407602</v>
+        <v>0.916624531815833</v>
       </c>
       <c r="AB12">
-        <v>0.6791910976766936</v>
+        <v>0.8494291203192045</v>
       </c>
       <c r="AC12">
-        <v>0.7414059989285433</v>
+        <v>0.9429683809490287</v>
       </c>
       <c r="AD12">
-        <v>0.4176922680560616</v>
+        <v>0.8662252737442901</v>
       </c>
       <c r="AE12">
-        <v>0.6868739017641979</v>
+        <v>0.9514616984270612</v>
       </c>
       <c r="AF12">
-        <v>0.9023094713760631</v>
+        <v>0.8806181935223464</v>
       </c>
       <c r="AG12">
-        <v>0.868955445118804</v>
+        <v>0.75728868853127</v>
       </c>
       <c r="AH12">
-        <v>0.5624346767910045</v>
+        <v>0.8837712536118396</v>
       </c>
       <c r="AI12">
-        <v>0.3220913600824234</v>
+        <v>0.8356094161282355</v>
       </c>
       <c r="AJ12">
-        <v>0.5843759298858598</v>
+        <v>0.8491034589507751</v>
       </c>
       <c r="AK12">
-        <v>0.7513018433739304</v>
+        <v>0.7334451149476559</v>
       </c>
       <c r="AL12">
-        <v>0.8196062112746777</v>
+        <v>0.7793316056133803</v>
       </c>
       <c r="AM12">
-        <v>0.7917744137407525</v>
+        <v>0.8435613180341828</v>
       </c>
       <c r="AN12">
-        <v>0.8347929411770915</v>
+        <v>0.8183928319258668</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块-beta.xlsx
+++ b/FOF/data/基金公司-板块-beta.xlsx
@@ -16,129 +16,147 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
     <t>上投摩根</t>
   </si>
   <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
     <t>诺德</t>
   </si>
   <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
     <t>创业板综</t>
   </si>
   <si>
+    <t>万得全A</t>
+  </si>
+  <si>
     <t>深证综指</t>
   </si>
   <si>
@@ -148,25 +166,7 @@
     <t>中证500</t>
   </si>
   <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
     <t>中证1000</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>上证50</t>
-  </si>
-  <si>
-    <t>上证综指</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0.7756024398298239</v>
+        <v>0.5629321484149643</v>
       </c>
       <c r="C2">
-        <v>0.6905863994481186</v>
+        <v>0.8538321282424289</v>
       </c>
       <c r="D2">
-        <v>0.7134205470130364</v>
+        <v>0.659210257946114</v>
       </c>
       <c r="E2">
-        <v>0.8051706201979941</v>
+        <v>1.014223098163583</v>
       </c>
       <c r="F2">
-        <v>0.6308279096198369</v>
+        <v>0.7522505975648853</v>
       </c>
       <c r="G2">
-        <v>0.6652145046026995</v>
+        <v>0.8186072329697756</v>
       </c>
       <c r="H2">
-        <v>0.7758342882836055</v>
+        <v>0.8018900220660242</v>
       </c>
       <c r="I2">
-        <v>0.7574699730580057</v>
+        <v>0.7073460542200317</v>
       </c>
       <c r="J2">
-        <v>0.6699616802586202</v>
+        <v>0.8334556064198149</v>
       </c>
       <c r="K2">
-        <v>0.7663622485972236</v>
+        <v>0.9518193955641289</v>
       </c>
       <c r="L2">
-        <v>0.5990650189565027</v>
+        <v>0.8402739093060835</v>
       </c>
       <c r="M2">
-        <v>0.8391471968054065</v>
+        <v>0.9846084726529893</v>
       </c>
       <c r="N2">
-        <v>0.7895065817315234</v>
+        <v>0.871083521292765</v>
       </c>
       <c r="O2">
-        <v>0.7378700291083929</v>
+        <v>0.8253260419464955</v>
       </c>
       <c r="P2">
-        <v>0.7623934352707442</v>
+        <v>0.911694711113855</v>
       </c>
       <c r="Q2">
-        <v>0.7647170160656156</v>
+        <v>0.7676781192251947</v>
       </c>
       <c r="R2">
-        <v>0.7740177112156613</v>
+        <v>0.8860550864575807</v>
       </c>
       <c r="S2">
-        <v>0.7709357819297442</v>
+        <v>0.8624085834269825</v>
       </c>
       <c r="T2">
-        <v>0.7496046856178082</v>
+        <v>0.9424258716539804</v>
       </c>
       <c r="U2">
-        <v>0.6946869888827368</v>
+        <v>0.7778980794310779</v>
       </c>
       <c r="V2">
-        <v>0.7658664043334037</v>
+        <v>0.8866703574319498</v>
       </c>
       <c r="W2">
-        <v>0.7349585458559242</v>
+        <v>0.7938549574147435</v>
       </c>
       <c r="X2">
-        <v>0.6379339680428411</v>
+        <v>0.8824266028308394</v>
       </c>
       <c r="Y2">
-        <v>0.8443835074751557</v>
+        <v>0.820254308067189</v>
       </c>
       <c r="Z2">
-        <v>0.7995175073419123</v>
+        <v>0.9589411462049953</v>
       </c>
       <c r="AA2">
-        <v>0.7630436631541876</v>
+        <v>0.8149942256707258</v>
       </c>
       <c r="AB2">
-        <v>0.7111925654496708</v>
+        <v>0.861928222860266</v>
       </c>
       <c r="AC2">
-        <v>0.7821563981055343</v>
+        <v>0.716734140757662</v>
       </c>
       <c r="AD2">
-        <v>0.7118137946059377</v>
+        <v>0.7829848691250697</v>
       </c>
       <c r="AE2">
-        <v>0.7768407698709797</v>
+        <v>0.8333321165978327</v>
       </c>
       <c r="AF2">
-        <v>0.719807529391547</v>
+        <v>0.7274150038176382</v>
       </c>
       <c r="AG2">
-        <v>0.6110931720186129</v>
+        <v>0.9286498161599973</v>
       </c>
       <c r="AH2">
-        <v>0.7254708894213718</v>
+        <v>0.9171331960624451</v>
       </c>
       <c r="AI2">
-        <v>0.7073322151347708</v>
+        <v>0.8606298551221558</v>
       </c>
       <c r="AJ2">
-        <v>0.7130004274771343</v>
+        <v>0.8034402370153134</v>
       </c>
       <c r="AK2">
-        <v>0.6329571981508413</v>
+        <v>0.9335433113927096</v>
       </c>
       <c r="AL2">
-        <v>0.6490931299026109</v>
+        <v>0.9392151800597497</v>
       </c>
       <c r="AM2">
-        <v>0.7073105323672575</v>
+        <v>0.8472623291407553</v>
       </c>
       <c r="AN2">
-        <v>0.6884753818635745</v>
+        <v>0.8096989398970362</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0.8706803155973668</v>
+        <v>0.6118577729867135</v>
       </c>
       <c r="C3">
-        <v>0.8011455389466563</v>
+        <v>0.9190409531129357</v>
       </c>
       <c r="D3">
-        <v>0.8126188904422886</v>
+        <v>0.7078014697699936</v>
       </c>
       <c r="E3">
-        <v>0.8971504136476137</v>
+        <v>1.103318328537035</v>
       </c>
       <c r="F3">
-        <v>0.7157843651992615</v>
+        <v>0.8080865252276395</v>
       </c>
       <c r="G3">
-        <v>0.7532135377660685</v>
+        <v>0.8907128441325955</v>
       </c>
       <c r="H3">
-        <v>0.879108108541001</v>
+        <v>0.8570513234043405</v>
       </c>
       <c r="I3">
-        <v>0.8537121774619698</v>
+        <v>0.7621932206070243</v>
       </c>
       <c r="J3">
-        <v>0.7408707837533153</v>
+        <v>0.8983384079071957</v>
       </c>
       <c r="K3">
-        <v>0.868522511723863</v>
+        <v>1.023652630612463</v>
       </c>
       <c r="L3">
-        <v>0.6663469151422239</v>
+        <v>0.9075239839320677</v>
       </c>
       <c r="M3">
-        <v>0.9454899967405108</v>
+        <v>1.054654500278693</v>
       </c>
       <c r="N3">
-        <v>0.8877874845664425</v>
+        <v>0.9391765790485921</v>
       </c>
       <c r="O3">
-        <v>0.8355792532499462</v>
+        <v>0.886696491371699</v>
       </c>
       <c r="P3">
-        <v>0.8688878468463496</v>
+        <v>0.9741828916386818</v>
       </c>
       <c r="Q3">
-        <v>0.8625533861879177</v>
+        <v>0.82459915503312</v>
       </c>
       <c r="R3">
-        <v>0.8596783611319346</v>
+        <v>0.9483552446875801</v>
       </c>
       <c r="S3">
-        <v>0.8735315681612935</v>
+        <v>0.926227617908959</v>
       </c>
       <c r="T3">
-        <v>0.8474361586793117</v>
+        <v>1.008469305078588</v>
       </c>
       <c r="U3">
-        <v>0.7831561714857223</v>
+        <v>0.8328298086673911</v>
       </c>
       <c r="V3">
-        <v>0.8549891967266462</v>
+        <v>0.9479742489743175</v>
       </c>
       <c r="W3">
-        <v>0.8231542831168533</v>
+        <v>0.8582071424658126</v>
       </c>
       <c r="X3">
-        <v>0.7221969789999415</v>
+        <v>0.9499090196838014</v>
       </c>
       <c r="Y3">
-        <v>0.9480362245909809</v>
+        <v>0.8840514270179081</v>
       </c>
       <c r="Z3">
-        <v>0.8992404786056057</v>
+        <v>1.03016921906932</v>
       </c>
       <c r="AA3">
-        <v>0.8535099017467919</v>
+        <v>0.8804656164403618</v>
       </c>
       <c r="AB3">
-        <v>0.7996218142887654</v>
+        <v>0.9228492170949117</v>
       </c>
       <c r="AC3">
-        <v>0.8715656229534158</v>
+        <v>0.7667692891690179</v>
       </c>
       <c r="AD3">
-        <v>0.8033131264703195</v>
+        <v>0.8407509725118337</v>
       </c>
       <c r="AE3">
-        <v>0.8691507222245827</v>
+        <v>0.9010496661581714</v>
       </c>
       <c r="AF3">
-        <v>0.8111279275785346</v>
+        <v>0.7840275878114658</v>
       </c>
       <c r="AG3">
-        <v>0.6917487853974226</v>
+        <v>1.008251154198615</v>
       </c>
       <c r="AH3">
-        <v>0.8137130096455061</v>
+        <v>0.9952798546966961</v>
       </c>
       <c r="AI3">
-        <v>0.7892736037204623</v>
+        <v>0.9212643911687093</v>
       </c>
       <c r="AJ3">
-        <v>0.7940198002526445</v>
+        <v>0.8667679449529972</v>
       </c>
       <c r="AK3">
-        <v>0.7055915130184492</v>
+        <v>1.006134780477745</v>
       </c>
       <c r="AL3">
-        <v>0.7270476932802247</v>
+        <v>1.01201605948141</v>
       </c>
       <c r="AM3">
-        <v>0.7859798847530772</v>
+        <v>0.9131972400405207</v>
       </c>
       <c r="AN3">
-        <v>0.7620531150845744</v>
+        <v>0.8588029577818244</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>0.9168894278088807</v>
+        <v>0.6401032830715927</v>
       </c>
       <c r="C4">
-        <v>0.853325443905672</v>
+        <v>0.939810923985484</v>
       </c>
       <c r="D4">
-        <v>0.8595256484254307</v>
+        <v>0.7173726619722191</v>
       </c>
       <c r="E4">
-        <v>0.9429531560642848</v>
+        <v>1.152822867495486</v>
       </c>
       <c r="F4">
-        <v>0.7562110723257303</v>
+        <v>0.8225615244231904</v>
       </c>
       <c r="G4">
-        <v>0.7959365096484269</v>
+        <v>0.9327055724540115</v>
       </c>
       <c r="H4">
-        <v>0.9292358494741927</v>
+        <v>0.8611952620990269</v>
       </c>
       <c r="I4">
-        <v>0.9004905949018065</v>
+        <v>0.7800108727320071</v>
       </c>
       <c r="J4">
-        <v>0.7766473772996687</v>
+        <v>0.9207871918185153</v>
       </c>
       <c r="K4">
-        <v>0.9181956691604544</v>
+        <v>1.043985837553329</v>
       </c>
       <c r="L4">
-        <v>0.7000491820203866</v>
+        <v>0.9349799459983766</v>
       </c>
       <c r="M4">
-        <v>0.9977982641812772</v>
+        <v>1.066597654090928</v>
       </c>
       <c r="N4">
-        <v>0.9359015204196762</v>
+        <v>0.9645387918791428</v>
       </c>
       <c r="O4">
-        <v>0.8824020185776719</v>
+        <v>0.9014422896606554</v>
       </c>
       <c r="P4">
-        <v>0.9200751656080288</v>
+        <v>0.9780391618750948</v>
       </c>
       <c r="Q4">
-        <v>0.9099258428027469</v>
+        <v>0.8384556737372942</v>
       </c>
       <c r="R4">
-        <v>0.9025453192304911</v>
+        <v>0.9557614591715734</v>
       </c>
       <c r="S4">
-        <v>0.9227484957726504</v>
+        <v>0.9419993845346508</v>
       </c>
       <c r="T4">
-        <v>0.8944646136825827</v>
+        <v>1.015886382536719</v>
       </c>
       <c r="U4">
-        <v>0.8256657312228232</v>
+        <v>0.8398517719643259</v>
       </c>
       <c r="V4">
-        <v>0.8996756792356768</v>
+        <v>0.9543348625357433</v>
       </c>
       <c r="W4">
-        <v>0.8668420328949604</v>
+        <v>0.8849519675673868</v>
       </c>
       <c r="X4">
-        <v>0.7628482698825899</v>
+        <v>0.9729666465531458</v>
       </c>
       <c r="Y4">
-        <v>0.9978042975589088</v>
+        <v>0.907517703041439</v>
       </c>
       <c r="Z4">
-        <v>0.9475025813083209</v>
+        <v>1.048707572656579</v>
       </c>
       <c r="AA4">
-        <v>0.8981171476856016</v>
+        <v>0.9038356353101088</v>
       </c>
       <c r="AB4">
-        <v>0.8432225676573373</v>
+        <v>0.9316261940212007</v>
       </c>
       <c r="AC4">
-        <v>0.9156288699332538</v>
+        <v>0.7724354480497441</v>
       </c>
       <c r="AD4">
-        <v>0.8476707013772555</v>
+        <v>0.8535808583756714</v>
       </c>
       <c r="AE4">
-        <v>0.9139081061846023</v>
+        <v>0.9307790370583455</v>
       </c>
       <c r="AF4">
-        <v>0.8551684242977134</v>
+        <v>0.8022558269106763</v>
       </c>
       <c r="AG4">
-        <v>0.7301868880545248</v>
+        <v>1.052515705010816</v>
       </c>
       <c r="AH4">
-        <v>0.8566623618418655</v>
+        <v>1.033382693877874</v>
       </c>
       <c r="AI4">
-        <v>0.8302880880729339</v>
+        <v>0.9283791870344709</v>
       </c>
       <c r="AJ4">
-        <v>0.8344803230369913</v>
+        <v>0.8918040516118537</v>
       </c>
       <c r="AK4">
-        <v>0.7425502712889026</v>
+        <v>1.033361196817173</v>
       </c>
       <c r="AL4">
-        <v>0.7653524372168464</v>
+        <v>1.03634288701608</v>
       </c>
       <c r="AM4">
-        <v>0.825236108548425</v>
+        <v>0.9339396902846484</v>
       </c>
       <c r="AN4">
-        <v>0.7990436561670115</v>
+        <v>0.8536292925412073</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>0.8988140864633243</v>
+        <v>0.6343986801136197</v>
       </c>
       <c r="C5">
-        <v>0.8387121595120297</v>
+        <v>0.9229662074237136</v>
       </c>
       <c r="D5">
-        <v>0.8345742659162079</v>
+        <v>0.7024116221156423</v>
       </c>
       <c r="E5">
-        <v>0.9273615596779266</v>
+        <v>1.145464497415058</v>
       </c>
       <c r="F5">
-        <v>0.7383500797960258</v>
+        <v>0.8048450268773608</v>
       </c>
       <c r="G5">
-        <v>0.7822927303386238</v>
+        <v>0.924182739412967</v>
       </c>
       <c r="H5">
-        <v>0.9181565163629186</v>
+        <v>0.8388782467335859</v>
       </c>
       <c r="I5">
-        <v>0.8866334757294714</v>
+        <v>0.7669566258870752</v>
       </c>
       <c r="J5">
-        <v>0.7719462971818473</v>
+        <v>0.9057823405863326</v>
       </c>
       <c r="K5">
-        <v>0.9029958622209033</v>
+        <v>1.022749181395888</v>
       </c>
       <c r="L5">
-        <v>0.6932436104766976</v>
+        <v>0.9205905449791324</v>
       </c>
       <c r="M5">
-        <v>0.983804646677708</v>
+        <v>1.040796024259417</v>
       </c>
       <c r="N5">
-        <v>0.9195435494665348</v>
+        <v>0.9477655623836456</v>
       </c>
       <c r="O5">
-        <v>0.8613822715037931</v>
+        <v>0.8829330555854626</v>
       </c>
       <c r="P5">
-        <v>0.9043789268370493</v>
+        <v>0.9524311353015132</v>
       </c>
       <c r="Q5">
-        <v>0.8959488831686517</v>
+        <v>0.8207785080149373</v>
       </c>
       <c r="R5">
-        <v>0.8905505324047982</v>
+        <v>0.9325114626566907</v>
       </c>
       <c r="S5">
-        <v>0.9047686157286773</v>
+        <v>0.9222330076721192</v>
       </c>
       <c r="T5">
-        <v>0.876035510759597</v>
+        <v>0.9900742351574487</v>
       </c>
       <c r="U5">
-        <v>0.8085721368374431</v>
+        <v>0.819099647130673</v>
       </c>
       <c r="V5">
-        <v>0.892987779988536</v>
+        <v>0.9291155603767555</v>
       </c>
       <c r="W5">
-        <v>0.8556217124332177</v>
+        <v>0.8724602804294529</v>
       </c>
       <c r="X5">
-        <v>0.7473895672468764</v>
+        <v>0.955272044112448</v>
       </c>
       <c r="Y5">
-        <v>0.9663501879166349</v>
+        <v>0.8904198941705707</v>
       </c>
       <c r="Z5">
-        <v>0.9276477370376611</v>
+        <v>1.026928460812013</v>
       </c>
       <c r="AA5">
-        <v>0.8837339871213705</v>
+        <v>0.889868577615278</v>
       </c>
       <c r="AB5">
-        <v>0.8312913364820906</v>
+        <v>0.9084376304876428</v>
       </c>
       <c r="AC5">
-        <v>0.9011141198553947</v>
+        <v>0.752714452795921</v>
       </c>
       <c r="AD5">
-        <v>0.8294858378189477</v>
+        <v>0.8357156971211624</v>
       </c>
       <c r="AE5">
-        <v>0.8936269902199717</v>
+        <v>0.9186240350628513</v>
       </c>
       <c r="AF5">
-        <v>0.8376256062573129</v>
+        <v>0.7882697477581722</v>
       </c>
       <c r="AG5">
-        <v>0.7107868449322043</v>
+        <v>1.042799647956846</v>
       </c>
       <c r="AH5">
-        <v>0.8378282922124086</v>
+        <v>1.022798306950835</v>
       </c>
       <c r="AI5">
-        <v>0.8229076492280651</v>
+        <v>0.9044000878307319</v>
       </c>
       <c r="AJ5">
-        <v>0.8224889015442289</v>
+        <v>0.8776450916931799</v>
       </c>
       <c r="AK5">
-        <v>0.7409502048972099</v>
+        <v>1.015498824800225</v>
       </c>
       <c r="AL5">
-        <v>0.7558094043582632</v>
+        <v>1.017384510515273</v>
       </c>
       <c r="AM5">
-        <v>0.8149014009414853</v>
+        <v>0.9179678249081685</v>
       </c>
       <c r="AN5">
-        <v>0.7898941208860638</v>
+        <v>0.8232583689831505</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.9203204530286569</v>
+        <v>0.6098517856606649</v>
       </c>
       <c r="C6">
-        <v>0.8580106741088173</v>
+        <v>0.9057832809477774</v>
       </c>
       <c r="D6">
-        <v>0.8646739825486389</v>
+        <v>0.6989918268143931</v>
       </c>
       <c r="E6">
-        <v>0.9419231734309012</v>
+        <v>1.111975442391888</v>
       </c>
       <c r="F6">
-        <v>0.7613107865679796</v>
+        <v>0.7915039653387332</v>
       </c>
       <c r="G6">
-        <v>0.7971418542510724</v>
+        <v>0.8894257884048808</v>
       </c>
       <c r="H6">
-        <v>0.9323620867339982</v>
+        <v>0.8366365527363355</v>
       </c>
       <c r="I6">
-        <v>0.9038250540764644</v>
+        <v>0.755148073310421</v>
       </c>
       <c r="J6">
-        <v>0.7783401322439868</v>
+        <v>0.8890393652049985</v>
       </c>
       <c r="K6">
-        <v>0.9188485538171988</v>
+        <v>1.005913103782111</v>
       </c>
       <c r="L6">
-        <v>0.7002093413978805</v>
+        <v>0.8977580406345614</v>
       </c>
       <c r="M6">
-        <v>0.9971822650334419</v>
+        <v>1.028955523938071</v>
       </c>
       <c r="N6">
-        <v>0.9367535588073975</v>
+        <v>0.9247721877860005</v>
       </c>
       <c r="O6">
-        <v>0.8862889592034204</v>
+        <v>0.8729700371612471</v>
       </c>
       <c r="P6">
-        <v>0.9231002660291369</v>
+        <v>0.9512306367548753</v>
       </c>
       <c r="Q6">
-        <v>0.9144487694024273</v>
+        <v>0.8099902563678794</v>
       </c>
       <c r="R6">
-        <v>0.9025283441869152</v>
+        <v>0.9286118951314059</v>
       </c>
       <c r="S6">
-        <v>0.9277681468348523</v>
+        <v>0.9091028303656745</v>
       </c>
       <c r="T6">
-        <v>0.8989437443902241</v>
+        <v>0.9853045579559935</v>
       </c>
       <c r="U6">
-        <v>0.8308302613718967</v>
+        <v>0.8147697688365149</v>
       </c>
       <c r="V6">
-        <v>0.8985875261142282</v>
+        <v>0.9221611309709755</v>
       </c>
       <c r="W6">
-        <v>0.8666708846567005</v>
+        <v>0.8529163716941731</v>
       </c>
       <c r="X6">
-        <v>0.7651856459100013</v>
+        <v>0.9329526921270528</v>
       </c>
       <c r="Y6">
-        <v>1.00169284255878</v>
+        <v>0.8673875559928984</v>
       </c>
       <c r="Z6">
-        <v>0.9514407318541892</v>
+        <v>1.010676268583494</v>
       </c>
       <c r="AA6">
-        <v>0.8990674980290058</v>
+        <v>0.8781835972033062</v>
       </c>
       <c r="AB6">
-        <v>0.8426673504874904</v>
+        <v>0.9007663911680764</v>
       </c>
       <c r="AC6">
-        <v>0.9185259905551458</v>
+        <v>0.7481532670064639</v>
       </c>
       <c r="AD6">
-        <v>0.8492221677077566</v>
+        <v>0.8275089444288301</v>
       </c>
       <c r="AE6">
-        <v>0.9186208225857784</v>
+        <v>0.8949078770541375</v>
       </c>
       <c r="AF6">
-        <v>0.8594354545849534</v>
+        <v>0.7766808505590409</v>
       </c>
       <c r="AG6">
-        <v>0.734422353892959</v>
+        <v>1.004344075247745</v>
       </c>
       <c r="AH6">
-        <v>0.8589126207524742</v>
+        <v>0.9983032706793518</v>
       </c>
       <c r="AI6">
-        <v>0.8295856949522212</v>
+        <v>0.8999385110512458</v>
       </c>
       <c r="AJ6">
-        <v>0.8335906645673267</v>
+        <v>0.8550528042855166</v>
       </c>
       <c r="AK6">
-        <v>0.7394578502558606</v>
+        <v>0.989298683490647</v>
       </c>
       <c r="AL6">
-        <v>0.767796814269887</v>
+        <v>0.9980367646343733</v>
       </c>
       <c r="AM6">
-        <v>0.8261487518822008</v>
+        <v>0.9061909516509223</v>
       </c>
       <c r="AN6">
-        <v>0.7997191569752821</v>
+        <v>0.8140136515488774</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>0.9402460105954596</v>
+        <v>0.55323980624185</v>
       </c>
       <c r="C7">
-        <v>0.8884290188324271</v>
+        <v>0.7743393305539202</v>
       </c>
       <c r="D7">
-        <v>0.8908608621166215</v>
+        <v>0.5870236332837654</v>
       </c>
       <c r="E7">
-        <v>0.9518911877656111</v>
+        <v>0.9977220461759782</v>
       </c>
       <c r="F7">
-        <v>0.7844769240820922</v>
+        <v>0.6752648238697608</v>
       </c>
       <c r="G7">
-        <v>0.8135655347856537</v>
+        <v>0.8155079305224052</v>
       </c>
       <c r="H7">
-        <v>0.9549192498069993</v>
+        <v>0.686808697271464</v>
       </c>
       <c r="I7">
-        <v>0.9245855402416833</v>
+        <v>0.6473355543255905</v>
       </c>
       <c r="J7">
-        <v>0.7892241498784469</v>
+        <v>0.7638871190025652</v>
       </c>
       <c r="K7">
-        <v>0.9367502394388025</v>
+        <v>0.8628437398686136</v>
       </c>
       <c r="L7">
-        <v>0.7089287105103876</v>
+        <v>0.7863989132730119</v>
       </c>
       <c r="M7">
-        <v>1.012362952457058</v>
+        <v>0.8613470639891175</v>
       </c>
       <c r="N7">
-        <v>0.9528915153605887</v>
+        <v>0.8045729802829323</v>
       </c>
       <c r="O7">
-        <v>0.9090299409058624</v>
+        <v>0.7392772619330222</v>
       </c>
       <c r="P7">
-        <v>0.9469903531657772</v>
+        <v>0.7794058389115426</v>
       </c>
       <c r="Q7">
-        <v>0.9377366311280011</v>
+        <v>0.6873642252104392</v>
       </c>
       <c r="R7">
-        <v>0.9128662278245969</v>
+        <v>0.7681366532560604</v>
       </c>
       <c r="S7">
-        <v>0.9535000840980993</v>
+        <v>0.7704385666957144</v>
       </c>
       <c r="T7">
-        <v>0.9225052454478616</v>
+        <v>0.818356946771013</v>
       </c>
       <c r="U7">
-        <v>0.8536600072906653</v>
+        <v>0.6779536365468096</v>
       </c>
       <c r="V7">
-        <v>0.9086120628421651</v>
+        <v>0.7641407267593566</v>
       </c>
       <c r="W7">
-        <v>0.8787870243929891</v>
+        <v>0.7479732849983568</v>
       </c>
       <c r="X7">
-        <v>0.7829720785350101</v>
+        <v>0.8017639847476807</v>
       </c>
       <c r="Y7">
-        <v>1.023534288869606</v>
+        <v>0.7585828637526791</v>
       </c>
       <c r="Z7">
-        <v>0.9733257804900646</v>
+        <v>0.8586303739945608</v>
       </c>
       <c r="AA7">
-        <v>0.9132162801065492</v>
+        <v>0.7663698765001975</v>
       </c>
       <c r="AB7">
-        <v>0.8548348819379926</v>
+        <v>0.7521665847831157</v>
       </c>
       <c r="AC7">
-        <v>0.93523573487971</v>
+        <v>0.6205693389509825</v>
       </c>
       <c r="AD7">
-        <v>0.8662106144868021</v>
+        <v>0.6977127524638588</v>
       </c>
       <c r="AE7">
-        <v>0.9397387459342154</v>
+        <v>0.7832983482254081</v>
       </c>
       <c r="AF7">
-        <v>0.8810167789286941</v>
+        <v>0.6699019060335981</v>
       </c>
       <c r="AG7">
-        <v>0.7549498898294615</v>
+        <v>0.9021990001741096</v>
       </c>
       <c r="AH7">
-        <v>0.8755404648712799</v>
+        <v>0.8907918168586001</v>
       </c>
       <c r="AI7">
-        <v>0.8392298206811495</v>
+        <v>0.7521359938998585</v>
       </c>
       <c r="AJ7">
-        <v>0.8423236334434827</v>
+        <v>0.7429485286381573</v>
       </c>
       <c r="AK7">
-        <v>0.7434829870094768</v>
+        <v>0.8576666495178032</v>
       </c>
       <c r="AL7">
-        <v>0.7831847201870258</v>
+        <v>0.8645179879002123</v>
       </c>
       <c r="AM7">
-        <v>0.8374179148441996</v>
+        <v>0.7792878076089058</v>
       </c>
       <c r="AN7">
-        <v>0.8091946824746098</v>
+        <v>0.6502504551703199</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.9390612086551137</v>
+        <v>0.6363670715469421</v>
       </c>
       <c r="C8">
-        <v>0.890950927476701</v>
+        <v>0.9203506935245019</v>
       </c>
       <c r="D8">
-        <v>0.895647601889166</v>
+        <v>0.7033428857375463</v>
       </c>
       <c r="E8">
-        <v>0.9446495881293913</v>
+        <v>1.154797024594171</v>
       </c>
       <c r="F8">
-        <v>0.7874966964480381</v>
+        <v>0.8022055381850602</v>
       </c>
       <c r="G8">
-        <v>0.8109432465112681</v>
+        <v>0.9308780083503877</v>
       </c>
       <c r="H8">
-        <v>0.9518550873425706</v>
+        <v>0.8340525282828749</v>
       </c>
       <c r="I8">
-        <v>0.9224446140730842</v>
+        <v>0.7676981874796526</v>
       </c>
       <c r="J8">
-        <v>0.7821543855541534</v>
+        <v>0.9052728366198921</v>
       </c>
       <c r="K8">
-        <v>0.9329473108077644</v>
+        <v>1.021641789028563</v>
       </c>
       <c r="L8">
-        <v>0.7026345666558588</v>
+        <v>0.921261891927146</v>
       </c>
       <c r="M8">
-        <v>1.005506003456104</v>
+        <v>1.034569908309477</v>
       </c>
       <c r="N8">
-        <v>0.9486875467478831</v>
+        <v>0.9461478462883972</v>
       </c>
       <c r="O8">
-        <v>0.9105166147974232</v>
+        <v>0.8820466645060978</v>
       </c>
       <c r="P8">
-        <v>0.9460882654576473</v>
+        <v>0.9473501575437377</v>
       </c>
       <c r="Q8">
-        <v>0.9367086747641932</v>
+        <v>0.8191043176342178</v>
       </c>
       <c r="R8">
-        <v>0.9055015434160131</v>
+        <v>0.9287499485674066</v>
       </c>
       <c r="S8">
-        <v>0.9546217445382796</v>
+        <v>0.9192339063452322</v>
       </c>
       <c r="T8">
-        <v>0.923358103427362</v>
+        <v>0.9863673593980165</v>
       </c>
       <c r="U8">
-        <v>0.8551755119839762</v>
+        <v>0.8164092260858674</v>
       </c>
       <c r="V8">
-        <v>0.8989851188345691</v>
+        <v>0.9227169970086737</v>
       </c>
       <c r="W8">
-        <v>0.8722744334060056</v>
+        <v>0.8754816699483412</v>
       </c>
       <c r="X8">
-        <v>0.7823553420855742</v>
+        <v>0.9504465180309369</v>
       </c>
       <c r="Y8">
-        <v>1.026451186598837</v>
+        <v>0.8886891220550618</v>
       </c>
       <c r="Z8">
-        <v>0.9730668788330001</v>
+        <v>1.023169708898065</v>
       </c>
       <c r="AA8">
-        <v>0.9083303226347436</v>
+        <v>0.8976211113220535</v>
       </c>
       <c r="AB8">
-        <v>0.8488484258138619</v>
+        <v>0.9041342240582754</v>
       </c>
       <c r="AC8">
-        <v>0.9315986236871634</v>
+        <v>0.7488458250624404</v>
       </c>
       <c r="AD8">
-        <v>0.8646151706020764</v>
+        <v>0.8345928692711969</v>
       </c>
       <c r="AE8">
-        <v>0.9401920504226912</v>
+        <v>0.9191749204193023</v>
       </c>
       <c r="AF8">
-        <v>0.8814904822830805</v>
+        <v>0.7907210158632374</v>
       </c>
       <c r="AG8">
-        <v>0.7577808638995182</v>
+        <v>1.044212487688715</v>
       </c>
       <c r="AH8">
-        <v>0.8741385036620146</v>
+        <v>1.032133986473929</v>
       </c>
       <c r="AI8">
-        <v>0.8309960686330188</v>
+        <v>0.9024653019550435</v>
       </c>
       <c r="AJ8">
-        <v>0.8352644178848839</v>
+        <v>0.8752982748738909</v>
       </c>
       <c r="AK8">
-        <v>0.7320436032395565</v>
+        <v>1.01148636822664</v>
       </c>
       <c r="AL8">
-        <v>0.7797163710626051</v>
+        <v>1.018104553231769</v>
       </c>
       <c r="AM8">
-        <v>0.8313707790235629</v>
+        <v>0.9214500718827868</v>
       </c>
       <c r="AN8">
-        <v>0.8025004029841478</v>
+        <v>0.8034656533120028</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.8325878421267376</v>
+        <v>0.6307489922978391</v>
       </c>
       <c r="C9">
-        <v>0.7615853884756991</v>
+        <v>0.8941192995266174</v>
       </c>
       <c r="D9">
-        <v>0.7709778300763022</v>
+        <v>0.6827810170539261</v>
       </c>
       <c r="E9">
-        <v>0.8668551640827603</v>
+        <v>1.143819944165545</v>
       </c>
       <c r="F9">
-        <v>0.6792877079636026</v>
+        <v>0.7800487914171189</v>
       </c>
       <c r="G9">
-        <v>0.7230667852788532</v>
+        <v>0.9292894987898812</v>
       </c>
       <c r="H9">
-        <v>0.8420100908192809</v>
+        <v>0.800793678172234</v>
       </c>
       <c r="I9">
-        <v>0.8169330923365234</v>
+        <v>0.7484831759687056</v>
       </c>
       <c r="J9">
-        <v>0.71384526701441</v>
+        <v>0.8819238099200021</v>
       </c>
       <c r="K9">
-        <v>0.8350454025548584</v>
+        <v>0.9964698928790258</v>
       </c>
       <c r="L9">
-        <v>0.6434200690808319</v>
+        <v>0.9038626218801801</v>
       </c>
       <c r="M9">
-        <v>0.9123295535033756</v>
+        <v>0.9987120915677826</v>
       </c>
       <c r="N9">
-        <v>0.8537115758645789</v>
+        <v>0.925231147941148</v>
       </c>
       <c r="O9">
-        <v>0.7965682729759416</v>
+        <v>0.856780535631292</v>
       </c>
       <c r="P9">
-        <v>0.8308560918419516</v>
+        <v>0.9094634581348792</v>
       </c>
       <c r="Q9">
-        <v>0.8233938427193591</v>
+        <v>0.7957179249160043</v>
       </c>
       <c r="R9">
-        <v>0.8299025379603007</v>
+        <v>0.8945632945058539</v>
       </c>
       <c r="S9">
-        <v>0.8319509641491662</v>
+        <v>0.8915986232228204</v>
       </c>
       <c r="T9">
-        <v>0.807718001760082</v>
+        <v>0.9521717610927597</v>
       </c>
       <c r="U9">
-        <v>0.7449103393215345</v>
+        <v>0.7886004946783217</v>
       </c>
       <c r="V9">
-        <v>0.8279028222657241</v>
+        <v>0.8880908048650976</v>
       </c>
       <c r="W9">
-        <v>0.7943270758466633</v>
+        <v>0.8607012090248901</v>
       </c>
       <c r="X9">
-        <v>0.6908023425515093</v>
+        <v>0.9233252351762001</v>
       </c>
       <c r="Y9">
-        <v>0.9037587802265604</v>
+        <v>0.871062865729229</v>
       </c>
       <c r="Z9">
-        <v>0.8588221801932044</v>
+        <v>0.992758621335087</v>
       </c>
       <c r="AA9">
-        <v>0.821230328063789</v>
+        <v>0.8855966961692081</v>
       </c>
       <c r="AB9">
-        <v>0.7717690456840781</v>
+        <v>0.8733571788350929</v>
       </c>
       <c r="AC9">
-        <v>0.8357008436462657</v>
+        <v>0.721732929848786</v>
       </c>
       <c r="AD9">
-        <v>0.7701740084165748</v>
+        <v>0.8094330431000014</v>
       </c>
       <c r="AE9">
-        <v>0.8287428154368207</v>
+        <v>0.900350987656156</v>
       </c>
       <c r="AF9">
-        <v>0.7734045243029379</v>
+        <v>0.7742295373617415</v>
       </c>
       <c r="AG9">
-        <v>0.6573337496016882</v>
+        <v>1.030254423946424</v>
       </c>
       <c r="AH9">
-        <v>0.7793691911188184</v>
+        <v>1.023375539829386</v>
       </c>
       <c r="AI9">
-        <v>0.7635350282872653</v>
+        <v>0.8744285190225194</v>
       </c>
       <c r="AJ9">
-        <v>0.7675985000606268</v>
+        <v>0.8541548471815937</v>
       </c>
       <c r="AK9">
-        <v>0.6878700131728924</v>
+        <v>0.9859723612249601</v>
       </c>
       <c r="AL9">
-        <v>0.6972883360607196</v>
+        <v>0.996703978656276</v>
       </c>
       <c r="AM9">
-        <v>0.7572932238794254</v>
+        <v>0.9017044681783881</v>
       </c>
       <c r="AN9">
-        <v>0.7350564180761587</v>
+        <v>0.7559961175256982</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0.9355119488874714</v>
+        <v>0.6538643138791371</v>
       </c>
       <c r="C10">
-        <v>0.8988097552234833</v>
+        <v>0.9239741395989882</v>
       </c>
       <c r="D10">
-        <v>0.8996665998894217</v>
+        <v>0.7074781860051204</v>
       </c>
       <c r="E10">
-        <v>0.9310892999858574</v>
+        <v>1.191424387103925</v>
       </c>
       <c r="F10">
-        <v>0.7909783843581478</v>
+        <v>0.8047965216420785</v>
       </c>
       <c r="G10">
-        <v>0.8070444141620572</v>
+        <v>0.9649480791741637</v>
       </c>
       <c r="H10">
-        <v>0.9502676478236869</v>
+        <v>0.8255872783167526</v>
       </c>
       <c r="I10">
-        <v>0.9199559985637188</v>
+        <v>0.775555867707301</v>
       </c>
       <c r="J10">
-        <v>0.7731155532599784</v>
+        <v>0.9129599224016574</v>
       </c>
       <c r="K10">
-        <v>0.927471248354851</v>
+        <v>1.029638083186714</v>
       </c>
       <c r="L10">
-        <v>0.6936073164839247</v>
+        <v>0.9355088657054863</v>
       </c>
       <c r="M10">
-        <v>0.9954584586169685</v>
+        <v>1.02882481515493</v>
       </c>
       <c r="N10">
-        <v>0.9411179947440029</v>
+        <v>0.9558500528259336</v>
       </c>
       <c r="O10">
-        <v>0.910599075061451</v>
+        <v>0.8860635463195631</v>
       </c>
       <c r="P10">
-        <v>0.946171738045226</v>
+        <v>0.9378964965152604</v>
       </c>
       <c r="Q10">
-        <v>0.9363369893242878</v>
+        <v>0.8220693801871078</v>
       </c>
       <c r="R10">
-        <v>0.8931286525275027</v>
+        <v>0.9234152353666891</v>
       </c>
       <c r="S10">
-        <v>0.9563763006229327</v>
+        <v>0.9205343825261483</v>
       </c>
       <c r="T10">
-        <v>0.9237972897481875</v>
+        <v>0.9823495607161448</v>
       </c>
       <c r="U10">
-        <v>0.8565624188805701</v>
+        <v>0.8139678698279049</v>
       </c>
       <c r="V10">
-        <v>0.8862482988335643</v>
+        <v>0.9141187461567739</v>
       </c>
       <c r="W10">
-        <v>0.8624721905085246</v>
+        <v>0.8927239775779503</v>
       </c>
       <c r="X10">
-        <v>0.7805947000333291</v>
+        <v>0.9523545805261457</v>
       </c>
       <c r="Y10">
-        <v>1.023154111925168</v>
+        <v>0.8989069043731999</v>
       </c>
       <c r="Z10">
-        <v>0.9706551669971993</v>
+        <v>1.024624427617119</v>
       </c>
       <c r="AA10">
-        <v>0.8997378959699871</v>
+        <v>0.921311999403196</v>
       </c>
       <c r="AB10">
-        <v>0.839732631340409</v>
+        <v>0.900314651276593</v>
       </c>
       <c r="AC10">
-        <v>0.9249151928280189</v>
+        <v>0.7439618335957635</v>
       </c>
       <c r="AD10">
-        <v>0.8601017398412636</v>
+        <v>0.8370378095972622</v>
       </c>
       <c r="AE10">
-        <v>0.9378694725266191</v>
+        <v>0.932714345857718</v>
       </c>
       <c r="AF10">
-        <v>0.8810077973245564</v>
+        <v>0.8027335871655732</v>
       </c>
       <c r="AG10">
-        <v>0.7594995113290363</v>
+        <v>1.067467799779934</v>
       </c>
       <c r="AH10">
-        <v>0.8690443629201305</v>
+        <v>1.065410471105906</v>
       </c>
       <c r="AI10">
-        <v>0.8196442303619716</v>
+        <v>0.9025307580084196</v>
       </c>
       <c r="AJ10">
-        <v>0.8231138880099119</v>
+        <v>0.8824983982352873</v>
       </c>
       <c r="AK10">
-        <v>0.7174506739920345</v>
+        <v>1.017443830420965</v>
       </c>
       <c r="AL10">
-        <v>0.7753895362059403</v>
+        <v>1.031191085799918</v>
       </c>
       <c r="AM10">
-        <v>0.8217202411995459</v>
+        <v>0.9356160890188556</v>
       </c>
       <c r="AN10">
-        <v>0.7917673370917959</v>
+        <v>0.767888645019145</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0.9641721515892452</v>
+        <v>0.5815460042541412</v>
       </c>
       <c r="C11">
-        <v>0.9204145052283718</v>
+        <v>0.8244823500927109</v>
       </c>
       <c r="D11">
-        <v>0.9310310621706026</v>
+        <v>0.622101099095046</v>
       </c>
       <c r="E11">
-        <v>0.956982648510776</v>
+        <v>1.057618405979345</v>
       </c>
       <c r="F11">
-        <v>0.8166389335036367</v>
+        <v>0.7112776177061353</v>
       </c>
       <c r="G11">
-        <v>0.8283707458496163</v>
+        <v>0.8466631092920197</v>
       </c>
       <c r="H11">
-        <v>0.9728344282319802</v>
+        <v>0.7316520448716906</v>
       </c>
       <c r="I11">
-        <v>0.9448840103881854</v>
+        <v>0.6875448375679863</v>
       </c>
       <c r="J11">
-        <v>0.7914892730690833</v>
+        <v>0.8130190121616421</v>
       </c>
       <c r="K11">
-        <v>0.9511356212027229</v>
+        <v>0.9071011204970575</v>
       </c>
       <c r="L11">
-        <v>0.7103875762967035</v>
+        <v>0.8284535993627653</v>
       </c>
       <c r="M11">
-        <v>1.019629868081612</v>
+        <v>0.9124839891881291</v>
       </c>
       <c r="N11">
-        <v>0.9671203589372842</v>
+        <v>0.8479258204467189</v>
       </c>
       <c r="O11">
-        <v>0.939707401288266</v>
+        <v>0.7826861548425876</v>
       </c>
       <c r="P11">
-        <v>0.9707875227982722</v>
+        <v>0.8300154750708518</v>
       </c>
       <c r="Q11">
-        <v>0.9620851044308305</v>
+        <v>0.7263764056387626</v>
       </c>
       <c r="R11">
-        <v>0.9170116706533197</v>
+        <v>0.8172709729970323</v>
       </c>
       <c r="S11">
-        <v>0.9846180836798545</v>
+        <v>0.8163952171477907</v>
       </c>
       <c r="T11">
-        <v>0.9519414415822511</v>
+        <v>0.8648489752870651</v>
       </c>
       <c r="U11">
-        <v>0.883590596137922</v>
+        <v>0.7170294749486232</v>
       </c>
       <c r="V11">
-        <v>0.905112122072563</v>
+        <v>0.8090397041449974</v>
       </c>
       <c r="W11">
-        <v>0.8839123831030655</v>
+        <v>0.7880758776562616</v>
       </c>
       <c r="X11">
-        <v>0.8033626323336328</v>
+        <v>0.8526369797787918</v>
       </c>
       <c r="Y11">
-        <v>1.062315121447583</v>
+        <v>0.7932017903530106</v>
       </c>
       <c r="Z11">
-        <v>1.001000042855374</v>
+        <v>0.9096492007250966</v>
       </c>
       <c r="AA11">
-        <v>0.9246688703076233</v>
+        <v>0.8007598343229931</v>
       </c>
       <c r="AB11">
-        <v>0.8605018086064763</v>
+        <v>0.7947681537190011</v>
       </c>
       <c r="AC11">
-        <v>0.9519669237258364</v>
+        <v>0.6572539657902692</v>
       </c>
       <c r="AD11">
-        <v>0.8858811778267074</v>
+        <v>0.7399600421505018</v>
       </c>
       <c r="AE11">
-        <v>0.9692360127251394</v>
+        <v>0.8322808547438055</v>
       </c>
       <c r="AF11">
-        <v>0.9083043205021227</v>
+        <v>0.7052115880474702</v>
       </c>
       <c r="AG11">
-        <v>0.7855885770059255</v>
+        <v>0.9550724642908373</v>
       </c>
       <c r="AH11">
-        <v>0.8966736240753269</v>
+        <v>0.9341971319714021</v>
       </c>
       <c r="AI11">
-        <v>0.8381092549004932</v>
+        <v>0.7889940550825777</v>
       </c>
       <c r="AJ11">
-        <v>0.8449052362552075</v>
+        <v>0.7886724578665268</v>
       </c>
       <c r="AK11">
-        <v>0.7292524763149881</v>
+        <v>0.9087851547893262</v>
       </c>
       <c r="AL11">
-        <v>0.7956216425094947</v>
+        <v>0.9078362422957907</v>
       </c>
       <c r="AM11">
-        <v>0.8436213780768845</v>
+        <v>0.8220615258191963</v>
       </c>
       <c r="AN11">
-        <v>0.8127991847485585</v>
+        <v>0.6963989077950006</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.9439906124500405</v>
+        <v>0.5921064909773884</v>
       </c>
       <c r="C12">
-        <v>0.8478265994457133</v>
+        <v>0.8449762418918296</v>
       </c>
       <c r="D12">
-        <v>0.8895694516788724</v>
+        <v>0.647993367135496</v>
       </c>
       <c r="E12">
-        <v>0.9623370870617557</v>
+        <v>1.083505093338661</v>
       </c>
       <c r="F12">
-        <v>0.7802365469099063</v>
+        <v>0.7340618193881918</v>
       </c>
       <c r="G12">
-        <v>0.8039273282720976</v>
+        <v>0.8703553365664196</v>
       </c>
       <c r="H12">
-        <v>0.9337548869788638</v>
+        <v>0.7586345850665822</v>
       </c>
       <c r="I12">
-        <v>0.9163326335184752</v>
+        <v>0.7089150557170562</v>
       </c>
       <c r="J12">
-        <v>0.7916600176901977</v>
+        <v>0.8345499227420645</v>
       </c>
       <c r="K12">
-        <v>0.9237492035719559</v>
+        <v>0.9383242893081791</v>
       </c>
       <c r="L12">
-        <v>0.7099245763961163</v>
+        <v>0.8510011296890601</v>
       </c>
       <c r="M12">
-        <v>1.002665800955346</v>
+        <v>0.941680395443657</v>
       </c>
       <c r="N12">
-        <v>0.9516375181394588</v>
+        <v>0.8700235125647793</v>
       </c>
       <c r="O12">
-        <v>0.9075704694457664</v>
+        <v>0.8102606934589539</v>
       </c>
       <c r="P12">
-        <v>0.9266322018901898</v>
+        <v>0.8620138555734532</v>
       </c>
       <c r="Q12">
-        <v>0.9279557390989561</v>
+        <v>0.7510791476088438</v>
       </c>
       <c r="R12">
-        <v>0.9217714801923549</v>
+        <v>0.847638683825496</v>
       </c>
       <c r="S12">
-        <v>0.9439767950060809</v>
+        <v>0.8416387838804499</v>
       </c>
       <c r="T12">
-        <v>0.9180487678711348</v>
+        <v>0.8997445169974257</v>
       </c>
       <c r="U12">
-        <v>0.852697876026395</v>
+        <v>0.745547129385326</v>
       </c>
       <c r="V12">
-        <v>0.9019069655541552</v>
+        <v>0.8375342154651617</v>
       </c>
       <c r="W12">
-        <v>0.8761817189544937</v>
+        <v>0.8123077298638103</v>
       </c>
       <c r="X12">
-        <v>0.7776686033136072</v>
+        <v>0.8698169217355141</v>
       </c>
       <c r="Y12">
-        <v>1.047727392519426</v>
+        <v>0.8159570681924699</v>
       </c>
       <c r="Z12">
-        <v>0.9764728060620071</v>
+        <v>0.93641382561269</v>
       </c>
       <c r="AA12">
-        <v>0.916624531815833</v>
+        <v>0.8376333161356471</v>
       </c>
       <c r="AB12">
-        <v>0.8494291203192045</v>
+        <v>0.8239038887302086</v>
       </c>
       <c r="AC12">
-        <v>0.9429683809490287</v>
+        <v>0.6817690922510254</v>
       </c>
       <c r="AD12">
-        <v>0.8662252737442901</v>
+        <v>0.7661552677441188</v>
       </c>
       <c r="AE12">
-        <v>0.9514616984270612</v>
+        <v>0.8504301395194996</v>
       </c>
       <c r="AF12">
-        <v>0.8806181935223464</v>
+        <v>0.731723990375952</v>
       </c>
       <c r="AG12">
-        <v>0.75728868853127</v>
+        <v>0.9693677178958352</v>
       </c>
       <c r="AH12">
-        <v>0.8837712536118396</v>
+        <v>0.9669762927013495</v>
       </c>
       <c r="AI12">
-        <v>0.8356094161282355</v>
+        <v>0.8245955297082683</v>
       </c>
       <c r="AJ12">
-        <v>0.8491034589507751</v>
+        <v>0.8048054630377399</v>
       </c>
       <c r="AK12">
-        <v>0.7334451149476559</v>
+        <v>0.9275146453614127</v>
       </c>
       <c r="AL12">
-        <v>0.7793316056133803</v>
+        <v>0.9385543659240341</v>
       </c>
       <c r="AM12">
-        <v>0.8435613180341828</v>
+        <v>0.853702409996021</v>
       </c>
       <c r="AN12">
-        <v>0.8183928319258668</v>
+        <v>0.7072995804375067</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块-beta.xlsx
+++ b/FOF/data/基金公司-板块-beta.xlsx
@@ -16,157 +16,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
     <t>中邮创业</t>
   </si>
   <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
     <t>汇丰晋信</t>
   </si>
   <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>中银</t>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>中欧</t>
   </si>
   <si>
     <t>上投摩根</t>
   </si>
   <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>中欧</t>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>兴业</t>
   </si>
   <si>
     <t>嘉实</t>
   </si>
   <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>兴全</t>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>融通</t>
   </si>
   <si>
     <t>易方达</t>
   </si>
   <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
     <t>诺德</t>
   </si>
   <si>
     <t>名称</t>
   </si>
   <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
     <t>上证50</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>创业板综</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中证1000</t>
   </si>
 </sst>
 </file>
@@ -657,121 +657,121 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0.5629321484149643</v>
+        <v>0.3212918646093291</v>
       </c>
       <c r="C2">
-        <v>0.8538321282424289</v>
+        <v>0.544709884449744</v>
       </c>
       <c r="D2">
-        <v>0.659210257946114</v>
+        <v>0.5138378555168227</v>
       </c>
       <c r="E2">
-        <v>1.014223098163583</v>
+        <v>0.5526605458610401</v>
       </c>
       <c r="F2">
-        <v>0.7522505975648853</v>
+        <v>0.4528300267290887</v>
       </c>
       <c r="G2">
-        <v>0.8186072329697756</v>
+        <v>0.7607320343394652</v>
       </c>
       <c r="H2">
-        <v>0.8018900220660242</v>
+        <v>0.6344174187043971</v>
       </c>
       <c r="I2">
-        <v>0.7073460542200317</v>
+        <v>0.6759986546644721</v>
       </c>
       <c r="J2">
-        <v>0.8334556064198149</v>
+        <v>0.7520554854329043</v>
       </c>
       <c r="K2">
-        <v>0.9518193955641289</v>
+        <v>0.4221524283480823</v>
       </c>
       <c r="L2">
-        <v>0.8402739093060835</v>
+        <v>0.7963103721614706</v>
       </c>
       <c r="M2">
-        <v>0.9846084726529893</v>
+        <v>0.4999427899054669</v>
       </c>
       <c r="N2">
-        <v>0.871083521292765</v>
+        <v>0.7303923378962418</v>
       </c>
       <c r="O2">
-        <v>0.8253260419464955</v>
+        <v>0.6827930486456287</v>
       </c>
       <c r="P2">
-        <v>0.911694711113855</v>
+        <v>0.8220425460887857</v>
       </c>
       <c r="Q2">
-        <v>0.7676781192251947</v>
+        <v>0.412612926133166</v>
       </c>
       <c r="R2">
-        <v>0.8860550864575807</v>
+        <v>0.583910312596813</v>
       </c>
       <c r="S2">
-        <v>0.8624085834269825</v>
+        <v>0.5432587880134407</v>
       </c>
       <c r="T2">
-        <v>0.9424258716539804</v>
+        <v>0.408623190690998</v>
       </c>
       <c r="U2">
-        <v>0.7778980794310779</v>
+        <v>0.6799587981526198</v>
       </c>
       <c r="V2">
-        <v>0.8866703574319498</v>
+        <v>0.8871121946701084</v>
       </c>
       <c r="W2">
-        <v>0.7938549574147435</v>
+        <v>0.5794236895435222</v>
       </c>
       <c r="X2">
-        <v>0.8824266028308394</v>
+        <v>0.6460926563059581</v>
       </c>
       <c r="Y2">
-        <v>0.820254308067189</v>
+        <v>0.655019355017173</v>
       </c>
       <c r="Z2">
-        <v>0.9589411462049953</v>
+        <v>0.6257966350119887</v>
       </c>
       <c r="AA2">
-        <v>0.8149942256707258</v>
+        <v>0.5438337019930737</v>
       </c>
       <c r="AB2">
-        <v>0.861928222860266</v>
+        <v>0.715716860288596</v>
       </c>
       <c r="AC2">
-        <v>0.716734140757662</v>
+        <v>0.7302699262033628</v>
       </c>
       <c r="AD2">
-        <v>0.7829848691250697</v>
+        <v>0.877170032362161</v>
       </c>
       <c r="AE2">
-        <v>0.8333321165978327</v>
+        <v>0.7543806802415114</v>
       </c>
       <c r="AF2">
-        <v>0.7274150038176382</v>
+        <v>0.6246027007555017</v>
       </c>
       <c r="AG2">
-        <v>0.9286498161599973</v>
+        <v>0.54772221216985</v>
       </c>
       <c r="AH2">
-        <v>0.9171331960624451</v>
+        <v>0.5863577744716525</v>
       </c>
       <c r="AI2">
-        <v>0.8606298551221558</v>
+        <v>0.7897927133336983</v>
       </c>
       <c r="AJ2">
-        <v>0.8034402370153134</v>
+        <v>0.6889795088151442</v>
       </c>
       <c r="AK2">
-        <v>0.9335433113927096</v>
+        <v>0.6775275587183406</v>
       </c>
       <c r="AL2">
-        <v>0.9392151800597497</v>
+        <v>0.6541091675859487</v>
       </c>
       <c r="AM2">
-        <v>0.8472623291407553</v>
+        <v>0.7215738939208276</v>
       </c>
       <c r="AN2">
-        <v>0.8096989398970362</v>
+        <v>1.018239253864595</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -779,121 +779,121 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0.6118577729867135</v>
+        <v>0.2115202651007927</v>
       </c>
       <c r="C3">
-        <v>0.9190409531129357</v>
+        <v>0.3796947863273382</v>
       </c>
       <c r="D3">
-        <v>0.7078014697699936</v>
+        <v>0.352838466387795</v>
       </c>
       <c r="E3">
-        <v>1.103318328537035</v>
+        <v>0.3534288764556651</v>
       </c>
       <c r="F3">
-        <v>0.8080865252276395</v>
+        <v>0.3015185037787801</v>
       </c>
       <c r="G3">
-        <v>0.8907128441325955</v>
+        <v>0.5323731007643286</v>
       </c>
       <c r="H3">
-        <v>0.8570513234043405</v>
+        <v>0.4451556395385329</v>
       </c>
       <c r="I3">
-        <v>0.7621932206070243</v>
+        <v>0.4800610648690464</v>
       </c>
       <c r="J3">
-        <v>0.8983384079071957</v>
+        <v>0.5784932627710128</v>
       </c>
       <c r="K3">
-        <v>1.023652630612463</v>
+        <v>0.2427537948197111</v>
       </c>
       <c r="L3">
-        <v>0.9075239839320677</v>
+        <v>0.5799422926295811</v>
       </c>
       <c r="M3">
-        <v>1.054654500278693</v>
+        <v>0.3558710095040163</v>
       </c>
       <c r="N3">
-        <v>0.9391765790485921</v>
+        <v>0.4849913456386744</v>
       </c>
       <c r="O3">
-        <v>0.886696491371699</v>
+        <v>0.5007090747512621</v>
       </c>
       <c r="P3">
-        <v>0.9741828916386818</v>
+        <v>0.5799396860744342</v>
       </c>
       <c r="Q3">
-        <v>0.82459915503312</v>
+        <v>0.2465836736170742</v>
       </c>
       <c r="R3">
-        <v>0.9483552446875801</v>
+        <v>0.2955374482029447</v>
       </c>
       <c r="S3">
-        <v>0.926227617908959</v>
+        <v>0.4039322122867829</v>
       </c>
       <c r="T3">
-        <v>1.008469305078588</v>
+        <v>0.3297599596310498</v>
       </c>
       <c r="U3">
-        <v>0.8328298086673911</v>
+        <v>0.4530433705123435</v>
       </c>
       <c r="V3">
-        <v>0.9479742489743175</v>
+        <v>0.6175408452871927</v>
       </c>
       <c r="W3">
-        <v>0.8582071424658126</v>
+        <v>0.4379419468932578</v>
       </c>
       <c r="X3">
-        <v>0.9499090196838014</v>
+        <v>0.4937658519732239</v>
       </c>
       <c r="Y3">
-        <v>0.8840514270179081</v>
+        <v>0.4272982411949608</v>
       </c>
       <c r="Z3">
-        <v>1.03016921906932</v>
+        <v>0.3751411164570638</v>
       </c>
       <c r="AA3">
-        <v>0.8804656164403618</v>
+        <v>0.3559891094751397</v>
       </c>
       <c r="AB3">
-        <v>0.9228492170949117</v>
+        <v>0.5671012245008539</v>
       </c>
       <c r="AC3">
-        <v>0.7667692891690179</v>
+        <v>0.5756148990102877</v>
       </c>
       <c r="AD3">
-        <v>0.8407509725118337</v>
+        <v>0.6836862712396312</v>
       </c>
       <c r="AE3">
-        <v>0.9010496661581714</v>
+        <v>0.5124280331119752</v>
       </c>
       <c r="AF3">
-        <v>0.7840275878114658</v>
+        <v>0.3804298860187958</v>
       </c>
       <c r="AG3">
-        <v>1.008251154198615</v>
+        <v>0.3172242249483149</v>
       </c>
       <c r="AH3">
-        <v>0.9952798546966961</v>
+        <v>0.4145882167321341</v>
       </c>
       <c r="AI3">
-        <v>0.9212643911687093</v>
+        <v>0.5349292948326332</v>
       </c>
       <c r="AJ3">
-        <v>0.8667679449529972</v>
+        <v>0.4744139096691021</v>
       </c>
       <c r="AK3">
-        <v>1.006134780477745</v>
+        <v>0.5139059795029624</v>
       </c>
       <c r="AL3">
-        <v>1.01201605948141</v>
+        <v>0.4703386759400024</v>
       </c>
       <c r="AM3">
-        <v>0.9131972400405207</v>
+        <v>0.5125938516735248</v>
       </c>
       <c r="AN3">
-        <v>0.8588029577818244</v>
+        <v>0.8105998952227454</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -901,121 +901,121 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>0.6401032830715927</v>
+        <v>0.3024251459859391</v>
       </c>
       <c r="C4">
-        <v>0.939810923985484</v>
+        <v>0.5205970785072872</v>
       </c>
       <c r="D4">
-        <v>0.7173726619722191</v>
+        <v>0.5083256741752507</v>
       </c>
       <c r="E4">
-        <v>1.152822867495486</v>
+        <v>0.5192911048659364</v>
       </c>
       <c r="F4">
-        <v>0.8225615244231904</v>
+        <v>0.4354458590450418</v>
       </c>
       <c r="G4">
-        <v>0.9327055724540115</v>
+        <v>0.7320476090583364</v>
       </c>
       <c r="H4">
-        <v>0.8611952620990269</v>
+        <v>0.6055071919418707</v>
       </c>
       <c r="I4">
-        <v>0.7800108727320071</v>
+        <v>0.658800396052358</v>
       </c>
       <c r="J4">
-        <v>0.9207871918185153</v>
+        <v>0.7524873345991142</v>
       </c>
       <c r="K4">
-        <v>1.043985837553329</v>
+        <v>0.3934081717386947</v>
       </c>
       <c r="L4">
-        <v>0.9349799459983766</v>
+        <v>0.7725877172061961</v>
       </c>
       <c r="M4">
-        <v>1.066597654090928</v>
+        <v>0.4686969106269399</v>
       </c>
       <c r="N4">
-        <v>0.9645387918791428</v>
+        <v>0.6925583183149643</v>
       </c>
       <c r="O4">
-        <v>0.9014422896606554</v>
+        <v>0.670422208600103</v>
       </c>
       <c r="P4">
-        <v>0.9780391618750948</v>
+        <v>0.7869442573726838</v>
       </c>
       <c r="Q4">
-        <v>0.8384556737372942</v>
+        <v>0.3696262654107692</v>
       </c>
       <c r="R4">
-        <v>0.9557614591715734</v>
+        <v>0.4951788190032403</v>
       </c>
       <c r="S4">
-        <v>0.9419993845346508</v>
+        <v>0.5462325621319579</v>
       </c>
       <c r="T4">
-        <v>1.015886382536719</v>
+        <v>0.4136660682872575</v>
       </c>
       <c r="U4">
-        <v>0.8398517719643259</v>
+        <v>0.6379334879972665</v>
       </c>
       <c r="V4">
-        <v>0.9543348625357433</v>
+        <v>0.8696522234372521</v>
       </c>
       <c r="W4">
-        <v>0.8849519675673868</v>
+        <v>0.5817098443090526</v>
       </c>
       <c r="X4">
-        <v>0.9729666465531458</v>
+        <v>0.6389802877263376</v>
       </c>
       <c r="Y4">
-        <v>0.907517703041439</v>
+        <v>0.6240121846584582</v>
       </c>
       <c r="Z4">
-        <v>1.048707572656579</v>
+        <v>0.5687572222209657</v>
       </c>
       <c r="AA4">
-        <v>0.9038356353101088</v>
+        <v>0.5130216011177351</v>
       </c>
       <c r="AB4">
-        <v>0.9316261940212007</v>
+        <v>0.7218324122506187</v>
       </c>
       <c r="AC4">
-        <v>0.7724354480497441</v>
+        <v>0.7258390186740751</v>
       </c>
       <c r="AD4">
-        <v>0.8535808583756714</v>
+        <v>0.8712312127635277</v>
       </c>
       <c r="AE4">
-        <v>0.9307790370583455</v>
+        <v>0.724228325548928</v>
       </c>
       <c r="AF4">
-        <v>0.8022558269106763</v>
+        <v>0.5801277408971212</v>
       </c>
       <c r="AG4">
-        <v>1.052515705010816</v>
+        <v>0.4970602696529949</v>
       </c>
       <c r="AH4">
-        <v>1.033382693877874</v>
+        <v>0.5515660432692501</v>
       </c>
       <c r="AI4">
-        <v>0.9283791870344709</v>
+        <v>0.7796358653918055</v>
       </c>
       <c r="AJ4">
-        <v>0.8918040516118537</v>
+        <v>0.6549113533290275</v>
       </c>
       <c r="AK4">
-        <v>1.033361196817173</v>
+        <v>0.6899175993946374</v>
       </c>
       <c r="AL4">
-        <v>1.03634288701608</v>
+        <v>0.6416770598274788</v>
       </c>
       <c r="AM4">
-        <v>0.9339396902846484</v>
+        <v>0.6978089757014199</v>
       </c>
       <c r="AN4">
-        <v>0.8536292925412073</v>
+        <v>1.035173931589807</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1023,121 +1023,121 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>0.6343986801136197</v>
+        <v>0.3132322267812295</v>
       </c>
       <c r="C5">
-        <v>0.9229662074237136</v>
+        <v>0.4414645099663614</v>
       </c>
       <c r="D5">
-        <v>0.7024116221156423</v>
+        <v>0.4712770199011518</v>
       </c>
       <c r="E5">
-        <v>1.145464497415058</v>
+        <v>0.6174904640163673</v>
       </c>
       <c r="F5">
-        <v>0.8048450268773608</v>
+        <v>0.4625010326622869</v>
       </c>
       <c r="G5">
-        <v>0.924182739412967</v>
+        <v>0.6705824299030002</v>
       </c>
       <c r="H5">
-        <v>0.8388782467335859</v>
+        <v>0.5094015255863799</v>
       </c>
       <c r="I5">
-        <v>0.7669566258870752</v>
+        <v>0.5314791611117776</v>
       </c>
       <c r="J5">
-        <v>0.9057823405863326</v>
+        <v>0.3334783690082542</v>
       </c>
       <c r="K5">
-        <v>1.022749181395888</v>
+        <v>0.6093352601813244</v>
       </c>
       <c r="L5">
-        <v>0.9205905449791324</v>
+        <v>0.5372254804986248</v>
       </c>
       <c r="M5">
-        <v>1.040796024259417</v>
+        <v>0.3855509019223308</v>
       </c>
       <c r="N5">
-        <v>0.9477655623836456</v>
+        <v>0.7116479608270286</v>
       </c>
       <c r="O5">
-        <v>0.8829330555854626</v>
+        <v>0.4447238672212404</v>
       </c>
       <c r="P5">
-        <v>0.9524311353015132</v>
+        <v>0.6466208969845473</v>
       </c>
       <c r="Q5">
-        <v>0.8207785080149373</v>
+        <v>0.5217600009303525</v>
       </c>
       <c r="R5">
-        <v>0.9325114626566907</v>
+        <v>1.025345979350615</v>
       </c>
       <c r="S5">
-        <v>0.9222330076721192</v>
+        <v>0.3835835886895531</v>
       </c>
       <c r="T5">
-        <v>0.9900742351574487</v>
+        <v>0.08185959492665298</v>
       </c>
       <c r="U5">
-        <v>0.819099647130673</v>
+        <v>0.639264112542489</v>
       </c>
       <c r="V5">
-        <v>0.9291155603767555</v>
+        <v>0.7480513945714047</v>
       </c>
       <c r="W5">
-        <v>0.8724602804294529</v>
+        <v>0.304417733760606</v>
       </c>
       <c r="X5">
-        <v>0.955272044112448</v>
+        <v>0.3299720343649532</v>
       </c>
       <c r="Y5">
-        <v>0.8904198941705707</v>
+        <v>0.6528670865804148</v>
       </c>
       <c r="Z5">
-        <v>1.026928460812013</v>
+        <v>0.7872717413335119</v>
       </c>
       <c r="AA5">
-        <v>0.889868577615278</v>
+        <v>0.5488936953748461</v>
       </c>
       <c r="AB5">
-        <v>0.9084376304876428</v>
+        <v>0.2244841285510712</v>
       </c>
       <c r="AC5">
-        <v>0.752714452795921</v>
+        <v>0.2533054746544184</v>
       </c>
       <c r="AD5">
-        <v>0.8357156971211624</v>
+        <v>0.3311034974738354</v>
       </c>
       <c r="AE5">
-        <v>0.9186240350628513</v>
+        <v>0.6327852473928056</v>
       </c>
       <c r="AF5">
-        <v>0.7882697477581722</v>
+        <v>0.7781971225991143</v>
       </c>
       <c r="AG5">
-        <v>1.042799647956846</v>
+        <v>0.7560345544934559</v>
       </c>
       <c r="AH5">
-        <v>1.022798306950835</v>
+        <v>0.4017982561218579</v>
       </c>
       <c r="AI5">
-        <v>0.9044000878307319</v>
+        <v>0.6951102114710507</v>
       </c>
       <c r="AJ5">
-        <v>0.8776450916931799</v>
+        <v>0.574766206415383</v>
       </c>
       <c r="AK5">
-        <v>1.015498824800225</v>
+        <v>0.3602455248674155</v>
       </c>
       <c r="AL5">
-        <v>1.017384510515273</v>
+        <v>0.4694472360150667</v>
       </c>
       <c r="AM5">
-        <v>0.9179678249081685</v>
+        <v>0.5074131074877527</v>
       </c>
       <c r="AN5">
-        <v>0.8232583689831505</v>
+        <v>0.4186114630209431</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1145,121 +1145,121 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.6098517856606649</v>
+        <v>0.3240040753477991</v>
       </c>
       <c r="C6">
-        <v>0.9057832809477774</v>
+        <v>0.5370820039138955</v>
       </c>
       <c r="D6">
-        <v>0.6989918268143931</v>
+        <v>0.5457089797057826</v>
       </c>
       <c r="E6">
-        <v>1.111975442391888</v>
+        <v>0.5635554301955341</v>
       </c>
       <c r="F6">
-        <v>0.7915039653387332</v>
+        <v>0.4654939901001041</v>
       </c>
       <c r="G6">
-        <v>0.8894257884048808</v>
+        <v>0.7465673319465325</v>
       </c>
       <c r="H6">
-        <v>0.8366365527363355</v>
+        <v>0.6182626130781015</v>
       </c>
       <c r="I6">
-        <v>0.755148073310421</v>
+        <v>0.6780405325746406</v>
       </c>
       <c r="J6">
-        <v>0.8890393652049985</v>
+        <v>0.7476266284474953</v>
       </c>
       <c r="K6">
-        <v>1.005913103782111</v>
+        <v>0.457261354130008</v>
       </c>
       <c r="L6">
-        <v>0.8977580406345614</v>
+        <v>0.7760816807587176</v>
       </c>
       <c r="M6">
-        <v>1.028955523938071</v>
+        <v>0.4607092780014678</v>
       </c>
       <c r="N6">
-        <v>0.9247721877860005</v>
+        <v>0.7386660939860409</v>
       </c>
       <c r="O6">
-        <v>0.8729700371612471</v>
+        <v>0.6782342457380103</v>
       </c>
       <c r="P6">
-        <v>0.9512306367548753</v>
+        <v>0.8019121468419603</v>
       </c>
       <c r="Q6">
-        <v>0.8099902563678794</v>
+        <v>0.4077952719169575</v>
       </c>
       <c r="R6">
-        <v>0.9286118951314059</v>
+        <v>0.5798288878960894</v>
       </c>
       <c r="S6">
-        <v>0.9091028303656745</v>
+        <v>0.5500961694240262</v>
       </c>
       <c r="T6">
-        <v>0.9853045579559935</v>
+        <v>0.4013217660707136</v>
       </c>
       <c r="U6">
-        <v>0.8147697688365149</v>
+        <v>0.6737542343637236</v>
       </c>
       <c r="V6">
-        <v>0.9221611309709755</v>
+        <v>0.9186352474177459</v>
       </c>
       <c r="W6">
-        <v>0.8529163716941731</v>
+        <v>0.5884202309416928</v>
       </c>
       <c r="X6">
-        <v>0.9329526921270528</v>
+        <v>0.6250700916849155</v>
       </c>
       <c r="Y6">
-        <v>0.8673875559928984</v>
+        <v>0.682675669456977</v>
       </c>
       <c r="Z6">
-        <v>1.010676268583494</v>
+        <v>0.6344712365552643</v>
       </c>
       <c r="AA6">
-        <v>0.8781835972033062</v>
+        <v>0.5518806775774735</v>
       </c>
       <c r="AB6">
-        <v>0.9007663911680764</v>
+        <v>0.7049596653276335</v>
       </c>
       <c r="AC6">
-        <v>0.7481532670064639</v>
+        <v>0.6982023411014635</v>
       </c>
       <c r="AD6">
-        <v>0.8275089444288301</v>
+        <v>0.8491343555529742</v>
       </c>
       <c r="AE6">
-        <v>0.8949078770541375</v>
+        <v>0.7760228802754673</v>
       </c>
       <c r="AF6">
-        <v>0.7766808505590409</v>
+        <v>0.648736036885402</v>
       </c>
       <c r="AG6">
-        <v>1.004344075247745</v>
+        <v>0.5655814453050816</v>
       </c>
       <c r="AH6">
-        <v>0.9983032706793518</v>
+        <v>0.5595913447346161</v>
       </c>
       <c r="AI6">
-        <v>0.8999385110512458</v>
+        <v>0.8564535476357884</v>
       </c>
       <c r="AJ6">
-        <v>0.8550528042855166</v>
+        <v>0.6812409080210047</v>
       </c>
       <c r="AK6">
-        <v>0.989298683490647</v>
+        <v>0.704476282271472</v>
       </c>
       <c r="AL6">
-        <v>0.9980367646343733</v>
+        <v>0.6607903097200136</v>
       </c>
       <c r="AM6">
-        <v>0.9061909516509223</v>
+        <v>0.7225215605788369</v>
       </c>
       <c r="AN6">
-        <v>0.8140136515488774</v>
+        <v>0.9945883721317981</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1267,121 +1267,121 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>0.55323980624185</v>
+        <v>0.3951532685960906</v>
       </c>
       <c r="C7">
-        <v>0.7743393305539202</v>
+        <v>0.6147725794260004</v>
       </c>
       <c r="D7">
-        <v>0.5870236332837654</v>
+        <v>0.6354426771311213</v>
       </c>
       <c r="E7">
-        <v>0.9977220461759782</v>
+        <v>0.7123601263757044</v>
       </c>
       <c r="F7">
-        <v>0.6752648238697608</v>
+        <v>0.5644341035700947</v>
       </c>
       <c r="G7">
-        <v>0.8155079305224052</v>
+        <v>0.8602849926361608</v>
       </c>
       <c r="H7">
-        <v>0.686808697271464</v>
+        <v>0.7038363999350652</v>
       </c>
       <c r="I7">
-        <v>0.6473355543255905</v>
+        <v>0.7599784784828202</v>
       </c>
       <c r="J7">
-        <v>0.7638871190025652</v>
+        <v>0.7382607784831753</v>
       </c>
       <c r="K7">
-        <v>0.8628437398686136</v>
+        <v>0.6298898041935841</v>
       </c>
       <c r="L7">
-        <v>0.7863989132730119</v>
+        <v>0.8387551846757388</v>
       </c>
       <c r="M7">
-        <v>0.8613470639891175</v>
+        <v>0.5182100716402261</v>
       </c>
       <c r="N7">
-        <v>0.8045729802829323</v>
+        <v>0.8946655910132161</v>
       </c>
       <c r="O7">
-        <v>0.7392772619330222</v>
+        <v>0.7250644750311518</v>
       </c>
       <c r="P7">
-        <v>0.7794058389115426</v>
+        <v>0.906449823110382</v>
       </c>
       <c r="Q7">
-        <v>0.6873642252104392</v>
+        <v>0.5517067726832745</v>
       </c>
       <c r="R7">
-        <v>0.7681366532560604</v>
+        <v>0.9007729426626334</v>
       </c>
       <c r="S7">
-        <v>0.7704385666957144</v>
+        <v>0.5844058273593732</v>
       </c>
       <c r="T7">
-        <v>0.818356946771013</v>
+        <v>0.3597683698482291</v>
       </c>
       <c r="U7">
-        <v>0.6779536365468096</v>
+        <v>0.8130592866094482</v>
       </c>
       <c r="V7">
-        <v>0.7641407267593566</v>
+        <v>1.051578748943835</v>
       </c>
       <c r="W7">
-        <v>0.7479732849983568</v>
+        <v>0.5993586837937609</v>
       </c>
       <c r="X7">
-        <v>0.8017639847476807</v>
+        <v>0.6277140218949884</v>
       </c>
       <c r="Y7">
-        <v>0.7585828637526791</v>
+        <v>0.8357542271904732</v>
       </c>
       <c r="Z7">
-        <v>0.8586303739945608</v>
+        <v>0.8508412685551189</v>
       </c>
       <c r="AA7">
-        <v>0.7663698765001975</v>
+        <v>0.6780291501749256</v>
       </c>
       <c r="AB7">
-        <v>0.7521665847831157</v>
+        <v>0.6589797173243273</v>
       </c>
       <c r="AC7">
-        <v>0.6205693389509825</v>
+        <v>0.6587115971389759</v>
       </c>
       <c r="AD7">
-        <v>0.6977127524638588</v>
+        <v>0.816632257615172</v>
       </c>
       <c r="AE7">
-        <v>0.7832983482254081</v>
+        <v>0.9060284326093797</v>
       </c>
       <c r="AF7">
-        <v>0.6699019060335981</v>
+        <v>0.8555592665833394</v>
       </c>
       <c r="AG7">
-        <v>0.9021990001741096</v>
+        <v>0.7806539035307832</v>
       </c>
       <c r="AH7">
-        <v>0.8907918168586001</v>
+        <v>0.623640240617063</v>
       </c>
       <c r="AI7">
-        <v>0.7521359938998585</v>
+        <v>1.000516236818157</v>
       </c>
       <c r="AJ7">
-        <v>0.7429485286381573</v>
+        <v>0.7900992530719591</v>
       </c>
       <c r="AK7">
-        <v>0.8576666495178032</v>
+        <v>0.715733893589497</v>
       </c>
       <c r="AL7">
-        <v>0.8645179879002123</v>
+        <v>0.7253387648678216</v>
       </c>
       <c r="AM7">
-        <v>0.7792878076089058</v>
+        <v>0.8006574056561087</v>
       </c>
       <c r="AN7">
-        <v>0.6502504551703199</v>
+        <v>0.9387972942570055</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1389,121 +1389,121 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.6363670715469421</v>
+        <v>0.3213311292615483</v>
       </c>
       <c r="C8">
-        <v>0.9203506935245019</v>
+        <v>0.5453025473682326</v>
       </c>
       <c r="D8">
-        <v>0.7033428857375463</v>
+        <v>0.5395341607928722</v>
       </c>
       <c r="E8">
-        <v>1.154797024594171</v>
+        <v>0.5471625310131852</v>
       </c>
       <c r="F8">
-        <v>0.8022055381850602</v>
+        <v>0.4564709040564839</v>
       </c>
       <c r="G8">
-        <v>0.9308780083503877</v>
+        <v>0.7496845804506734</v>
       </c>
       <c r="H8">
-        <v>0.8340525282828749</v>
+        <v>0.6292575614166762</v>
       </c>
       <c r="I8">
-        <v>0.7676981874796526</v>
+        <v>0.687639659754493</v>
       </c>
       <c r="J8">
-        <v>0.9052728366198921</v>
+        <v>0.7931671191271426</v>
       </c>
       <c r="K8">
-        <v>1.021641789028563</v>
+        <v>0.4230692900067866</v>
       </c>
       <c r="L8">
-        <v>0.921261891927146</v>
+        <v>0.8027050531283245</v>
       </c>
       <c r="M8">
-        <v>1.034569908309477</v>
+        <v>0.4752080305888843</v>
       </c>
       <c r="N8">
-        <v>0.9461478462883972</v>
+        <v>0.7316675530552562</v>
       </c>
       <c r="O8">
-        <v>0.8820466645060978</v>
+        <v>0.7010492285683336</v>
       </c>
       <c r="P8">
-        <v>0.9473501575437377</v>
+        <v>0.8176657019782132</v>
       </c>
       <c r="Q8">
-        <v>0.8191043176342178</v>
+        <v>0.3906913465849491</v>
       </c>
       <c r="R8">
-        <v>0.9287499485674066</v>
+        <v>0.5181853882642909</v>
       </c>
       <c r="S8">
-        <v>0.9192339063452322</v>
+        <v>0.5610153488863777</v>
       </c>
       <c r="T8">
-        <v>0.9863673593980165</v>
+        <v>0.4401257896788219</v>
       </c>
       <c r="U8">
-        <v>0.8164092260858674</v>
+        <v>0.672845967407195</v>
       </c>
       <c r="V8">
-        <v>0.9227169970086737</v>
+        <v>0.9207007402364802</v>
       </c>
       <c r="W8">
-        <v>0.8754816699483412</v>
+        <v>0.6152787621615669</v>
       </c>
       <c r="X8">
-        <v>0.9504465180309369</v>
+        <v>0.6604881118792083</v>
       </c>
       <c r="Y8">
-        <v>0.8886891220550618</v>
+        <v>0.6721437834224239</v>
       </c>
       <c r="Z8">
-        <v>1.023169708898065</v>
+        <v>0.6065035315378156</v>
       </c>
       <c r="AA8">
-        <v>0.8976211113220535</v>
+        <v>0.5441763306777104</v>
       </c>
       <c r="AB8">
-        <v>0.9041342240582754</v>
+        <v>0.7614134962539568</v>
       </c>
       <c r="AC8">
-        <v>0.7488458250624404</v>
+        <v>0.7557192258203472</v>
       </c>
       <c r="AD8">
-        <v>0.8345928692711969</v>
+        <v>0.9135619942858656</v>
       </c>
       <c r="AE8">
-        <v>0.9191749204193023</v>
+        <v>0.7811422980764398</v>
       </c>
       <c r="AF8">
-        <v>0.7907210158632374</v>
+        <v>0.6186565900983535</v>
       </c>
       <c r="AG8">
-        <v>1.044212487688715</v>
+        <v>0.5306499096127626</v>
       </c>
       <c r="AH8">
-        <v>1.032133986473929</v>
+        <v>0.582043025724739</v>
       </c>
       <c r="AI8">
-        <v>0.9024653019550435</v>
+        <v>0.8500364072201236</v>
       </c>
       <c r="AJ8">
-        <v>0.8752982748738909</v>
+        <v>0.6896755659820474</v>
       </c>
       <c r="AK8">
-        <v>1.01148636822664</v>
+        <v>0.7323556489819562</v>
       </c>
       <c r="AL8">
-        <v>1.018104553231769</v>
+        <v>0.6755294562193214</v>
       </c>
       <c r="AM8">
-        <v>0.9214500718827868</v>
+        <v>0.7424373656094886</v>
       </c>
       <c r="AN8">
-        <v>0.8034656533120028</v>
+        <v>1.059850554224453</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1511,121 +1511,121 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.6307489922978391</v>
+        <v>0.396137800458915</v>
       </c>
       <c r="C9">
-        <v>0.8941192995266174</v>
+        <v>0.5798041199177778</v>
       </c>
       <c r="D9">
-        <v>0.6827810170539261</v>
+        <v>0.6083654504078321</v>
       </c>
       <c r="E9">
-        <v>1.143819944165545</v>
+        <v>0.7313798071565616</v>
       </c>
       <c r="F9">
-        <v>0.7800487914171189</v>
+        <v>0.5583430940772166</v>
       </c>
       <c r="G9">
-        <v>0.9292894987898812</v>
+        <v>0.8066089524024326</v>
       </c>
       <c r="H9">
-        <v>0.800793678172234</v>
+        <v>0.6582661448982063</v>
       </c>
       <c r="I9">
-        <v>0.7484831759687056</v>
+        <v>0.6995138345223763</v>
       </c>
       <c r="J9">
-        <v>0.8819238099200021</v>
+        <v>0.5939083238671252</v>
       </c>
       <c r="K9">
-        <v>0.9964698928790258</v>
+        <v>0.6904041739359503</v>
       </c>
       <c r="L9">
-        <v>0.9038626218801801</v>
+        <v>0.7440921833415413</v>
       </c>
       <c r="M9">
-        <v>0.9987120915677826</v>
+        <v>0.4751082851409935</v>
       </c>
       <c r="N9">
-        <v>0.925231147941148</v>
+        <v>0.88900037121747</v>
       </c>
       <c r="O9">
-        <v>0.856780535631292</v>
+        <v>0.636853199311686</v>
       </c>
       <c r="P9">
-        <v>0.9094634581348792</v>
+        <v>0.841770171224969</v>
       </c>
       <c r="Q9">
-        <v>0.7957179249160043</v>
+        <v>0.5979109923679023</v>
       </c>
       <c r="R9">
-        <v>0.8945632945058539</v>
+        <v>1.059748032684496</v>
       </c>
       <c r="S9">
-        <v>0.8915986232228204</v>
+        <v>0.5024153961275206</v>
       </c>
       <c r="T9">
-        <v>0.9521717610927597</v>
+        <v>0.2549420276354814</v>
       </c>
       <c r="U9">
-        <v>0.7886004946783217</v>
+        <v>0.8064347687758021</v>
       </c>
       <c r="V9">
-        <v>0.8880908048650976</v>
+        <v>0.9922944208218281</v>
       </c>
       <c r="W9">
-        <v>0.8607012090248901</v>
+        <v>0.5007227314513246</v>
       </c>
       <c r="X9">
-        <v>0.9233252351762001</v>
+        <v>0.5100607013078853</v>
       </c>
       <c r="Y9">
-        <v>0.871062865729229</v>
+        <v>0.8431694191420688</v>
       </c>
       <c r="Z9">
-        <v>0.992758621335087</v>
+        <v>0.9176581198959554</v>
       </c>
       <c r="AA9">
-        <v>0.8855966961692081</v>
+        <v>0.6828537819132476</v>
       </c>
       <c r="AB9">
-        <v>0.8733571788350929</v>
+        <v>0.4930940957157431</v>
       </c>
       <c r="AC9">
-        <v>0.721732929848786</v>
+        <v>0.496139395719181</v>
       </c>
       <c r="AD9">
-        <v>0.8094330431000014</v>
+        <v>0.6344504320481508</v>
       </c>
       <c r="AE9">
-        <v>0.900350987656156</v>
+        <v>0.8798761398577156</v>
       </c>
       <c r="AF9">
-        <v>0.7742295373617415</v>
+        <v>0.91002400883322</v>
       </c>
       <c r="AG9">
-        <v>1.030254423946424</v>
+        <v>0.8577316777053969</v>
       </c>
       <c r="AH9">
-        <v>1.023375539829386</v>
+        <v>0.5779878719300804</v>
       </c>
       <c r="AI9">
-        <v>0.8744285190225194</v>
+        <v>0.9720772696860694</v>
       </c>
       <c r="AJ9">
-        <v>0.8541548471815937</v>
+        <v>0.7563169892420657</v>
       </c>
       <c r="AK9">
-        <v>0.9859723612249601</v>
+        <v>0.5956896591056324</v>
       </c>
       <c r="AL9">
-        <v>0.996703978656276</v>
+        <v>0.6565534931463443</v>
       </c>
       <c r="AM9">
-        <v>0.9017044681783881</v>
+        <v>0.7371922968241121</v>
       </c>
       <c r="AN9">
-        <v>0.7559961175256982</v>
+        <v>0.694158377788646</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1633,121 +1633,121 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0.6538643138791371</v>
+        <v>0.3270539958816225</v>
       </c>
       <c r="C10">
-        <v>0.9239741395989882</v>
+        <v>0.4330856121780595</v>
       </c>
       <c r="D10">
-        <v>0.7074781860051204</v>
+        <v>0.4896602510721272</v>
       </c>
       <c r="E10">
-        <v>1.191424387103925</v>
+        <v>0.6284151692767329</v>
       </c>
       <c r="F10">
-        <v>0.8047965216420785</v>
+        <v>0.4607692483597056</v>
       </c>
       <c r="G10">
-        <v>0.9649480791741637</v>
+        <v>0.6002385098470275</v>
       </c>
       <c r="H10">
-        <v>0.8255872783167526</v>
+        <v>0.4818221175471339</v>
       </c>
       <c r="I10">
-        <v>0.775555867707301</v>
+        <v>0.5108789146724938</v>
       </c>
       <c r="J10">
-        <v>0.9129599224016574</v>
+        <v>0.3251856635874492</v>
       </c>
       <c r="K10">
-        <v>1.029638083186714</v>
+        <v>0.6541071085582949</v>
       </c>
       <c r="L10">
-        <v>0.9355088657054863</v>
+        <v>0.496265259155056</v>
       </c>
       <c r="M10">
-        <v>1.02882481515493</v>
+        <v>0.3218771455644859</v>
       </c>
       <c r="N10">
-        <v>0.9558500528259336</v>
+        <v>0.7281255100392612</v>
       </c>
       <c r="O10">
-        <v>0.8860635463195631</v>
+        <v>0.4240393964433181</v>
       </c>
       <c r="P10">
-        <v>0.9378964965152604</v>
+        <v>0.6095512391006661</v>
       </c>
       <c r="Q10">
-        <v>0.8220693801871078</v>
+        <v>0.5377713058968595</v>
       </c>
       <c r="R10">
-        <v>0.9234152353666891</v>
+        <v>1.042985982984158</v>
       </c>
       <c r="S10">
-        <v>0.9205343825261483</v>
+        <v>0.3313764428542625</v>
       </c>
       <c r="T10">
-        <v>0.9823495607161448</v>
+        <v>0.08734385631181843</v>
       </c>
       <c r="U10">
-        <v>0.8139678698279049</v>
+        <v>0.6499136771829319</v>
       </c>
       <c r="V10">
-        <v>0.9141187461567739</v>
+        <v>0.7688014610583342</v>
       </c>
       <c r="W10">
-        <v>0.8927239775779503</v>
+        <v>0.3075181369971685</v>
       </c>
       <c r="X10">
-        <v>0.9523545805261457</v>
+        <v>0.27886897118578</v>
       </c>
       <c r="Y10">
-        <v>0.8989069043731999</v>
+        <v>0.7138783578150042</v>
       </c>
       <c r="Z10">
-        <v>1.024624427617119</v>
+        <v>0.8299878112509058</v>
       </c>
       <c r="AA10">
-        <v>0.921311999403196</v>
+        <v>0.5698317464134161</v>
       </c>
       <c r="AB10">
-        <v>0.900314651276593</v>
+        <v>0.214275927091511</v>
       </c>
       <c r="AC10">
-        <v>0.7439618335957635</v>
+        <v>0.2092412547935168</v>
       </c>
       <c r="AD10">
-        <v>0.8370378095972622</v>
+        <v>0.3023182733683844</v>
       </c>
       <c r="AE10">
-        <v>0.932714345857718</v>
+        <v>0.7018098651840534</v>
       </c>
       <c r="AF10">
-        <v>0.8027335871655732</v>
+        <v>0.820561981302784</v>
       </c>
       <c r="AG10">
-        <v>1.067467799779934</v>
+        <v>0.7984621691105751</v>
       </c>
       <c r="AH10">
-        <v>1.065410471105906</v>
+        <v>0.4054660873005363</v>
       </c>
       <c r="AI10">
-        <v>0.9025307580084196</v>
+        <v>0.8020252544247153</v>
       </c>
       <c r="AJ10">
-        <v>0.8824983982352873</v>
+        <v>0.5781927511180803</v>
       </c>
       <c r="AK10">
-        <v>1.017443830420965</v>
+        <v>0.3730326440157204</v>
       </c>
       <c r="AL10">
-        <v>1.031191085799918</v>
+        <v>0.4676495618503556</v>
       </c>
       <c r="AM10">
-        <v>0.9356160890188556</v>
+        <v>0.5331994110226779</v>
       </c>
       <c r="AN10">
-        <v>0.767888645019145</v>
+        <v>0.2942746644983646</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1755,121 +1755,121 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0.5815460042541412</v>
+        <v>0.1668406387569066</v>
       </c>
       <c r="C11">
-        <v>0.8244823500927109</v>
+        <v>0.1544180179267301</v>
       </c>
       <c r="D11">
-        <v>0.622101099095046</v>
+        <v>0.2265782264095084</v>
       </c>
       <c r="E11">
-        <v>1.057618405979345</v>
+        <v>0.3611836897117815</v>
       </c>
       <c r="F11">
-        <v>0.7112776177061353</v>
+        <v>0.2369067046530546</v>
       </c>
       <c r="G11">
-        <v>0.8466631092920197</v>
+        <v>0.2197454617877416</v>
       </c>
       <c r="H11">
-        <v>0.7316520448716906</v>
+        <v>0.158394663747111</v>
       </c>
       <c r="I11">
-        <v>0.6875448375679863</v>
+        <v>0.1620690418199487</v>
       </c>
       <c r="J11">
-        <v>0.8130190121616421</v>
+        <v>-0.09103993404452822</v>
       </c>
       <c r="K11">
-        <v>0.9071011204970575</v>
+        <v>0.4602051126256085</v>
       </c>
       <c r="L11">
-        <v>0.8284535993627653</v>
+        <v>0.07923837732246228</v>
       </c>
       <c r="M11">
-        <v>0.9124839891881291</v>
+        <v>0.07042498432937747</v>
       </c>
       <c r="N11">
-        <v>0.8479258204467189</v>
+        <v>0.3641517168952832</v>
       </c>
       <c r="O11">
-        <v>0.7826861548425876</v>
+        <v>0.0624247170791849</v>
       </c>
       <c r="P11">
-        <v>0.8300154750708518</v>
+        <v>0.1889288034224839</v>
       </c>
       <c r="Q11">
-        <v>0.7263764056387626</v>
+        <v>0.3464251871259355</v>
       </c>
       <c r="R11">
-        <v>0.8172709729970323</v>
+        <v>0.8037689377453524</v>
       </c>
       <c r="S11">
-        <v>0.8163952171477907</v>
+        <v>0.04690283353013384</v>
       </c>
       <c r="T11">
-        <v>0.8648489752870651</v>
+        <v>-0.1495176589236189</v>
       </c>
       <c r="U11">
-        <v>0.7170294749486232</v>
+        <v>0.3105562277086049</v>
       </c>
       <c r="V11">
-        <v>0.8090397041449974</v>
+        <v>0.3109404567011458</v>
       </c>
       <c r="W11">
-        <v>0.7880758776562616</v>
+        <v>-0.009947459625550336</v>
       </c>
       <c r="X11">
-        <v>0.8526369797787918</v>
+        <v>-0.06990085050181699</v>
       </c>
       <c r="Y11">
-        <v>0.7932017903530106</v>
+        <v>0.384592086320232</v>
       </c>
       <c r="Z11">
-        <v>0.9096492007250966</v>
+        <v>0.5364703097131422</v>
       </c>
       <c r="AA11">
-        <v>0.8007598343229931</v>
+        <v>0.3003433393853335</v>
       </c>
       <c r="AB11">
-        <v>0.7947681537190011</v>
+        <v>-0.1911412669797358</v>
       </c>
       <c r="AC11">
-        <v>0.6572539657902692</v>
+        <v>-0.1976068374385654</v>
       </c>
       <c r="AD11">
-        <v>0.7399600421505018</v>
+        <v>-0.1857368876453258</v>
       </c>
       <c r="AE11">
-        <v>0.8322808547438055</v>
+        <v>0.3108218012253987</v>
       </c>
       <c r="AF11">
-        <v>0.7052115880474702</v>
+        <v>0.5246892123866148</v>
       </c>
       <c r="AG11">
-        <v>0.9550724642908373</v>
+        <v>0.5473959216573214</v>
       </c>
       <c r="AH11">
-        <v>0.9341971319714021</v>
+        <v>0.09938968312952488</v>
       </c>
       <c r="AI11">
-        <v>0.7889940550825777</v>
+        <v>0.3890331676387482</v>
       </c>
       <c r="AJ11">
-        <v>0.7886724578665268</v>
+        <v>0.2267372879740464</v>
       </c>
       <c r="AK11">
-        <v>0.9087851547893262</v>
+        <v>-0.0002759553221062095</v>
       </c>
       <c r="AL11">
-        <v>0.9078362422957907</v>
+        <v>0.1238495905699777</v>
       </c>
       <c r="AM11">
-        <v>0.8220615258191963</v>
+        <v>0.1525906999359081</v>
       </c>
       <c r="AN11">
-        <v>0.6963989077950006</v>
+        <v>-0.2662122906557233</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1877,121 +1877,121 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.5921064909773884</v>
+        <v>0.08428622207775861</v>
       </c>
       <c r="C12">
-        <v>0.8449762418918296</v>
+        <v>0.05189358329572632</v>
       </c>
       <c r="D12">
-        <v>0.647993367135496</v>
+        <v>0.07518706437895438</v>
       </c>
       <c r="E12">
-        <v>1.083505093338661</v>
+        <v>0.2078013737008582</v>
       </c>
       <c r="F12">
-        <v>0.7340618193881918</v>
+        <v>0.11853230820611</v>
       </c>
       <c r="G12">
-        <v>0.8703553365664196</v>
+        <v>0.09709579535931209</v>
       </c>
       <c r="H12">
-        <v>0.7586345850665822</v>
+        <v>0.05389986816929852</v>
       </c>
       <c r="I12">
-        <v>0.7089150557170562</v>
+        <v>0.03099086402768335</v>
       </c>
       <c r="J12">
-        <v>0.8345499227420645</v>
+        <v>-0.2004060536749718</v>
       </c>
       <c r="K12">
-        <v>0.9383242893081791</v>
+        <v>0.2835152730855023</v>
       </c>
       <c r="L12">
-        <v>0.8510011296890601</v>
+        <v>-0.03476996675331512</v>
       </c>
       <c r="M12">
-        <v>0.941680395443657</v>
+        <v>0.03242148923957466</v>
       </c>
       <c r="N12">
-        <v>0.8700235125647793</v>
+        <v>0.180983008567498</v>
       </c>
       <c r="O12">
-        <v>0.8102606934589539</v>
+        <v>-0.05090876433939738</v>
       </c>
       <c r="P12">
-        <v>0.8620138555734532</v>
+        <v>0.05527139453619403</v>
       </c>
       <c r="Q12">
-        <v>0.7510791476088438</v>
+        <v>0.2317805605163809</v>
       </c>
       <c r="R12">
-        <v>0.847638683825496</v>
+        <v>0.6004585109409698</v>
       </c>
       <c r="S12">
-        <v>0.8416387838804499</v>
+        <v>-0.04181555634574534</v>
       </c>
       <c r="T12">
-        <v>0.8997445169974257</v>
+        <v>-0.1946345513759937</v>
       </c>
       <c r="U12">
-        <v>0.745547129385326</v>
+        <v>0.1580387112292278</v>
       </c>
       <c r="V12">
-        <v>0.8375342154651617</v>
+        <v>0.08503100095518752</v>
       </c>
       <c r="W12">
-        <v>0.8123077298638103</v>
+        <v>-0.1163277951061864</v>
       </c>
       <c r="X12">
-        <v>0.8698169217355141</v>
+        <v>-0.1355508094087001</v>
       </c>
       <c r="Y12">
-        <v>0.8159570681924699</v>
+        <v>0.1800522142776027</v>
       </c>
       <c r="Z12">
-        <v>0.93641382561269</v>
+        <v>0.3407112960669528</v>
       </c>
       <c r="AA12">
-        <v>0.8376333161356471</v>
+        <v>0.1558440994072236</v>
       </c>
       <c r="AB12">
-        <v>0.8239038887302086</v>
+        <v>-0.2750822205042739</v>
       </c>
       <c r="AC12">
-        <v>0.6817690922510254</v>
+        <v>-0.2530836924687028</v>
       </c>
       <c r="AD12">
-        <v>0.7661552677441188</v>
+        <v>-0.2760484281687804</v>
       </c>
       <c r="AE12">
-        <v>0.8504301395194996</v>
+        <v>0.1020099227458362</v>
       </c>
       <c r="AF12">
-        <v>0.731723990375952</v>
+        <v>0.3163526776833214</v>
       </c>
       <c r="AG12">
-        <v>0.9693677178958352</v>
+        <v>0.3550285525183274</v>
       </c>
       <c r="AH12">
-        <v>0.9669762927013495</v>
+        <v>0.01098896413457602</v>
       </c>
       <c r="AI12">
-        <v>0.8245955297082683</v>
+        <v>0.1108185550750037</v>
       </c>
       <c r="AJ12">
-        <v>0.8048054630377399</v>
+        <v>0.08701376866348901</v>
       </c>
       <c r="AK12">
-        <v>0.9275146453614127</v>
+        <v>-0.1441918509686861</v>
       </c>
       <c r="AL12">
-        <v>0.9385543659240341</v>
+        <v>-0.008654070872270749</v>
       </c>
       <c r="AM12">
-        <v>0.853702409996021</v>
+        <v>0.001937467650641052</v>
       </c>
       <c r="AN12">
-        <v>0.7072995804375067</v>
+        <v>-0.345285976932506</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块-beta.xlsx
+++ b/FOF/data/基金公司-板块-beta.xlsx
@@ -14,159 +14,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>泓德</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>上投摩根</t>
+  </si>
   <si>
     <t>中金</t>
   </si>
   <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
     <t>中证500</t>
   </si>
   <si>
-    <t>创业板综</t>
-  </si>
-  <si>
     <t>中证1000</t>
   </si>
   <si>
-    <t>上证综指</t>
-  </si>
-  <si>
     <t>深证综指</t>
   </si>
   <si>
-    <t>万得全A</t>
-  </si>
-  <si>
     <t>中小板综</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证100</t>
-  </si>
-  <si>
-    <t>上证50</t>
   </si>
 </sst>
 </file>
@@ -524,15 +527,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN12"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -651,1347 +654,1383 @@
       <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:41">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>0.3212918646093291</v>
+        <v>0.7721560676598028</v>
       </c>
       <c r="C2">
-        <v>0.544709884449744</v>
+        <v>0.6965540540292695</v>
       </c>
       <c r="D2">
-        <v>0.5138378555168227</v>
+        <v>0.7224612795150228</v>
       </c>
       <c r="E2">
-        <v>0.5526605458610401</v>
+        <v>0.7753490137201081</v>
       </c>
       <c r="F2">
-        <v>0.4528300267290887</v>
+        <v>0.6524738055853094</v>
       </c>
       <c r="G2">
-        <v>0.7607320343394652</v>
+        <v>0.8191492480533272</v>
       </c>
       <c r="H2">
-        <v>0.6344174187043971</v>
+        <v>0.6754150226893396</v>
       </c>
       <c r="I2">
-        <v>0.6759986546644721</v>
+        <v>0.6820056261126423</v>
       </c>
       <c r="J2">
-        <v>0.7520554854329043</v>
+        <v>0.6502921769080118</v>
       </c>
       <c r="K2">
-        <v>0.4221524283480823</v>
+        <v>0.6084627472055235</v>
       </c>
       <c r="L2">
-        <v>0.7963103721614706</v>
+        <v>0.6648390428416692</v>
       </c>
       <c r="M2">
-        <v>0.4999427899054669</v>
+        <v>0.6732782449543483</v>
       </c>
       <c r="N2">
-        <v>0.7303923378962418</v>
+        <v>0.6525203046762531</v>
       </c>
       <c r="O2">
-        <v>0.6827930486456287</v>
+        <v>0.6907780033738615</v>
       </c>
       <c r="P2">
-        <v>0.8220425460887857</v>
+        <v>0.7474573617236567</v>
       </c>
       <c r="Q2">
-        <v>0.412612926133166</v>
+        <v>0.5789073760666519</v>
       </c>
       <c r="R2">
-        <v>0.583910312596813</v>
+        <v>0.6094236723332271</v>
       </c>
       <c r="S2">
-        <v>0.5432587880134407</v>
+        <v>0.6104160657220649</v>
       </c>
       <c r="T2">
-        <v>0.408623190690998</v>
+        <v>0.6018434534479481</v>
       </c>
       <c r="U2">
-        <v>0.6799587981526198</v>
+        <v>0.5961623321850978</v>
       </c>
       <c r="V2">
-        <v>0.8871121946701084</v>
+        <v>0.7717816707478071</v>
       </c>
       <c r="W2">
-        <v>0.5794236895435222</v>
+        <v>0.6256475625715616</v>
       </c>
       <c r="X2">
-        <v>0.6460926563059581</v>
+        <v>0.5868053458029057</v>
       </c>
       <c r="Y2">
-        <v>0.655019355017173</v>
+        <v>0.5969549074625945</v>
       </c>
       <c r="Z2">
-        <v>0.6257966350119887</v>
+        <v>0.595581673960482</v>
       </c>
       <c r="AA2">
-        <v>0.5438337019930737</v>
+        <v>0.5630787950112248</v>
       </c>
       <c r="AB2">
-        <v>0.715716860288596</v>
+        <v>0.6111479637164376</v>
       </c>
       <c r="AC2">
-        <v>0.7302699262033628</v>
+        <v>0.6474549864578213</v>
       </c>
       <c r="AD2">
-        <v>0.877170032362161</v>
+        <v>0.5600318079609066</v>
       </c>
       <c r="AE2">
-        <v>0.7543806802415114</v>
+        <v>0.6066309645381126</v>
       </c>
       <c r="AF2">
-        <v>0.6246027007555017</v>
+        <v>0.5839095588655404</v>
       </c>
       <c r="AG2">
-        <v>0.54772221216985</v>
+        <v>0.4573690416800414</v>
       </c>
       <c r="AH2">
-        <v>0.5863577744716525</v>
+        <v>0.6229779606182697</v>
       </c>
       <c r="AI2">
-        <v>0.7897927133336983</v>
+        <v>0.539097210947323</v>
       </c>
       <c r="AJ2">
-        <v>0.6889795088151442</v>
+        <v>0.7225780557043014</v>
       </c>
       <c r="AK2">
-        <v>0.6775275587183406</v>
+        <v>0.6478810769664823</v>
       </c>
       <c r="AL2">
-        <v>0.6541091675859487</v>
+        <v>0.6205881235329382</v>
       </c>
       <c r="AM2">
-        <v>0.7215738939208276</v>
+        <v>0.5763548649988678</v>
       </c>
       <c r="AN2">
-        <v>1.018239253864595</v>
+        <v>0.4996301305731696</v>
+      </c>
+      <c r="AO2">
+        <v>0.2834385066752561</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>0.2115202651007927</v>
+        <v>0.8016977002171215</v>
       </c>
       <c r="C3">
-        <v>0.3796947863273382</v>
+        <v>0.7401543676559476</v>
       </c>
       <c r="D3">
-        <v>0.352838466387795</v>
+        <v>0.7502868990034105</v>
       </c>
       <c r="E3">
-        <v>0.3534288764556651</v>
+        <v>0.8081132036783025</v>
       </c>
       <c r="F3">
-        <v>0.3015185037787801</v>
+        <v>0.6855091947561726</v>
       </c>
       <c r="G3">
-        <v>0.5323731007643286</v>
+        <v>0.855278554151627</v>
       </c>
       <c r="H3">
-        <v>0.4451556395385329</v>
+        <v>0.7066281596261369</v>
       </c>
       <c r="I3">
-        <v>0.4800610648690464</v>
+        <v>0.7178959186497768</v>
       </c>
       <c r="J3">
-        <v>0.5784932627710128</v>
+        <v>0.6801608821784992</v>
       </c>
       <c r="K3">
-        <v>0.2427537948197111</v>
+        <v>0.6427615516902196</v>
       </c>
       <c r="L3">
-        <v>0.5799422926295811</v>
+        <v>0.6969362269319728</v>
       </c>
       <c r="M3">
-        <v>0.3558710095040163</v>
+        <v>0.6985998647002388</v>
       </c>
       <c r="N3">
-        <v>0.4849913456386744</v>
+        <v>0.6844041824134032</v>
       </c>
       <c r="O3">
-        <v>0.5007090747512621</v>
+        <v>0.7246384811261523</v>
       </c>
       <c r="P3">
-        <v>0.5799396860744342</v>
+        <v>0.7875295896839338</v>
       </c>
       <c r="Q3">
-        <v>0.2465836736170742</v>
+        <v>0.6064051642917315</v>
       </c>
       <c r="R3">
-        <v>0.2955374482029447</v>
+        <v>0.641822970903513</v>
       </c>
       <c r="S3">
-        <v>0.4039322122867829</v>
+        <v>0.6410862636155342</v>
       </c>
       <c r="T3">
-        <v>0.3297599596310498</v>
+        <v>0.6344231966996893</v>
       </c>
       <c r="U3">
-        <v>0.4530433705123435</v>
+        <v>0.6241811631347127</v>
       </c>
       <c r="V3">
-        <v>0.6175408452871927</v>
+        <v>0.8092884570153409</v>
       </c>
       <c r="W3">
-        <v>0.4379419468932578</v>
+        <v>0.6473090002836194</v>
       </c>
       <c r="X3">
-        <v>0.4937658519732239</v>
+        <v>0.6231868712386037</v>
       </c>
       <c r="Y3">
-        <v>0.4272982411949608</v>
+        <v>0.6368157838900961</v>
       </c>
       <c r="Z3">
-        <v>0.3751411164570638</v>
+        <v>0.6253201201086201</v>
       </c>
       <c r="AA3">
-        <v>0.3559891094751397</v>
+        <v>0.5887040115019345</v>
       </c>
       <c r="AB3">
-        <v>0.5671012245008539</v>
+        <v>0.6429693114730294</v>
       </c>
       <c r="AC3">
-        <v>0.5756148990102877</v>
+        <v>0.6790633384471967</v>
       </c>
       <c r="AD3">
-        <v>0.6836862712396312</v>
+        <v>0.584135264041269</v>
       </c>
       <c r="AE3">
-        <v>0.5124280331119752</v>
+        <v>0.6356230922437619</v>
       </c>
       <c r="AF3">
-        <v>0.3804298860187958</v>
+        <v>0.6182166651507276</v>
       </c>
       <c r="AG3">
-        <v>0.3172242249483149</v>
+        <v>0.4821006676951837</v>
       </c>
       <c r="AH3">
-        <v>0.4145882167321341</v>
+        <v>0.6567234361930701</v>
       </c>
       <c r="AI3">
-        <v>0.5349292948326332</v>
+        <v>0.5655773714408093</v>
       </c>
       <c r="AJ3">
-        <v>0.4744139096691021</v>
+        <v>0.7583274103762351</v>
       </c>
       <c r="AK3">
-        <v>0.5139059795029624</v>
+        <v>0.6830169928115671</v>
       </c>
       <c r="AL3">
-        <v>0.4703386759400024</v>
+        <v>0.6504212185241492</v>
       </c>
       <c r="AM3">
-        <v>0.5125938516735248</v>
+        <v>0.5996891718071249</v>
       </c>
       <c r="AN3">
-        <v>0.8105998952227454</v>
+        <v>0.5374433983634582</v>
+      </c>
+      <c r="AO3">
+        <v>0.2971362977420863</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>0.3024251459859391</v>
+        <v>0.9414454338503606</v>
       </c>
       <c r="C4">
-        <v>0.5205970785072872</v>
+        <v>0.9041420004086754</v>
       </c>
       <c r="D4">
-        <v>0.5083256741752507</v>
+        <v>0.8941126577218657</v>
       </c>
       <c r="E4">
-        <v>0.5192911048659364</v>
+        <v>0.9513064383275285</v>
       </c>
       <c r="F4">
-        <v>0.4354458590450418</v>
+        <v>0.8169371680973415</v>
       </c>
       <c r="G4">
-        <v>0.7320476090583364</v>
+        <v>1.01352415374357</v>
       </c>
       <c r="H4">
-        <v>0.6055071919418707</v>
+        <v>0.8223618113137192</v>
       </c>
       <c r="I4">
-        <v>0.658800396052358</v>
+        <v>0.8588912434425915</v>
       </c>
       <c r="J4">
-        <v>0.7524873345991142</v>
+        <v>0.7929110619676435</v>
       </c>
       <c r="K4">
-        <v>0.3934081717386947</v>
+        <v>0.7624347304581479</v>
       </c>
       <c r="L4">
-        <v>0.7725877172061961</v>
+        <v>0.8310283499437308</v>
       </c>
       <c r="M4">
-        <v>0.4686969106269399</v>
+        <v>0.8198041036405064</v>
       </c>
       <c r="N4">
-        <v>0.6925583183149643</v>
+        <v>0.806696423064334</v>
       </c>
       <c r="O4">
-        <v>0.670422208600103</v>
+        <v>0.8643604444394076</v>
       </c>
       <c r="P4">
-        <v>0.7869442573726838</v>
+        <v>0.9419516114038828</v>
       </c>
       <c r="Q4">
-        <v>0.3696262654107692</v>
+        <v>0.7226132368608371</v>
       </c>
       <c r="R4">
-        <v>0.4951788190032403</v>
+        <v>0.762084259916506</v>
       </c>
       <c r="S4">
-        <v>0.5462325621319579</v>
+        <v>0.7692125572858842</v>
       </c>
       <c r="T4">
-        <v>0.4136660682872575</v>
+        <v>0.7632106669162326</v>
       </c>
       <c r="U4">
-        <v>0.6379334879972665</v>
+        <v>0.7315780271361783</v>
       </c>
       <c r="V4">
-        <v>0.8696522234372521</v>
+        <v>0.9636911306707754</v>
       </c>
       <c r="W4">
-        <v>0.5817098443090526</v>
+        <v>0.7660331983412907</v>
       </c>
       <c r="X4">
-        <v>0.6389802877263376</v>
+        <v>0.7362280482613021</v>
       </c>
       <c r="Y4">
-        <v>0.6240121846584582</v>
+        <v>0.7662221004563259</v>
       </c>
       <c r="Z4">
-        <v>0.5687572222209657</v>
+        <v>0.7229512434910421</v>
       </c>
       <c r="AA4">
-        <v>0.5130216011177351</v>
+        <v>0.6898472152932787</v>
       </c>
       <c r="AB4">
-        <v>0.7218324122506187</v>
+        <v>0.7533190310075566</v>
       </c>
       <c r="AC4">
-        <v>0.7258390186740751</v>
+        <v>0.8109617519185396</v>
       </c>
       <c r="AD4">
-        <v>0.8712312127635277</v>
+        <v>0.7099167587589313</v>
       </c>
       <c r="AE4">
-        <v>0.724228325548928</v>
+        <v>0.748522110844882</v>
       </c>
       <c r="AF4">
-        <v>0.5801277408971212</v>
+        <v>0.7532933427613926</v>
       </c>
       <c r="AG4">
-        <v>0.4970602696529949</v>
+        <v>0.6079418012112666</v>
       </c>
       <c r="AH4">
-        <v>0.5515660432692501</v>
+        <v>0.7752926780811689</v>
       </c>
       <c r="AI4">
-        <v>0.7796358653918055</v>
+        <v>0.6873797301589096</v>
       </c>
       <c r="AJ4">
-        <v>0.6549113533290275</v>
+        <v>0.8794690472393536</v>
       </c>
       <c r="AK4">
-        <v>0.6899175993946374</v>
+        <v>0.806435058969215</v>
       </c>
       <c r="AL4">
-        <v>0.6416770598274788</v>
+        <v>0.7953910382189825</v>
       </c>
       <c r="AM4">
-        <v>0.6978089757014199</v>
+        <v>0.7059891007698972</v>
       </c>
       <c r="AN4">
-        <v>1.035173931589807</v>
+        <v>0.6388175765937467</v>
+      </c>
+      <c r="AO4">
+        <v>0.356983097196822</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:41">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>0.3132322267812295</v>
+        <v>0.8937554652522939</v>
       </c>
       <c r="C5">
-        <v>0.4414645099663614</v>
+        <v>0.995563514681881</v>
       </c>
       <c r="D5">
-        <v>0.4712770199011518</v>
+        <v>0.876466990700787</v>
       </c>
       <c r="E5">
-        <v>0.6174904640163673</v>
+        <v>0.9485811022138215</v>
       </c>
       <c r="F5">
-        <v>0.4625010326622869</v>
+        <v>0.8498171531361318</v>
       </c>
       <c r="G5">
-        <v>0.6705824299030002</v>
+        <v>1.008979662153905</v>
       </c>
       <c r="H5">
-        <v>0.5094015255863799</v>
+        <v>0.8460144633612732</v>
       </c>
       <c r="I5">
-        <v>0.5314791611117776</v>
+        <v>0.9074869749500235</v>
       </c>
       <c r="J5">
-        <v>0.3334783690082542</v>
+        <v>0.8294839256179385</v>
       </c>
       <c r="K5">
-        <v>0.6093352601813244</v>
+        <v>0.8279834987263232</v>
       </c>
       <c r="L5">
-        <v>0.5372254804986248</v>
+        <v>0.8645906277232074</v>
       </c>
       <c r="M5">
-        <v>0.3855509019223308</v>
+        <v>0.7986512923293809</v>
       </c>
       <c r="N5">
-        <v>0.7116479608270286</v>
+        <v>0.8295065685866283</v>
       </c>
       <c r="O5">
-        <v>0.4447238672212404</v>
+        <v>0.8989821141317846</v>
       </c>
       <c r="P5">
-        <v>0.6466208969845473</v>
+        <v>1.008053813873311</v>
       </c>
       <c r="Q5">
-        <v>0.5217600009303525</v>
+        <v>0.7572012625779281</v>
       </c>
       <c r="R5">
-        <v>1.025345979350615</v>
+        <v>0.802414001698906</v>
       </c>
       <c r="S5">
-        <v>0.3835835886895531</v>
+        <v>0.8049503583303225</v>
       </c>
       <c r="T5">
-        <v>0.08185959492665298</v>
+        <v>0.8286407798807738</v>
       </c>
       <c r="U5">
-        <v>0.639264112542489</v>
+        <v>0.7533626414620131</v>
       </c>
       <c r="V5">
-        <v>0.7480513945714047</v>
+        <v>0.99491329545069</v>
       </c>
       <c r="W5">
-        <v>0.304417733760606</v>
+        <v>0.7246240910245775</v>
       </c>
       <c r="X5">
-        <v>0.3299720343649532</v>
+        <v>0.8312811914703048</v>
       </c>
       <c r="Y5">
-        <v>0.6528670865804148</v>
+        <v>0.8674156121003208</v>
       </c>
       <c r="Z5">
-        <v>0.7872717413335119</v>
+        <v>0.7490640219222708</v>
       </c>
       <c r="AA5">
-        <v>0.5488936953748461</v>
+        <v>0.7115494475750016</v>
       </c>
       <c r="AB5">
-        <v>0.2244841285510712</v>
+        <v>0.8022527640414927</v>
       </c>
       <c r="AC5">
-        <v>0.2533054746544184</v>
+        <v>0.8540997734918947</v>
       </c>
       <c r="AD5">
-        <v>0.3311034974738354</v>
+        <v>0.7012419769668338</v>
       </c>
       <c r="AE5">
-        <v>0.6327852473928056</v>
+        <v>0.7841334877448248</v>
       </c>
       <c r="AF5">
-        <v>0.7781971225991143</v>
+        <v>0.8220194389605627</v>
       </c>
       <c r="AG5">
-        <v>0.7560345544934559</v>
+        <v>0.6431406950961303</v>
       </c>
       <c r="AH5">
-        <v>0.4017982561218579</v>
+        <v>0.8419294909194194</v>
       </c>
       <c r="AI5">
-        <v>0.6951102114710507</v>
+        <v>0.7044832810213354</v>
       </c>
       <c r="AJ5">
-        <v>0.574766206415383</v>
+        <v>0.9437566324324168</v>
       </c>
       <c r="AK5">
-        <v>0.3602455248674155</v>
+        <v>0.8863515324407465</v>
       </c>
       <c r="AL5">
-        <v>0.4694472360150667</v>
+        <v>0.8200480055992598</v>
       </c>
       <c r="AM5">
-        <v>0.5074131074877527</v>
+        <v>0.6905450632230272</v>
       </c>
       <c r="AN5">
-        <v>0.4186114630209431</v>
+        <v>0.7517844879940359</v>
+      </c>
+      <c r="AO5">
+        <v>0.372481451436518</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:41">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>0.3240040753477991</v>
+        <v>0.8550349181651232</v>
       </c>
       <c r="C6">
-        <v>0.5370820039138955</v>
+        <v>0.821518078288781</v>
       </c>
       <c r="D6">
-        <v>0.5457089797057826</v>
+        <v>0.8053815767288528</v>
       </c>
       <c r="E6">
-        <v>0.5635554301955341</v>
+        <v>0.8671892546408727</v>
       </c>
       <c r="F6">
-        <v>0.4654939901001041</v>
+        <v>0.745254944907521</v>
       </c>
       <c r="G6">
-        <v>0.7465673319465325</v>
+        <v>0.921308103549864</v>
       </c>
       <c r="H6">
-        <v>0.6182626130781015</v>
+        <v>0.7588212022839432</v>
       </c>
       <c r="I6">
-        <v>0.6780405325746406</v>
+        <v>0.783311154941015</v>
       </c>
       <c r="J6">
-        <v>0.7476266284474953</v>
+        <v>0.7311173683797911</v>
       </c>
       <c r="K6">
-        <v>0.457261354130008</v>
+        <v>0.7022333710751406</v>
       </c>
       <c r="L6">
-        <v>0.7760816807587176</v>
+        <v>0.7563206463739595</v>
       </c>
       <c r="M6">
-        <v>0.4607092780014678</v>
+        <v>0.7451736273610085</v>
       </c>
       <c r="N6">
-        <v>0.7386660939860409</v>
+        <v>0.7398107396617608</v>
       </c>
       <c r="O6">
-        <v>0.6782342457380103</v>
+        <v>0.7869617570126651</v>
       </c>
       <c r="P6">
-        <v>0.8019121468419603</v>
+        <v>0.8603620241881016</v>
       </c>
       <c r="Q6">
-        <v>0.4077952719169575</v>
+        <v>0.6576793257096065</v>
       </c>
       <c r="R6">
-        <v>0.5798288878960894</v>
+        <v>0.6987077175237424</v>
       </c>
       <c r="S6">
-        <v>0.5500961694240262</v>
+        <v>0.6985318907909007</v>
       </c>
       <c r="T6">
-        <v>0.4013217660707136</v>
+        <v>0.6951859737358954</v>
       </c>
       <c r="U6">
-        <v>0.6737542343637236</v>
+        <v>0.6723814300920884</v>
       </c>
       <c r="V6">
-        <v>0.9186352474177459</v>
+        <v>0.8778107023263261</v>
       </c>
       <c r="W6">
-        <v>0.5884202309416928</v>
+        <v>0.6898912092715104</v>
       </c>
       <c r="X6">
-        <v>0.6250700916849155</v>
+        <v>0.6841681686373948</v>
       </c>
       <c r="Y6">
-        <v>0.682675669456977</v>
+        <v>0.7063273725706849</v>
       </c>
       <c r="Z6">
-        <v>0.6344712365552643</v>
+        <v>0.6723382664887847</v>
       </c>
       <c r="AA6">
-        <v>0.5518806775774735</v>
+        <v>0.6333455184432794</v>
       </c>
       <c r="AB6">
-        <v>0.7049596653276335</v>
+        <v>0.696443635945509</v>
       </c>
       <c r="AC6">
-        <v>0.6982023411014635</v>
+        <v>0.7380109630350964</v>
       </c>
       <c r="AD6">
-        <v>0.8491343555529742</v>
+        <v>0.6339858756676195</v>
       </c>
       <c r="AE6">
-        <v>0.7760228802754673</v>
+        <v>0.6867371435795463</v>
       </c>
       <c r="AF6">
-        <v>0.648736036885402</v>
+        <v>0.683182833027189</v>
       </c>
       <c r="AG6">
-        <v>0.5655814453050816</v>
+        <v>0.5364805729134838</v>
       </c>
       <c r="AH6">
-        <v>0.5595913447346161</v>
+        <v>0.7150032649391461</v>
       </c>
       <c r="AI6">
-        <v>0.8564535476357884</v>
+        <v>0.6179119094753556</v>
       </c>
       <c r="AJ6">
-        <v>0.6812409080210047</v>
+        <v>0.8170047467616467</v>
       </c>
       <c r="AK6">
-        <v>0.704476282271472</v>
+        <v>0.7440664086964501</v>
       </c>
       <c r="AL6">
-        <v>0.6607903097200136</v>
+        <v>0.7116778566285876</v>
       </c>
       <c r="AM6">
-        <v>0.7225215605788369</v>
+        <v>0.6420863235903594</v>
       </c>
       <c r="AN6">
-        <v>0.9945883721317981</v>
+        <v>0.598839042722428</v>
+      </c>
+      <c r="AO6">
+        <v>0.3233444853931109</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:41">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>0.3951532685960906</v>
+        <v>0.883409749895948</v>
       </c>
       <c r="C7">
-        <v>0.6147725794260004</v>
+        <v>0.8691633122103175</v>
       </c>
       <c r="D7">
-        <v>0.6354426771311213</v>
+        <v>0.840794588102861</v>
       </c>
       <c r="E7">
-        <v>0.7123601263757044</v>
+        <v>0.9021607899990519</v>
       </c>
       <c r="F7">
-        <v>0.5644341035700947</v>
+        <v>0.7799018623441637</v>
       </c>
       <c r="G7">
-        <v>0.8602849926361608</v>
+        <v>0.9588735581273349</v>
       </c>
       <c r="H7">
-        <v>0.7038363999350652</v>
+        <v>0.788906939887287</v>
       </c>
       <c r="I7">
-        <v>0.7599784784828202</v>
+        <v>0.8221016022303697</v>
       </c>
       <c r="J7">
-        <v>0.7382607784831753</v>
+        <v>0.763159251170181</v>
       </c>
       <c r="K7">
-        <v>0.6298898041935841</v>
+        <v>0.7370104107400459</v>
       </c>
       <c r="L7">
-        <v>0.8387551846757388</v>
+        <v>0.7930104197721883</v>
       </c>
       <c r="M7">
-        <v>0.5182100716402261</v>
+        <v>0.7737849796679366</v>
       </c>
       <c r="N7">
-        <v>0.8946655910132161</v>
+        <v>0.7707195578307547</v>
       </c>
       <c r="O7">
-        <v>0.7250644750311518</v>
+        <v>0.8247319223374484</v>
       </c>
       <c r="P7">
-        <v>0.906449823110382</v>
+        <v>0.9045488633359541</v>
       </c>
       <c r="Q7">
-        <v>0.5517067726832745</v>
+        <v>0.6908059295006376</v>
       </c>
       <c r="R7">
-        <v>0.9007729426626334</v>
+        <v>0.7307221869076636</v>
       </c>
       <c r="S7">
-        <v>0.5844058273593732</v>
+        <v>0.733679970791237</v>
       </c>
       <c r="T7">
-        <v>0.3597683698482291</v>
+        <v>0.734118193831224</v>
       </c>
       <c r="U7">
-        <v>0.8130592866094482</v>
+        <v>0.7003619383927969</v>
       </c>
       <c r="V7">
-        <v>1.051578748943835</v>
+        <v>0.9183927874633488</v>
       </c>
       <c r="W7">
-        <v>0.5993586837937609</v>
+        <v>0.7160353469197004</v>
       </c>
       <c r="X7">
-        <v>0.6277140218949884</v>
+        <v>0.7199436923131232</v>
       </c>
       <c r="Y7">
-        <v>0.8357542271904732</v>
+        <v>0.7456812793927858</v>
       </c>
       <c r="Z7">
-        <v>0.8508412685551189</v>
+        <v>0.6965546147912606</v>
       </c>
       <c r="AA7">
-        <v>0.6780291501749256</v>
+        <v>0.6605930055892</v>
       </c>
       <c r="AB7">
-        <v>0.6589797173243273</v>
+        <v>0.727416599714338</v>
       </c>
       <c r="AC7">
-        <v>0.6587115971389759</v>
+        <v>0.7757560153217282</v>
       </c>
       <c r="AD7">
-        <v>0.816632257615172</v>
+        <v>0.6647183991865899</v>
       </c>
       <c r="AE7">
-        <v>0.9060284326093797</v>
+        <v>0.7183831392241424</v>
       </c>
       <c r="AF7">
-        <v>0.8555592665833394</v>
+        <v>0.7228261803113123</v>
       </c>
       <c r="AG7">
-        <v>0.7806539035307832</v>
+        <v>0.57228787140089</v>
       </c>
       <c r="AH7">
-        <v>0.623640240617063</v>
+        <v>0.7504315537419441</v>
       </c>
       <c r="AI7">
-        <v>1.000516236818157</v>
+        <v>0.6495732940734704</v>
       </c>
       <c r="AJ7">
-        <v>0.7900992530719591</v>
+        <v>0.8534281662070192</v>
       </c>
       <c r="AK7">
-        <v>0.715733893589497</v>
+        <v>0.7828358804649334</v>
       </c>
       <c r="AL7">
-        <v>0.7253387648678216</v>
+        <v>0.7510767833600449</v>
       </c>
       <c r="AM7">
-        <v>0.8006574056561087</v>
+        <v>0.6664655131808934</v>
       </c>
       <c r="AN7">
-        <v>0.9387972942570055</v>
+        <v>0.6309568605849082</v>
+      </c>
+      <c r="AO7">
+        <v>0.3400366178967076</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:41">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>0.3213311292615483</v>
+        <v>0.937137856061212</v>
       </c>
       <c r="C8">
-        <v>0.5453025473682326</v>
+        <v>0.9425349365649759</v>
       </c>
       <c r="D8">
-        <v>0.5395341607928722</v>
+        <v>0.9017871156755546</v>
       </c>
       <c r="E8">
-        <v>0.5471625310131852</v>
+        <v>0.963579294377007</v>
       </c>
       <c r="F8">
-        <v>0.4564709040564839</v>
+        <v>0.8373346764003154</v>
       </c>
       <c r="G8">
-        <v>0.7496845804506734</v>
+        <v>1.024386351360582</v>
       </c>
       <c r="H8">
-        <v>0.6292575614166762</v>
+        <v>0.8416017246177464</v>
       </c>
       <c r="I8">
-        <v>0.687639659754493</v>
+        <v>0.8851051185726753</v>
       </c>
       <c r="J8">
-        <v>0.7931671191271426</v>
+        <v>0.8176191512224236</v>
       </c>
       <c r="K8">
-        <v>0.4230692900067866</v>
+        <v>0.7931334242888386</v>
       </c>
       <c r="L8">
-        <v>0.8027050531283245</v>
+        <v>0.8533699775541929</v>
       </c>
       <c r="M8">
-        <v>0.4752080305888843</v>
+        <v>0.8253278809456742</v>
       </c>
       <c r="N8">
-        <v>0.7316675530552562</v>
+        <v>0.8237249631191659</v>
       </c>
       <c r="O8">
-        <v>0.7010492285683336</v>
+        <v>0.8869713014864706</v>
       </c>
       <c r="P8">
-        <v>0.8176657019782132</v>
+        <v>0.9755291339958366</v>
       </c>
       <c r="Q8">
-        <v>0.3906913465849491</v>
+        <v>0.7448265790683016</v>
       </c>
       <c r="R8">
-        <v>0.5181853882642909</v>
+        <v>0.7837636351736629</v>
       </c>
       <c r="S8">
-        <v>0.5610153488863777</v>
+        <v>0.7907580215965844</v>
       </c>
       <c r="T8">
-        <v>0.4401257896788219</v>
+        <v>0.7952970230327683</v>
       </c>
       <c r="U8">
-        <v>0.672845967407195</v>
+        <v>0.7485705272388383</v>
       </c>
       <c r="V8">
-        <v>0.9207007402364802</v>
+        <v>0.9860108493145676</v>
       </c>
       <c r="W8">
-        <v>0.6152787621615669</v>
+        <v>0.7636446656463565</v>
       </c>
       <c r="X8">
-        <v>0.6604881118792083</v>
+        <v>0.7763799054891022</v>
       </c>
       <c r="Y8">
-        <v>0.6721437834224239</v>
+        <v>0.8064366027033103</v>
       </c>
       <c r="Z8">
-        <v>0.6065035315378156</v>
+        <v>0.7399686169711164</v>
       </c>
       <c r="AA8">
-        <v>0.5441763306777104</v>
+        <v>0.7072012491914441</v>
       </c>
       <c r="AB8">
-        <v>0.7614134962539568</v>
+        <v>0.7792514324774547</v>
       </c>
       <c r="AC8">
-        <v>0.7557192258203472</v>
+        <v>0.8369293080746284</v>
       </c>
       <c r="AD8">
-        <v>0.9135619942858656</v>
+        <v>0.7157615630494191</v>
       </c>
       <c r="AE8">
-        <v>0.7811422980764398</v>
+        <v>0.7712251751685879</v>
       </c>
       <c r="AF8">
-        <v>0.6186565900983535</v>
+        <v>0.7842045246032702</v>
       </c>
       <c r="AG8">
-        <v>0.5306499096127626</v>
+        <v>0.6264493303961366</v>
       </c>
       <c r="AH8">
-        <v>0.582043025724739</v>
+        <v>0.807802205591046</v>
       </c>
       <c r="AI8">
-        <v>0.8500364072201236</v>
+        <v>0.7008522574839766</v>
       </c>
       <c r="AJ8">
-        <v>0.6896755659820474</v>
+        <v>0.9146193010509908</v>
       </c>
       <c r="AK8">
-        <v>0.7323556489819562</v>
+        <v>0.8448097523378546</v>
       </c>
       <c r="AL8">
-        <v>0.6755294562193214</v>
+        <v>0.8137578431475713</v>
       </c>
       <c r="AM8">
-        <v>0.7424373656094886</v>
+        <v>0.7102881599844117</v>
       </c>
       <c r="AN8">
-        <v>1.059850554224453</v>
+        <v>0.6802880248483799</v>
+      </c>
+      <c r="AO8">
+        <v>0.3670484599086815</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:41">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9">
-        <v>0.396137800458915</v>
+        <v>0.9147890011623092</v>
       </c>
       <c r="C9">
-        <v>0.5798041199177778</v>
+        <v>0.9835793908576497</v>
       </c>
       <c r="D9">
-        <v>0.6083654504078321</v>
+        <v>0.906067103553437</v>
       </c>
       <c r="E9">
-        <v>0.7313798071565616</v>
+        <v>0.9594752436299084</v>
       </c>
       <c r="F9">
-        <v>0.5583430940772166</v>
+        <v>0.8482009640960962</v>
       </c>
       <c r="G9">
-        <v>0.8066089524024326</v>
+        <v>1.021540920189234</v>
       </c>
       <c r="H9">
-        <v>0.6582661448982063</v>
+        <v>0.8369411288356188</v>
       </c>
       <c r="I9">
-        <v>0.6995138345223763</v>
+        <v>0.903681554795285</v>
       </c>
       <c r="J9">
-        <v>0.5939083238671252</v>
+        <v>0.8219686210725128</v>
       </c>
       <c r="K9">
-        <v>0.6904041739359503</v>
+        <v>0.8101601843405053</v>
       </c>
       <c r="L9">
-        <v>0.7440921833415413</v>
+        <v>0.8685545440257278</v>
       </c>
       <c r="M9">
-        <v>0.4751082851409935</v>
+        <v>0.8170339803613216</v>
       </c>
       <c r="N9">
-        <v>0.88900037121747</v>
+        <v>0.8241361619681671</v>
       </c>
       <c r="O9">
-        <v>0.636853199311686</v>
+        <v>0.9016869286530306</v>
       </c>
       <c r="P9">
-        <v>0.841770171224969</v>
+        <v>1.000650573647389</v>
       </c>
       <c r="Q9">
-        <v>0.5979109923679023</v>
+        <v>0.7614926518279727</v>
       </c>
       <c r="R9">
-        <v>1.059748032684496</v>
+        <v>0.7928521981507317</v>
       </c>
       <c r="S9">
-        <v>0.5024153961275206</v>
+        <v>0.8086905651813716</v>
       </c>
       <c r="T9">
-        <v>0.2549420276354814</v>
+        <v>0.8250469352230756</v>
       </c>
       <c r="U9">
-        <v>0.8064347687758021</v>
+        <v>0.7483951998591407</v>
       </c>
       <c r="V9">
-        <v>0.9922944208218281</v>
+        <v>0.9978632323114857</v>
       </c>
       <c r="W9">
-        <v>0.5007227314513246</v>
+        <v>0.7546639493754608</v>
       </c>
       <c r="X9">
-        <v>0.5100607013078853</v>
+        <v>0.7990320459315529</v>
       </c>
       <c r="Y9">
-        <v>0.8431694191420688</v>
+        <v>0.8374245693763136</v>
       </c>
       <c r="Z9">
-        <v>0.9176581198959554</v>
+        <v>0.7291282125002185</v>
       </c>
       <c r="AA9">
-        <v>0.6828537819132476</v>
+        <v>0.7094700913409346</v>
       </c>
       <c r="AB9">
-        <v>0.4930940957157431</v>
+        <v>0.7854080196163209</v>
       </c>
       <c r="AC9">
-        <v>0.496139395719181</v>
+        <v>0.8574574095005778</v>
       </c>
       <c r="AD9">
-        <v>0.6344504320481508</v>
+        <v>0.727977873370049</v>
       </c>
       <c r="AE9">
-        <v>0.8798761398577156</v>
+        <v>0.7800595163797922</v>
       </c>
       <c r="AF9">
-        <v>0.91002400883322</v>
+        <v>0.8179942518369387</v>
       </c>
       <c r="AG9">
-        <v>0.8577316777053969</v>
+        <v>0.6662937933445999</v>
       </c>
       <c r="AH9">
-        <v>0.5779878719300804</v>
+        <v>0.8249272718471103</v>
       </c>
       <c r="AI9">
-        <v>0.9720772696860694</v>
+        <v>0.7183137270652481</v>
       </c>
       <c r="AJ9">
-        <v>0.7563169892420657</v>
+        <v>0.9217076289617711</v>
       </c>
       <c r="AK9">
-        <v>0.5956896591056324</v>
+        <v>0.8681556532516234</v>
       </c>
       <c r="AL9">
-        <v>0.6565534931463443</v>
+        <v>0.8422937305835216</v>
       </c>
       <c r="AM9">
-        <v>0.7371922968241121</v>
+        <v>0.7026674867136812</v>
       </c>
       <c r="AN9">
-        <v>0.694158377788646</v>
+        <v>0.7036741144562706</v>
+      </c>
+      <c r="AO9">
+        <v>0.3764800674389212</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:41">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>0.3270539958816225</v>
+        <v>0.9771279905834424</v>
       </c>
       <c r="C10">
-        <v>0.4330856121780595</v>
+        <v>1.066743528158552</v>
       </c>
       <c r="D10">
-        <v>0.4896602510721272</v>
+        <v>0.9815264139322546</v>
       </c>
       <c r="E10">
-        <v>0.6284151692767329</v>
+        <v>1.034193615226751</v>
       </c>
       <c r="F10">
-        <v>0.4607692483597056</v>
+        <v>0.9156026953794042</v>
       </c>
       <c r="G10">
-        <v>0.6002385098470275</v>
+        <v>1.098491735671077</v>
       </c>
       <c r="H10">
-        <v>0.4818221175471339</v>
+        <v>0.9016936241755502</v>
       </c>
       <c r="I10">
-        <v>0.5108789146724938</v>
+        <v>0.9780611602914233</v>
       </c>
       <c r="J10">
-        <v>0.3251856635874492</v>
+        <v>0.8914809265065216</v>
       </c>
       <c r="K10">
-        <v>0.6541071085582949</v>
+        <v>0.8769294408911997</v>
       </c>
       <c r="L10">
-        <v>0.496265259155056</v>
+        <v>0.9418541216994993</v>
       </c>
       <c r="M10">
-        <v>0.3218771455644859</v>
+        <v>0.8813159548833053</v>
       </c>
       <c r="N10">
-        <v>0.7281255100392612</v>
+        <v>0.8863710029373943</v>
       </c>
       <c r="O10">
-        <v>0.4240393964433181</v>
+        <v>0.9764391932195542</v>
       </c>
       <c r="P10">
-        <v>0.6095512391006661</v>
+        <v>1.085620098488904</v>
       </c>
       <c r="Q10">
-        <v>0.5377713058968595</v>
+        <v>0.8287234107048761</v>
       </c>
       <c r="R10">
-        <v>1.042985982984158</v>
+        <v>0.8544493179171271</v>
       </c>
       <c r="S10">
-        <v>0.3313764428542625</v>
+        <v>0.8769216487663245</v>
       </c>
       <c r="T10">
-        <v>0.08734385631181843</v>
+        <v>0.8998948027337442</v>
       </c>
       <c r="U10">
-        <v>0.6499136771829319</v>
+        <v>0.8069399978356566</v>
       </c>
       <c r="V10">
-        <v>0.7688014610583342</v>
+        <v>1.078286870357056</v>
       </c>
       <c r="W10">
-        <v>0.3075181369971685</v>
+        <v>0.8129870407757878</v>
       </c>
       <c r="X10">
-        <v>0.27886897118578</v>
+        <v>0.8667771620406227</v>
       </c>
       <c r="Y10">
-        <v>0.7138783578150042</v>
+        <v>0.9065258122197128</v>
       </c>
       <c r="Z10">
-        <v>0.8299878112509058</v>
+        <v>0.7801574138313855</v>
       </c>
       <c r="AA10">
-        <v>0.5698317464134161</v>
+        <v>0.7675502714254386</v>
       </c>
       <c r="AB10">
-        <v>0.214275927091511</v>
+        <v>0.848249265596035</v>
       </c>
       <c r="AC10">
-        <v>0.2092412547935168</v>
+        <v>0.9329964964944136</v>
       </c>
       <c r="AD10">
-        <v>0.3023182733683844</v>
+        <v>0.7877389868047276</v>
       </c>
       <c r="AE10">
-        <v>0.7018098651840534</v>
+        <v>0.8457516070709314</v>
       </c>
       <c r="AF10">
-        <v>0.820561981302784</v>
+        <v>0.889647901377094</v>
       </c>
       <c r="AG10">
-        <v>0.7984621691105751</v>
+        <v>0.7293949917903457</v>
       </c>
       <c r="AH10">
-        <v>0.4054660873005363</v>
+        <v>0.8952710879396971</v>
       </c>
       <c r="AI10">
-        <v>0.8020252544247153</v>
+        <v>0.7778544470942073</v>
       </c>
       <c r="AJ10">
-        <v>0.5781927511180803</v>
+        <v>1.000065314037066</v>
       </c>
       <c r="AK10">
-        <v>0.3730326440157204</v>
+        <v>0.9458927843917566</v>
       </c>
       <c r="AL10">
-        <v>0.4676495618503556</v>
+        <v>0.9170150951412069</v>
       </c>
       <c r="AM10">
-        <v>0.5331994110226779</v>
+        <v>0.7552130958601786</v>
       </c>
       <c r="AN10">
-        <v>0.2942746644983646</v>
+        <v>0.7579452564576824</v>
+      </c>
+      <c r="AO10">
+        <v>0.4094092506520638</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:41">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>0.1668406387569066</v>
+        <v>0.9513895735636847</v>
       </c>
       <c r="C11">
-        <v>0.1544180179267301</v>
+        <v>0.9987890089217129</v>
       </c>
       <c r="D11">
-        <v>0.2265782264095084</v>
+        <v>0.9298684070481599</v>
       </c>
       <c r="E11">
-        <v>0.3611836897117815</v>
+        <v>0.9943889601043686</v>
       </c>
       <c r="F11">
-        <v>0.2369067046530546</v>
+        <v>0.8732527158429729</v>
       </c>
       <c r="G11">
-        <v>0.2197454617877416</v>
+        <v>1.055302134897093</v>
       </c>
       <c r="H11">
-        <v>0.158394663747111</v>
+        <v>0.87439528690317</v>
       </c>
       <c r="I11">
-        <v>0.1620690418199487</v>
+        <v>0.9278229720054962</v>
       </c>
       <c r="J11">
-        <v>-0.09103993404452822</v>
+        <v>0.8560531185816066</v>
       </c>
       <c r="K11">
-        <v>0.4602051126256085</v>
+        <v>0.8366443968195625</v>
       </c>
       <c r="L11">
-        <v>0.07923837732246228</v>
+        <v>0.8924201140652824</v>
       </c>
       <c r="M11">
-        <v>0.07042498432937747</v>
+        <v>0.8476254080959036</v>
       </c>
       <c r="N11">
-        <v>0.3641517168952832</v>
+        <v>0.8549144148333317</v>
       </c>
       <c r="O11">
-        <v>0.0624247170791849</v>
+        <v>0.9267327148224785</v>
       </c>
       <c r="P11">
-        <v>0.1889288034224839</v>
+        <v>1.027068387272213</v>
       </c>
       <c r="Q11">
-        <v>0.3464251871259355</v>
+        <v>0.7818549885645515</v>
       </c>
       <c r="R11">
-        <v>0.8037689377453524</v>
+        <v>0.8188356106810222</v>
       </c>
       <c r="S11">
-        <v>0.04690283353013384</v>
+        <v>0.8280638829696729</v>
       </c>
       <c r="T11">
-        <v>-0.1495176589236189</v>
+        <v>0.8428137910979985</v>
       </c>
       <c r="U11">
-        <v>0.3105562277086049</v>
+        <v>0.778299306825525</v>
       </c>
       <c r="V11">
-        <v>0.3109404567011458</v>
+        <v>1.027168827350101</v>
       </c>
       <c r="W11">
-        <v>-0.009947459625550336</v>
+        <v>0.7785358629525846</v>
       </c>
       <c r="X11">
-        <v>-0.06990085050181699</v>
+        <v>0.8273585455234137</v>
       </c>
       <c r="Y11">
-        <v>0.384592086320232</v>
+        <v>0.8589776406870628</v>
       </c>
       <c r="Z11">
-        <v>0.5364703097131422</v>
+        <v>0.766992562410403</v>
       </c>
       <c r="AA11">
-        <v>0.3003433393853335</v>
+        <v>0.7370151051404003</v>
       </c>
       <c r="AB11">
-        <v>-0.1911412669797358</v>
+        <v>0.8172069186798858</v>
       </c>
       <c r="AC11">
-        <v>-0.1976068374385654</v>
+        <v>0.8794720208155832</v>
       </c>
       <c r="AD11">
-        <v>-0.1857368876453258</v>
+        <v>0.738900435489236</v>
       </c>
       <c r="AE11">
-        <v>0.3108218012253987</v>
+        <v>0.8076328280456752</v>
       </c>
       <c r="AF11">
-        <v>0.5246892123866148</v>
+        <v>0.8306754454020906</v>
       </c>
       <c r="AG11">
-        <v>0.5473959216573214</v>
+        <v>0.6617423390567021</v>
       </c>
       <c r="AH11">
-        <v>0.09938968312952488</v>
+        <v>0.8534099972187278</v>
       </c>
       <c r="AI11">
-        <v>0.3890331676387482</v>
+        <v>0.7299040786599762</v>
       </c>
       <c r="AJ11">
-        <v>0.2267372879740464</v>
+        <v>0.9633686534587376</v>
       </c>
       <c r="AK11">
-        <v>-0.0002759553221062095</v>
+        <v>0.8970517199970799</v>
       </c>
       <c r="AL11">
-        <v>0.1238495905699777</v>
+        <v>0.8514466879364752</v>
       </c>
       <c r="AM11">
-        <v>0.1525906999359081</v>
+        <v>0.7285873189954531</v>
       </c>
       <c r="AN11">
-        <v>-0.2662122906557233</v>
+        <v>0.7289547002738405</v>
+      </c>
+      <c r="AO11">
+        <v>0.3847728658548244</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:41">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12">
-        <v>0.08428622207775861</v>
+        <v>1.001074752773237</v>
       </c>
       <c r="C12">
-        <v>0.05189358329572632</v>
+        <v>1.089517156547549</v>
       </c>
       <c r="D12">
-        <v>0.07518706437895438</v>
+        <v>0.99033668897035</v>
       </c>
       <c r="E12">
-        <v>0.2078013737008582</v>
+        <v>1.057823299624044</v>
       </c>
       <c r="F12">
-        <v>0.11853230820611</v>
+        <v>0.9382230543851714</v>
       </c>
       <c r="G12">
-        <v>0.09709579535931209</v>
+        <v>1.123348724840606</v>
       </c>
       <c r="H12">
-        <v>0.05389986816929852</v>
+        <v>0.9324763570700928</v>
       </c>
       <c r="I12">
-        <v>0.03099086402768335</v>
+        <v>1.00078228156392</v>
       </c>
       <c r="J12">
-        <v>-0.2004060536749718</v>
+        <v>0.9171977280616977</v>
       </c>
       <c r="K12">
-        <v>0.2835152730855023</v>
+        <v>0.9047681574796622</v>
       </c>
       <c r="L12">
-        <v>-0.03476996675331512</v>
+        <v>0.9599653476875527</v>
       </c>
       <c r="M12">
-        <v>0.03242148923957466</v>
+        <v>0.8977704878011589</v>
       </c>
       <c r="N12">
-        <v>0.180983008567498</v>
+        <v>0.9138293604561388</v>
       </c>
       <c r="O12">
-        <v>-0.05090876433939738</v>
+        <v>0.996580667950755</v>
       </c>
       <c r="P12">
-        <v>0.05527139453619403</v>
+        <v>1.110627707204797</v>
       </c>
       <c r="Q12">
-        <v>0.2317805605163809</v>
+        <v>0.842577245835774</v>
       </c>
       <c r="R12">
-        <v>0.6004585109409698</v>
+        <v>0.8804502670854311</v>
       </c>
       <c r="S12">
-        <v>-0.04181555634574534</v>
+        <v>0.8927482879489888</v>
       </c>
       <c r="T12">
-        <v>-0.1946345513759937</v>
+        <v>0.915648175097569</v>
       </c>
       <c r="U12">
-        <v>0.1580387112292278</v>
+        <v>0.831590937706406</v>
       </c>
       <c r="V12">
-        <v>0.08503100095518752</v>
+        <v>1.102326648270269</v>
       </c>
       <c r="W12">
-        <v>-0.1163277951061864</v>
+        <v>0.8219085056552464</v>
       </c>
       <c r="X12">
-        <v>-0.1355508094087001</v>
+        <v>0.8999470328665843</v>
       </c>
       <c r="Y12">
-        <v>0.1800522142776027</v>
+        <v>0.9377949698886243</v>
       </c>
       <c r="Z12">
-        <v>0.3407112960669528</v>
+        <v>0.8163906659355473</v>
       </c>
       <c r="AA12">
-        <v>0.1558440994072236</v>
+        <v>0.7882754542680939</v>
       </c>
       <c r="AB12">
-        <v>-0.2750822205042739</v>
+        <v>0.8782198425885424</v>
       </c>
       <c r="AC12">
-        <v>-0.2530836924687028</v>
+        <v>0.9489405888341251</v>
       </c>
       <c r="AD12">
-        <v>-0.2760484281687804</v>
+        <v>0.7911205387614885</v>
       </c>
       <c r="AE12">
-        <v>0.1020099227458362</v>
+        <v>0.8673539889182346</v>
       </c>
       <c r="AF12">
-        <v>0.3163526776833214</v>
+        <v>0.9049642574830435</v>
       </c>
       <c r="AG12">
-        <v>0.3550285525183274</v>
+        <v>0.7235431182106209</v>
       </c>
       <c r="AH12">
-        <v>0.01098896413457602</v>
+        <v>0.9225148961831495</v>
       </c>
       <c r="AI12">
-        <v>0.1108185550750037</v>
+        <v>0.7862200333572542</v>
       </c>
       <c r="AJ12">
-        <v>0.08701376866348901</v>
+        <v>1.03538812731981</v>
       </c>
       <c r="AK12">
-        <v>-0.1441918509686861</v>
+        <v>0.9724273821971826</v>
       </c>
       <c r="AL12">
-        <v>-0.008654070872270749</v>
+        <v>0.9203403588840883</v>
       </c>
       <c r="AM12">
-        <v>0.001937467650641052</v>
+        <v>0.772081595976447</v>
       </c>
       <c r="AN12">
-        <v>-0.345285976932506</v>
+        <v>0.7978870392043391</v>
+      </c>
+      <c r="AO12">
+        <v>0.4150245438680277</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块-beta.xlsx
+++ b/FOF/data/基金公司-板块-beta.xlsx
@@ -16,160 +16,160 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
     <t>招商</t>
   </si>
   <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>平安</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>泓德</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
     <t>海富通</t>
   </si>
   <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>平安大华</t>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>前海开源</t>
   </si>
   <si>
     <t>易方达</t>
   </si>
   <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>长信</t>
   </si>
   <si>
     <t>安信</t>
   </si>
   <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>泓德</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>创业板综</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
     <t>上证50</t>
   </si>
   <si>
     <t>中证100</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>创业板综</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中证1000</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中小板综</t>
   </si>
 </sst>
 </file>
@@ -663,124 +663,124 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>0.7721560676598028</v>
+        <v>0.5369739892546438</v>
       </c>
       <c r="C2">
-        <v>0.6965540540292695</v>
+        <v>0.3266456245630854</v>
       </c>
       <c r="D2">
-        <v>0.7224612795150228</v>
+        <v>0.4824062635986818</v>
       </c>
       <c r="E2">
-        <v>0.7753490137201081</v>
+        <v>0.6346085473002965</v>
       </c>
       <c r="F2">
-        <v>0.6524738055853094</v>
+        <v>0.455372174887269</v>
       </c>
       <c r="G2">
-        <v>0.8191492480533272</v>
+        <v>0.4801125869736939</v>
       </c>
       <c r="H2">
-        <v>0.6754150226893396</v>
+        <v>0.4376066043282885</v>
       </c>
       <c r="I2">
-        <v>0.6820056261126423</v>
+        <v>0.4875831191096305</v>
       </c>
       <c r="J2">
-        <v>0.6502921769080118</v>
+        <v>0.7367856930323751</v>
       </c>
       <c r="K2">
-        <v>0.6084627472055235</v>
+        <v>0.4363578097982381</v>
       </c>
       <c r="L2">
-        <v>0.6648390428416692</v>
+        <v>0.3552657602225009</v>
       </c>
       <c r="M2">
-        <v>0.6732782449543483</v>
+        <v>0.3654686572923905</v>
       </c>
       <c r="N2">
-        <v>0.6525203046762531</v>
+        <v>0.3497460676693967</v>
       </c>
       <c r="O2">
-        <v>0.6907780033738615</v>
+        <v>0.4129663903852649</v>
       </c>
       <c r="P2">
-        <v>0.7474573617236567</v>
+        <v>0.2107422647828406</v>
       </c>
       <c r="Q2">
-        <v>0.5789073760666519</v>
+        <v>0.4171844282504287</v>
       </c>
       <c r="R2">
-        <v>0.6094236723332271</v>
+        <v>0.3943397137493295</v>
       </c>
       <c r="S2">
-        <v>0.6104160657220649</v>
+        <v>0.1885517354295672</v>
       </c>
       <c r="T2">
-        <v>0.6018434534479481</v>
+        <v>0.5785368235827918</v>
       </c>
       <c r="U2">
-        <v>0.5961623321850978</v>
+        <v>0.4413864854236377</v>
       </c>
       <c r="V2">
-        <v>0.7717816707478071</v>
+        <v>0.2347784990039738</v>
       </c>
       <c r="W2">
-        <v>0.6256475625715616</v>
+        <v>0.3538564948009826</v>
       </c>
       <c r="X2">
-        <v>0.5868053458029057</v>
+        <v>0.4876886024735354</v>
       </c>
       <c r="Y2">
-        <v>0.5969549074625945</v>
+        <v>0.536260995871975</v>
       </c>
       <c r="Z2">
-        <v>0.595581673960482</v>
+        <v>0.6351325092952435</v>
       </c>
       <c r="AA2">
-        <v>0.5630787950112248</v>
+        <v>0.449095537924269</v>
       </c>
       <c r="AB2">
-        <v>0.6111479637164376</v>
+        <v>1.121306646834592</v>
       </c>
       <c r="AC2">
-        <v>0.6474549864578213</v>
+        <v>0.6446043378072465</v>
       </c>
       <c r="AD2">
-        <v>0.5600318079609066</v>
+        <v>0.6055420245800592</v>
       </c>
       <c r="AE2">
-        <v>0.6066309645381126</v>
+        <v>0.3641707880451428</v>
       </c>
       <c r="AF2">
-        <v>0.5839095588655404</v>
+        <v>0.3544019445766476</v>
       </c>
       <c r="AG2">
-        <v>0.4573690416800414</v>
+        <v>0.4363916750161805</v>
       </c>
       <c r="AH2">
-        <v>0.6229779606182697</v>
+        <v>0.5355369649805855</v>
       </c>
       <c r="AI2">
-        <v>0.539097210947323</v>
+        <v>0.4625229265332502</v>
       </c>
       <c r="AJ2">
-        <v>0.7225780557043014</v>
+        <v>0.2634303529431746</v>
       </c>
       <c r="AK2">
-        <v>0.6478810769664823</v>
+        <v>0.3557157876938791</v>
       </c>
       <c r="AL2">
-        <v>0.6205881235329382</v>
+        <v>0.3840643501303457</v>
       </c>
       <c r="AM2">
-        <v>0.5763548649988678</v>
+        <v>0.3684013139424087</v>
       </c>
       <c r="AN2">
-        <v>0.4996301305731696</v>
+        <v>0.4830722557564279</v>
       </c>
       <c r="AO2">
-        <v>0.2834385066752561</v>
+        <v>0.2845850791712304</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -788,124 +788,124 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>0.8016977002171215</v>
+        <v>0.5543141836624539</v>
       </c>
       <c r="C3">
-        <v>0.7401543676559476</v>
+        <v>0.3067625715884651</v>
       </c>
       <c r="D3">
-        <v>0.7502868990034105</v>
+        <v>0.5150205728457148</v>
       </c>
       <c r="E3">
-        <v>0.8081132036783025</v>
+        <v>0.70433324013598</v>
       </c>
       <c r="F3">
-        <v>0.6855091947561726</v>
+        <v>0.4674035736476365</v>
       </c>
       <c r="G3">
-        <v>0.855278554151627</v>
+        <v>0.5253614525847869</v>
       </c>
       <c r="H3">
-        <v>0.7066281596261369</v>
+        <v>0.4423509645162273</v>
       </c>
       <c r="I3">
-        <v>0.7178959186497768</v>
+        <v>0.5134925225290748</v>
       </c>
       <c r="J3">
-        <v>0.6801608821784992</v>
+        <v>0.875439642329317</v>
       </c>
       <c r="K3">
-        <v>0.6427615516902196</v>
+        <v>0.4585743691378255</v>
       </c>
       <c r="L3">
-        <v>0.6969362269319728</v>
+        <v>0.3684814937309332</v>
       </c>
       <c r="M3">
-        <v>0.6985998647002388</v>
+        <v>0.3746622707366945</v>
       </c>
       <c r="N3">
-        <v>0.6844041824134032</v>
+        <v>0.3602073220440629</v>
       </c>
       <c r="O3">
-        <v>0.7246384811261523</v>
+        <v>0.4405901340450972</v>
       </c>
       <c r="P3">
-        <v>0.7875295896839338</v>
+        <v>0.1984308597774967</v>
       </c>
       <c r="Q3">
-        <v>0.6064051642917315</v>
+        <v>0.4294574811674089</v>
       </c>
       <c r="R3">
-        <v>0.641822970903513</v>
+        <v>0.418322588718495</v>
       </c>
       <c r="S3">
-        <v>0.6410862636155342</v>
+        <v>0.1570896083538834</v>
       </c>
       <c r="T3">
-        <v>0.6344231966996893</v>
+        <v>0.6360782332217549</v>
       </c>
       <c r="U3">
-        <v>0.6241811631347127</v>
+        <v>0.456012415566828</v>
       </c>
       <c r="V3">
-        <v>0.8092884570153409</v>
+        <v>0.2445870738623601</v>
       </c>
       <c r="W3">
-        <v>0.6473090002836194</v>
+        <v>0.3626243375892475</v>
       </c>
       <c r="X3">
-        <v>0.6231868712386037</v>
+        <v>0.5418640653521407</v>
       </c>
       <c r="Y3">
-        <v>0.6368157838900961</v>
+        <v>0.5795826748249197</v>
       </c>
       <c r="Z3">
-        <v>0.6253201201086201</v>
+        <v>0.6941585822323793</v>
       </c>
       <c r="AA3">
-        <v>0.5887040115019345</v>
+        <v>0.4830860474703222</v>
       </c>
       <c r="AB3">
-        <v>0.6429693114730294</v>
+        <v>1.278464960170005</v>
       </c>
       <c r="AC3">
-        <v>0.6790633384471967</v>
+        <v>0.7143627630935094</v>
       </c>
       <c r="AD3">
-        <v>0.584135264041269</v>
+        <v>0.676179084590958</v>
       </c>
       <c r="AE3">
-        <v>0.6356230922437619</v>
+        <v>0.3645392343614818</v>
       </c>
       <c r="AF3">
-        <v>0.6182166651507276</v>
+        <v>0.3693220142048963</v>
       </c>
       <c r="AG3">
-        <v>0.4821006676951837</v>
+        <v>0.4861287516999896</v>
       </c>
       <c r="AH3">
-        <v>0.6567234361930701</v>
+        <v>0.5773195133417944</v>
       </c>
       <c r="AI3">
-        <v>0.5655773714408093</v>
+        <v>0.4746269332519291</v>
       </c>
       <c r="AJ3">
-        <v>0.7583274103762351</v>
+        <v>0.2508372666071508</v>
       </c>
       <c r="AK3">
-        <v>0.6830169928115671</v>
+        <v>0.3682035470053854</v>
       </c>
       <c r="AL3">
-        <v>0.6504212185241492</v>
+        <v>0.3974619979882567</v>
       </c>
       <c r="AM3">
-        <v>0.5996891718071249</v>
+        <v>0.3836245159800516</v>
       </c>
       <c r="AN3">
-        <v>0.5374433983634582</v>
+        <v>0.5401311216770481</v>
       </c>
       <c r="AO3">
-        <v>0.2971362977420863</v>
+        <v>0.2715806734594944</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -913,124 +913,124 @@
         <v>43</v>
       </c>
       <c r="B4">
-        <v>0.9414454338503606</v>
+        <v>0.7693485574403268</v>
       </c>
       <c r="C4">
-        <v>0.9041420004086754</v>
+        <v>0.4632726652753054</v>
       </c>
       <c r="D4">
-        <v>0.8941126577218657</v>
+        <v>0.6886183809689967</v>
       </c>
       <c r="E4">
-        <v>0.9513064383275285</v>
+        <v>0.8640940215634175</v>
       </c>
       <c r="F4">
-        <v>0.8169371680973415</v>
+        <v>0.6523190671538864</v>
       </c>
       <c r="G4">
-        <v>1.01352415374357</v>
+        <v>0.6663155826748725</v>
       </c>
       <c r="H4">
-        <v>0.8223618113137192</v>
+        <v>0.6282090349485148</v>
       </c>
       <c r="I4">
-        <v>0.8588912434425915</v>
+        <v>0.6923152603541856</v>
       </c>
       <c r="J4">
-        <v>0.7929110619676435</v>
+        <v>0.9968448207749672</v>
       </c>
       <c r="K4">
-        <v>0.7624347304581479</v>
+        <v>0.6151931412933911</v>
       </c>
       <c r="L4">
-        <v>0.8310283499437308</v>
+        <v>0.5334807658537855</v>
       </c>
       <c r="M4">
-        <v>0.8198041036405064</v>
+        <v>0.5247269633773329</v>
       </c>
       <c r="N4">
-        <v>0.806696423064334</v>
+        <v>0.5076966619176283</v>
       </c>
       <c r="O4">
-        <v>0.8643604444394076</v>
+        <v>0.5848237903736251</v>
       </c>
       <c r="P4">
-        <v>0.9419516114038828</v>
+        <v>0.3197051643645661</v>
       </c>
       <c r="Q4">
-        <v>0.7226132368608371</v>
+        <v>0.6017002245741763</v>
       </c>
       <c r="R4">
-        <v>0.762084259916506</v>
+        <v>0.571331673330047</v>
       </c>
       <c r="S4">
-        <v>0.7692125572858842</v>
+        <v>0.3022034948840523</v>
       </c>
       <c r="T4">
-        <v>0.7632106669162326</v>
+        <v>0.8069454648201173</v>
       </c>
       <c r="U4">
-        <v>0.7315780271361783</v>
+        <v>0.632545383920193</v>
       </c>
       <c r="V4">
-        <v>0.9636911306707754</v>
+        <v>0.3588622886330651</v>
       </c>
       <c r="W4">
-        <v>0.7660331983412907</v>
+        <v>0.5119865233369388</v>
       </c>
       <c r="X4">
-        <v>0.7362280482613021</v>
+        <v>0.6715752334144885</v>
       </c>
       <c r="Y4">
-        <v>0.7662221004563259</v>
+        <v>0.7463772018953961</v>
       </c>
       <c r="Z4">
-        <v>0.7229512434910421</v>
+        <v>0.8706087178255317</v>
       </c>
       <c r="AA4">
-        <v>0.6898472152932787</v>
+        <v>0.6270762838161248</v>
       </c>
       <c r="AB4">
-        <v>0.7533190310075566</v>
+        <v>1.509174936239491</v>
       </c>
       <c r="AC4">
-        <v>0.8109617519185396</v>
+        <v>0.873877293395163</v>
       </c>
       <c r="AD4">
-        <v>0.7099167587589313</v>
+        <v>0.8201750121493028</v>
       </c>
       <c r="AE4">
-        <v>0.748522110844882</v>
+        <v>0.528743229867414</v>
       </c>
       <c r="AF4">
-        <v>0.7532933427613926</v>
+        <v>0.512385524210112</v>
       </c>
       <c r="AG4">
-        <v>0.6079418012112666</v>
+        <v>0.6101901555746547</v>
       </c>
       <c r="AH4">
-        <v>0.7752926780811689</v>
+        <v>0.7436572010028095</v>
       </c>
       <c r="AI4">
-        <v>0.6873797301589096</v>
+        <v>0.6625660788540458</v>
       </c>
       <c r="AJ4">
-        <v>0.8794690472393536</v>
+        <v>0.4015685266430244</v>
       </c>
       <c r="AK4">
-        <v>0.806435058969215</v>
+        <v>0.5049872488889827</v>
       </c>
       <c r="AL4">
-        <v>0.7953910382189825</v>
+        <v>0.5602379575647564</v>
       </c>
       <c r="AM4">
-        <v>0.7059891007698972</v>
+        <v>0.526102750133667</v>
       </c>
       <c r="AN4">
-        <v>0.6388175765937467</v>
+        <v>0.6729278431093252</v>
       </c>
       <c r="AO4">
-        <v>0.356983097196822</v>
+        <v>0.4262095922743727</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1038,124 +1038,124 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>0.8937554652522939</v>
+        <v>0.7442742513857179</v>
       </c>
       <c r="C5">
-        <v>0.995563514681881</v>
+        <v>0.4430436129434881</v>
       </c>
       <c r="D5">
-        <v>0.876466990700787</v>
+        <v>0.6648371802916579</v>
       </c>
       <c r="E5">
-        <v>0.9485811022138215</v>
+        <v>0.8333326483354041</v>
       </c>
       <c r="F5">
-        <v>0.8498171531361318</v>
+        <v>0.6283033704237687</v>
       </c>
       <c r="G5">
-        <v>1.008979662153905</v>
+        <v>0.6435665715178964</v>
       </c>
       <c r="H5">
-        <v>0.8460144633612732</v>
+        <v>0.6086016698752721</v>
       </c>
       <c r="I5">
-        <v>0.9074869749500235</v>
+        <v>0.6669956774076916</v>
       </c>
       <c r="J5">
-        <v>0.8294839256179385</v>
+        <v>0.9752148366005416</v>
       </c>
       <c r="K5">
-        <v>0.8279834987263232</v>
+        <v>0.590333924353971</v>
       </c>
       <c r="L5">
-        <v>0.8645906277232074</v>
+        <v>0.5148184826612379</v>
       </c>
       <c r="M5">
-        <v>0.7986512923293809</v>
+        <v>0.5064324099544713</v>
       </c>
       <c r="N5">
-        <v>0.8295065685866283</v>
+        <v>0.492556943189055</v>
       </c>
       <c r="O5">
-        <v>0.8989821141317846</v>
+        <v>0.562750301056937</v>
       </c>
       <c r="P5">
-        <v>1.008053813873311</v>
+        <v>0.3113960212341385</v>
       </c>
       <c r="Q5">
-        <v>0.7572012625779281</v>
+        <v>0.5777669423046092</v>
       </c>
       <c r="R5">
-        <v>0.802414001698906</v>
+        <v>0.5553093486525651</v>
       </c>
       <c r="S5">
-        <v>0.8049503583303225</v>
+        <v>0.2897337746810529</v>
       </c>
       <c r="T5">
-        <v>0.8286407798807738</v>
+        <v>0.7797084266294753</v>
       </c>
       <c r="U5">
-        <v>0.7533626414620131</v>
+        <v>0.6147555526756072</v>
       </c>
       <c r="V5">
-        <v>0.99491329545069</v>
+        <v>0.3507878224613944</v>
       </c>
       <c r="W5">
-        <v>0.7246240910245775</v>
+        <v>0.4955072447294247</v>
       </c>
       <c r="X5">
-        <v>0.8312811914703048</v>
+        <v>0.6472975709058729</v>
       </c>
       <c r="Y5">
-        <v>0.8674156121003208</v>
+        <v>0.7197881497800264</v>
       </c>
       <c r="Z5">
-        <v>0.7490640219222708</v>
+        <v>0.8379037921571201</v>
       </c>
       <c r="AA5">
-        <v>0.7115494475750016</v>
+        <v>0.6003711270063796</v>
       </c>
       <c r="AB5">
-        <v>0.8022527640414927</v>
+        <v>1.45532817445945</v>
       </c>
       <c r="AC5">
-        <v>0.8540997734918947</v>
+        <v>0.840837470309205</v>
       </c>
       <c r="AD5">
-        <v>0.7012419769668338</v>
+        <v>0.7881760417023996</v>
       </c>
       <c r="AE5">
-        <v>0.7841334877448248</v>
+        <v>0.5052285118211906</v>
       </c>
       <c r="AF5">
-        <v>0.8220194389605627</v>
+        <v>0.4938319680943457</v>
       </c>
       <c r="AG5">
-        <v>0.6431406950961303</v>
+        <v>0.5904890950962158</v>
       </c>
       <c r="AH5">
-        <v>0.8419294909194194</v>
+        <v>0.7165578585911866</v>
       </c>
       <c r="AI5">
-        <v>0.7044832810213354</v>
+        <v>0.637129680143098</v>
       </c>
       <c r="AJ5">
-        <v>0.9437566324324168</v>
+        <v>0.3857383611674925</v>
       </c>
       <c r="AK5">
-        <v>0.8863515324407465</v>
+        <v>0.4861104073381985</v>
       </c>
       <c r="AL5">
-        <v>0.8200480055992598</v>
+        <v>0.5399324176122983</v>
       </c>
       <c r="AM5">
-        <v>0.6905450632230272</v>
+        <v>0.5067770988704264</v>
       </c>
       <c r="AN5">
-        <v>0.7517844879940359</v>
+        <v>0.6518304056592097</v>
       </c>
       <c r="AO5">
-        <v>0.372481451436518</v>
+        <v>0.4113535489748019</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -1163,124 +1163,124 @@
         <v>45</v>
       </c>
       <c r="B6">
-        <v>0.8550349181651232</v>
+        <v>0.9548307152118499</v>
       </c>
       <c r="C6">
-        <v>0.821518078288781</v>
+        <v>0.5619197313047848</v>
       </c>
       <c r="D6">
-        <v>0.8053815767288528</v>
+        <v>0.8626953826252557</v>
       </c>
       <c r="E6">
-        <v>0.8671892546408727</v>
+        <v>1.036846040166536</v>
       </c>
       <c r="F6">
-        <v>0.745254944907521</v>
+        <v>0.8135417907614224</v>
       </c>
       <c r="G6">
-        <v>0.921308103549864</v>
+        <v>0.8128870609954032</v>
       </c>
       <c r="H6">
-        <v>0.7588212022839432</v>
+        <v>0.7747008247484655</v>
       </c>
       <c r="I6">
-        <v>0.783311154941015</v>
+        <v>0.8609084774257739</v>
       </c>
       <c r="J6">
-        <v>0.7311173683797911</v>
+        <v>1.189367978722547</v>
       </c>
       <c r="K6">
-        <v>0.7022333710751406</v>
+        <v>0.7626845172470563</v>
       </c>
       <c r="L6">
-        <v>0.7563206463739595</v>
+        <v>0.7020846156910042</v>
       </c>
       <c r="M6">
-        <v>0.7451736273610085</v>
+        <v>0.6538827293795025</v>
       </c>
       <c r="N6">
-        <v>0.7398107396617608</v>
+        <v>0.6366436618652097</v>
       </c>
       <c r="O6">
-        <v>0.7869617570126651</v>
+        <v>0.7293661853473973</v>
       </c>
       <c r="P6">
-        <v>0.8603620241881016</v>
+        <v>0.4087248185258717</v>
       </c>
       <c r="Q6">
-        <v>0.6576793257096065</v>
+        <v>0.7607782846436216</v>
       </c>
       <c r="R6">
-        <v>0.6987077175237424</v>
+        <v>0.7193255475203173</v>
       </c>
       <c r="S6">
-        <v>0.6985318907909007</v>
+        <v>0.4079481772318959</v>
       </c>
       <c r="T6">
-        <v>0.6951859737358954</v>
+        <v>0.9915495438564943</v>
       </c>
       <c r="U6">
-        <v>0.6723814300920884</v>
+        <v>0.779764221800857</v>
       </c>
       <c r="V6">
-        <v>0.8778107023263261</v>
+        <v>0.4727753754869695</v>
       </c>
       <c r="W6">
-        <v>0.6898912092715104</v>
+        <v>0.6410248144925006</v>
       </c>
       <c r="X6">
-        <v>0.6841681686373948</v>
+        <v>0.8184817789147555</v>
       </c>
       <c r="Y6">
-        <v>0.7063273725706849</v>
+        <v>0.9121515573025657</v>
       </c>
       <c r="Z6">
-        <v>0.6723382664887847</v>
+        <v>1.051258416832417</v>
       </c>
       <c r="AA6">
-        <v>0.6333455184432794</v>
+        <v>0.7769943825913164</v>
       </c>
       <c r="AB6">
-        <v>0.696443635945509</v>
+        <v>1.802300559300075</v>
       </c>
       <c r="AC6">
-        <v>0.7380109630350964</v>
+        <v>1.046025028971575</v>
       </c>
       <c r="AD6">
-        <v>0.6339858756676195</v>
+        <v>0.9853322291548078</v>
       </c>
       <c r="AE6">
-        <v>0.6867371435795463</v>
+        <v>0.6731783680195514</v>
       </c>
       <c r="AF6">
-        <v>0.683182833027189</v>
+        <v>0.6484077754550676</v>
       </c>
       <c r="AG6">
-        <v>0.5364805729134838</v>
+        <v>0.753651282694916</v>
       </c>
       <c r="AH6">
-        <v>0.7150032649391461</v>
+        <v>0.9066626128276076</v>
       </c>
       <c r="AI6">
-        <v>0.6179119094753556</v>
+        <v>0.828370691763514</v>
       </c>
       <c r="AJ6">
-        <v>0.8170047467616467</v>
+        <v>0.5285563275028036</v>
       </c>
       <c r="AK6">
-        <v>0.7440664086964501</v>
+        <v>0.6252037811220174</v>
       </c>
       <c r="AL6">
-        <v>0.7116778566285876</v>
+        <v>0.7148314097305287</v>
       </c>
       <c r="AM6">
-        <v>0.6420863235903594</v>
+        <v>0.6565587759973283</v>
       </c>
       <c r="AN6">
-        <v>0.598839042722428</v>
+        <v>0.8271542409414199</v>
       </c>
       <c r="AO6">
-        <v>0.3233444853931109</v>
+        <v>0.5465143327234228</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1288,124 +1288,124 @@
         <v>46</v>
       </c>
       <c r="B7">
-        <v>0.883409749895948</v>
+        <v>1.335075329552167</v>
       </c>
       <c r="C7">
-        <v>0.8691633122103175</v>
+        <v>0.7315301417668605</v>
       </c>
       <c r="D7">
-        <v>0.840794588102861</v>
+        <v>1.235186105750628</v>
       </c>
       <c r="E7">
-        <v>0.9021607899990519</v>
+        <v>1.395310523675891</v>
       </c>
       <c r="F7">
-        <v>0.7799018623441637</v>
+        <v>1.143074277202207</v>
       </c>
       <c r="G7">
-        <v>0.9588735581273349</v>
+        <v>1.121647057043062</v>
       </c>
       <c r="H7">
-        <v>0.788906939887287</v>
+        <v>1.066129616175449</v>
       </c>
       <c r="I7">
-        <v>0.8221016022303697</v>
+        <v>1.212160260038214</v>
       </c>
       <c r="J7">
-        <v>0.763159251170181</v>
+        <v>1.63185254233591</v>
       </c>
       <c r="K7">
-        <v>0.7370104107400459</v>
+        <v>1.066043156318285</v>
       </c>
       <c r="L7">
-        <v>0.7930104197721883</v>
+        <v>1.076280031973383</v>
       </c>
       <c r="M7">
-        <v>0.7737849796679366</v>
+        <v>0.9179685611026545</v>
       </c>
       <c r="N7">
-        <v>0.7707195578307547</v>
+        <v>0.9061643192169001</v>
       </c>
       <c r="O7">
-        <v>0.8247319223374484</v>
+        <v>1.035084687408415</v>
       </c>
       <c r="P7">
-        <v>0.9045488633359541</v>
+        <v>0.589042716379522</v>
       </c>
       <c r="Q7">
-        <v>0.6908059295006376</v>
+        <v>1.0928214732343</v>
       </c>
       <c r="R7">
-        <v>0.7307221869076636</v>
+        <v>1.03916028110574</v>
       </c>
       <c r="S7">
-        <v>0.733679970791237</v>
+        <v>0.6220546470425498</v>
       </c>
       <c r="T7">
-        <v>0.734118193831224</v>
+        <v>1.387119078375929</v>
       </c>
       <c r="U7">
-        <v>0.7003619383927969</v>
+        <v>1.080184311038459</v>
       </c>
       <c r="V7">
-        <v>0.9183927874633488</v>
+        <v>0.7299090820014812</v>
       </c>
       <c r="W7">
-        <v>0.7160353469197004</v>
+        <v>0.907989602742296</v>
       </c>
       <c r="X7">
-        <v>0.7199436923131232</v>
+        <v>1.131805123157686</v>
       </c>
       <c r="Y7">
-        <v>0.7456812793927858</v>
+        <v>1.256884790586996</v>
       </c>
       <c r="Z7">
-        <v>0.6965546147912606</v>
+        <v>1.422238537520274</v>
       </c>
       <c r="AA7">
-        <v>0.6605930055892</v>
+        <v>1.091196427162204</v>
       </c>
       <c r="AB7">
-        <v>0.727416599714338</v>
+        <v>2.426961008911523</v>
       </c>
       <c r="AC7">
-        <v>0.7757560153217282</v>
+        <v>1.39948552049328</v>
       </c>
       <c r="AD7">
-        <v>0.6647183991865899</v>
+        <v>1.329528319028941</v>
       </c>
       <c r="AE7">
-        <v>0.7183831392241424</v>
+        <v>0.9692906341914822</v>
       </c>
       <c r="AF7">
-        <v>0.7228261803113123</v>
+        <v>0.9369580651560031</v>
       </c>
       <c r="AG7">
-        <v>0.57228787140089</v>
+        <v>1.068132375797903</v>
       </c>
       <c r="AH7">
-        <v>0.7504315537419441</v>
+        <v>1.242796753139896</v>
       </c>
       <c r="AI7">
-        <v>0.6495732940734704</v>
+        <v>1.167875643619428</v>
       </c>
       <c r="AJ7">
-        <v>0.8534281662070192</v>
+        <v>0.7947313876934285</v>
       </c>
       <c r="AK7">
-        <v>0.7828358804649334</v>
+        <v>0.8693840900729164</v>
       </c>
       <c r="AL7">
-        <v>0.7510767833600449</v>
+        <v>1.044714945276103</v>
       </c>
       <c r="AM7">
-        <v>0.6664655131808934</v>
+        <v>0.9270567477831804</v>
       </c>
       <c r="AN7">
-        <v>0.6309568605849082</v>
+        <v>1.16482100360531</v>
       </c>
       <c r="AO7">
-        <v>0.3400366178967076</v>
+        <v>0.7906620074208498</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1413,124 +1413,124 @@
         <v>47</v>
       </c>
       <c r="B8">
-        <v>0.937137856061212</v>
+        <v>0.6425792198310352</v>
       </c>
       <c r="C8">
-        <v>0.9425349365649759</v>
+        <v>0.3605231720872934</v>
       </c>
       <c r="D8">
-        <v>0.9017871156755546</v>
+        <v>0.586164934544715</v>
       </c>
       <c r="E8">
-        <v>0.963579294377007</v>
+        <v>0.7991022753912793</v>
       </c>
       <c r="F8">
-        <v>0.8373346764003154</v>
+        <v>0.5368950620285293</v>
       </c>
       <c r="G8">
-        <v>1.024386351360582</v>
+        <v>0.5980658749353243</v>
       </c>
       <c r="H8">
-        <v>0.8416017246177464</v>
+        <v>0.519122364954266</v>
       </c>
       <c r="I8">
-        <v>0.8851051185726753</v>
+        <v>0.585689303229243</v>
       </c>
       <c r="J8">
-        <v>0.8176191512224236</v>
+        <v>0.9993486983878624</v>
       </c>
       <c r="K8">
-        <v>0.7931334242888386</v>
+        <v>0.5194444680762592</v>
       </c>
       <c r="L8">
-        <v>0.8533699775541929</v>
+        <v>0.4161639469083668</v>
       </c>
       <c r="M8">
-        <v>0.8253278809456742</v>
+        <v>0.4325740420888827</v>
       </c>
       <c r="N8">
-        <v>0.8237249631191659</v>
+        <v>0.4192635175186287</v>
       </c>
       <c r="O8">
-        <v>0.8869713014864706</v>
+        <v>0.498691818225376</v>
       </c>
       <c r="P8">
-        <v>0.9755291339958366</v>
+        <v>0.239230147445788</v>
       </c>
       <c r="Q8">
-        <v>0.7448265790683016</v>
+        <v>0.4873735362293026</v>
       </c>
       <c r="R8">
-        <v>0.7837636351736629</v>
+        <v>0.4833732608881346</v>
       </c>
       <c r="S8">
-        <v>0.7907580215965844</v>
+        <v>0.1855207923579698</v>
       </c>
       <c r="T8">
-        <v>0.7952970230327683</v>
+        <v>0.722170813324261</v>
       </c>
       <c r="U8">
-        <v>0.7485705272388383</v>
+        <v>0.5348645132564501</v>
       </c>
       <c r="V8">
-        <v>0.9860108493145676</v>
+        <v>0.2840970369536199</v>
       </c>
       <c r="W8">
-        <v>0.7636446656463565</v>
+        <v>0.4207048190509917</v>
       </c>
       <c r="X8">
-        <v>0.7763799054891022</v>
+        <v>0.611376677672008</v>
       </c>
       <c r="Y8">
-        <v>0.8064366027033103</v>
+        <v>0.6600929223485553</v>
       </c>
       <c r="Z8">
-        <v>0.7399686169711164</v>
+        <v>0.7870255934395957</v>
       </c>
       <c r="AA8">
-        <v>0.7072012491914441</v>
+        <v>0.5406891625113414</v>
       </c>
       <c r="AB8">
-        <v>0.7792514324774547</v>
+        <v>1.439305060529776</v>
       </c>
       <c r="AC8">
-        <v>0.8369293080746284</v>
+        <v>0.8077210886523937</v>
       </c>
       <c r="AD8">
-        <v>0.7157615630494191</v>
+        <v>0.7600931542883148</v>
       </c>
       <c r="AE8">
-        <v>0.7712251751685879</v>
+        <v>0.4118651037150467</v>
       </c>
       <c r="AF8">
-        <v>0.7842045246032702</v>
+        <v>0.4207828413286422</v>
       </c>
       <c r="AG8">
-        <v>0.6264493303961366</v>
+        <v>0.5505000347107477</v>
       </c>
       <c r="AH8">
-        <v>0.807802205591046</v>
+        <v>0.657353320295414</v>
       </c>
       <c r="AI8">
-        <v>0.7008522574839766</v>
+        <v>0.5428590297429661</v>
       </c>
       <c r="AJ8">
-        <v>0.9146193010509908</v>
+        <v>0.287989320072309</v>
       </c>
       <c r="AK8">
-        <v>0.8448097523378546</v>
+        <v>0.4221647618035312</v>
       </c>
       <c r="AL8">
-        <v>0.8137578431475713</v>
+        <v>0.4526334823218341</v>
       </c>
       <c r="AM8">
-        <v>0.7102881599844117</v>
+        <v>0.4385576379652814</v>
       </c>
       <c r="AN8">
-        <v>0.6802880248483799</v>
+        <v>0.6128866953883635</v>
       </c>
       <c r="AO8">
-        <v>0.3670484599086815</v>
+        <v>0.3183214124095446</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1538,124 +1538,124 @@
         <v>48</v>
       </c>
       <c r="B9">
-        <v>0.9147890011623092</v>
+        <v>1.128848852230647</v>
       </c>
       <c r="C9">
-        <v>0.9835793908576497</v>
+        <v>0.6705623328142825</v>
       </c>
       <c r="D9">
-        <v>0.906067103553437</v>
+        <v>1.014785065195541</v>
       </c>
       <c r="E9">
-        <v>0.9594752436299084</v>
+        <v>1.132417676722986</v>
       </c>
       <c r="F9">
-        <v>0.8482009640960962</v>
+        <v>0.9677748743084292</v>
       </c>
       <c r="G9">
-        <v>1.021540920189234</v>
+        <v>0.9149554561158839</v>
       </c>
       <c r="H9">
-        <v>0.8369411288356188</v>
+        <v>0.9180976479889489</v>
       </c>
       <c r="I9">
-        <v>0.903681554795285</v>
+        <v>1.009291943095535</v>
       </c>
       <c r="J9">
-        <v>0.8219686210725128</v>
+        <v>1.246393951695515</v>
       </c>
       <c r="K9">
-        <v>0.8101601843405053</v>
+        <v>0.8902974312203102</v>
       </c>
       <c r="L9">
-        <v>0.8685545440257278</v>
+        <v>0.881591158615101</v>
       </c>
       <c r="M9">
-        <v>0.8170339803613216</v>
+        <v>0.7781891956475222</v>
       </c>
       <c r="N9">
-        <v>0.8241361619681671</v>
+        <v>0.7631300415636236</v>
       </c>
       <c r="O9">
-        <v>0.9016869286530306</v>
+        <v>0.8524584763155654</v>
       </c>
       <c r="P9">
-        <v>1.000650573647389</v>
+        <v>0.5176554721801121</v>
       </c>
       <c r="Q9">
-        <v>0.7614926518279727</v>
+        <v>0.9166519928187293</v>
       </c>
       <c r="R9">
-        <v>0.7928521981507317</v>
+        <v>0.8558845746211697</v>
       </c>
       <c r="S9">
-        <v>0.8086905651813716</v>
+        <v>0.5583737624395423</v>
       </c>
       <c r="T9">
-        <v>0.8250469352230756</v>
+        <v>1.123698477950815</v>
       </c>
       <c r="U9">
-        <v>0.7483951998591407</v>
+        <v>0.9162148198581765</v>
       </c>
       <c r="V9">
-        <v>0.9978632323114857</v>
+        <v>0.5961855830294577</v>
       </c>
       <c r="W9">
-        <v>0.7546639493754608</v>
+        <v>0.7679026662155158</v>
       </c>
       <c r="X9">
-        <v>0.7990320459315529</v>
+        <v>0.9117300295410448</v>
       </c>
       <c r="Y9">
-        <v>0.8374245693763136</v>
+        <v>1.034724500206499</v>
       </c>
       <c r="Z9">
-        <v>0.7291282125002185</v>
+        <v>1.166421060607044</v>
       </c>
       <c r="AA9">
-        <v>0.7094700913409346</v>
+        <v>0.8955939936266571</v>
       </c>
       <c r="AB9">
-        <v>0.7854080196163209</v>
+        <v>1.924894669075696</v>
       </c>
       <c r="AC9">
-        <v>0.8574574095005778</v>
+        <v>1.138290727654645</v>
       </c>
       <c r="AD9">
-        <v>0.727977873370049</v>
+        <v>1.072214341120911</v>
       </c>
       <c r="AE9">
-        <v>0.7800595163797922</v>
+        <v>0.8248839023283194</v>
       </c>
       <c r="AF9">
-        <v>0.8179942518369387</v>
+        <v>0.7791549563768227</v>
       </c>
       <c r="AG9">
-        <v>0.6662937933445999</v>
+        <v>0.8544974581529354</v>
       </c>
       <c r="AH9">
-        <v>0.8249272718471103</v>
+        <v>1.026355021671533</v>
       </c>
       <c r="AI9">
-        <v>0.7183137270652481</v>
+        <v>0.9876053551694228</v>
       </c>
       <c r="AJ9">
-        <v>0.9217076289617711</v>
+        <v>0.6825957378064862</v>
       </c>
       <c r="AK9">
-        <v>0.8681556532516234</v>
+        <v>0.7346613187747842</v>
       </c>
       <c r="AL9">
-        <v>0.8422937305835216</v>
+        <v>0.8692523025999872</v>
       </c>
       <c r="AM9">
-        <v>0.7026674867136812</v>
+        <v>0.7767551984290112</v>
       </c>
       <c r="AN9">
-        <v>0.7036741144562706</v>
+        <v>0.9307571555663577</v>
       </c>
       <c r="AO9">
-        <v>0.3764800674389212</v>
+        <v>0.6889066841125004</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1663,124 +1663,124 @@
         <v>49</v>
       </c>
       <c r="B10">
-        <v>0.9771279905834424</v>
+        <v>1.189853142623795</v>
       </c>
       <c r="C10">
-        <v>1.066743528158552</v>
+        <v>0.7222958265130883</v>
       </c>
       <c r="D10">
-        <v>0.9815264139322546</v>
+        <v>1.063384853806234</v>
       </c>
       <c r="E10">
-        <v>1.034193615226751</v>
+        <v>1.080303666574762</v>
       </c>
       <c r="F10">
-        <v>0.9156026953794042</v>
+        <v>1.030327092215056</v>
       </c>
       <c r="G10">
-        <v>1.098491735671077</v>
+        <v>0.9077526809951343</v>
       </c>
       <c r="H10">
-        <v>0.9016936241755502</v>
+        <v>0.9702703048565824</v>
       </c>
       <c r="I10">
-        <v>0.9780611602914233</v>
+        <v>1.055638659563348</v>
       </c>
       <c r="J10">
-        <v>0.8914809265065216</v>
+        <v>1.101242017073948</v>
       </c>
       <c r="K10">
-        <v>0.8769294408911997</v>
+        <v>0.929109092614816</v>
       </c>
       <c r="L10">
-        <v>0.9418541216994993</v>
+        <v>0.9920742372122808</v>
       </c>
       <c r="M10">
-        <v>0.8813159548833053</v>
+        <v>0.827863926160884</v>
       </c>
       <c r="N10">
-        <v>0.8863710029373943</v>
+        <v>0.815480012758462</v>
       </c>
       <c r="O10">
-        <v>0.9764391932195542</v>
+        <v>0.8886607441584916</v>
       </c>
       <c r="P10">
-        <v>1.085620098488904</v>
+        <v>0.5862944930633589</v>
       </c>
       <c r="Q10">
-        <v>0.8287234107048761</v>
+        <v>0.9914158870362068</v>
       </c>
       <c r="R10">
-        <v>0.8544493179171271</v>
+        <v>0.9049635726702279</v>
       </c>
       <c r="S10">
-        <v>0.8769216487663245</v>
+        <v>0.6855831143033028</v>
       </c>
       <c r="T10">
-        <v>0.8998948027337442</v>
+        <v>1.123908956818741</v>
       </c>
       <c r="U10">
-        <v>0.8069399978356566</v>
+        <v>0.955966898149436</v>
       </c>
       <c r="V10">
-        <v>1.078286870357056</v>
+        <v>0.668969441960268</v>
       </c>
       <c r="W10">
-        <v>0.8129870407757878</v>
+        <v>0.8214394847728295</v>
       </c>
       <c r="X10">
-        <v>0.8667771620406227</v>
+        <v>0.8932413061940437</v>
       </c>
       <c r="Y10">
-        <v>0.9065258122197128</v>
+        <v>1.038497256250707</v>
       </c>
       <c r="Z10">
-        <v>0.7801574138313855</v>
+        <v>1.139187979154918</v>
       </c>
       <c r="AA10">
-        <v>0.7675502714254386</v>
+        <v>0.9213200920258161</v>
       </c>
       <c r="AB10">
-        <v>0.848249265596035</v>
+        <v>1.776927176602231</v>
       </c>
       <c r="AC10">
-        <v>0.9329964964944136</v>
+        <v>1.082614816579747</v>
       </c>
       <c r="AD10">
-        <v>0.7877389868047276</v>
+        <v>1.020312839300097</v>
       </c>
       <c r="AE10">
-        <v>0.8457516070709314</v>
+        <v>0.9117438785118499</v>
       </c>
       <c r="AF10">
-        <v>0.889647901377094</v>
+        <v>0.8379364343892653</v>
       </c>
       <c r="AG10">
-        <v>0.7293949917903457</v>
+        <v>0.8536847239324756</v>
       </c>
       <c r="AH10">
-        <v>0.8952710879396971</v>
+        <v>1.028186467974321</v>
       </c>
       <c r="AI10">
-        <v>0.7778544470942073</v>
+        <v>1.05513001772562</v>
       </c>
       <c r="AJ10">
-        <v>1.000065314037066</v>
+        <v>0.7932323888938289</v>
       </c>
       <c r="AK10">
-        <v>0.9458927843917566</v>
+        <v>0.7714402646871492</v>
       </c>
       <c r="AL10">
-        <v>0.9170150951412069</v>
+        <v>0.9471581475024745</v>
       </c>
       <c r="AM10">
-        <v>0.7552130958601786</v>
+        <v>0.8213638083265264</v>
       </c>
       <c r="AN10">
-        <v>0.7579452564576824</v>
+        <v>0.9201511719237139</v>
       </c>
       <c r="AO10">
-        <v>0.4094092506520638</v>
+        <v>0.7802755709792305</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1788,124 +1788,124 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>0.9513895735636847</v>
+        <v>1.143236245994394</v>
       </c>
       <c r="C11">
-        <v>0.9987890089217129</v>
+        <v>0.5776547245776993</v>
       </c>
       <c r="D11">
-        <v>0.9298684070481599</v>
+        <v>1.114168728003916</v>
       </c>
       <c r="E11">
-        <v>0.9943889601043686</v>
+        <v>0.9740053874281451</v>
       </c>
       <c r="F11">
-        <v>0.8732527158429729</v>
+        <v>1.02050606566502</v>
       </c>
       <c r="G11">
-        <v>1.055302134897093</v>
+        <v>0.8714539544721718</v>
       </c>
       <c r="H11">
-        <v>0.87439528690317</v>
+        <v>0.8777245508425474</v>
       </c>
       <c r="I11">
-        <v>0.9278229720054962</v>
+        <v>1.062991408696945</v>
       </c>
       <c r="J11">
-        <v>0.8560531185816066</v>
+        <v>1.009574565455477</v>
       </c>
       <c r="K11">
-        <v>0.8366443968195625</v>
+        <v>0.9340223216738308</v>
       </c>
       <c r="L11">
-        <v>0.8924201140652824</v>
+        <v>1.184607274721569</v>
       </c>
       <c r="M11">
-        <v>0.8476254080959036</v>
+        <v>0.8103470379116076</v>
       </c>
       <c r="N11">
-        <v>0.8549144148333317</v>
+        <v>0.8098576461658494</v>
       </c>
       <c r="O11">
-        <v>0.9267327148224785</v>
+        <v>0.9240916292890772</v>
       </c>
       <c r="P11">
-        <v>1.027068387272213</v>
+        <v>0.571806025049898</v>
       </c>
       <c r="Q11">
-        <v>0.7818549885645515</v>
+        <v>1.050660642482012</v>
       </c>
       <c r="R11">
-        <v>0.8188356106810222</v>
+        <v>0.9385598889254254</v>
       </c>
       <c r="S11">
-        <v>0.8280638829696729</v>
+        <v>0.7645178284413529</v>
       </c>
       <c r="T11">
-        <v>0.8428137910979985</v>
+        <v>1.123131818229137</v>
       </c>
       <c r="U11">
-        <v>0.778299306825525</v>
+        <v>0.8747779878567198</v>
       </c>
       <c r="V11">
-        <v>1.027168827350101</v>
+        <v>0.7790425050268662</v>
       </c>
       <c r="W11">
-        <v>0.7785358629525846</v>
+        <v>0.8126238178081346</v>
       </c>
       <c r="X11">
-        <v>0.8273585455234137</v>
+        <v>0.8805823108544489</v>
       </c>
       <c r="Y11">
-        <v>0.8589776406870628</v>
+        <v>0.9943593554555694</v>
       </c>
       <c r="Z11">
-        <v>0.766992562410403</v>
+        <v>1.049341781476223</v>
       </c>
       <c r="AA11">
-        <v>0.7370151051404003</v>
+        <v>0.9592981086637288</v>
       </c>
       <c r="AB11">
-        <v>0.8172069186798858</v>
+        <v>1.632467273836723</v>
       </c>
       <c r="AC11">
-        <v>0.8794720208155832</v>
+        <v>0.9699926891862658</v>
       </c>
       <c r="AD11">
-        <v>0.738900435489236</v>
+        <v>0.9519511453293289</v>
       </c>
       <c r="AE11">
-        <v>0.8076328280456752</v>
+        <v>0.9767531398299979</v>
       </c>
       <c r="AF11">
-        <v>0.8306754454020906</v>
+        <v>0.8924015167194395</v>
       </c>
       <c r="AG11">
-        <v>0.6617423390567021</v>
+        <v>0.884293318681142</v>
       </c>
       <c r="AH11">
-        <v>0.8534099972187278</v>
+        <v>0.9724858879606644</v>
       </c>
       <c r="AI11">
-        <v>0.7299040786599762</v>
+        <v>1.061563089309291</v>
       </c>
       <c r="AJ11">
-        <v>0.9633686534587376</v>
+        <v>0.89299135807398</v>
       </c>
       <c r="AK11">
-        <v>0.8970517199970799</v>
+        <v>0.7484759496654834</v>
       </c>
       <c r="AL11">
-        <v>0.8514466879364752</v>
+        <v>1.031216395565418</v>
       </c>
       <c r="AM11">
-        <v>0.7285873189954531</v>
+        <v>0.8290410468552275</v>
       </c>
       <c r="AN11">
-        <v>0.7289547002738405</v>
+        <v>0.9344716871552869</v>
       </c>
       <c r="AO11">
-        <v>0.3847728658548244</v>
+        <v>0.7986307804229593</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1913,124 +1913,124 @@
         <v>51</v>
       </c>
       <c r="B12">
-        <v>1.001074752773237</v>
+        <v>1.142257181025584</v>
       </c>
       <c r="C12">
-        <v>1.089517156547549</v>
+        <v>0.6487993444152869</v>
       </c>
       <c r="D12">
-        <v>0.99033668897035</v>
+        <v>1.054022246586928</v>
       </c>
       <c r="E12">
-        <v>1.057823299624044</v>
+        <v>0.9424516699011142</v>
       </c>
       <c r="F12">
-        <v>0.9382230543851714</v>
+        <v>1.004717504539516</v>
       </c>
       <c r="G12">
-        <v>1.123348724840606</v>
+        <v>0.8373265886593815</v>
       </c>
       <c r="H12">
-        <v>0.9324763570700928</v>
+        <v>0.9113232826239465</v>
       </c>
       <c r="I12">
-        <v>1.00078228156392</v>
+        <v>1.025870368299242</v>
       </c>
       <c r="J12">
-        <v>0.9171977280616977</v>
+        <v>0.9260103004860379</v>
       </c>
       <c r="K12">
-        <v>0.9047681574796622</v>
+        <v>0.8985181505112747</v>
       </c>
       <c r="L12">
-        <v>0.9599653476875527</v>
+        <v>1.082945496453772</v>
       </c>
       <c r="M12">
-        <v>0.8977704878011589</v>
+        <v>0.8040412730189243</v>
       </c>
       <c r="N12">
-        <v>0.9138293604561388</v>
+        <v>0.8016548420233978</v>
       </c>
       <c r="O12">
-        <v>0.996580667950755</v>
+        <v>0.8732339405435343</v>
       </c>
       <c r="P12">
-        <v>1.110627707204797</v>
+        <v>0.592078243123112</v>
       </c>
       <c r="Q12">
-        <v>0.842577245835774</v>
+        <v>1.002250424472834</v>
       </c>
       <c r="R12">
-        <v>0.8804502670854311</v>
+        <v>0.9017027877640569</v>
       </c>
       <c r="S12">
-        <v>0.8927482879489888</v>
+        <v>0.7551155018431065</v>
       </c>
       <c r="T12">
-        <v>0.915648175097569</v>
+        <v>1.060884401654474</v>
       </c>
       <c r="U12">
-        <v>0.831590937706406</v>
+        <v>0.8970295378114149</v>
       </c>
       <c r="V12">
-        <v>1.102326648270269</v>
+        <v>0.725815508636398</v>
       </c>
       <c r="W12">
-        <v>0.8219085056552464</v>
+        <v>0.8054097362334008</v>
       </c>
       <c r="X12">
-        <v>0.8999470328665843</v>
+        <v>0.8250667409260996</v>
       </c>
       <c r="Y12">
-        <v>0.9377949698886243</v>
+        <v>0.9630062143548225</v>
       </c>
       <c r="Z12">
-        <v>0.8163906659355473</v>
+        <v>1.018192608583554</v>
       </c>
       <c r="AA12">
-        <v>0.7882754542680939</v>
+        <v>0.8953024384669622</v>
       </c>
       <c r="AB12">
-        <v>0.8782198425885424</v>
+        <v>1.524442436005576</v>
       </c>
       <c r="AC12">
-        <v>0.9489405888341251</v>
+        <v>0.9377646955711428</v>
       </c>
       <c r="AD12">
-        <v>0.7911205387614885</v>
+        <v>0.8987222556822568</v>
       </c>
       <c r="AE12">
-        <v>0.8673539889182346</v>
+        <v>0.9346165776960845</v>
       </c>
       <c r="AF12">
-        <v>0.9049642574830435</v>
+        <v>0.8481447299328629</v>
       </c>
       <c r="AG12">
-        <v>0.7235431182106209</v>
+        <v>0.8190723928127954</v>
       </c>
       <c r="AH12">
-        <v>0.9225148961831495</v>
+        <v>0.9466639954562472</v>
       </c>
       <c r="AI12">
-        <v>0.7862200333572542</v>
+        <v>1.036740631998438</v>
       </c>
       <c r="AJ12">
-        <v>1.03538812731981</v>
+        <v>0.8552316795251103</v>
       </c>
       <c r="AK12">
-        <v>0.9724273821971826</v>
+        <v>0.7393147939042448</v>
       </c>
       <c r="AL12">
-        <v>0.9203403588840883</v>
+        <v>0.9750218751047974</v>
       </c>
       <c r="AM12">
-        <v>0.772081595976447</v>
+        <v>0.8041754811976228</v>
       </c>
       <c r="AN12">
-        <v>0.7978870392043391</v>
+        <v>0.8698818380658587</v>
       </c>
       <c r="AO12">
-        <v>0.4150245438680277</v>
+        <v>0.7995146858955223</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块-beta.xlsx
+++ b/FOF/data/基金公司-板块-beta.xlsx
@@ -16,160 +16,160 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
+    <t>前海开源</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>泓德</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>平安</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
     <t>上投摩根</t>
   </si>
   <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
     <t>招商</t>
   </si>
   <si>
-    <t>融通</t>
-  </si>
-  <si>
     <t>天弘</t>
   </si>
   <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>平安</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>泓德</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>前海开源</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>上证综指</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
     <t>创业板综</t>
   </si>
   <si>
     <t>中证1000</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>上证综指</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>上证50</t>
-  </si>
-  <si>
-    <t>中证100</t>
   </si>
 </sst>
 </file>
@@ -663,124 +663,124 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>0.5369739892546438</v>
+        <v>0.5727530305508777</v>
       </c>
       <c r="C2">
-        <v>0.3266456245630854</v>
+        <v>0.9161309907569929</v>
       </c>
       <c r="D2">
-        <v>0.4824062635986818</v>
+        <v>0.8050365258262524</v>
       </c>
       <c r="E2">
-        <v>0.6346085473002965</v>
+        <v>1.097294020955355</v>
       </c>
       <c r="F2">
-        <v>0.455372174887269</v>
+        <v>0.652210278489919</v>
       </c>
       <c r="G2">
-        <v>0.4801125869736939</v>
+        <v>0.4961881812627542</v>
       </c>
       <c r="H2">
-        <v>0.4376066043282885</v>
+        <v>0.7054405368792741</v>
       </c>
       <c r="I2">
-        <v>0.4875831191096305</v>
+        <v>0.665169278586601</v>
       </c>
       <c r="J2">
-        <v>0.7367856930323751</v>
+        <v>0.4914604393640466</v>
       </c>
       <c r="K2">
-        <v>0.4363578097982381</v>
+        <v>0.2717440379887318</v>
       </c>
       <c r="L2">
-        <v>0.3552657602225009</v>
+        <v>0.7804703842645585</v>
       </c>
       <c r="M2">
-        <v>0.3654686572923905</v>
+        <v>0.7886845843089991</v>
       </c>
       <c r="N2">
-        <v>0.3497460676693967</v>
+        <v>0.7725346125857293</v>
       </c>
       <c r="O2">
-        <v>0.4129663903852649</v>
+        <v>0.715709578788463</v>
       </c>
       <c r="P2">
-        <v>0.2107422647828406</v>
+        <v>0.8570046736662101</v>
       </c>
       <c r="Q2">
-        <v>0.4171844282504287</v>
+        <v>0.8504473338142853</v>
       </c>
       <c r="R2">
-        <v>0.3943397137493295</v>
+        <v>0.7414213558539396</v>
       </c>
       <c r="S2">
-        <v>0.1885517354295672</v>
+        <v>0.9872894197545576</v>
       </c>
       <c r="T2">
-        <v>0.5785368235827918</v>
+        <v>0.7842067782342937</v>
       </c>
       <c r="U2">
-        <v>0.4413864854236377</v>
+        <v>0.6236563845765699</v>
       </c>
       <c r="V2">
-        <v>0.2347784990039738</v>
+        <v>0.7574245520397613</v>
       </c>
       <c r="W2">
-        <v>0.3538564948009826</v>
+        <v>0.8376498632238111</v>
       </c>
       <c r="X2">
-        <v>0.4876886024735354</v>
+        <v>0.1376744514051919</v>
       </c>
       <c r="Y2">
-        <v>0.536260995871975</v>
+        <v>0.9709957186580452</v>
       </c>
       <c r="Z2">
-        <v>0.6351325092952435</v>
+        <v>1.186574903011087</v>
       </c>
       <c r="AA2">
-        <v>0.449095537924269</v>
+        <v>0.7763406995864507</v>
       </c>
       <c r="AB2">
-        <v>1.121306646834592</v>
+        <v>0.6431218707885957</v>
       </c>
       <c r="AC2">
-        <v>0.6446043378072465</v>
+        <v>0.8510082691938919</v>
       </c>
       <c r="AD2">
-        <v>0.6055420245800592</v>
+        <v>0.6623034391645066</v>
       </c>
       <c r="AE2">
-        <v>0.3641707880451428</v>
+        <v>0.7788384631792575</v>
       </c>
       <c r="AF2">
-        <v>0.3544019445766476</v>
+        <v>1.213579982543248</v>
       </c>
       <c r="AG2">
-        <v>0.4363916750161805</v>
+        <v>0.7707463901054538</v>
       </c>
       <c r="AH2">
-        <v>0.5355369649805855</v>
+        <v>0.1676319448777511</v>
       </c>
       <c r="AI2">
-        <v>0.4625229265332502</v>
+        <v>0.7553783251483055</v>
       </c>
       <c r="AJ2">
-        <v>0.2634303529431746</v>
+        <v>0.8412829342116239</v>
       </c>
       <c r="AK2">
-        <v>0.3557157876938791</v>
+        <v>0.923607873682046</v>
       </c>
       <c r="AL2">
-        <v>0.3840643501303457</v>
+        <v>0.8097278162164226</v>
       </c>
       <c r="AM2">
-        <v>0.3684013139424087</v>
+        <v>0.8351076358838264</v>
       </c>
       <c r="AN2">
-        <v>0.4830722557564279</v>
+        <v>0.6463133159021257</v>
       </c>
       <c r="AO2">
-        <v>0.2845850791712304</v>
+        <v>0.06857185552240734</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -788,124 +788,124 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>0.5543141836624539</v>
+        <v>0.7094675896561002</v>
       </c>
       <c r="C3">
-        <v>0.3067625715884651</v>
+        <v>0.9469419097018956</v>
       </c>
       <c r="D3">
-        <v>0.5150205728457148</v>
+        <v>0.9308470960212004</v>
       </c>
       <c r="E3">
-        <v>0.70433324013598</v>
+        <v>1.108136142238747</v>
       </c>
       <c r="F3">
-        <v>0.4674035736476365</v>
+        <v>0.6621733065196064</v>
       </c>
       <c r="G3">
-        <v>0.5253614525847869</v>
+        <v>0.4035204625613022</v>
       </c>
       <c r="H3">
-        <v>0.4423509645162273</v>
+        <v>0.7434214666509694</v>
       </c>
       <c r="I3">
-        <v>0.5134925225290748</v>
+        <v>0.6608265882339907</v>
       </c>
       <c r="J3">
-        <v>0.875439642329317</v>
+        <v>0.726772548096034</v>
       </c>
       <c r="K3">
-        <v>0.4585743691378255</v>
+        <v>0.4206098275911228</v>
       </c>
       <c r="L3">
-        <v>0.3684814937309332</v>
+        <v>0.9333446427076638</v>
       </c>
       <c r="M3">
-        <v>0.3746622707366945</v>
+        <v>0.7859665142024642</v>
       </c>
       <c r="N3">
-        <v>0.3602073220440629</v>
+        <v>0.8277911709185125</v>
       </c>
       <c r="O3">
-        <v>0.4405901340450972</v>
+        <v>0.7795984099948201</v>
       </c>
       <c r="P3">
-        <v>0.1984308597774967</v>
+        <v>0.8868254293646175</v>
       </c>
       <c r="Q3">
-        <v>0.4294574811674089</v>
+        <v>0.8714689270714865</v>
       </c>
       <c r="R3">
-        <v>0.418322588718495</v>
+        <v>0.8677778105022466</v>
       </c>
       <c r="S3">
-        <v>0.1570896083538834</v>
+        <v>1.054796568663484</v>
       </c>
       <c r="T3">
-        <v>0.6360782332217549</v>
+        <v>0.7622758606348978</v>
       </c>
       <c r="U3">
-        <v>0.456012415566828</v>
+        <v>0.6773679946958447</v>
       </c>
       <c r="V3">
-        <v>0.2445870738623601</v>
+        <v>0.8019697631452193</v>
       </c>
       <c r="W3">
-        <v>0.3626243375892475</v>
+        <v>0.8729281636893955</v>
       </c>
       <c r="X3">
-        <v>0.5418640653521407</v>
+        <v>0.2805622822001654</v>
       </c>
       <c r="Y3">
-        <v>0.5795826748249197</v>
+        <v>0.9424681425606419</v>
       </c>
       <c r="Z3">
-        <v>0.6941585822323793</v>
+        <v>1.057944489514629</v>
       </c>
       <c r="AA3">
-        <v>0.4830860474703222</v>
+        <v>0.878083596126593</v>
       </c>
       <c r="AB3">
-        <v>1.278464960170005</v>
+        <v>0.6901227895364794</v>
       </c>
       <c r="AC3">
-        <v>0.7143627630935094</v>
+        <v>0.8970351365997773</v>
       </c>
       <c r="AD3">
-        <v>0.676179084590958</v>
+        <v>0.7560503494170803</v>
       </c>
       <c r="AE3">
-        <v>0.3645392343614818</v>
+        <v>0.8564582280288248</v>
       </c>
       <c r="AF3">
-        <v>0.3693220142048963</v>
+        <v>1.17005975159697</v>
       </c>
       <c r="AG3">
-        <v>0.4861287516999896</v>
+        <v>0.7578769796648354</v>
       </c>
       <c r="AH3">
-        <v>0.5773195133417944</v>
+        <v>0.3522746658848322</v>
       </c>
       <c r="AI3">
-        <v>0.4746269332519291</v>
+        <v>0.8781703088860953</v>
       </c>
       <c r="AJ3">
-        <v>0.2508372666071508</v>
+        <v>0.8845848730293776</v>
       </c>
       <c r="AK3">
-        <v>0.3682035470053854</v>
+        <v>0.963054789558548</v>
       </c>
       <c r="AL3">
-        <v>0.3974619979882567</v>
+        <v>0.7783012555615795</v>
       </c>
       <c r="AM3">
-        <v>0.3836245159800516</v>
+        <v>0.8661204981269897</v>
       </c>
       <c r="AN3">
-        <v>0.5401311216770481</v>
+        <v>0.6334779452491864</v>
       </c>
       <c r="AO3">
-        <v>0.2715806734594944</v>
+        <v>0.3081820147856543</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -913,124 +913,124 @@
         <v>43</v>
       </c>
       <c r="B4">
-        <v>0.7693485574403268</v>
+        <v>0.9169535365786107</v>
       </c>
       <c r="C4">
-        <v>0.4632726652753054</v>
+        <v>1.101131028421188</v>
       </c>
       <c r="D4">
-        <v>0.6886183809689967</v>
+        <v>1.183284299193479</v>
       </c>
       <c r="E4">
-        <v>0.8640940215634175</v>
+        <v>1.286524833668481</v>
       </c>
       <c r="F4">
-        <v>0.6523190671538864</v>
+        <v>0.7862548200835261</v>
       </c>
       <c r="G4">
-        <v>0.6663155826748725</v>
+        <v>0.4238805115813868</v>
       </c>
       <c r="H4">
-        <v>0.6282090349485148</v>
+        <v>0.9000853054587006</v>
       </c>
       <c r="I4">
-        <v>0.6923152603541856</v>
+        <v>0.76301889899095</v>
       </c>
       <c r="J4">
-        <v>0.9968448207749672</v>
+        <v>0.9969974965121295</v>
       </c>
       <c r="K4">
-        <v>0.6151931412933911</v>
+        <v>0.5925735011467413</v>
       </c>
       <c r="L4">
-        <v>0.5334807658537855</v>
+        <v>1.19835525692963</v>
       </c>
       <c r="M4">
-        <v>0.5247269633773329</v>
+        <v>0.9203682257683818</v>
       </c>
       <c r="N4">
-        <v>0.5076966619176283</v>
+        <v>0.9923847509897578</v>
       </c>
       <c r="O4">
-        <v>0.5848237903736251</v>
+        <v>0.9443698727256977</v>
       </c>
       <c r="P4">
-        <v>0.3197051643645661</v>
+        <v>1.060347788434787</v>
       </c>
       <c r="Q4">
-        <v>0.6017002245741763</v>
+        <v>1.041775456472268</v>
       </c>
       <c r="R4">
-        <v>0.571331673330047</v>
+        <v>1.09759013760969</v>
       </c>
       <c r="S4">
-        <v>0.3022034948840523</v>
+        <v>1.285585683619412</v>
       </c>
       <c r="T4">
-        <v>0.8069454648201173</v>
+        <v>0.8581523013689702</v>
       </c>
       <c r="U4">
-        <v>0.632545383920193</v>
+        <v>0.8453232254364268</v>
       </c>
       <c r="V4">
-        <v>0.3588622886330651</v>
+        <v>0.9575425020438096</v>
       </c>
       <c r="W4">
-        <v>0.5119865233369388</v>
+        <v>1.0587460239358</v>
       </c>
       <c r="X4">
-        <v>0.6715752334144885</v>
+        <v>0.4160238702195533</v>
       </c>
       <c r="Y4">
-        <v>0.7463772018953961</v>
+        <v>1.080783403447733</v>
       </c>
       <c r="Z4">
-        <v>0.8706087178255317</v>
+        <v>1.141291589554737</v>
       </c>
       <c r="AA4">
-        <v>0.6270762838161248</v>
+        <v>1.070518319916399</v>
       </c>
       <c r="AB4">
-        <v>1.509174936239491</v>
+        <v>0.8377997697864193</v>
       </c>
       <c r="AC4">
-        <v>0.873877293395163</v>
+        <v>1.08388332432336</v>
       </c>
       <c r="AD4">
-        <v>0.8201750121493028</v>
+        <v>0.9326652709265029</v>
       </c>
       <c r="AE4">
-        <v>0.528743229867414</v>
+        <v>1.054181183977791</v>
       </c>
       <c r="AF4">
-        <v>0.512385524210112</v>
+        <v>1.33265435135328</v>
       </c>
       <c r="AG4">
-        <v>0.6101901555746547</v>
+        <v>0.8886601694909914</v>
       </c>
       <c r="AH4">
-        <v>0.7436572010028095</v>
+        <v>0.5375846285869182</v>
       </c>
       <c r="AI4">
-        <v>0.6625660788540458</v>
+        <v>1.142653613460954</v>
       </c>
       <c r="AJ4">
-        <v>0.4015685266430244</v>
+        <v>1.053157992926901</v>
       </c>
       <c r="AK4">
-        <v>0.5049872488889827</v>
+        <v>1.156021551308953</v>
       </c>
       <c r="AL4">
-        <v>0.5602379575647564</v>
+        <v>0.8864400003598726</v>
       </c>
       <c r="AM4">
-        <v>0.526102750133667</v>
+        <v>1.053477851804907</v>
       </c>
       <c r="AN4">
-        <v>0.6729278431093252</v>
+        <v>0.7480407195783458</v>
       </c>
       <c r="AO4">
-        <v>0.4262095922743727</v>
+        <v>0.5172016133637215</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1038,124 +1038,124 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>0.7442742513857179</v>
+        <v>1.037236269943954</v>
       </c>
       <c r="C5">
-        <v>0.4430436129434881</v>
+        <v>1.05359533730593</v>
       </c>
       <c r="D5">
-        <v>0.6648371802916579</v>
+        <v>1.286327990705869</v>
       </c>
       <c r="E5">
-        <v>0.8333326483354041</v>
+        <v>1.210890043972973</v>
       </c>
       <c r="F5">
-        <v>0.6283033704237687</v>
+        <v>0.7574891934049403</v>
       </c>
       <c r="G5">
-        <v>0.6435665715178964</v>
+        <v>0.2904741823173618</v>
       </c>
       <c r="H5">
-        <v>0.6086016698752721</v>
+        <v>0.901113737594332</v>
       </c>
       <c r="I5">
-        <v>0.6669956774076916</v>
+        <v>0.7067083355265059</v>
       </c>
       <c r="J5">
-        <v>0.9752148366005416</v>
+        <v>1.235482911589805</v>
       </c>
       <c r="K5">
-        <v>0.590333924353971</v>
+        <v>0.7522121761274095</v>
       </c>
       <c r="L5">
-        <v>0.5148184826612379</v>
+        <v>1.330609574696337</v>
       </c>
       <c r="M5">
-        <v>0.5064324099544713</v>
+        <v>0.8653925683271338</v>
       </c>
       <c r="N5">
-        <v>0.492556943189055</v>
+        <v>0.9951563903140076</v>
       </c>
       <c r="O5">
-        <v>0.562750301056937</v>
+        <v>0.9633722576651575</v>
       </c>
       <c r="P5">
-        <v>0.3113960212341385</v>
+        <v>1.039669869767381</v>
       </c>
       <c r="Q5">
-        <v>0.5777669423046092</v>
+        <v>1.015249782226183</v>
       </c>
       <c r="R5">
-        <v>0.5553093486525651</v>
+        <v>1.195878055664762</v>
       </c>
       <c r="S5">
-        <v>0.2897337746810529</v>
+        <v>1.303731807096026</v>
       </c>
       <c r="T5">
-        <v>0.7797084266294753</v>
+        <v>0.7633799398216748</v>
       </c>
       <c r="U5">
-        <v>0.6147555526756072</v>
+        <v>0.8802169271298672</v>
       </c>
       <c r="V5">
-        <v>0.3507878224613944</v>
+        <v>0.9505879042847361</v>
       </c>
       <c r="W5">
-        <v>0.4955072447294247</v>
+        <v>1.054639794213777</v>
       </c>
       <c r="X5">
-        <v>0.6472975709058729</v>
+        <v>0.5707741298290682</v>
       </c>
       <c r="Y5">
-        <v>0.7197881497800264</v>
+        <v>0.9782884794743966</v>
       </c>
       <c r="Z5">
-        <v>0.8379037921571201</v>
+        <v>0.898678692201852</v>
       </c>
       <c r="AA5">
-        <v>0.6003711270063796</v>
+        <v>1.119073469236313</v>
       </c>
       <c r="AB5">
-        <v>1.45532817445945</v>
+        <v>0.8490985959392613</v>
       </c>
       <c r="AC5">
-        <v>0.840837470309205</v>
+        <v>1.083530919594735</v>
       </c>
       <c r="AD5">
-        <v>0.7881760417023996</v>
+        <v>0.9876299697507467</v>
       </c>
       <c r="AE5">
-        <v>0.5052285118211906</v>
+        <v>1.093747782954207</v>
       </c>
       <c r="AF5">
-        <v>0.4938319680943457</v>
+        <v>1.192254198199302</v>
       </c>
       <c r="AG5">
-        <v>0.5904890950962158</v>
+        <v>0.8291194432402174</v>
       </c>
       <c r="AH5">
-        <v>0.7165578585911866</v>
+        <v>0.7477985911518084</v>
       </c>
       <c r="AI5">
-        <v>0.637129680143098</v>
+        <v>1.263774779652735</v>
       </c>
       <c r="AJ5">
-        <v>0.3857383611674925</v>
+        <v>1.038831379065364</v>
       </c>
       <c r="AK5">
-        <v>0.4861104073381985</v>
+        <v>1.142312942416771</v>
       </c>
       <c r="AL5">
-        <v>0.5399324176122983</v>
+        <v>0.7912294914089743</v>
       </c>
       <c r="AM5">
-        <v>0.5067770988704264</v>
+        <v>1.048869017507634</v>
       </c>
       <c r="AN5">
-        <v>0.6518304056592097</v>
+        <v>0.7009260668234716</v>
       </c>
       <c r="AO5">
-        <v>0.4113535489748019</v>
+        <v>0.795285903184494</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -1163,124 +1163,124 @@
         <v>45</v>
       </c>
       <c r="B6">
-        <v>0.9548307152118499</v>
+        <v>0.9896277829298066</v>
       </c>
       <c r="C6">
-        <v>0.5619197313047848</v>
+        <v>1.020548779780901</v>
       </c>
       <c r="D6">
-        <v>0.8626953826252557</v>
+        <v>1.253403855715691</v>
       </c>
       <c r="E6">
-        <v>1.036846040166536</v>
+        <v>1.1919142400649</v>
       </c>
       <c r="F6">
-        <v>0.8135417907614224</v>
+        <v>0.7571323389105559</v>
       </c>
       <c r="G6">
-        <v>0.8128870609954032</v>
+        <v>0.3297568206338913</v>
       </c>
       <c r="H6">
-        <v>0.7747008247484655</v>
+        <v>0.8918763184073194</v>
       </c>
       <c r="I6">
-        <v>0.8609084774257739</v>
+        <v>0.7011980378405841</v>
       </c>
       <c r="J6">
-        <v>1.189367978722547</v>
+        <v>1.15208492901166</v>
       </c>
       <c r="K6">
-        <v>0.7626845172470563</v>
+        <v>0.705627451687085</v>
       </c>
       <c r="L6">
-        <v>0.7020846156910042</v>
+        <v>1.284467852759596</v>
       </c>
       <c r="M6">
-        <v>0.6538827293795025</v>
+        <v>0.8670122273035984</v>
       </c>
       <c r="N6">
-        <v>0.6366436618652097</v>
+        <v>0.9660566370111606</v>
       </c>
       <c r="O6">
-        <v>0.7293661853473973</v>
+        <v>0.9337196622944171</v>
       </c>
       <c r="P6">
-        <v>0.4087248185258717</v>
+        <v>1.031105238561392</v>
       </c>
       <c r="Q6">
-        <v>0.7607782846436216</v>
+        <v>1.013671408761932</v>
       </c>
       <c r="R6">
-        <v>0.7193255475203173</v>
+        <v>1.153114031921574</v>
       </c>
       <c r="S6">
-        <v>0.4079481772318959</v>
+        <v>1.285884442203279</v>
       </c>
       <c r="T6">
-        <v>0.9915495438564943</v>
+        <v>0.7538065632624836</v>
       </c>
       <c r="U6">
-        <v>0.779764221800857</v>
+        <v>0.875725012734259</v>
       </c>
       <c r="V6">
-        <v>0.4727753754869695</v>
+        <v>0.926901825689149</v>
       </c>
       <c r="W6">
-        <v>0.6410248144925006</v>
+        <v>1.053159747076597</v>
       </c>
       <c r="X6">
-        <v>0.8184817789147555</v>
+        <v>0.5193656881074248</v>
       </c>
       <c r="Y6">
-        <v>0.9121515573025657</v>
+        <v>0.9834011428730011</v>
       </c>
       <c r="Z6">
-        <v>1.051258416832417</v>
+        <v>0.9288408549193866</v>
       </c>
       <c r="AA6">
-        <v>0.7769943825913164</v>
+        <v>1.065938132927313</v>
       </c>
       <c r="AB6">
-        <v>1.802300559300075</v>
+        <v>0.8323789936217428</v>
       </c>
       <c r="AC6">
-        <v>1.046025028971575</v>
+        <v>1.070474848883385</v>
       </c>
       <c r="AD6">
-        <v>0.9853322291548078</v>
+        <v>0.9453853943277042</v>
       </c>
       <c r="AE6">
-        <v>0.6731783680195514</v>
+        <v>1.068195207061892</v>
       </c>
       <c r="AF6">
-        <v>0.6484077754550676</v>
+        <v>1.198189015561149</v>
       </c>
       <c r="AG6">
-        <v>0.753651282694916</v>
+        <v>0.8402939852918949</v>
       </c>
       <c r="AH6">
-        <v>0.9066626128276076</v>
+        <v>0.690952882588709</v>
       </c>
       <c r="AI6">
-        <v>0.828370691763514</v>
+        <v>1.250222822415241</v>
       </c>
       <c r="AJ6">
-        <v>0.5285563275028036</v>
+        <v>1.01522769434736</v>
       </c>
       <c r="AK6">
-        <v>0.6252037811220174</v>
+        <v>1.130645966586876</v>
       </c>
       <c r="AL6">
-        <v>0.7148314097305287</v>
+        <v>0.7972602566926698</v>
       </c>
       <c r="AM6">
-        <v>0.6565587759973283</v>
+        <v>1.053156765454817</v>
       </c>
       <c r="AN6">
-        <v>0.8271542409414199</v>
+        <v>0.7162042416244917</v>
       </c>
       <c r="AO6">
-        <v>0.5465143327234228</v>
+        <v>0.7168793343358281</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1288,124 +1288,124 @@
         <v>46</v>
       </c>
       <c r="B7">
-        <v>1.335075329552167</v>
+        <v>0.8343695627241204</v>
       </c>
       <c r="C7">
-        <v>0.7315301417668605</v>
+        <v>0.7839835877289265</v>
       </c>
       <c r="D7">
-        <v>1.235186105750628</v>
+        <v>1.009916351623722</v>
       </c>
       <c r="E7">
-        <v>1.395310523675891</v>
+        <v>0.8872748859968028</v>
       </c>
       <c r="F7">
-        <v>1.143074277202207</v>
+        <v>0.557453729994434</v>
       </c>
       <c r="G7">
-        <v>1.121647057043062</v>
+        <v>0.1581797102992323</v>
       </c>
       <c r="H7">
-        <v>1.066129616175449</v>
+        <v>0.678286614886821</v>
       </c>
       <c r="I7">
-        <v>1.212160260038214</v>
+        <v>0.511744491390429</v>
       </c>
       <c r="J7">
-        <v>1.63185254233591</v>
+        <v>1.035721492000789</v>
       </c>
       <c r="K7">
-        <v>1.066043156318285</v>
+        <v>0.6341047622987138</v>
       </c>
       <c r="L7">
-        <v>1.076280031973383</v>
+        <v>1.057653495364661</v>
       </c>
       <c r="M7">
-        <v>0.9179685611026545</v>
+        <v>0.6285718118300239</v>
       </c>
       <c r="N7">
-        <v>0.9061643192169001</v>
+        <v>0.7561402208378996</v>
       </c>
       <c r="O7">
-        <v>1.035084687408415</v>
+        <v>0.7381036853485538</v>
       </c>
       <c r="P7">
-        <v>0.589042716379522</v>
+        <v>0.7743526193142716</v>
       </c>
       <c r="Q7">
-        <v>1.0928214732343</v>
+        <v>0.751654492672574</v>
       </c>
       <c r="R7">
-        <v>1.03916028110574</v>
+        <v>0.9439409288335129</v>
       </c>
       <c r="S7">
-        <v>0.6220546470425498</v>
+        <v>0.988608116164846</v>
       </c>
       <c r="T7">
-        <v>1.387119078375929</v>
+        <v>0.542371901363875</v>
       </c>
       <c r="U7">
-        <v>1.080184311038459</v>
+        <v>0.6726342042395025</v>
       </c>
       <c r="V7">
-        <v>0.7299090820014812</v>
+        <v>0.7175644311979578</v>
       </c>
       <c r="W7">
-        <v>0.907989602742296</v>
+        <v>0.7888140961895187</v>
       </c>
       <c r="X7">
-        <v>1.131805123157686</v>
+        <v>0.4982254850228576</v>
       </c>
       <c r="Y7">
-        <v>1.256884790586996</v>
+        <v>0.6955894136133292</v>
       </c>
       <c r="Z7">
-        <v>1.422238537520274</v>
+        <v>0.5792440307919882</v>
       </c>
       <c r="AA7">
-        <v>1.091196427162204</v>
+        <v>0.872922247164896</v>
       </c>
       <c r="AB7">
-        <v>2.426961008911523</v>
+        <v>0.645439297437379</v>
       </c>
       <c r="AC7">
-        <v>1.39948552049328</v>
+        <v>0.8157207665414375</v>
       </c>
       <c r="AD7">
-        <v>1.329528319028941</v>
+        <v>0.7729499698399623</v>
       </c>
       <c r="AE7">
-        <v>0.9692906341914822</v>
+        <v>0.8413790119600437</v>
       </c>
       <c r="AF7">
-        <v>0.9369580651560031</v>
+        <v>0.8425085135630874</v>
       </c>
       <c r="AG7">
-        <v>1.068132375797903</v>
+        <v>0.5965545398469881</v>
       </c>
       <c r="AH7">
-        <v>1.242796753139896</v>
+        <v>0.6516973997011449</v>
       </c>
       <c r="AI7">
-        <v>1.167875643619428</v>
+        <v>0.9925686080775887</v>
       </c>
       <c r="AJ7">
-        <v>0.7947313876934285</v>
+        <v>0.781081485165889</v>
       </c>
       <c r="AK7">
-        <v>0.8693840900729164</v>
+        <v>0.8546725601260146</v>
       </c>
       <c r="AL7">
-        <v>1.044714945276103</v>
+        <v>0.5577048530940482</v>
       </c>
       <c r="AM7">
-        <v>0.9270567477831804</v>
+        <v>0.7823352994171496</v>
       </c>
       <c r="AN7">
-        <v>1.16482100360531</v>
+        <v>0.5034177289890879</v>
       </c>
       <c r="AO7">
-        <v>0.7906620074208498</v>
+        <v>0.7179810545321768</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1413,124 +1413,124 @@
         <v>47</v>
       </c>
       <c r="B8">
-        <v>0.6425792198310352</v>
+        <v>0.6408084719399224</v>
       </c>
       <c r="C8">
-        <v>0.3605231720872934</v>
+        <v>0.5543682116950969</v>
       </c>
       <c r="D8">
-        <v>0.586164934544715</v>
+        <v>0.7564072865851444</v>
       </c>
       <c r="E8">
-        <v>0.7991022753912793</v>
+        <v>0.6157924860977025</v>
       </c>
       <c r="F8">
-        <v>0.5368950620285293</v>
+        <v>0.3885309409772882</v>
       </c>
       <c r="G8">
-        <v>0.5980658749353243</v>
+        <v>0.06379656458276967</v>
       </c>
       <c r="H8">
-        <v>0.519122364954266</v>
+        <v>0.4853423532756696</v>
       </c>
       <c r="I8">
-        <v>0.585689303229243</v>
+        <v>0.3500193744191596</v>
       </c>
       <c r="J8">
-        <v>0.9993486983878624</v>
+        <v>0.8273852203023131</v>
       </c>
       <c r="K8">
-        <v>0.5194444680762592</v>
+        <v>0.5089439900403837</v>
       </c>
       <c r="L8">
-        <v>0.4161639469083668</v>
+        <v>0.8024077940236256</v>
       </c>
       <c r="M8">
-        <v>0.4325740420888827</v>
+        <v>0.4312797911752662</v>
       </c>
       <c r="N8">
-        <v>0.4192635175186287</v>
+        <v>0.5472169654409362</v>
       </c>
       <c r="O8">
-        <v>0.498691818225376</v>
+        <v>0.5390285176004013</v>
       </c>
       <c r="P8">
-        <v>0.239230147445788</v>
+        <v>0.5474648215715825</v>
       </c>
       <c r="Q8">
-        <v>0.4873735362293026</v>
+        <v>0.5275921503441364</v>
       </c>
       <c r="R8">
-        <v>0.4833732608881346</v>
+        <v>0.7111845318312552</v>
       </c>
       <c r="S8">
-        <v>0.1855207923579698</v>
+        <v>0.71330554218313</v>
       </c>
       <c r="T8">
-        <v>0.722170813324261</v>
+        <v>0.3624455127930066</v>
       </c>
       <c r="U8">
-        <v>0.5348645132564501</v>
+        <v>0.489200319348656</v>
       </c>
       <c r="V8">
-        <v>0.2840970369536199</v>
+        <v>0.5154665393214573</v>
       </c>
       <c r="W8">
-        <v>0.4207048190509917</v>
+        <v>0.5601522848206553</v>
       </c>
       <c r="X8">
-        <v>0.611376677672008</v>
+        <v>0.4124584043936922</v>
       </c>
       <c r="Y8">
-        <v>0.6600929223485553</v>
+        <v>0.4647872307470324</v>
       </c>
       <c r="Z8">
-        <v>0.7870255934395957</v>
+        <v>0.3358842960198414</v>
       </c>
       <c r="AA8">
-        <v>0.5406891625113414</v>
+        <v>0.6501592508193151</v>
       </c>
       <c r="AB8">
-        <v>1.439305060529776</v>
+        <v>0.4670913087483975</v>
       </c>
       <c r="AC8">
-        <v>0.8077210886523937</v>
+        <v>0.583837129598934</v>
       </c>
       <c r="AD8">
-        <v>0.7600931542883148</v>
+        <v>0.5775317396312976</v>
       </c>
       <c r="AE8">
-        <v>0.4118651037150467</v>
+        <v>0.6168677387614857</v>
       </c>
       <c r="AF8">
-        <v>0.4207828413286422</v>
+        <v>0.5585616237702031</v>
       </c>
       <c r="AG8">
-        <v>0.5505000347107477</v>
+        <v>0.4043529913645977</v>
       </c>
       <c r="AH8">
-        <v>0.657353320295414</v>
+        <v>0.5384928401892222</v>
       </c>
       <c r="AI8">
-        <v>0.5428590297429661</v>
+        <v>0.7431553596356882</v>
       </c>
       <c r="AJ8">
-        <v>0.287989320072309</v>
+        <v>0.5585719979858293</v>
       </c>
       <c r="AK8">
-        <v>0.4221647618035312</v>
+        <v>0.607432666547897</v>
       </c>
       <c r="AL8">
-        <v>0.4526334823218341</v>
+        <v>0.3684793849583819</v>
       </c>
       <c r="AM8">
-        <v>0.4385576379652814</v>
+        <v>0.5536530154930074</v>
       </c>
       <c r="AN8">
-        <v>0.6128866953883635</v>
+        <v>0.3403059655697974</v>
       </c>
       <c r="AO8">
-        <v>0.3183214124095446</v>
+        <v>0.6108575941681309</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1538,124 +1538,124 @@
         <v>48</v>
       </c>
       <c r="B9">
-        <v>1.128848852230647</v>
+        <v>0.6698972738632453</v>
       </c>
       <c r="C9">
-        <v>0.6705623328142825</v>
+        <v>0.4647594711556846</v>
       </c>
       <c r="D9">
-        <v>1.014785065195541</v>
+        <v>0.8182196467383843</v>
       </c>
       <c r="E9">
-        <v>1.132417676722986</v>
+        <v>0.5433525437872095</v>
       </c>
       <c r="F9">
-        <v>0.9677748743084292</v>
+        <v>0.3911478398551269</v>
       </c>
       <c r="G9">
-        <v>0.9149554561158839</v>
+        <v>0.05400362945139335</v>
       </c>
       <c r="H9">
-        <v>0.9180976479889489</v>
+        <v>0.4982922924723417</v>
       </c>
       <c r="I9">
-        <v>1.009291943095535</v>
+        <v>0.3110224653359476</v>
       </c>
       <c r="J9">
-        <v>1.246393951695515</v>
+        <v>0.8809692948530329</v>
       </c>
       <c r="K9">
-        <v>0.8902974312203102</v>
+        <v>0.5662499381049059</v>
       </c>
       <c r="L9">
-        <v>0.881591158615101</v>
+        <v>0.8585063185101478</v>
       </c>
       <c r="M9">
-        <v>0.7781891956475222</v>
+        <v>0.4188297772354194</v>
       </c>
       <c r="N9">
-        <v>0.7631300415636236</v>
+        <v>0.5130297131487319</v>
       </c>
       <c r="O9">
-        <v>0.8524584763155654</v>
+        <v>0.5173648211213552</v>
       </c>
       <c r="P9">
-        <v>0.5176554721801121</v>
+        <v>0.5473737239254838</v>
       </c>
       <c r="Q9">
-        <v>0.9166519928187293</v>
+        <v>0.5395054068975854</v>
       </c>
       <c r="R9">
-        <v>0.8558845746211697</v>
+        <v>0.7388163586949834</v>
       </c>
       <c r="S9">
-        <v>0.5583737624395423</v>
+        <v>0.7358493369744822</v>
       </c>
       <c r="T9">
-        <v>1.123698477950815</v>
+        <v>0.2787938259827526</v>
       </c>
       <c r="U9">
-        <v>0.9162148198581765</v>
+        <v>0.545733016720337</v>
       </c>
       <c r="V9">
-        <v>0.5961855830294577</v>
+        <v>0.4846565526122254</v>
       </c>
       <c r="W9">
-        <v>0.7679026662155158</v>
+        <v>0.5950139623639885</v>
       </c>
       <c r="X9">
-        <v>0.9117300295410448</v>
+        <v>0.4450589004011662</v>
       </c>
       <c r="Y9">
-        <v>1.034724500206499</v>
+        <v>0.4214358730798217</v>
       </c>
       <c r="Z9">
-        <v>1.166421060607044</v>
+        <v>0.2237824507082206</v>
       </c>
       <c r="AA9">
-        <v>0.8955939936266571</v>
+        <v>0.6004346765857408</v>
       </c>
       <c r="AB9">
-        <v>1.924894669075696</v>
+        <v>0.4677949321994369</v>
       </c>
       <c r="AC9">
-        <v>1.138290727654645</v>
+        <v>0.5927548420687266</v>
       </c>
       <c r="AD9">
-        <v>1.072214341120911</v>
+        <v>0.5573536358679192</v>
       </c>
       <c r="AE9">
-        <v>0.8248839023283194</v>
+        <v>0.6306790791905164</v>
       </c>
       <c r="AF9">
-        <v>0.7791549563768227</v>
+        <v>0.4903715247743907</v>
       </c>
       <c r="AG9">
-        <v>0.8544974581529354</v>
+        <v>0.4114347184461439</v>
       </c>
       <c r="AH9">
-        <v>1.026355021671533</v>
+        <v>0.6160457252040135</v>
       </c>
       <c r="AI9">
-        <v>0.9876053551694228</v>
+        <v>0.872348111809199</v>
       </c>
       <c r="AJ9">
-        <v>0.6825957378064862</v>
+        <v>0.5246115219267654</v>
       </c>
       <c r="AK9">
-        <v>0.7346613187747842</v>
+        <v>0.6098369854979886</v>
       </c>
       <c r="AL9">
-        <v>0.8692523025999872</v>
+        <v>0.3268491049560945</v>
       </c>
       <c r="AM9">
-        <v>0.7767551984290112</v>
+        <v>0.6030770607689852</v>
       </c>
       <c r="AN9">
-        <v>0.9307571555663577</v>
+        <v>0.3647597618425849</v>
       </c>
       <c r="AO9">
-        <v>0.6889066841125004</v>
+        <v>0.6971163710619644</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1663,124 +1663,124 @@
         <v>49</v>
       </c>
       <c r="B10">
-        <v>1.189853142623795</v>
+        <v>0.6694938184338384</v>
       </c>
       <c r="C10">
-        <v>0.7222958265130883</v>
+        <v>0.5485878816537626</v>
       </c>
       <c r="D10">
-        <v>1.063384853806234</v>
+        <v>0.8123210728678413</v>
       </c>
       <c r="E10">
-        <v>1.080303666574762</v>
+        <v>0.6280732672265669</v>
       </c>
       <c r="F10">
-        <v>1.030327092215056</v>
+        <v>0.4179462162953805</v>
       </c>
       <c r="G10">
-        <v>0.9077526809951343</v>
+        <v>0.0884531818756038</v>
       </c>
       <c r="H10">
-        <v>0.9702703048565824</v>
+        <v>0.5199345313575151</v>
       </c>
       <c r="I10">
-        <v>1.055638659563348</v>
+        <v>0.3607516976991781</v>
       </c>
       <c r="J10">
-        <v>1.101242017073948</v>
+        <v>0.8565526167154963</v>
       </c>
       <c r="K10">
-        <v>0.929109092614816</v>
+        <v>0.5371374960657512</v>
       </c>
       <c r="L10">
-        <v>0.9920742372122808</v>
+        <v>0.8522545979350582</v>
       </c>
       <c r="M10">
-        <v>0.827863926160884</v>
+        <v>0.4603795050474341</v>
       </c>
       <c r="N10">
-        <v>0.815480012758462</v>
+        <v>0.560280782972895</v>
       </c>
       <c r="O10">
-        <v>0.8886607441584916</v>
+        <v>0.5550193468197382</v>
       </c>
       <c r="P10">
-        <v>0.5862944930633589</v>
+        <v>0.5830409872685682</v>
       </c>
       <c r="Q10">
-        <v>0.9914158870362068</v>
+        <v>0.5694716015853735</v>
       </c>
       <c r="R10">
-        <v>0.9049635726702279</v>
+        <v>0.7474701433123321</v>
       </c>
       <c r="S10">
-        <v>0.6855831143033028</v>
+        <v>0.7627326398002157</v>
       </c>
       <c r="T10">
-        <v>1.123908956818741</v>
+        <v>0.357973139578879</v>
       </c>
       <c r="U10">
-        <v>0.955966898149436</v>
+        <v>0.5402733567432186</v>
       </c>
       <c r="V10">
-        <v>0.668969441960268</v>
+        <v>0.5303771591200943</v>
       </c>
       <c r="W10">
-        <v>0.8214394847728295</v>
+        <v>0.6115722111443278</v>
       </c>
       <c r="X10">
-        <v>0.8932413061940437</v>
+        <v>0.4230692521697553</v>
       </c>
       <c r="Y10">
-        <v>1.038497256250707</v>
+        <v>0.4888946133510442</v>
       </c>
       <c r="Z10">
-        <v>1.139187979154918</v>
+        <v>0.3438847530429224</v>
       </c>
       <c r="AA10">
-        <v>0.9213200920258161</v>
+        <v>0.6520362232950471</v>
       </c>
       <c r="AB10">
-        <v>1.776927176602231</v>
+        <v>0.4921883892557123</v>
       </c>
       <c r="AC10">
-        <v>1.082614816579747</v>
+        <v>0.6222627561213647</v>
       </c>
       <c r="AD10">
-        <v>1.020312839300097</v>
+        <v>0.5894822596060987</v>
       </c>
       <c r="AE10">
-        <v>0.9117438785118499</v>
+        <v>0.6519525683864984</v>
       </c>
       <c r="AF10">
-        <v>0.8379364343892653</v>
+        <v>0.5824542198137836</v>
       </c>
       <c r="AG10">
-        <v>0.8536847239324756</v>
+        <v>0.4430512612644157</v>
       </c>
       <c r="AH10">
-        <v>1.028186467974321</v>
+        <v>0.5691216120884084</v>
       </c>
       <c r="AI10">
-        <v>1.05513001772562</v>
+        <v>0.830152483533138</v>
       </c>
       <c r="AJ10">
-        <v>0.7932323888938289</v>
+        <v>0.5757575648603515</v>
       </c>
       <c r="AK10">
-        <v>0.7714402646871492</v>
+        <v>0.6464135186858554</v>
       </c>
       <c r="AL10">
-        <v>0.9471581475024745</v>
+        <v>0.3865097855779321</v>
       </c>
       <c r="AM10">
-        <v>0.8213638083265264</v>
+        <v>0.6124444250334985</v>
       </c>
       <c r="AN10">
-        <v>0.9201511719237139</v>
+        <v>0.3820008633267695</v>
       </c>
       <c r="AO10">
-        <v>0.7802755709792305</v>
+        <v>0.636943621476505</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1788,124 +1788,124 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>1.143236245994394</v>
+        <v>0.4910542769200892</v>
       </c>
       <c r="C11">
-        <v>0.5776547245776993</v>
+        <v>0.3354892557506571</v>
       </c>
       <c r="D11">
-        <v>1.114168728003916</v>
+        <v>0.5935734955572853</v>
       </c>
       <c r="E11">
-        <v>0.9740053874281451</v>
+        <v>0.3879465020153386</v>
       </c>
       <c r="F11">
-        <v>1.02050606566502</v>
+        <v>0.277938321569128</v>
       </c>
       <c r="G11">
-        <v>0.8714539544721718</v>
+        <v>0.02627681367548803</v>
       </c>
       <c r="H11">
-        <v>0.8777245508425474</v>
+        <v>0.3571211631882177</v>
       </c>
       <c r="I11">
-        <v>1.062991408696945</v>
+        <v>0.2206022761826187</v>
       </c>
       <c r="J11">
-        <v>1.009574565455477</v>
+        <v>0.6526416115372196</v>
       </c>
       <c r="K11">
-        <v>0.9340223216738308</v>
+        <v>0.4184998339019975</v>
       </c>
       <c r="L11">
-        <v>1.184607274721569</v>
+        <v>0.6258094354422101</v>
       </c>
       <c r="M11">
-        <v>0.8103470379116076</v>
+        <v>0.2962950130561969</v>
       </c>
       <c r="N11">
-        <v>0.8098576461658494</v>
+        <v>0.3712187198494659</v>
       </c>
       <c r="O11">
-        <v>0.9240916292890772</v>
+        <v>0.3750527785740684</v>
       </c>
       <c r="P11">
-        <v>0.571806025049898</v>
+        <v>0.3911521138438481</v>
       </c>
       <c r="Q11">
-        <v>1.050660642482012</v>
+        <v>0.3840708302936692</v>
       </c>
       <c r="R11">
-        <v>0.9385598889254254</v>
+        <v>0.5384860916654104</v>
       </c>
       <c r="S11">
-        <v>0.7645178284413529</v>
+        <v>0.528780049226552</v>
       </c>
       <c r="T11">
-        <v>1.123131818229137</v>
+        <v>0.1968061957243625</v>
       </c>
       <c r="U11">
-        <v>0.8747779878567198</v>
+        <v>0.3914652984129276</v>
       </c>
       <c r="V11">
-        <v>0.7790425050268662</v>
+        <v>0.3496352881541191</v>
       </c>
       <c r="W11">
-        <v>0.8126238178081346</v>
+        <v>0.4245385170141464</v>
       </c>
       <c r="X11">
-        <v>0.8805823108544489</v>
+        <v>0.3327109386318038</v>
       </c>
       <c r="Y11">
-        <v>0.9943593554555694</v>
+        <v>0.2956506928049797</v>
       </c>
       <c r="Z11">
-        <v>1.049341781476223</v>
+        <v>0.1446669284005499</v>
       </c>
       <c r="AA11">
-        <v>0.9592981086637288</v>
+        <v>0.4396377062907815</v>
       </c>
       <c r="AB11">
-        <v>1.632467273836723</v>
+        <v>0.33709840304536</v>
       </c>
       <c r="AC11">
-        <v>0.9699926891862658</v>
+        <v>0.4251249934110632</v>
       </c>
       <c r="AD11">
-        <v>0.9519511453293289</v>
+        <v>0.407233341528671</v>
       </c>
       <c r="AE11">
-        <v>0.9767531398299979</v>
+        <v>0.4559728944491283</v>
       </c>
       <c r="AF11">
-        <v>0.8924015167194395</v>
+        <v>0.3431751645357194</v>
       </c>
       <c r="AG11">
-        <v>0.884293318681142</v>
+        <v>0.2891475304284246</v>
       </c>
       <c r="AH11">
-        <v>0.9724858879606644</v>
+        <v>0.4578430436435976</v>
       </c>
       <c r="AI11">
-        <v>1.061563089309291</v>
+        <v>0.6294728448877042</v>
       </c>
       <c r="AJ11">
-        <v>0.89299135807398</v>
+        <v>0.3778292173420573</v>
       </c>
       <c r="AK11">
-        <v>0.7484759496654834</v>
+        <v>0.4365344398491665</v>
       </c>
       <c r="AL11">
-        <v>1.031216395565418</v>
+        <v>0.2283058640987968</v>
       </c>
       <c r="AM11">
-        <v>0.8290410468552275</v>
+        <v>0.4292492531810845</v>
       </c>
       <c r="AN11">
-        <v>0.9344716871552869</v>
+        <v>0.255619578054757</v>
       </c>
       <c r="AO11">
-        <v>0.7986307804229593</v>
+        <v>0.5221816981416254</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1913,124 +1913,124 @@
         <v>51</v>
       </c>
       <c r="B12">
-        <v>1.142257181025584</v>
+        <v>0.5523115912260166</v>
       </c>
       <c r="C12">
-        <v>0.6487993444152869</v>
+        <v>0.47620912424523</v>
       </c>
       <c r="D12">
-        <v>1.054022246586928</v>
+        <v>0.6368819807272033</v>
       </c>
       <c r="E12">
-        <v>0.9424516699011142</v>
+        <v>0.5173137305663499</v>
       </c>
       <c r="F12">
-        <v>1.004717504539516</v>
+        <v>0.3178567044017073</v>
       </c>
       <c r="G12">
-        <v>0.8373265886593815</v>
+        <v>0.02839862892319005</v>
       </c>
       <c r="H12">
-        <v>0.9113232826239465</v>
+        <v>0.402156943749487</v>
       </c>
       <c r="I12">
-        <v>1.025870368299242</v>
+        <v>0.2907482253015591</v>
       </c>
       <c r="J12">
-        <v>0.9260103004860379</v>
+        <v>0.7260788915992733</v>
       </c>
       <c r="K12">
-        <v>0.8985181505112747</v>
+        <v>0.4430220395559751</v>
       </c>
       <c r="L12">
-        <v>1.082945496453772</v>
+        <v>0.6827619521232745</v>
       </c>
       <c r="M12">
-        <v>0.8040412730189243</v>
+        <v>0.3520478451341423</v>
       </c>
       <c r="N12">
-        <v>0.8016548420233978</v>
+        <v>0.4663092430548192</v>
       </c>
       <c r="O12">
-        <v>0.8732339405435343</v>
+        <v>0.4595824380115714</v>
       </c>
       <c r="P12">
-        <v>0.592078243123112</v>
+        <v>0.4529292864532807</v>
       </c>
       <c r="Q12">
-        <v>1.002250424472834</v>
+        <v>0.4320458249012543</v>
       </c>
       <c r="R12">
-        <v>0.9017027877640569</v>
+        <v>0.6069365093051539</v>
       </c>
       <c r="S12">
-        <v>0.7551155018431065</v>
+        <v>0.5935606396029687</v>
       </c>
       <c r="T12">
-        <v>1.060884401654474</v>
+        <v>0.3047151896740917</v>
       </c>
       <c r="U12">
-        <v>0.8970295378114149</v>
+        <v>0.4011197268196834</v>
       </c>
       <c r="V12">
-        <v>0.725815508636398</v>
+        <v>0.4369305449942161</v>
       </c>
       <c r="W12">
-        <v>0.8054097362334008</v>
+        <v>0.4579342380669637</v>
       </c>
       <c r="X12">
-        <v>0.8250667409260996</v>
+        <v>0.3678054759757016</v>
       </c>
       <c r="Y12">
-        <v>0.9630062143548225</v>
+        <v>0.3782202560247271</v>
       </c>
       <c r="Z12">
-        <v>1.018192608583554</v>
+        <v>0.2594980644882766</v>
       </c>
       <c r="AA12">
-        <v>0.8953024384669622</v>
+        <v>0.5656678248813284</v>
       </c>
       <c r="AB12">
-        <v>1.524442436005576</v>
+        <v>0.3921761798248201</v>
       </c>
       <c r="AC12">
-        <v>0.9377646955711428</v>
+        <v>0.4851572682452883</v>
       </c>
       <c r="AD12">
-        <v>0.8987222556822568</v>
+        <v>0.4987360926764289</v>
       </c>
       <c r="AE12">
-        <v>0.9346165776960845</v>
+        <v>0.5196767723304189</v>
       </c>
       <c r="AF12">
-        <v>0.8481447299328629</v>
+        <v>0.4551320101678385</v>
       </c>
       <c r="AG12">
-        <v>0.8190723928127954</v>
+        <v>0.3236007626019942</v>
       </c>
       <c r="AH12">
-        <v>0.9466639954562472</v>
+        <v>0.4728723390659983</v>
       </c>
       <c r="AI12">
-        <v>1.036740631998438</v>
+        <v>0.6121932223205124</v>
       </c>
       <c r="AJ12">
-        <v>0.8552316795251103</v>
+        <v>0.4722218557971694</v>
       </c>
       <c r="AK12">
-        <v>0.7393147939042448</v>
+        <v>0.5037935337993811</v>
       </c>
       <c r="AL12">
-        <v>0.9750218751047974</v>
+        <v>0.2988528964584396</v>
       </c>
       <c r="AM12">
-        <v>0.8041754811976228</v>
+        <v>0.4486574751736774</v>
       </c>
       <c r="AN12">
-        <v>0.8698818380658587</v>
+        <v>0.2682015343628497</v>
       </c>
       <c r="AO12">
-        <v>0.7995146858955223</v>
+        <v>0.5449958226273972</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司-板块-beta.xlsx
+++ b/FOF/data/基金公司-板块-beta.xlsx
@@ -16,129 +16,132 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>泓德</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
     <t>前海开源</t>
   </si>
   <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
     <t>东方</t>
   </si>
   <si>
-    <t>中金</t>
-  </si>
-  <si>
     <t>诺德</t>
   </si>
   <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>泓德</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
     <t>平安</t>
   </si>
   <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>创业板综</t>
+  </si>
+  <si>
     <t>上证50</t>
   </si>
   <si>
@@ -148,28 +151,25 @@
     <t>沪深300</t>
   </si>
   <si>
+    <t>万得全A</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>深证综指</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>中小板综</t>
+  </si>
+  <si>
     <t>上证综指</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>万得全A</t>
-  </si>
-  <si>
-    <t>深证综指</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>中小板综</t>
-  </si>
-  <si>
-    <t>创业板综</t>
-  </si>
-  <si>
-    <t>中证1000</t>
   </si>
 </sst>
 </file>
@@ -663,124 +663,124 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>0.5727530305508777</v>
+        <v>0.6953472695887606</v>
       </c>
       <c r="C2">
-        <v>0.9161309907569929</v>
+        <v>0.4340127748025079</v>
       </c>
       <c r="D2">
-        <v>0.8050365258262524</v>
+        <v>1.084158724783461</v>
       </c>
       <c r="E2">
-        <v>1.097294020955355</v>
+        <v>0.5815755978397257</v>
       </c>
       <c r="F2">
-        <v>0.652210278489919</v>
+        <v>0.4171629244916309</v>
       </c>
       <c r="G2">
-        <v>0.4961881812627542</v>
+        <v>0.6319921818403896</v>
       </c>
       <c r="H2">
-        <v>0.7054405368792741</v>
+        <v>0.666823952995219</v>
       </c>
       <c r="I2">
-        <v>0.665169278586601</v>
+        <v>0.438937621973629</v>
       </c>
       <c r="J2">
-        <v>0.4914604393640466</v>
+        <v>0.3690573059874708</v>
       </c>
       <c r="K2">
-        <v>0.2717440379887318</v>
+        <v>0.3362946497290005</v>
       </c>
       <c r="L2">
-        <v>0.7804703842645585</v>
+        <v>0.468434011106691</v>
       </c>
       <c r="M2">
-        <v>0.7886845843089991</v>
+        <v>0.626019045524962</v>
       </c>
       <c r="N2">
-        <v>0.7725346125857293</v>
+        <v>0.6312146593591681</v>
       </c>
       <c r="O2">
-        <v>0.715709578788463</v>
+        <v>0.4050699353482247</v>
       </c>
       <c r="P2">
-        <v>0.8570046736662101</v>
+        <v>0.4534374360870738</v>
       </c>
       <c r="Q2">
-        <v>0.8504473338142853</v>
+        <v>0.4892008373898297</v>
       </c>
       <c r="R2">
-        <v>0.7414213558539396</v>
+        <v>0.514437074324353</v>
       </c>
       <c r="S2">
-        <v>0.9872894197545576</v>
+        <v>0.3958283126001967</v>
       </c>
       <c r="T2">
-        <v>0.7842067782342937</v>
+        <v>0.5157469123394005</v>
       </c>
       <c r="U2">
-        <v>0.6236563845765699</v>
+        <v>0.6216277539029612</v>
       </c>
       <c r="V2">
-        <v>0.7574245520397613</v>
+        <v>0.5356496881447061</v>
       </c>
       <c r="W2">
-        <v>0.8376498632238111</v>
+        <v>0.6927610261575446</v>
       </c>
       <c r="X2">
-        <v>0.1376744514051919</v>
+        <v>0.4080072822283945</v>
       </c>
       <c r="Y2">
-        <v>0.9709957186580452</v>
+        <v>0.3630487805375703</v>
       </c>
       <c r="Z2">
-        <v>1.186574903011087</v>
+        <v>0.4771325872648734</v>
       </c>
       <c r="AA2">
-        <v>0.7763406995864507</v>
+        <v>0.5418502493951004</v>
       </c>
       <c r="AB2">
-        <v>0.6431218707885957</v>
+        <v>0.5796270273661359</v>
       </c>
       <c r="AC2">
-        <v>0.8510082691938919</v>
+        <v>0.4596284127333665</v>
       </c>
       <c r="AD2">
-        <v>0.6623034391645066</v>
+        <v>0.4578447899304385</v>
       </c>
       <c r="AE2">
-        <v>0.7788384631792575</v>
+        <v>0.2217851269951385</v>
       </c>
       <c r="AF2">
-        <v>1.213579982543248</v>
+        <v>0.4221304430017992</v>
       </c>
       <c r="AG2">
-        <v>0.7707463901054538</v>
+        <v>0.4890937571111842</v>
       </c>
       <c r="AH2">
-        <v>0.1676319448777511</v>
+        <v>0.4377863430912651</v>
       </c>
       <c r="AI2">
-        <v>0.7553783251483055</v>
+        <v>0.3839092647228485</v>
       </c>
       <c r="AJ2">
-        <v>0.8412829342116239</v>
+        <v>0.6009020272224462</v>
       </c>
       <c r="AK2">
-        <v>0.923607873682046</v>
+        <v>0.3711766572690732</v>
       </c>
       <c r="AL2">
-        <v>0.8097278162164226</v>
+        <v>0.4758423731323739</v>
       </c>
       <c r="AM2">
-        <v>0.8351076358838264</v>
+        <v>0.3100775872980177</v>
       </c>
       <c r="AN2">
-        <v>0.6463133159021257</v>
+        <v>0.2815591262767627</v>
       </c>
       <c r="AO2">
-        <v>0.06857185552240734</v>
+        <v>0.3979618782607891</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -788,124 +788,124 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>0.7094675896561002</v>
+        <v>0.7702368840667217</v>
       </c>
       <c r="C3">
-        <v>0.9469419097018956</v>
+        <v>0.7424377122607843</v>
       </c>
       <c r="D3">
-        <v>0.9308470960212004</v>
+        <v>0.5457273165412789</v>
       </c>
       <c r="E3">
-        <v>1.108136142238747</v>
+        <v>0.7845063287641011</v>
       </c>
       <c r="F3">
-        <v>0.6621733065196064</v>
+        <v>0.7951989494659779</v>
       </c>
       <c r="G3">
-        <v>0.4035204625613022</v>
+        <v>0.474781512915552</v>
       </c>
       <c r="H3">
-        <v>0.7434214666509694</v>
+        <v>0.5565144165680451</v>
       </c>
       <c r="I3">
-        <v>0.6608265882339907</v>
+        <v>0.7543417018829419</v>
       </c>
       <c r="J3">
-        <v>0.726772548096034</v>
+        <v>0.9205583299389649</v>
       </c>
       <c r="K3">
-        <v>0.4206098275911228</v>
+        <v>0.7981762687707693</v>
       </c>
       <c r="L3">
-        <v>0.9333446427076638</v>
+        <v>0.5970491066778143</v>
       </c>
       <c r="M3">
-        <v>0.7859665142024642</v>
+        <v>0.4348279456536702</v>
       </c>
       <c r="N3">
-        <v>0.8277911709185125</v>
+        <v>0.482271256732697</v>
       </c>
       <c r="O3">
-        <v>0.7795984099948201</v>
+        <v>0.5911270075014746</v>
       </c>
       <c r="P3">
-        <v>0.8868254293646175</v>
+        <v>0.6876798051767526</v>
       </c>
       <c r="Q3">
-        <v>0.8714689270714865</v>
+        <v>0.6695367923955615</v>
       </c>
       <c r="R3">
-        <v>0.8677778105022466</v>
+        <v>0.6134198432137835</v>
       </c>
       <c r="S3">
-        <v>1.054796568663484</v>
+        <v>0.6749139200461917</v>
       </c>
       <c r="T3">
-        <v>0.7622758606348978</v>
+        <v>0.7167328271262777</v>
       </c>
       <c r="U3">
-        <v>0.6773679946958447</v>
+        <v>0.5643912700655528</v>
       </c>
       <c r="V3">
-        <v>0.8019697631452193</v>
+        <v>0.561046668942059</v>
       </c>
       <c r="W3">
-        <v>0.8729281636893955</v>
+        <v>0.1993159962288223</v>
       </c>
       <c r="X3">
-        <v>0.2805622822001654</v>
+        <v>0.6050011216248822</v>
       </c>
       <c r="Y3">
-        <v>0.9424681425606419</v>
+        <v>0.6737304806868256</v>
       </c>
       <c r="Z3">
-        <v>1.057944489514629</v>
+        <v>0.5375792642931126</v>
       </c>
       <c r="AA3">
-        <v>0.878083596126593</v>
+        <v>0.6816722652734714</v>
       </c>
       <c r="AB3">
-        <v>0.6901227895364794</v>
+        <v>0.4227769616798341</v>
       </c>
       <c r="AC3">
-        <v>0.8970351365997773</v>
+        <v>0.8808298294369122</v>
       </c>
       <c r="AD3">
-        <v>0.7560503494170803</v>
+        <v>0.5384997460728659</v>
       </c>
       <c r="AE3">
-        <v>0.8564582280288248</v>
+        <v>0.7851425175614779</v>
       </c>
       <c r="AF3">
-        <v>1.17005975159697</v>
+        <v>0.6470096035915058</v>
       </c>
       <c r="AG3">
-        <v>0.7578769796648354</v>
+        <v>0.6099033173214264</v>
       </c>
       <c r="AH3">
-        <v>0.3522746658848322</v>
+        <v>0.608352531767429</v>
       </c>
       <c r="AI3">
-        <v>0.8781703088860953</v>
+        <v>0.5297582956607952</v>
       </c>
       <c r="AJ3">
-        <v>0.8845848730293776</v>
+        <v>0.7024675452656811</v>
       </c>
       <c r="AK3">
-        <v>0.963054789558548</v>
+        <v>0.3782864382017658</v>
       </c>
       <c r="AL3">
-        <v>0.7783012555615795</v>
+        <v>0.4684013892318394</v>
       </c>
       <c r="AM3">
-        <v>0.8661204981269897</v>
+        <v>0.7171187575666371</v>
       </c>
       <c r="AN3">
-        <v>0.6334779452491864</v>
+        <v>0.5613900464652173</v>
       </c>
       <c r="AO3">
-        <v>0.3081820147856543</v>
+        <v>0.6102137564417847</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -913,124 +913,124 @@
         <v>43</v>
       </c>
       <c r="B4">
-        <v>0.9169535365786107</v>
+        <v>0.8138005052634495</v>
       </c>
       <c r="C4">
-        <v>1.101131028421188</v>
+        <v>0.7817587943391217</v>
       </c>
       <c r="D4">
-        <v>1.183284299193479</v>
+        <v>0.6060006429293552</v>
       </c>
       <c r="E4">
-        <v>1.286524833668481</v>
+        <v>0.8265253045788981</v>
       </c>
       <c r="F4">
-        <v>0.7862548200835261</v>
+        <v>0.8305086846403623</v>
       </c>
       <c r="G4">
-        <v>0.4238805115813868</v>
+        <v>0.5126494486102824</v>
       </c>
       <c r="H4">
-        <v>0.9000853054587006</v>
+        <v>0.59746037397742</v>
       </c>
       <c r="I4">
-        <v>0.76301889899095</v>
+        <v>0.790456721898976</v>
       </c>
       <c r="J4">
-        <v>0.9969974965121295</v>
+        <v>0.9521594215973838</v>
       </c>
       <c r="K4">
-        <v>0.5925735011467413</v>
+        <v>0.8318890433634589</v>
       </c>
       <c r="L4">
-        <v>1.19835525692963</v>
+        <v>0.633726938276915</v>
       </c>
       <c r="M4">
-        <v>0.9203682257683818</v>
+        <v>0.4720938046581507</v>
       </c>
       <c r="N4">
-        <v>0.9923847509897578</v>
+        <v>0.5167536805708243</v>
       </c>
       <c r="O4">
-        <v>0.9443698727256977</v>
+        <v>0.6317335452044252</v>
       </c>
       <c r="P4">
-        <v>1.060347788434787</v>
+        <v>0.7277845210809619</v>
       </c>
       <c r="Q4">
-        <v>1.041775456472268</v>
+        <v>0.7098551212622632</v>
       </c>
       <c r="R4">
-        <v>1.09759013760969</v>
+        <v>0.6496776809109602</v>
       </c>
       <c r="S4">
-        <v>1.285585683619412</v>
+        <v>0.7125725367956484</v>
       </c>
       <c r="T4">
-        <v>0.8581523013689702</v>
+        <v>0.7525037047148991</v>
       </c>
       <c r="U4">
-        <v>0.8453232254364268</v>
+        <v>0.6050540326315218</v>
       </c>
       <c r="V4">
-        <v>0.9575425020438096</v>
+        <v>0.5912260537102676</v>
       </c>
       <c r="W4">
-        <v>1.0587460239358</v>
+        <v>0.2395111632717936</v>
       </c>
       <c r="X4">
-        <v>0.4160238702195533</v>
+        <v>0.6346425656333613</v>
       </c>
       <c r="Y4">
-        <v>1.080783403447733</v>
+        <v>0.7086226573188841</v>
       </c>
       <c r="Z4">
-        <v>1.141291589554737</v>
+        <v>0.5658226856248004</v>
       </c>
       <c r="AA4">
-        <v>1.070518319916399</v>
+        <v>0.7259411392998061</v>
       </c>
       <c r="AB4">
-        <v>0.8377997697864193</v>
+        <v>0.4629564352006732</v>
       </c>
       <c r="AC4">
-        <v>1.08388332432336</v>
+        <v>0.9103121719285469</v>
       </c>
       <c r="AD4">
-        <v>0.9326652709265029</v>
+        <v>0.5690108690900263</v>
       </c>
       <c r="AE4">
-        <v>1.054181183977791</v>
+        <v>0.8036611959863863</v>
       </c>
       <c r="AF4">
-        <v>1.33265435135328</v>
+        <v>0.6810577431099727</v>
       </c>
       <c r="AG4">
-        <v>0.8886601694909914</v>
+        <v>0.6474528629691674</v>
       </c>
       <c r="AH4">
-        <v>0.5375846285869182</v>
+        <v>0.6437553356549115</v>
       </c>
       <c r="AI4">
-        <v>1.142653613460954</v>
+        <v>0.5658984445957331</v>
       </c>
       <c r="AJ4">
-        <v>1.053157992926901</v>
+        <v>0.7439454141756479</v>
       </c>
       <c r="AK4">
-        <v>1.156021551308953</v>
+        <v>0.4076658079859511</v>
       </c>
       <c r="AL4">
-        <v>0.8864400003598726</v>
+        <v>0.4946757687392974</v>
       </c>
       <c r="AM4">
-        <v>1.053477851804907</v>
+        <v>0.7407303758649391</v>
       </c>
       <c r="AN4">
-        <v>0.7480407195783458</v>
+        <v>0.5891680105287266</v>
       </c>
       <c r="AO4">
-        <v>0.5172016133637215</v>
+        <v>0.63763255332153</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1038,124 +1038,124 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>1.037236269943954</v>
+        <v>0.9494775205597944</v>
       </c>
       <c r="C5">
-        <v>1.05359533730593</v>
+        <v>0.8963220077357594</v>
       </c>
       <c r="D5">
-        <v>1.286327990705869</v>
+        <v>0.7523453508659891</v>
       </c>
       <c r="E5">
-        <v>1.210890043972973</v>
+        <v>0.9560652736936419</v>
       </c>
       <c r="F5">
-        <v>0.7574891934049403</v>
+        <v>0.9484655399542863</v>
       </c>
       <c r="G5">
-        <v>0.2904741823173618</v>
+        <v>0.6139355122846474</v>
       </c>
       <c r="H5">
-        <v>0.901113737594332</v>
+        <v>0.7127511605095324</v>
       </c>
       <c r="I5">
-        <v>0.7067083355265059</v>
+        <v>0.9050041041628575</v>
       </c>
       <c r="J5">
-        <v>1.235482911589805</v>
+        <v>1.077775652301645</v>
       </c>
       <c r="K5">
-        <v>0.7522121761274095</v>
+        <v>0.9432936538882997</v>
       </c>
       <c r="L5">
-        <v>1.330609574696337</v>
+        <v>0.7360228953430162</v>
       </c>
       <c r="M5">
-        <v>0.8653925683271338</v>
+        <v>0.5700379735215391</v>
       </c>
       <c r="N5">
-        <v>0.9951563903140076</v>
+        <v>0.6201482512105008</v>
       </c>
       <c r="O5">
-        <v>0.9633722576651575</v>
+        <v>0.7285498900460353</v>
       </c>
       <c r="P5">
-        <v>1.039669869767381</v>
+        <v>0.8378063287700648</v>
       </c>
       <c r="Q5">
-        <v>1.015249782226183</v>
+        <v>0.8206994324010159</v>
       </c>
       <c r="R5">
-        <v>1.195878055664762</v>
+        <v>0.7565015064786722</v>
       </c>
       <c r="S5">
-        <v>1.303731807096026</v>
+        <v>0.8143194175345677</v>
       </c>
       <c r="T5">
-        <v>0.7633799398216748</v>
+        <v>0.8660413074942397</v>
       </c>
       <c r="U5">
-        <v>0.8802169271298672</v>
+        <v>0.7129686171289705</v>
       </c>
       <c r="V5">
-        <v>0.9505879042847361</v>
+        <v>0.6939536269669935</v>
       </c>
       <c r="W5">
-        <v>1.054639794213777</v>
+        <v>0.3203794846274385</v>
       </c>
       <c r="X5">
-        <v>0.5707741298290682</v>
+        <v>0.7318907479741897</v>
       </c>
       <c r="Y5">
-        <v>0.9782884794743966</v>
+        <v>0.8078813506582654</v>
       </c>
       <c r="Z5">
-        <v>0.898678692201852</v>
+        <v>0.6618022779375763</v>
       </c>
       <c r="AA5">
-        <v>1.119073469236313</v>
+        <v>0.8396352220342302</v>
       </c>
       <c r="AB5">
-        <v>0.8490985959392613</v>
+        <v>0.5547678234120114</v>
       </c>
       <c r="AC5">
-        <v>1.083530919594735</v>
+        <v>1.04033208182874</v>
       </c>
       <c r="AD5">
-        <v>0.9876299697507467</v>
+        <v>0.6621157062271353</v>
       </c>
       <c r="AE5">
-        <v>1.093747782954207</v>
+        <v>0.9033029780882552</v>
       </c>
       <c r="AF5">
-        <v>1.192254198199302</v>
+        <v>0.7827575548970028</v>
       </c>
       <c r="AG5">
-        <v>0.8291194432402174</v>
+        <v>0.7535845575090254</v>
       </c>
       <c r="AH5">
-        <v>0.7477985911518084</v>
+        <v>0.7416963386287501</v>
       </c>
       <c r="AI5">
-        <v>1.263774779652735</v>
+        <v>0.6526661322542292</v>
       </c>
       <c r="AJ5">
-        <v>1.038831379065364</v>
+        <v>0.8668219561715258</v>
       </c>
       <c r="AK5">
-        <v>1.142312942416771</v>
+        <v>0.4779120757483675</v>
       </c>
       <c r="AL5">
-        <v>0.7912294914089743</v>
+        <v>0.5816097881597931</v>
       </c>
       <c r="AM5">
-        <v>1.048869017507634</v>
+        <v>0.8401151107721109</v>
       </c>
       <c r="AN5">
-        <v>0.7009260668234716</v>
+        <v>0.6697832499162201</v>
       </c>
       <c r="AO5">
-        <v>0.795285903184494</v>
+        <v>0.7318232346052369</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -1163,124 +1163,124 @@
         <v>45</v>
       </c>
       <c r="B6">
-        <v>0.9896277829298066</v>
+        <v>1.265375612421926</v>
       </c>
       <c r="C6">
-        <v>1.020548779780901</v>
+        <v>1.134136358264088</v>
       </c>
       <c r="D6">
-        <v>1.253403855715691</v>
+        <v>1.223846254316227</v>
       </c>
       <c r="E6">
-        <v>1.1919142400649</v>
+        <v>1.243907922780101</v>
       </c>
       <c r="F6">
-        <v>0.7571323389105559</v>
+        <v>1.181348680557569</v>
       </c>
       <c r="G6">
-        <v>0.3297568206338913</v>
+        <v>0.8970966329677484</v>
       </c>
       <c r="H6">
-        <v>0.8918763184073194</v>
+        <v>1.046964816927176</v>
       </c>
       <c r="I6">
-        <v>0.7011980378405841</v>
+        <v>1.131328659208101</v>
       </c>
       <c r="J6">
-        <v>1.15208492901166</v>
+        <v>1.289916333859994</v>
       </c>
       <c r="K6">
-        <v>0.705627451687085</v>
+        <v>1.139166082261552</v>
       </c>
       <c r="L6">
-        <v>1.284467852759596</v>
+        <v>0.9788877715920011</v>
       </c>
       <c r="M6">
-        <v>0.8670122273035984</v>
+        <v>0.8626519724660953</v>
       </c>
       <c r="N6">
-        <v>0.9660566370111606</v>
+        <v>0.9250458444825997</v>
       </c>
       <c r="O6">
-        <v>0.9337196622944171</v>
+        <v>0.9401643278945199</v>
       </c>
       <c r="P6">
-        <v>1.031105238561392</v>
+        <v>1.072582832877175</v>
       </c>
       <c r="Q6">
-        <v>1.013671408761932</v>
+        <v>1.066998351292648</v>
       </c>
       <c r="R6">
-        <v>1.153114031921574</v>
+        <v>1.011447954912753</v>
       </c>
       <c r="S6">
-        <v>1.285884442203279</v>
+        <v>0.9987901763413332</v>
       </c>
       <c r="T6">
-        <v>0.7538065632624836</v>
+        <v>1.083966185724473</v>
       </c>
       <c r="U6">
-        <v>0.875725012734259</v>
+        <v>0.9747758601782225</v>
       </c>
       <c r="V6">
-        <v>0.926901825689149</v>
+        <v>0.9574056385021209</v>
       </c>
       <c r="W6">
-        <v>1.053159747076597</v>
+        <v>0.6381657100398839</v>
       </c>
       <c r="X6">
-        <v>0.5193656881074248</v>
+        <v>0.9472802616270696</v>
       </c>
       <c r="Y6">
-        <v>0.9834011428730011</v>
+        <v>0.9850748329089054</v>
       </c>
       <c r="Z6">
-        <v>0.9288408549193866</v>
+        <v>0.9047528975183403</v>
       </c>
       <c r="AA6">
-        <v>1.065938132927313</v>
+        <v>1.073273068741436</v>
       </c>
       <c r="AB6">
-        <v>0.8323789936217428</v>
+        <v>0.8080957779046455</v>
       </c>
       <c r="AC6">
-        <v>1.070474848883385</v>
+        <v>1.305881726760918</v>
       </c>
       <c r="AD6">
-        <v>0.9453853943277042</v>
+        <v>0.8766967238620934</v>
       </c>
       <c r="AE6">
-        <v>1.068195207061892</v>
+        <v>1.055489086168869</v>
       </c>
       <c r="AF6">
-        <v>1.198189015561149</v>
+        <v>0.9898277647838941</v>
       </c>
       <c r="AG6">
-        <v>0.8402939852918949</v>
+        <v>1.015429965468605</v>
       </c>
       <c r="AH6">
-        <v>0.690952882588709</v>
+        <v>0.9379471456505041</v>
       </c>
       <c r="AI6">
-        <v>1.250222822415241</v>
+        <v>0.8320080763085572</v>
       </c>
       <c r="AJ6">
-        <v>1.01522769434736</v>
+        <v>1.159247871936139</v>
       </c>
       <c r="AK6">
-        <v>1.130645966586876</v>
+        <v>0.6489997362717357</v>
       </c>
       <c r="AL6">
-        <v>0.7972602566926698</v>
+        <v>0.7991522128847692</v>
       </c>
       <c r="AM6">
-        <v>1.053156765454817</v>
+        <v>1.013317605512055</v>
       </c>
       <c r="AN6">
-        <v>0.7162042416244917</v>
+        <v>0.8053185017871012</v>
       </c>
       <c r="AO6">
-        <v>0.7168793343358281</v>
+        <v>0.9135931082743122</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1288,124 +1288,124 @@
         <v>46</v>
       </c>
       <c r="B7">
-        <v>0.8343695627241204</v>
+        <v>1.084776637637225</v>
       </c>
       <c r="C7">
-        <v>0.7839835877289265</v>
+        <v>1.002569256078569</v>
       </c>
       <c r="D7">
-        <v>1.009916351623722</v>
+        <v>0.9231174458779541</v>
       </c>
       <c r="E7">
-        <v>0.8872748859968028</v>
+        <v>1.082001751354661</v>
       </c>
       <c r="F7">
-        <v>0.557453729994434</v>
+        <v>1.057956288299026</v>
       </c>
       <c r="G7">
-        <v>0.1581797102992323</v>
+        <v>0.7236863311568179</v>
       </c>
       <c r="H7">
-        <v>0.678286614886821</v>
+        <v>0.8427846636613018</v>
       </c>
       <c r="I7">
-        <v>0.511744491390429</v>
+        <v>1.009944457012203</v>
       </c>
       <c r="J7">
-        <v>1.035721492000789</v>
+        <v>1.18881831348318</v>
       </c>
       <c r="K7">
-        <v>0.6341047622987138</v>
+        <v>1.040403388769658</v>
       </c>
       <c r="L7">
-        <v>1.057653495364661</v>
+        <v>0.837581049671338</v>
       </c>
       <c r="M7">
-        <v>0.6285718118300239</v>
+        <v>0.6808250504060295</v>
       </c>
       <c r="N7">
-        <v>0.7561402208378996</v>
+        <v>0.7392085213465365</v>
       </c>
       <c r="O7">
-        <v>0.7381036853485538</v>
+        <v>0.8164653223078682</v>
       </c>
       <c r="P7">
-        <v>0.7743526193142716</v>
+        <v>0.9398360204804367</v>
       </c>
       <c r="Q7">
-        <v>0.751654492672574</v>
+        <v>0.9259213516693835</v>
       </c>
       <c r="R7">
-        <v>0.9439409288335129</v>
+        <v>0.8638999687520866</v>
       </c>
       <c r="S7">
-        <v>0.988608116164846</v>
+        <v>0.8995436618353949</v>
       </c>
       <c r="T7">
-        <v>0.542371901363875</v>
+        <v>0.9675007355659675</v>
       </c>
       <c r="U7">
-        <v>0.6726342042395025</v>
+        <v>0.8192030026093812</v>
       </c>
       <c r="V7">
-        <v>0.7175644311979578</v>
+        <v>0.804696823654638</v>
       </c>
       <c r="W7">
-        <v>0.7888140961895187</v>
+        <v>0.4254943894038124</v>
       </c>
       <c r="X7">
-        <v>0.4982254850228576</v>
+        <v>0.8276680666923983</v>
       </c>
       <c r="Y7">
-        <v>0.6955894136133292</v>
+        <v>0.8915955888582723</v>
       </c>
       <c r="Z7">
-        <v>0.5792440307919882</v>
+        <v>0.7645916363295657</v>
       </c>
       <c r="AA7">
-        <v>0.872922247164896</v>
+        <v>0.940164187455146</v>
       </c>
       <c r="AB7">
-        <v>0.645439297437379</v>
+        <v>0.6497425876670392</v>
       </c>
       <c r="AC7">
-        <v>0.8157207665414375</v>
+        <v>1.169140086611639</v>
       </c>
       <c r="AD7">
-        <v>0.7729499698399623</v>
+        <v>0.7541756531531227</v>
       </c>
       <c r="AE7">
-        <v>0.8413790119600437</v>
+        <v>0.9915784518337882</v>
       </c>
       <c r="AF7">
-        <v>0.8425085135630874</v>
+        <v>0.8761076851608577</v>
       </c>
       <c r="AG7">
-        <v>0.5965545398469881</v>
+        <v>0.8619513970590967</v>
       </c>
       <c r="AH7">
-        <v>0.6516973997011449</v>
+        <v>0.8288404119972025</v>
       </c>
       <c r="AI7">
-        <v>0.9925686080775887</v>
+        <v>0.7285517374788384</v>
       </c>
       <c r="AJ7">
-        <v>0.781081485165889</v>
+        <v>0.9901759103637077</v>
       </c>
       <c r="AK7">
-        <v>0.8546725601260146</v>
+        <v>0.5458321640686229</v>
       </c>
       <c r="AL7">
-        <v>0.5577048530940482</v>
+        <v>0.673167580652097</v>
       </c>
       <c r="AM7">
-        <v>0.7823352994171496</v>
+        <v>0.9301072182690271</v>
       </c>
       <c r="AN7">
-        <v>0.5034177289890879</v>
+        <v>0.7359277648130222</v>
       </c>
       <c r="AO7">
-        <v>0.7179810545321768</v>
+        <v>0.8179178161170692</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1413,124 +1413,124 @@
         <v>47</v>
       </c>
       <c r="B8">
-        <v>0.6408084719399224</v>
+        <v>1.260987408256797</v>
       </c>
       <c r="C8">
-        <v>0.5543682116950969</v>
+        <v>1.055535457946301</v>
       </c>
       <c r="D8">
-        <v>0.7564072865851444</v>
+        <v>1.443633828088699</v>
       </c>
       <c r="E8">
-        <v>0.6157924860977025</v>
+        <v>1.198421889231937</v>
       </c>
       <c r="F8">
-        <v>0.3885309409772882</v>
+        <v>1.072957634112816</v>
       </c>
       <c r="G8">
-        <v>0.06379656458276967</v>
+        <v>0.9724940212807016</v>
       </c>
       <c r="H8">
-        <v>0.4853423532756696</v>
+        <v>1.110017705312397</v>
       </c>
       <c r="I8">
-        <v>0.3500193744191596</v>
+        <v>1.044590985577208</v>
       </c>
       <c r="J8">
-        <v>0.8273852203023131</v>
+        <v>1.115897618469519</v>
       </c>
       <c r="K8">
-        <v>0.5089439900403837</v>
+        <v>1.002344459015915</v>
       </c>
       <c r="L8">
-        <v>0.8024077940236256</v>
+        <v>0.9595740072257739</v>
       </c>
       <c r="M8">
-        <v>0.4312797911752662</v>
+        <v>0.9507246401237874</v>
       </c>
       <c r="N8">
-        <v>0.5472169654409362</v>
+        <v>0.9942871921595234</v>
       </c>
       <c r="O8">
-        <v>0.5390285176004013</v>
+        <v>0.908563682414137</v>
       </c>
       <c r="P8">
-        <v>0.5474648215715825</v>
+        <v>1.020243243455812</v>
       </c>
       <c r="Q8">
-        <v>0.5275921503441364</v>
+        <v>1.032356617403631</v>
       </c>
       <c r="R8">
-        <v>0.7111845318312552</v>
+        <v>0.999300703362071</v>
       </c>
       <c r="S8">
-        <v>0.71330554218313</v>
+        <v>0.9282164830560001</v>
       </c>
       <c r="T8">
-        <v>0.3624455127930066</v>
+        <v>1.031424217040333</v>
       </c>
       <c r="U8">
-        <v>0.489200319348656</v>
+        <v>1.017061338774194</v>
       </c>
       <c r="V8">
-        <v>0.5154665393214573</v>
+        <v>0.9624726979935911</v>
       </c>
       <c r="W8">
-        <v>0.5601522848206553</v>
+        <v>0.8364227884224166</v>
       </c>
       <c r="X8">
-        <v>0.4124584043936922</v>
+        <v>0.8966014424710583</v>
       </c>
       <c r="Y8">
-        <v>0.4647872307470324</v>
+        <v>0.9014446669934281</v>
       </c>
       <c r="Z8">
-        <v>0.3358842960198414</v>
+        <v>0.8979213918093274</v>
       </c>
       <c r="AA8">
-        <v>0.6501592508193151</v>
+        <v>1.053570293265828</v>
       </c>
       <c r="AB8">
-        <v>0.4670913087483975</v>
+        <v>0.8889371843300781</v>
       </c>
       <c r="AC8">
-        <v>0.583837129598934</v>
+        <v>1.172373782411299</v>
       </c>
       <c r="AD8">
-        <v>0.5775317396312976</v>
+        <v>0.8653501615051178</v>
       </c>
       <c r="AE8">
-        <v>0.6168677387614857</v>
+        <v>0.8674610195647937</v>
       </c>
       <c r="AF8">
-        <v>0.5585616237702031</v>
+        <v>0.9333264070654995</v>
       </c>
       <c r="AG8">
-        <v>0.4043529913645977</v>
+        <v>0.9996970084536432</v>
       </c>
       <c r="AH8">
-        <v>0.5384928401892222</v>
+        <v>0.9010544154901503</v>
       </c>
       <c r="AI8">
-        <v>0.7431553596356882</v>
+        <v>0.8085124728574099</v>
       </c>
       <c r="AJ8">
-        <v>0.5585719979858293</v>
+        <v>1.148613643437977</v>
       </c>
       <c r="AK8">
-        <v>0.607432666547897</v>
+        <v>0.6672250172052676</v>
       </c>
       <c r="AL8">
-        <v>0.3684793849583819</v>
+        <v>0.8127388130209749</v>
       </c>
       <c r="AM8">
-        <v>0.5536530154930074</v>
+        <v>0.8832330719459809</v>
       </c>
       <c r="AN8">
-        <v>0.3403059655697974</v>
+        <v>0.7271637178861079</v>
       </c>
       <c r="AO8">
-        <v>0.6108575941681309</v>
+        <v>0.8528926534329351</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1538,124 +1538,124 @@
         <v>48</v>
       </c>
       <c r="B9">
-        <v>0.6698972738632453</v>
+        <v>1.235087009493383</v>
       </c>
       <c r="C9">
-        <v>0.4647594711556846</v>
+        <v>1.015225619754301</v>
       </c>
       <c r="D9">
-        <v>0.8182196467383843</v>
+        <v>1.422344688946825</v>
       </c>
       <c r="E9">
-        <v>0.5433525437872095</v>
+        <v>1.171276040739041</v>
       </c>
       <c r="F9">
-        <v>0.3911478398551269</v>
+        <v>1.053819380390199</v>
       </c>
       <c r="G9">
-        <v>0.05400362945139335</v>
+        <v>0.9539505198629985</v>
       </c>
       <c r="H9">
-        <v>0.4982922924723417</v>
+        <v>1.12494044722349</v>
       </c>
       <c r="I9">
-        <v>0.3110224653359476</v>
+        <v>1.00910725836141</v>
       </c>
       <c r="J9">
-        <v>0.8809692948530329</v>
+        <v>1.104354375526892</v>
       </c>
       <c r="K9">
-        <v>0.5662499381049059</v>
+        <v>0.9658940644116936</v>
       </c>
       <c r="L9">
-        <v>0.8585063185101478</v>
+        <v>0.933537680983204</v>
       </c>
       <c r="M9">
-        <v>0.4188297772354194</v>
+        <v>0.947416991903879</v>
       </c>
       <c r="N9">
-        <v>0.5130297131487319</v>
+        <v>1.020294425225637</v>
       </c>
       <c r="O9">
-        <v>0.5173648211213552</v>
+        <v>0.8361315890711216</v>
       </c>
       <c r="P9">
-        <v>0.5473737239254838</v>
+        <v>0.9681053345952693</v>
       </c>
       <c r="Q9">
-        <v>0.5395054068975854</v>
+        <v>0.985221991104649</v>
       </c>
       <c r="R9">
-        <v>0.7388163586949834</v>
+        <v>0.9807650928778897</v>
       </c>
       <c r="S9">
-        <v>0.7358493369744822</v>
+        <v>0.8442482288317276</v>
       </c>
       <c r="T9">
-        <v>0.2787938259827526</v>
+        <v>0.9738575047153899</v>
       </c>
       <c r="U9">
-        <v>0.545733016720337</v>
+        <v>0.9602154863619818</v>
       </c>
       <c r="V9">
-        <v>0.4846565526122254</v>
+        <v>0.984932739414964</v>
       </c>
       <c r="W9">
-        <v>0.5950139623639885</v>
+        <v>0.8312743110786555</v>
       </c>
       <c r="X9">
-        <v>0.4450589004011662</v>
+        <v>0.8919824956337399</v>
       </c>
       <c r="Y9">
-        <v>0.4214358730798217</v>
+        <v>0.8315767217874173</v>
       </c>
       <c r="Z9">
-        <v>0.2237824507082206</v>
+        <v>0.9194525155989755</v>
       </c>
       <c r="AA9">
-        <v>0.6004346765857408</v>
+        <v>0.9591305109247787</v>
       </c>
       <c r="AB9">
-        <v>0.4677949321994369</v>
+        <v>0.8328504159306389</v>
       </c>
       <c r="AC9">
-        <v>0.5927548420687266</v>
+        <v>1.216483062800519</v>
       </c>
       <c r="AD9">
-        <v>0.5573536358679192</v>
+        <v>0.8451578712873159</v>
       </c>
       <c r="AE9">
-        <v>0.6306790791905164</v>
+        <v>0.8918727728075349</v>
       </c>
       <c r="AF9">
-        <v>0.4903715247743907</v>
+        <v>0.890997932058739</v>
       </c>
       <c r="AG9">
-        <v>0.4114347184461439</v>
+        <v>0.986194313473133</v>
       </c>
       <c r="AH9">
-        <v>0.6160457252040135</v>
+        <v>0.8355074235738008</v>
       </c>
       <c r="AI9">
-        <v>0.872348111809199</v>
+        <v>0.7294618564453372</v>
       </c>
       <c r="AJ9">
-        <v>0.5246115219267654</v>
+        <v>1.125950320210943</v>
       </c>
       <c r="AK9">
-        <v>0.6098369854979886</v>
+        <v>0.6203146506698679</v>
       </c>
       <c r="AL9">
-        <v>0.3268491049560945</v>
+        <v>0.8170651911778137</v>
       </c>
       <c r="AM9">
-        <v>0.6030770607689852</v>
+        <v>0.8848515842094484</v>
       </c>
       <c r="AN9">
-        <v>0.3647597618425849</v>
+        <v>0.6667570379942892</v>
       </c>
       <c r="AO9">
-        <v>0.6971163710619644</v>
+        <v>0.8251077692656477</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1663,124 +1663,124 @@
         <v>49</v>
       </c>
       <c r="B10">
-        <v>0.6694938184338384</v>
+        <v>1.053014655985389</v>
       </c>
       <c r="C10">
-        <v>0.5485878816537626</v>
+        <v>0.8161830235413348</v>
       </c>
       <c r="D10">
-        <v>0.8123210728678413</v>
+        <v>1.398314239854037</v>
       </c>
       <c r="E10">
-        <v>0.6280732672265669</v>
+        <v>0.9675597316308023</v>
       </c>
       <c r="F10">
-        <v>0.4179462162953805</v>
+        <v>0.8128944032905848</v>
       </c>
       <c r="G10">
-        <v>0.0884531818756038</v>
+        <v>0.8795919970611523</v>
       </c>
       <c r="H10">
-        <v>0.5199345313575151</v>
+        <v>1.001107726210947</v>
       </c>
       <c r="I10">
-        <v>0.3607516976991781</v>
+        <v>0.7998200041467879</v>
       </c>
       <c r="J10">
-        <v>0.8565526167154963</v>
+        <v>0.7956504530431946</v>
       </c>
       <c r="K10">
-        <v>0.5371374960657512</v>
+        <v>0.7229640624928437</v>
       </c>
       <c r="L10">
-        <v>0.8522545979350582</v>
+        <v>0.7893677241538706</v>
       </c>
       <c r="M10">
-        <v>0.4603795050474341</v>
+        <v>0.8787913427061731</v>
       </c>
       <c r="N10">
-        <v>0.560280782972895</v>
+        <v>0.9106715174864183</v>
       </c>
       <c r="O10">
-        <v>0.5550193468197382</v>
+        <v>0.7197073765002118</v>
       </c>
       <c r="P10">
-        <v>0.5830409872685682</v>
+        <v>0.8033283689802041</v>
       </c>
       <c r="Q10">
-        <v>0.5694716015853735</v>
+        <v>0.8298143132118174</v>
       </c>
       <c r="R10">
-        <v>0.7474701433123321</v>
+        <v>0.8304778185354716</v>
       </c>
       <c r="S10">
-        <v>0.7627326398002157</v>
+        <v>0.6960404434572557</v>
       </c>
       <c r="T10">
-        <v>0.357973139578879</v>
+        <v>0.8049242120518081</v>
       </c>
       <c r="U10">
-        <v>0.5402733567432186</v>
+        <v>0.8737540725898802</v>
       </c>
       <c r="V10">
-        <v>0.5303771591200943</v>
+        <v>0.8278437124933057</v>
       </c>
       <c r="W10">
-        <v>0.6115722111443278</v>
+        <v>0.8753456455743114</v>
       </c>
       <c r="X10">
-        <v>0.4230692521697553</v>
+        <v>0.7165231248177808</v>
       </c>
       <c r="Y10">
-        <v>0.4888946133510442</v>
+        <v>0.6679870771904292</v>
       </c>
       <c r="Z10">
-        <v>0.3438847530429224</v>
+        <v>0.7635724241542052</v>
       </c>
       <c r="AA10">
-        <v>0.6520362232950471</v>
+        <v>0.8397963315343837</v>
       </c>
       <c r="AB10">
-        <v>0.4921883892557123</v>
+        <v>0.8001592832412994</v>
       </c>
       <c r="AC10">
-        <v>0.6222627561213647</v>
+        <v>0.8985189194000081</v>
       </c>
       <c r="AD10">
-        <v>0.5894822596060987</v>
+        <v>0.7155183953316001</v>
       </c>
       <c r="AE10">
-        <v>0.6519525683864984</v>
+        <v>0.5867852716868703</v>
       </c>
       <c r="AF10">
-        <v>0.5824542198137836</v>
+        <v>0.7278933957249863</v>
       </c>
       <c r="AG10">
-        <v>0.4430512612644157</v>
+        <v>0.8318250612739171</v>
       </c>
       <c r="AH10">
-        <v>0.5691216120884084</v>
+        <v>0.7072481203298457</v>
       </c>
       <c r="AI10">
-        <v>0.830152483533138</v>
+        <v>0.6369380267887969</v>
       </c>
       <c r="AJ10">
-        <v>0.5757575648603515</v>
+        <v>0.9563145893392931</v>
       </c>
       <c r="AK10">
-        <v>0.6464135186858554</v>
+        <v>0.5638661609384922</v>
       </c>
       <c r="AL10">
-        <v>0.3865097855779321</v>
+        <v>0.7000558645957311</v>
       </c>
       <c r="AM10">
-        <v>0.6124444250334985</v>
+        <v>0.6395846120006135</v>
       </c>
       <c r="AN10">
-        <v>0.3820008633267695</v>
+        <v>0.5280141836650135</v>
       </c>
       <c r="AO10">
-        <v>0.636943621476505</v>
+        <v>0.6593991979864672</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1788,124 +1788,124 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>0.4910542769200892</v>
+        <v>1.231112903434412</v>
       </c>
       <c r="C11">
-        <v>0.3354892557506571</v>
+        <v>1.044853653223947</v>
       </c>
       <c r="D11">
-        <v>0.5935734955572853</v>
+        <v>1.460876065740592</v>
       </c>
       <c r="E11">
-        <v>0.3879465020153386</v>
+        <v>1.176110296073387</v>
       </c>
       <c r="F11">
-        <v>0.277938321569128</v>
+        <v>1.046955797486006</v>
       </c>
       <c r="G11">
-        <v>0.02627681367548803</v>
+        <v>0.9706402571864228</v>
       </c>
       <c r="H11">
-        <v>0.3571211631882177</v>
+        <v>1.115316244818907</v>
       </c>
       <c r="I11">
-        <v>0.2206022761826187</v>
+        <v>1.019420331122898</v>
       </c>
       <c r="J11">
-        <v>0.6526416115372196</v>
+        <v>1.066157794726991</v>
       </c>
       <c r="K11">
-        <v>0.4184998339019975</v>
+        <v>0.9754845569244583</v>
       </c>
       <c r="L11">
-        <v>0.6258094354422101</v>
+        <v>0.9571615311453272</v>
       </c>
       <c r="M11">
-        <v>0.2962950130561969</v>
+        <v>0.9574210337112833</v>
       </c>
       <c r="N11">
-        <v>0.3712187198494659</v>
+        <v>0.9909521972930289</v>
       </c>
       <c r="O11">
-        <v>0.3750527785740684</v>
+        <v>0.9184471134251401</v>
       </c>
       <c r="P11">
-        <v>0.3911521138438481</v>
+        <v>1.013962074343296</v>
       </c>
       <c r="Q11">
-        <v>0.3840708302936692</v>
+        <v>1.025858639757146</v>
       </c>
       <c r="R11">
-        <v>0.5384860916654104</v>
+        <v>0.9885064587069555</v>
       </c>
       <c r="S11">
-        <v>0.528780049226552</v>
+        <v>0.9117610148133738</v>
       </c>
       <c r="T11">
-        <v>0.1968061957243625</v>
+        <v>0.991993127497391</v>
       </c>
       <c r="U11">
-        <v>0.3914652984129276</v>
+        <v>1.004332722644562</v>
       </c>
       <c r="V11">
-        <v>0.3496352881541191</v>
+        <v>0.9427182655773572</v>
       </c>
       <c r="W11">
-        <v>0.4245385170141464</v>
+        <v>0.8778306838091036</v>
       </c>
       <c r="X11">
-        <v>0.3327109386318038</v>
+        <v>0.878581862558991</v>
       </c>
       <c r="Y11">
-        <v>0.2956506928049797</v>
+        <v>0.8825188375147219</v>
       </c>
       <c r="Z11">
-        <v>0.1446669284005499</v>
+        <v>0.8813653132728241</v>
       </c>
       <c r="AA11">
-        <v>0.4396377062907815</v>
+        <v>1.039875864633277</v>
       </c>
       <c r="AB11">
-        <v>0.33709840304536</v>
+        <v>0.9000179601390625</v>
       </c>
       <c r="AC11">
-        <v>0.4251249934110632</v>
+        <v>1.123264949849784</v>
       </c>
       <c r="AD11">
-        <v>0.407233341528671</v>
+        <v>0.8481476738277415</v>
       </c>
       <c r="AE11">
-        <v>0.4559728944491283</v>
+        <v>0.8132912825638599</v>
       </c>
       <c r="AF11">
-        <v>0.3431751645357194</v>
+        <v>0.9144896294001539</v>
       </c>
       <c r="AG11">
-        <v>0.2891475304284246</v>
+        <v>1.000115110354609</v>
       </c>
       <c r="AH11">
-        <v>0.4578430436435976</v>
+        <v>0.8838334329655193</v>
       </c>
       <c r="AI11">
-        <v>0.6294728448877042</v>
+        <v>0.8088861695898766</v>
       </c>
       <c r="AJ11">
-        <v>0.3778292173420573</v>
+        <v>1.133913950465024</v>
       </c>
       <c r="AK11">
-        <v>0.4365344398491665</v>
+        <v>0.6715819185316234</v>
       </c>
       <c r="AL11">
-        <v>0.2283058640987968</v>
+        <v>0.7922019906062343</v>
       </c>
       <c r="AM11">
-        <v>0.4292492531810845</v>
+        <v>0.8402321688459884</v>
       </c>
       <c r="AN11">
-        <v>0.255619578054757</v>
+        <v>0.7082394562044709</v>
       </c>
       <c r="AO11">
-        <v>0.5221816981416254</v>
+        <v>0.8189660472918151</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1913,124 +1913,124 @@
         <v>51</v>
       </c>
       <c r="B12">
-        <v>0.5523115912260166</v>
+        <v>1.2806918815259</v>
       </c>
       <c r="C12">
-        <v>0.47620912424523</v>
+        <v>1.149885021083527</v>
       </c>
       <c r="D12">
-        <v>0.6368819807272033</v>
+        <v>1.106766237772066</v>
       </c>
       <c r="E12">
-        <v>0.5173137305663499</v>
+        <v>1.263020595280837</v>
       </c>
       <c r="F12">
-        <v>0.3178567044017073</v>
+        <v>1.227320343228898</v>
       </c>
       <c r="G12">
-        <v>0.02839862892319005</v>
+        <v>0.8575333923446978</v>
       </c>
       <c r="H12">
-        <v>0.402156943749487</v>
+        <v>1.001979268661466</v>
       </c>
       <c r="I12">
-        <v>0.2907482253015591</v>
+        <v>1.16887998844014</v>
       </c>
       <c r="J12">
-        <v>0.7260788915992733</v>
+        <v>1.386461072018533</v>
       </c>
       <c r="K12">
-        <v>0.4430220395559751</v>
+        <v>1.194888914979167</v>
       </c>
       <c r="L12">
-        <v>0.6827619521232745</v>
+        <v>0.9686388807736238</v>
       </c>
       <c r="M12">
-        <v>0.3520478451341423</v>
+        <v>0.8097005484829365</v>
       </c>
       <c r="N12">
-        <v>0.4663092430548192</v>
+        <v>0.8922726896201086</v>
       </c>
       <c r="O12">
-        <v>0.4595824380115714</v>
+        <v>0.9151468384922541</v>
       </c>
       <c r="P12">
-        <v>0.4529292864532807</v>
+        <v>1.07435174402083</v>
       </c>
       <c r="Q12">
-        <v>0.4320458249012543</v>
+        <v>1.063804314174092</v>
       </c>
       <c r="R12">
-        <v>0.6069365093051539</v>
+        <v>1.009713114772333</v>
       </c>
       <c r="S12">
-        <v>0.5935606396029687</v>
+        <v>1.018536971094601</v>
       </c>
       <c r="T12">
-        <v>0.3047151896740917</v>
+        <v>1.128090142305961</v>
       </c>
       <c r="U12">
-        <v>0.4011197268196834</v>
+        <v>0.9556881071526652</v>
       </c>
       <c r="V12">
-        <v>0.4369305449942161</v>
+        <v>0.9657893981464907</v>
       </c>
       <c r="W12">
-        <v>0.4579342380669637</v>
+        <v>0.5085519738188006</v>
       </c>
       <c r="X12">
-        <v>0.3678054759757016</v>
+        <v>0.9695743971218386</v>
       </c>
       <c r="Y12">
-        <v>0.3782202560247271</v>
+        <v>1.013560870802717</v>
       </c>
       <c r="Z12">
-        <v>0.2594980644882766</v>
+        <v>0.9137237539909667</v>
       </c>
       <c r="AA12">
-        <v>0.5656678248813284</v>
+        <v>1.070853924680392</v>
       </c>
       <c r="AB12">
-        <v>0.3921761798248201</v>
+        <v>0.7487809570996017</v>
       </c>
       <c r="AC12">
-        <v>0.4851572682452883</v>
+        <v>1.392447727581756</v>
       </c>
       <c r="AD12">
-        <v>0.4987360926764289</v>
+        <v>0.8852997378444653</v>
       </c>
       <c r="AE12">
-        <v>0.5196767723304189</v>
+        <v>1.169255651340496</v>
       </c>
       <c r="AF12">
-        <v>0.4551320101678385</v>
+        <v>1.011430718629728</v>
       </c>
       <c r="AG12">
-        <v>0.3236007626019942</v>
+        <v>1.000653032499378</v>
       </c>
       <c r="AH12">
-        <v>0.4728723390659983</v>
+        <v>0.9502868426654431</v>
       </c>
       <c r="AI12">
-        <v>0.6121932223205124</v>
+        <v>0.8181239198942902</v>
       </c>
       <c r="AJ12">
-        <v>0.4722218557971694</v>
+        <v>1.159101528401395</v>
       </c>
       <c r="AK12">
-        <v>0.5037935337993811</v>
+        <v>0.6222054709874214</v>
       </c>
       <c r="AL12">
-        <v>0.2988528964584396</v>
+        <v>0.8072668472920005</v>
       </c>
       <c r="AM12">
-        <v>0.4486574751736774</v>
+        <v>1.092913905642227</v>
       </c>
       <c r="AN12">
-        <v>0.2682015343628497</v>
+        <v>0.8359897385697748</v>
       </c>
       <c r="AO12">
-        <v>0.5449958226273972</v>
+        <v>0.9585645603244993</v>
       </c>
     </row>
   </sheetData>
